--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -1131,7 +1131,7 @@
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
         </is>
       </c>
     </row>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -64,6 +64,19 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
+      <color rgb="FFC9211E"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <color rgb="FFC9211E"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="6"/>
     </font>
@@ -101,7 +114,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -132,6 +145,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -160,6 +176,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,70 +190,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -531,3254 +542,3294 @@
   </sheetPr>
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="F19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="15.98" customWidth="1" style="10" min="1" max="1"/>
-    <col width="22.43" customWidth="1" style="11" min="2" max="2"/>
-    <col width="17.15" customWidth="1" style="10" min="3" max="3"/>
-    <col width="15.29" customWidth="1" style="10" min="4" max="5"/>
-    <col width="49.72" customWidth="1" style="11" min="6" max="6"/>
-    <col width="54.43" customWidth="1" style="11" min="7" max="7"/>
-    <col width="66.37" customWidth="1" style="11" min="8" max="8"/>
+    <col width="15.98" customWidth="1" style="11" min="1" max="1"/>
+    <col width="22.43" customWidth="1" style="12" min="2" max="2"/>
+    <col width="17.15" customWidth="1" style="11" min="3" max="3"/>
+    <col width="15.29" customWidth="1" style="11" min="4" max="5"/>
+    <col width="26.7" customWidth="1" style="12" min="6" max="6"/>
+    <col width="54.43" customWidth="1" style="12" min="7" max="7"/>
+    <col width="66.37" customWidth="1" style="12" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="12">
-      <c r="A1" s="13" t="inlineStr">
+    <row r="1" ht="21.75" customHeight="1" s="13">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>钱包地址</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>随机密码</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
-        <is>
-          <t>邮箱已注册?</t>
-        </is>
-      </c>
-      <c r="E1" s="14" t="inlineStr">
-        <is>
-          <t>已提交表单?</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
+        <is>
+          <t>找到resent激活链接?</t>
+        </is>
+      </c>
+      <c r="E1" s="15" t="inlineStr">
+        <is>
+          <t>点击了激活?</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Week 1 NFT已领？</t>
         </is>
       </c>
-      <c r="G1" s="13" t="inlineStr">
+      <c r="G1" s="14" t="inlineStr">
         <is>
           <t>完整 IPFS Json_CID</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="16" t="inlineStr">
         <is>
           <t>https填入到小狐狸</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" s="12">
-      <c r="A2" s="16" t="inlineStr">
+    <row r="2" ht="16.5" customHeight="1" s="13">
+      <c r="A2" s="17" t="inlineStr">
         <is>
           <t>0x02662179a7f9c9d5107690bf3725a75e0eb00041</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B2" s="18" t="inlineStr">
         <is>
           <t>linkguopeng@gmail.com</t>
         </is>
       </c>
-      <c r="C2" s="18" t="n"/>
-      <c r="D2" s="10" t="inlineStr">
+      <c r="C2" s="19" t="n"/>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>Y红色是测试用</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="G2" s="18" t="inlineStr">
+        <is>
+          <t>QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="13">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>0x77d9023bf64a306612180451a00a5f5e3142b036</t>
+        </is>
+      </c>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>mcharlson29@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>23498ji234</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G2" s="17" t="inlineStr">
-        <is>
-          <t>QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" s="12">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t>0x77d9023bf64a306612180451a00a5f5e3142b036</t>
-        </is>
-      </c>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>mcharlson29@gmail.com</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>23498ji234</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
+      <c r="G3" s="18" t="inlineStr">
+        <is>
+          <t>QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="13">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>0xf5ddc19afacca35d0f4533d48dd876f651542e9d</t>
+        </is>
+      </c>
+      <c r="B4" s="18" t="inlineStr">
+        <is>
+          <t>mpass7289@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>kjgkuy8769</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G3" s="17" t="inlineStr">
-        <is>
-          <t>QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" s="12">
-      <c r="A4" s="16" t="inlineStr">
-        <is>
-          <t>0xf5ddc19afacca35d0f4533d48dd876f651542e9d</t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="inlineStr">
-        <is>
-          <t>mpass7289@gmail.com</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>kjgkuy8769</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="G4" s="18" t="inlineStr">
+        <is>
+          <t>QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="13">
+      <c r="A5" s="17" t="inlineStr">
+        <is>
+          <t>0x8cab4ce0d6fe819ddbf3e371031bf61bb606dfc8</t>
+        </is>
+      </c>
+      <c r="B5" s="18" t="inlineStr">
+        <is>
+          <t>angelfreeman495@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>cht32489</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G4" s="17" t="inlineStr">
-        <is>
-          <t>QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" s="12">
-      <c r="A5" s="16" t="inlineStr">
-        <is>
-          <t>0x8cab4ce0d6fe819ddbf3e371031bf61bb606dfc8</t>
-        </is>
-      </c>
-      <c r="B5" s="17" t="inlineStr">
-        <is>
-          <t>angelfreeman495@gmail.com</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>cht32489</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="G5" s="18" t="inlineStr">
+        <is>
+          <t>QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" s="13">
+      <c r="A6" s="17" t="inlineStr">
+        <is>
+          <t>0xc62ea2653b4b60081a2802bd65b01f65b64f79be</t>
+        </is>
+      </c>
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>croftoonsheila73@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>hHy5DTHxy&amp;</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G5" s="17" t="inlineStr">
-        <is>
-          <t>QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" s="12">
-      <c r="A6" s="16" t="inlineStr">
-        <is>
-          <t>0xc62ea2653b4b60081a2802bd65b01f65b64f79be</t>
-        </is>
-      </c>
-      <c r="B6" s="17" t="inlineStr">
-        <is>
-          <t>croftoonsheila73@gmail.com</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>hHy5DTHxy&amp;</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="13">
+      <c r="A7" s="17" t="inlineStr">
+        <is>
+          <t>0x4325005407ca2c4638e637fd2c98594f7c8a4d48</t>
+        </is>
+      </c>
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>ritagrrsn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>2e)Z5QCaU%</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" s="12">
-      <c r="A7" s="16" t="inlineStr">
-        <is>
-          <t>0x4325005407ca2c4638e637fd2c98594f7c8a4d48</t>
-        </is>
-      </c>
-      <c r="B7" s="17" t="inlineStr">
-        <is>
-          <t>ritagrrsn@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>2e)Z5QCaU%</t>
-        </is>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
+      <c r="H7" s="18" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" s="13">
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>0x261147a248d0849ec4fbda5130fc7c01647ec6ee</t>
+        </is>
+      </c>
+      <c r="B8" s="18" t="inlineStr">
+        <is>
+          <t>AlexandraMathews6713@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>sHtMKn1d_2</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H7" s="17" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" s="12">
-      <c r="A8" s="16" t="inlineStr">
-        <is>
-          <t>0x261147a248d0849ec4fbda5130fc7c01647ec6ee</t>
-        </is>
-      </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>AlexandraMathews6713@gmail.com</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>sHtMKn1d_2</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
+      <c r="H8" s="18" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="13">
+      <c r="A9" s="17" t="inlineStr">
+        <is>
+          <t>0xfa4771750904470939ed910747617f071750d334</t>
+        </is>
+      </c>
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>EdwardMiller6883@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="inlineStr">
+        <is>
+          <t>l6iJL5Ye^Q</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
+    </row>
+    <row r="10" ht="16.5" customHeight="1" s="13">
+      <c r="A10" s="17" t="inlineStr">
+        <is>
+          <t>0xbe2952c51f90c96b1b075bc3f57af1fc84381b50</t>
+        </is>
+      </c>
+      <c r="B10" s="18" t="inlineStr">
+        <is>
+          <t>AnitaSmith6459@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>(jHDLmhSl1</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="12">
-      <c r="A9" s="16" t="inlineStr">
-        <is>
-          <t>0xfa4771750904470939ed910747617f071750d334</t>
-        </is>
-      </c>
-      <c r="B9" s="17" t="inlineStr">
-        <is>
-          <t>EdwardMiller6883@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <t>l6iJL5Ye^Q</t>
-        </is>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
+    <row r="11" ht="16.5" customHeight="1" s="13">
+      <c r="A11" s="17" t="inlineStr">
+        <is>
+          <t>0x3e3d04141394dcd356f99919dd1528a76cfedd73</t>
+        </is>
+      </c>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>nshorter236@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>+8cgQPlw*A</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" s="12">
-      <c r="A10" s="16" t="inlineStr">
-        <is>
-          <t>0xbe2952c51f90c96b1b075bc3f57af1fc84381b50</t>
-        </is>
-      </c>
-      <c r="B10" s="17" t="inlineStr">
-        <is>
-          <t>AnitaSmith6459@gmail.com</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>(jHDLmhSl1</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" s="13">
+      <c r="A12" s="17" t="inlineStr">
+        <is>
+          <t>0x830a542642a936176fa558219a51f8f1bbd5a444</t>
+        </is>
+      </c>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>leonarsdonovan@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>&amp;1bCgi4s+2</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" s="12">
-      <c r="A11" s="16" t="inlineStr">
-        <is>
-          <t>0x3e3d04141394dcd356f99919dd1528a76cfedd73</t>
-        </is>
-      </c>
-      <c r="B11" s="17" t="inlineStr">
-        <is>
-          <t>nshorter236@gmail.com</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>+8cgQPlw*A</t>
-        </is>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
+    </row>
+    <row r="13" ht="16.5" customHeight="1" s="13">
+      <c r="A13" s="17" t="inlineStr">
+        <is>
+          <t>0x5a4934cfa415f0a5fe5c2a176f5b9476f59257c8</t>
+        </is>
+      </c>
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t>holidayj775@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>%w3w4Y#f4I</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="16.5" customHeight="1" s="12">
-      <c r="A12" s="16" t="inlineStr">
-        <is>
-          <t>0x830a542642a936176fa558219a51f8f1bbd5a444</t>
-        </is>
-      </c>
-      <c r="B12" s="17" t="inlineStr">
-        <is>
-          <t>leonarsdonovan@gmail.com</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>&amp;1bCgi4s+2</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
+      <c r="H13" s="12" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" s="13">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>0x7a6810eda940e07b9b979c02af67dd2e6fbdea01</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="inlineStr">
+        <is>
+          <t>macduffm99@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="inlineStr">
+        <is>
+          <t>!K!&amp;fBqQ0l</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" s="12">
-      <c r="A13" s="16" t="inlineStr">
-        <is>
-          <t>0x5a4934cfa415f0a5fe5c2a176f5b9476f59257c8</t>
-        </is>
-      </c>
-      <c r="B13" s="17" t="inlineStr">
-        <is>
-          <t>holidayj775@gmail.com</t>
-        </is>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>%w3w4Y#f4I</t>
-        </is>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="H14" s="12" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" s="13">
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>0x90f5593b4faf3ff4fee7468110b4196109e13c23</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="inlineStr">
+        <is>
+          <t>owenlwn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>2rCg0JC$^o</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="1" s="12">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>0x7a6810eda940e07b9b979c02af67dd2e6fbdea01</t>
-        </is>
-      </c>
-      <c r="B14" s="17" t="inlineStr">
-        <is>
-          <t>macduffm99@gmail.com</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>!K!&amp;fBqQ0l</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
+    </row>
+    <row r="16" ht="16.5" customHeight="1" s="13">
+      <c r="A16" s="17" t="inlineStr">
+        <is>
+          <t>0x5bf23d262f9827e48a772f828c462f48fd6b0045</t>
+        </is>
+      </c>
+      <c r="B16" s="18" t="inlineStr">
+        <is>
+          <t>dwifkinson6@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="inlineStr">
+        <is>
+          <t>^nt#1We68F</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1" s="12">
-      <c r="A15" s="16" t="inlineStr">
-        <is>
-          <t>0x90f5593b4faf3ff4fee7468110b4196109e13c23</t>
-        </is>
-      </c>
-      <c r="B15" s="17" t="inlineStr">
-        <is>
-          <t>owenlwn@gmail.com</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>2rCg0JC$^o</t>
-        </is>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
+    </row>
+    <row r="17" ht="16.5" customHeight="1" s="13">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>0x07b75bd161e4b5bf62cced1039c1b697a3c1bf48</t>
+        </is>
+      </c>
+      <c r="B17" s="18" t="inlineStr">
+        <is>
+          <t>macduffdavid61@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>H)GPF9Cpy*</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" s="13">
+      <c r="A18" s="17" t="inlineStr">
+        <is>
+          <t>0x99263cb51ba4b79008819b17b5e3b0d021769e21</t>
+        </is>
+      </c>
+      <c r="B18" s="18" t="inlineStr">
+        <is>
+          <t>MichaelFreeman6075@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>sxm2QVj@$%</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-    </row>
-    <row r="16" ht="16.5" customHeight="1" s="12">
-      <c r="A16" s="16" t="inlineStr">
-        <is>
-          <t>0x5bf23d262f9827e48a772f828c462f48fd6b0045</t>
-        </is>
-      </c>
-      <c r="B16" s="17" t="inlineStr">
-        <is>
-          <t>dwifkinson6@gmail.com</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>^nt#1We68F</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
+      <c r="H18" s="12" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" s="13">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>0x0a509720f3a7f13e2d869f7be85ac858fa2010b3</t>
+        </is>
+      </c>
+      <c r="B19" s="18" t="inlineStr">
+        <is>
+          <t>juliawinter964@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="inlineStr">
+        <is>
+          <t>TCkSeOuw*1</t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" s="12">
-      <c r="A17" s="16" t="inlineStr">
-        <is>
-          <t>0x07b75bd161e4b5bf62cced1039c1b697a3c1bf48</t>
-        </is>
-      </c>
-      <c r="B17" s="17" t="inlineStr">
-        <is>
-          <t>macduffdavid61@gmail.com</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>H)GPF9Cpy*</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1" s="12">
-      <c r="A18" s="16" t="inlineStr">
-        <is>
-          <t>0x99263cb51ba4b79008819b17b5e3b0d021769e21</t>
-        </is>
-      </c>
-      <c r="B18" s="17" t="inlineStr">
-        <is>
-          <t>MichaelFreeman6075@gmail.com</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>sxm2QVj@$%</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="16.5" customHeight="1" s="12">
-      <c r="A19" s="16" t="inlineStr">
-        <is>
-          <t>0x0a509720f3a7f13e2d869f7be85ac858fa2010b3</t>
-        </is>
-      </c>
-      <c r="B19" s="17" t="inlineStr">
-        <is>
-          <t>juliawinter964@gmail.com</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>TCkSeOuw*1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" s="12">
-      <c r="A20" s="16" t="inlineStr">
+    <row r="20" ht="16.5" customHeight="1" s="13">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>0xfba900dac833dcca5add483c11e2aec9ed7ad2b5</t>
         </is>
       </c>
-      <c r="B20" s="17" t="inlineStr">
+      <c r="B20" s="18" t="inlineStr">
         <is>
           <t>adrianwalter085@gmail.com</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>_28R&amp;pqzPr</t>
         </is>
       </c>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmYxhRXCp7SBiBLWfp6msrwG5fwyukV5q7jFnnoLD1b5XU</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" s="12">
-      <c r="A21" s="16" t="inlineStr">
+    <row r="21" ht="16.5" customHeight="1" s="13">
+      <c r="A21" s="17" t="inlineStr">
         <is>
           <t>0x06789b91f1451b06eb7de842409a5d781349ff35</t>
         </is>
       </c>
-      <c r="B21" s="17" t="inlineStr">
+      <c r="B21" s="18" t="inlineStr">
         <is>
           <t>destinybawerman270@gmail.com</t>
         </is>
       </c>
-      <c r="C21" s="10" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>#sHL*HuB&amp;2</t>
         </is>
       </c>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G21" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" s="12">
-      <c r="A22" s="16" t="inlineStr">
+    <row r="22" ht="16.5" customHeight="1" s="13">
+      <c r="A22" s="17" t="inlineStr">
         <is>
           <t>0x6945260086bf76504306c735344abec516c5f2f2</t>
         </is>
       </c>
-      <c r="B22" s="17" t="inlineStr">
+      <c r="B22" s="18" t="inlineStr">
         <is>
           <t>dysonjames662@gmail.com</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>(zz%Y^hjO2</t>
         </is>
       </c>
-      <c r="G22" s="11" t="inlineStr">
+      <c r="G22" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmcbihzC3yb3aeHqHsQicf44rL4zn3GcPLuz7RjQppmYJT</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1" s="12">
-      <c r="A23" s="16" t="inlineStr">
+    <row r="23" ht="16.5" customHeight="1" s="13">
+      <c r="A23" s="17" t="inlineStr">
         <is>
           <t>0x5664a523839be49ba831898ecc825987cdaa4d6e</t>
         </is>
       </c>
-      <c r="B23" s="17" t="inlineStr">
+      <c r="B23" s="18" t="inlineStr">
         <is>
           <t>antoniogustman7@gmail.com</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>vgWvDb!L&amp;8</t>
         </is>
       </c>
-      <c r="G23" s="11" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E23" s="12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G23" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1" s="12">
-      <c r="A24" s="16" t="inlineStr">
+    <row r="24" ht="16.5" customHeight="1" s="13">
+      <c r="A24" s="17" t="inlineStr">
         <is>
           <t>0x8e92b134ec476b2637a7d5b9b9beb47a55e4669a</t>
         </is>
       </c>
-      <c r="B24" s="17" t="inlineStr">
+      <c r="B24" s="18" t="inlineStr">
         <is>
           <t>marshmanj148@gmail.com</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>%#+8E*V!xi</t>
         </is>
       </c>
-      <c r="G24" s="11" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1" s="12">
-      <c r="A25" s="16" t="inlineStr">
+    <row r="25" ht="16.5" customHeight="1" s="13">
+      <c r="A25" s="17" t="inlineStr">
         <is>
           <t>0x53bb214f5f22f80b6597d19b4d2a47156300b3c3</t>
         </is>
       </c>
-      <c r="B25" s="17" t="inlineStr">
+      <c r="B25" s="18" t="inlineStr">
         <is>
           <t>tclapton3@gmail.com</t>
         </is>
       </c>
-      <c r="C25" s="10" t="inlineStr">
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>Jw1GJl!U$$</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr">
+      <c r="G25" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1" s="12">
-      <c r="A26" s="16" t="inlineStr">
+    <row r="26" ht="16.5" customHeight="1" s="13">
+      <c r="A26" s="17" t="inlineStr">
         <is>
           <t>0xd243188352ed7358606e3367a0df9de846fbc0bd</t>
         </is>
       </c>
-      <c r="B26" s="17" t="inlineStr">
+      <c r="B26" s="18" t="inlineStr">
         <is>
           <t>pass51428@gmail.com</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>A6ZMYDMq!s</t>
         </is>
       </c>
-      <c r="G26" s="11" t="inlineStr">
+      <c r="G26" s="12" t="inlineStr">
         <is>
           <t>ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" s="12">
-      <c r="A27" s="16" t="inlineStr">
+    <row r="27" ht="16.5" customHeight="1" s="13">
+      <c r="A27" s="17" t="inlineStr">
         <is>
           <t>0x08dff33cb05e1bd59dfd09ccedc7980496994f48</t>
         </is>
       </c>
-      <c r="B27" s="17" t="inlineStr">
+      <c r="B27" s="18" t="inlineStr">
         <is>
           <t>mathewsbernard57@gmail.com</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>(Hh55ZTmw5</t>
         </is>
       </c>
-      <c r="G27" s="11" t="inlineStr">
+      <c r="G27" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.4" customHeight="1" s="12">
-      <c r="A28" s="16" t="inlineStr">
+    <row r="28" ht="12.4" customHeight="1" s="13">
+      <c r="A28" s="17" t="inlineStr">
         <is>
           <t>0x9636d8d24e64878f2f22e29a3bca42ecec08af56</t>
         </is>
       </c>
-      <c r="B28" s="17" t="inlineStr">
+      <c r="B28" s="18" t="inlineStr">
         <is>
           <t>joshuabawerman@gmail.com</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>H!8o2LtCzL</t>
         </is>
       </c>
-      <c r="G28" s="11" t="inlineStr">
+      <c r="G28" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.4" customHeight="1" s="12">
-      <c r="A29" s="16" t="inlineStr">
+    <row r="29" ht="12.4" customHeight="1" s="13">
+      <c r="A29" s="17" t="inlineStr">
         <is>
           <t>0x4b1150db6788a20d1609847f88d3751a97bc6438</t>
         </is>
       </c>
-      <c r="B29" s="17" t="inlineStr">
+      <c r="B29" s="18" t="inlineStr">
         <is>
           <t>cdunce0@gmail.com</t>
         </is>
       </c>
-      <c r="C29" s="10" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>R*8Cr6ttvH</t>
         </is>
       </c>
-      <c r="G29" s="11" t="inlineStr">
+      <c r="G29" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="12.4" customHeight="1" s="12">
-      <c r="A30" s="16" t="inlineStr">
+    <row r="30" ht="12.4" customHeight="1" s="13">
+      <c r="A30" s="17" t="inlineStr">
         <is>
           <t>0x2783e12c7bb563c18134a6e916de5878a1a73e75</t>
         </is>
       </c>
-      <c r="B30" s="17" t="inlineStr">
+      <c r="B30" s="18" t="inlineStr">
         <is>
           <t>annbarrington216@gmail.com</t>
         </is>
       </c>
-      <c r="C30" s="10" t="inlineStr">
+      <c r="C30" s="11" t="inlineStr">
         <is>
           <t>24TdrHBh%R</t>
         </is>
       </c>
-      <c r="G30" s="11" t="inlineStr">
+      <c r="G30" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.4" customHeight="1" s="12">
-      <c r="A31" s="16" t="inlineStr">
+    <row r="31" ht="12.4" customHeight="1" s="13">
+      <c r="A31" s="17" t="inlineStr">
         <is>
           <t>0x635792167ed832dc93deffcc6544335d41c75349</t>
         </is>
       </c>
-      <c r="B31" s="17" t="inlineStr">
+      <c r="B31" s="18" t="inlineStr">
         <is>
           <t>sierrabootman@gmail.com</t>
         </is>
       </c>
-      <c r="C31" s="10" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>W5*+1RqXMV</t>
         </is>
       </c>
-      <c r="G31" s="11" t="inlineStr">
+      <c r="G31" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.4" customHeight="1" s="12">
-      <c r="A32" s="16" t="inlineStr">
+    <row r="32" ht="12.4" customHeight="1" s="13">
+      <c r="A32" s="17" t="inlineStr">
         <is>
           <t>0xc3246a1daa2cfacaa5be4dd3f10c392d40388cc1</t>
         </is>
       </c>
-      <c r="B32" s="17" t="inlineStr">
+      <c r="B32" s="18" t="inlineStr">
         <is>
           <t>jbarrington799@gmail.com</t>
         </is>
       </c>
-      <c r="C32" s="10" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>98XUFqAq!L</t>
         </is>
       </c>
-      <c r="G32" s="11" t="inlineStr">
+      <c r="G32" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.4" customHeight="1" s="12">
-      <c r="A33" s="16" t="inlineStr">
+    <row r="33" ht="12.4" customHeight="1" s="13">
+      <c r="A33" s="17" t="inlineStr">
         <is>
           <t>0x6af85ab80a9b42b309ad3ce431e4317d5e3b06da</t>
         </is>
       </c>
-      <c r="B33" s="17" t="inlineStr">
+      <c r="B33" s="18" t="inlineStr">
         <is>
           <t>GeorgeStanley6726@gmail.com</t>
         </is>
       </c>
-      <c r="C33" s="10" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>W_3IAnh5A*</t>
         </is>
       </c>
-      <c r="G33" s="11" t="inlineStr">
+      <c r="G33" s="12" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.4" customHeight="1" s="12">
-      <c r="A34" s="16" t="inlineStr">
+    <row r="34" ht="12.4" customHeight="1" s="13">
+      <c r="A34" s="17" t="inlineStr">
         <is>
           <t>0x1617cdd435f3d5514f3afb3850105c113ee828eb</t>
         </is>
       </c>
-      <c r="B34" s="17" t="inlineStr">
+      <c r="B34" s="18" t="inlineStr">
         <is>
           <t>hamphreyjohn77@gmail.com</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>niv(J8TueC</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.4" customHeight="1" s="12">
-      <c r="A35" s="16" t="inlineStr">
+    <row r="35" ht="12.4" customHeight="1" s="13">
+      <c r="A35" s="17" t="inlineStr">
         <is>
           <t>0xa1bd20d1110abbc03db80701b484f207fc2831c0</t>
         </is>
       </c>
-      <c r="B35" s="17" t="inlineStr">
+      <c r="B35" s="18" t="inlineStr">
         <is>
           <t>cameronbosworth165@gmail.com</t>
         </is>
       </c>
-      <c r="C35" s="10" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>#j2o%ZIyo+</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.4" customHeight="1" s="12">
-      <c r="A36" s="16" t="inlineStr">
+    <row r="36" ht="12.4" customHeight="1" s="13">
+      <c r="A36" s="17" t="inlineStr">
         <is>
           <t>0x8a7a7cbac6f6f8b71666c08e439d1ef107b67231</t>
         </is>
       </c>
-      <c r="B36" s="17" t="inlineStr">
+      <c r="B36" s="18" t="inlineStr">
         <is>
           <t>carringtonsean2@gmail.com</t>
         </is>
       </c>
-      <c r="C36" s="10" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>^JP*eWJr77</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.4" customHeight="1" s="12">
-      <c r="A37" s="16" t="inlineStr">
+    <row r="37" ht="12.4" customHeight="1" s="13">
+      <c r="A37" s="17" t="inlineStr">
         <is>
           <t>0x5e9f378752c7f060b048583ca0ef99d777d68d0c</t>
         </is>
       </c>
-      <c r="B37" s="17" t="inlineStr">
+      <c r="B37" s="18" t="inlineStr">
         <is>
           <t>vltarchibald@gmail.com</t>
         </is>
       </c>
-      <c r="C37" s="10" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>&amp;#7XRHdb$E</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.4" customHeight="1" s="12">
-      <c r="A38" s="16" t="inlineStr">
+    <row r="38" ht="12.4" customHeight="1" s="13">
+      <c r="A38" s="17" t="inlineStr">
         <is>
           <t>0x5c647f190d5a2a5e4b2fddfaa6db09c66b7080d1</t>
         </is>
       </c>
-      <c r="B38" s="17" t="inlineStr">
+      <c r="B38" s="18" t="inlineStr">
         <is>
           <t>LindaGoodman9356@gmail.com</t>
         </is>
       </c>
-      <c r="C38" s="10" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>$S8CdfSO78</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.4" customHeight="1" s="12">
-      <c r="A39" s="16" t="inlineStr">
+    <row r="39" ht="12.4" customHeight="1" s="13">
+      <c r="A39" s="17" t="inlineStr">
         <is>
           <t>0xdf547d2e6bddd2aa15c4a696cd7492b20fddff04</t>
         </is>
       </c>
-      <c r="B39" s="17" t="inlineStr">
+      <c r="B39" s="18" t="inlineStr">
         <is>
           <t>fane6314@gmail.com</t>
         </is>
       </c>
-      <c r="C39" s="10" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>0)21TVEx(A</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.4" customHeight="1" s="12">
-      <c r="A40" s="16" t="inlineStr">
+    <row r="40" ht="12.4" customHeight="1" s="13">
+      <c r="A40" s="17" t="inlineStr">
         <is>
           <t>0x44f8f034e199fe15662329f42b52cc1c3988d136</t>
         </is>
       </c>
-      <c r="B40" s="17" t="inlineStr">
+      <c r="B40" s="18" t="inlineStr">
         <is>
           <t>lambertslandon40@gmail.com</t>
         </is>
       </c>
-      <c r="C40" s="10" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>g(Nt7uPr1C</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.4" customHeight="1" s="12">
-      <c r="A41" s="16" t="inlineStr">
+    <row r="41" ht="12.4" customHeight="1" s="13">
+      <c r="A41" s="17" t="inlineStr">
         <is>
           <t>0x45c5f259505113fc0dc2c77c77681cedcfc5b233</t>
         </is>
       </c>
-      <c r="B41" s="17" t="inlineStr">
+      <c r="B41" s="18" t="inlineStr">
         <is>
           <t>brickmanb619@gmail.com</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>_O_A5U_o$7</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.4" customHeight="1" s="12">
-      <c r="A42" s="16" t="inlineStr">
+    <row r="42" ht="12.4" customHeight="1" s="13">
+      <c r="A42" s="17" t="inlineStr">
         <is>
           <t>0x2e945850e28cd77bdcf9d3e4f484c9aaac86c091</t>
         </is>
       </c>
-      <c r="B42" s="17" t="inlineStr">
+      <c r="B42" s="18" t="inlineStr">
         <is>
           <t>passseth511@gmail.com</t>
         </is>
       </c>
-      <c r="C42" s="10" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>p(6sfSwvER</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.4" customHeight="1" s="12">
-      <c r="A43" s="16" t="inlineStr">
+    <row r="43" ht="12.4" customHeight="1" s="13">
+      <c r="A43" s="17" t="inlineStr">
         <is>
           <t>0x94187914510d1a9ff56d5b6ebf2ff21ac1062087</t>
         </is>
       </c>
-      <c r="B43" s="17" t="inlineStr">
+      <c r="B43" s="18" t="inlineStr">
         <is>
           <t>dflatcher726@gmail.com</t>
         </is>
       </c>
-      <c r="C43" s="10" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>*nn3IVWu9^</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.4" customHeight="1" s="12">
-      <c r="A44" s="16" t="inlineStr">
+    <row r="44" ht="12.4" customHeight="1" s="13">
+      <c r="A44" s="17" t="inlineStr">
         <is>
           <t>0xfbe5a91db70acf9818ff8db87a232b351e6a1da4</t>
         </is>
       </c>
-      <c r="B44" s="17" t="inlineStr">
+      <c r="B44" s="18" t="inlineStr">
         <is>
           <t>NicholasPhilips5725@gmail.com</t>
         </is>
       </c>
-      <c r="C44" s="10" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>$zIfnw_M86</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.4" customHeight="1" s="12">
-      <c r="A45" s="16" t="inlineStr">
+    <row r="45" ht="12.4" customHeight="1" s="13">
+      <c r="A45" s="17" t="inlineStr">
         <is>
           <t>0xebdeea026222b6c41141019013eb332a9c60f52b</t>
         </is>
       </c>
-      <c r="B45" s="17" t="inlineStr">
+      <c r="B45" s="18" t="inlineStr">
         <is>
           <t>margaretmarlow644@gmail.com</t>
         </is>
       </c>
-      <c r="C45" s="10" t="inlineStr">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>_8EsyEza#*</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.4" customHeight="1" s="12">
-      <c r="A46" s="16" t="inlineStr">
+    <row r="46" ht="12.4" customHeight="1" s="13">
+      <c r="A46" s="17" t="inlineStr">
         <is>
           <t>0x66a12f392f27ad4bb21ab8c17d951c84520f1d75</t>
         </is>
       </c>
-      <c r="B46" s="17" t="inlineStr">
+      <c r="B46" s="18" t="inlineStr">
         <is>
           <t>youmansj71@gmail.com</t>
         </is>
       </c>
-      <c r="C46" s="10" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>^J5$f*PbD2</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.4" customHeight="1" s="12">
-      <c r="A47" s="16" t="inlineStr">
+    <row r="47" ht="12.4" customHeight="1" s="13">
+      <c r="A47" s="17" t="inlineStr">
         <is>
           <t>0x1a2b12e60cb3a745f43817e4aac99742d610c1b0</t>
         </is>
       </c>
-      <c r="B47" s="17" t="inlineStr">
+      <c r="B47" s="18" t="inlineStr">
         <is>
           <t>alsoppluccile9@gmail.com</t>
         </is>
       </c>
-      <c r="C47" s="10" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>p9gaVG!q_c</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.4" customHeight="1" s="12">
-      <c r="A48" s="16" t="inlineStr">
+    <row r="48" ht="12.4" customHeight="1" s="13">
+      <c r="A48" s="17" t="inlineStr">
         <is>
           <t>0xf1147f8b03a4a09e3d7af5f2acb618ae36705e4a</t>
         </is>
       </c>
-      <c r="B48" s="17" t="inlineStr">
+      <c r="B48" s="18" t="inlineStr">
         <is>
           <t>jt4992705@gmail.com</t>
         </is>
       </c>
-      <c r="C48" s="10" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>F13dQS3u%Y</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.4" customHeight="1" s="12">
-      <c r="A49" s="16" t="inlineStr">
+    <row r="49" ht="12.4" customHeight="1" s="13">
+      <c r="A49" s="17" t="inlineStr">
         <is>
           <t>0xc7bbf906e86458b49d8b31d4fcfdbe1c3a55254c</t>
         </is>
       </c>
-      <c r="B49" s="17" t="inlineStr">
+      <c r="B49" s="18" t="inlineStr">
         <is>
           <t>oswaldantonio249@gmail.com</t>
         </is>
       </c>
-      <c r="C49" s="10" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>tH7WB9vps%</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.4" customHeight="1" s="12">
-      <c r="A50" s="16" t="inlineStr">
+    <row r="50" ht="12.4" customHeight="1" s="13">
+      <c r="A50" s="17" t="inlineStr">
         <is>
           <t>0xc4504e2e7fc7f7a41e39f6a2372ee469fa42438b</t>
         </is>
       </c>
-      <c r="B50" s="17" t="inlineStr">
+      <c r="B50" s="18" t="inlineStr">
         <is>
           <t>deborahdyson5@gmail.com</t>
         </is>
       </c>
-      <c r="C50" s="10" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Gh&amp;2EiNrH4</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.4" customHeight="1" s="12">
-      <c r="A51" s="16" t="inlineStr">
+    <row r="51" ht="12.4" customHeight="1" s="13">
+      <c r="A51" s="17" t="inlineStr">
         <is>
           <t>0xc15b3269d49afb9a63f4ac64221cdcb0ebe41f68</t>
         </is>
       </c>
-      <c r="B51" s="17" t="inlineStr">
+      <c r="B51" s="18" t="inlineStr">
         <is>
           <t>avac3936@gmail.com</t>
         </is>
       </c>
-      <c r="C51" s="10" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>EC@J6Epc1h</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.4" customHeight="1" s="12">
-      <c r="A52" s="19" t="inlineStr">
+    <row r="52" ht="12.4" customHeight="1" s="13">
+      <c r="A52" s="21" t="inlineStr">
         <is>
           <t>0x00ddf48b657323694409d4a6d7e6175df3f2e24c</t>
         </is>
       </c>
-      <c r="B52" s="17" t="inlineStr">
+      <c r="B52" s="18" t="inlineStr">
         <is>
           <t>fr7534003@gmail.com</t>
         </is>
       </c>
-      <c r="C52" s="10" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>hM3ZBOTw(8</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.4" customHeight="1" s="12">
-      <c r="A53" s="16" t="inlineStr">
+    <row r="53" ht="12.4" customHeight="1" s="13">
+      <c r="A53" s="17" t="inlineStr">
         <is>
           <t>0x0fc013436ecfa181f2994977f599da571b6fc88c</t>
         </is>
       </c>
-      <c r="B53" s="17" t="inlineStr">
+      <c r="B53" s="18" t="inlineStr">
         <is>
           <t>hannahralphs012@gmail.com</t>
         </is>
       </c>
-      <c r="C53" s="10" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>^dUSj7b43O</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.4" customHeight="1" s="12">
-      <c r="A54" s="16" t="inlineStr">
+    <row r="54" ht="12.4" customHeight="1" s="13">
+      <c r="A54" s="17" t="inlineStr">
         <is>
           <t>0x5403f46962b863751580550e404c7b6e0bec6644</t>
         </is>
       </c>
-      <c r="B54" s="17" t="inlineStr">
+      <c r="B54" s="18" t="inlineStr">
         <is>
           <t>sheldonmaria02@gmail.com</t>
         </is>
       </c>
-      <c r="C54" s="10" t="inlineStr">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>S_9v6OmbVg</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.4" customHeight="1" s="12">
-      <c r="A55" s="16" t="inlineStr">
+    <row r="55" ht="12.4" customHeight="1" s="13">
+      <c r="A55" s="17" t="inlineStr">
         <is>
           <t>0x4fe7c586c71c6b21f5d4a82f4d4fc02d8388848c</t>
         </is>
       </c>
-      <c r="B55" s="17" t="inlineStr">
+      <c r="B55" s="18" t="inlineStr">
         <is>
           <t>nymanclaire084@gmail.com</t>
         </is>
       </c>
-      <c r="C55" s="10" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>grfX%lR&amp;(8</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.4" customHeight="1" s="12">
-      <c r="A56" s="16" t="inlineStr">
+    <row r="56" ht="12.4" customHeight="1" s="13">
+      <c r="A56" s="17" t="inlineStr">
         <is>
           <t>0x91d6bff23f4e4ebd4f46a1456b19681b4444b338</t>
         </is>
       </c>
-      <c r="B56" s="17" t="inlineStr">
+      <c r="B56" s="18" t="inlineStr">
         <is>
           <t>taftbarbara034@gmail.com</t>
         </is>
       </c>
-      <c r="C56" s="10" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>m95&amp;1RML(7</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.4" customHeight="1" s="12">
-      <c r="A57" s="16" t="inlineStr">
+    <row r="57" ht="12.4" customHeight="1" s="13">
+      <c r="A57" s="17" t="inlineStr">
         <is>
           <t>0xeffbeb9ace834f8490271a1cdfd821e44bbea130</t>
         </is>
       </c>
-      <c r="B57" s="17" t="inlineStr">
+      <c r="B57" s="18" t="inlineStr">
         <is>
           <t>cartermiln578@gmail.com</t>
         </is>
       </c>
-      <c r="C57" s="10" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>Z^O64gY(9w</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.4" customHeight="1" s="12">
-      <c r="A58" s="16" t="inlineStr">
+    <row r="58" ht="12.4" customHeight="1" s="13">
+      <c r="A58" s="17" t="inlineStr">
         <is>
           <t>0x1f2f5bd41ccd36a45cdff1d6e9a6a39ed3860810</t>
         </is>
       </c>
-      <c r="B58" s="17" t="inlineStr">
+      <c r="B58" s="18" t="inlineStr">
         <is>
           <t>bt2389128@gmail.com</t>
         </is>
       </c>
-      <c r="C58" s="10" t="inlineStr">
+      <c r="C58" s="11" t="inlineStr">
         <is>
           <t>W9S5IQy3+^</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.4" customHeight="1" s="12">
-      <c r="A59" s="16" t="inlineStr">
+    <row r="59" ht="12.4" customHeight="1" s="13">
+      <c r="A59" s="17" t="inlineStr">
         <is>
           <t>0x7e09a169e6943fc793159573b2a7d5095ce1f8ef</t>
         </is>
       </c>
-      <c r="B59" s="17" t="inlineStr">
+      <c r="B59" s="18" t="inlineStr">
         <is>
           <t>bblomfield440@gmail.com</t>
         </is>
       </c>
-      <c r="C59" s="10" t="inlineStr">
+      <c r="C59" s="11" t="inlineStr">
         <is>
           <t>krV6LWtsg#</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.4" customHeight="1" s="12">
-      <c r="A60" s="16" t="inlineStr">
+    <row r="60" ht="12.4" customHeight="1" s="13">
+      <c r="A60" s="17" t="inlineStr">
         <is>
           <t>0x07fe4533077291d9211e8b6ee418c6bb973dfbc7</t>
         </is>
       </c>
-      <c r="B60" s="17" t="inlineStr">
+      <c r="B60" s="18" t="inlineStr">
         <is>
           <t>bbridjet4@gmail.com</t>
         </is>
       </c>
-      <c r="C60" s="10" t="inlineStr">
+      <c r="C60" s="11" t="inlineStr">
         <is>
           <t>*91VbDIxt9</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.4" customHeight="1" s="12">
-      <c r="A61" s="16" t="inlineStr">
+    <row r="61" ht="12.4" customHeight="1" s="13">
+      <c r="A61" s="17" t="inlineStr">
         <is>
           <t>0x74767cf992b5a033533121e920afed3ba7a272ab</t>
         </is>
       </c>
-      <c r="B61" s="17" t="inlineStr">
+      <c r="B61" s="18" t="inlineStr">
         <is>
           <t>kingsmaneric270@gmail.com</t>
         </is>
       </c>
-      <c r="C61" s="10" t="inlineStr">
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>qLf%zFlq!2</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.4" customHeight="1" s="12">
-      <c r="A62" s="16" t="inlineStr">
+    <row r="62" ht="12.4" customHeight="1" s="13">
+      <c r="A62" s="17" t="inlineStr">
         <is>
           <t>0x50aba257019f1ce87da905b9e10cbe9daa44b369</t>
         </is>
       </c>
-      <c r="B62" s="17" t="inlineStr">
+      <c r="B62" s="18" t="inlineStr">
         <is>
           <t>chandterlucy87@gmail.com</t>
         </is>
       </c>
-      <c r="C62" s="10" t="inlineStr">
+      <c r="C62" s="11" t="inlineStr">
         <is>
           <t>SDN&amp;07zxL+</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.4" customHeight="1" s="12">
-      <c r="A63" s="16" t="inlineStr">
+    <row r="63" ht="12.4" customHeight="1" s="13">
+      <c r="A63" s="17" t="inlineStr">
         <is>
           <t>0x95a0c4aab9dd190e0fc33cd4c97c9b346ffc2db2</t>
         </is>
       </c>
-      <c r="B63" s="17" t="inlineStr">
+      <c r="B63" s="18" t="inlineStr">
         <is>
           <t>bo609703@gmail.com</t>
         </is>
       </c>
-      <c r="C63" s="10" t="inlineStr">
+      <c r="C63" s="11" t="inlineStr">
         <is>
           <t>NRa4_9Bx67</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.4" customHeight="1" s="12">
-      <c r="A64" s="16" t="inlineStr">
+    <row r="64" ht="12.4" customHeight="1" s="13">
+      <c r="A64" s="17" t="inlineStr">
         <is>
           <t>0x0233c8fb7bf45b52553b1443e5cedbeae3715bf6</t>
         </is>
       </c>
-      <c r="B64" s="17" t="inlineStr">
+      <c r="B64" s="18" t="inlineStr">
         <is>
           <t>angelinaconors960@gmail.com</t>
         </is>
       </c>
-      <c r="C64" s="10" t="inlineStr">
+      <c r="C64" s="11" t="inlineStr">
         <is>
           <t>(V3HUmS7Vg</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.4" customHeight="1" s="12">
-      <c r="A65" s="16" t="inlineStr">
+    <row r="65" ht="12.4" customHeight="1" s="13">
+      <c r="A65" s="17" t="inlineStr">
         <is>
           <t>0xee7863bcd9fc8fe38f10f32b50c0ec9477d099ae</t>
         </is>
       </c>
-      <c r="B65" s="17" t="inlineStr">
+      <c r="B65" s="18" t="inlineStr">
         <is>
           <t>haleyelmers004@gmail.com</t>
         </is>
       </c>
-      <c r="C65" s="10" t="inlineStr">
+      <c r="C65" s="11" t="inlineStr">
         <is>
           <t>(A^b7Z(scz</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.4" customHeight="1" s="12">
-      <c r="A66" s="16" t="inlineStr">
+    <row r="66" ht="12.4" customHeight="1" s="13">
+      <c r="A66" s="17" t="inlineStr">
         <is>
           <t>0x8dcd0ee994e7cbff8497a5725e6f3c43c505c3b9</t>
         </is>
       </c>
-      <c r="B66" s="17" t="inlineStr">
+      <c r="B66" s="18" t="inlineStr">
         <is>
           <t>elmersj2@gmail.com</t>
         </is>
       </c>
-      <c r="C66" s="10" t="inlineStr">
+      <c r="C66" s="11" t="inlineStr">
         <is>
           <t>u#zYkpg*+9</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.4" customHeight="1" s="12">
-      <c r="A67" s="16" t="inlineStr">
+    <row r="67" ht="12.4" customHeight="1" s="13">
+      <c r="A67" s="17" t="inlineStr">
         <is>
           <t>0x58227dc321cbfe3cd2d22a59f8904a03e72613df</t>
         </is>
       </c>
-      <c r="B67" s="17" t="inlineStr">
+      <c r="B67" s="18" t="inlineStr">
         <is>
           <t>ellaraleigh72@gmail.com</t>
         </is>
       </c>
-      <c r="C67" s="10" t="inlineStr">
+      <c r="C67" s="11" t="inlineStr">
         <is>
           <t>QR2YSVlL_o</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="12.4" customHeight="1" s="12">
-      <c r="A68" s="16" t="inlineStr">
+    <row r="68" ht="12.4" customHeight="1" s="13">
+      <c r="A68" s="17" t="inlineStr">
         <is>
           <t>0x5adb75fa5836e72b423d455ab93118dc714c7649</t>
         </is>
       </c>
-      <c r="B68" s="17" t="inlineStr">
+      <c r="B68" s="18" t="inlineStr">
         <is>
           <t>db986259@gmail.com</t>
         </is>
       </c>
-      <c r="C68" s="10" t="inlineStr">
+      <c r="C68" s="11" t="inlineStr">
         <is>
           <t>(30pFAfgL7</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="12.4" customHeight="1" s="12">
-      <c r="A69" s="16" t="inlineStr">
+    <row r="69" ht="12.4" customHeight="1" s="13">
+      <c r="A69" s="17" t="inlineStr">
         <is>
           <t>0x4b961608e462e0fff4af3dc3274161d80a87c72b</t>
         </is>
       </c>
-      <c r="B69" s="17" t="inlineStr">
+      <c r="B69" s="18" t="inlineStr">
         <is>
           <t>adriansimon874@gmail.com</t>
         </is>
       </c>
-      <c r="C69" s="10" t="inlineStr">
+      <c r="C69" s="11" t="inlineStr">
         <is>
           <t>@9WBaWQx25</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="12.4" customHeight="1" s="12">
-      <c r="A70" s="16" t="inlineStr">
+    <row r="70" ht="12.4" customHeight="1" s="13">
+      <c r="A70" s="17" t="inlineStr">
         <is>
           <t>0x39a48898625cfe545fb712ab754f7f92b61291eb</t>
         </is>
       </c>
-      <c r="B70" s="17" t="inlineStr">
+      <c r="B70" s="18" t="inlineStr">
         <is>
           <t>AdrianSmith6187@gmail.com</t>
         </is>
       </c>
-      <c r="C70" s="10" t="inlineStr">
+      <c r="C70" s="11" t="inlineStr">
         <is>
           <t>_sgAIN&amp;Nh0</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.4" customHeight="1" s="12">
-      <c r="A71" s="16" t="inlineStr">
+    <row r="71" ht="12.4" customHeight="1" s="13">
+      <c r="A71" s="17" t="inlineStr">
         <is>
           <t>0x1fe1560ad732dd216c1b30b7f25ea2cc298a05fe</t>
         </is>
       </c>
-      <c r="B71" s="17" t="inlineStr">
+      <c r="B71" s="18" t="inlineStr">
         <is>
           <t>crossmansierra865@gmail.com</t>
         </is>
       </c>
-      <c r="C71" s="10" t="inlineStr">
+      <c r="C71" s="11" t="inlineStr">
         <is>
           <t>#&amp;6X$JZL2l</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.4" customHeight="1" s="12">
-      <c r="A72" s="16" t="inlineStr">
+    <row r="72" ht="12.4" customHeight="1" s="13">
+      <c r="A72" s="17" t="inlineStr">
         <is>
           <t>0x9b18431bec41d40393a27671d1f142e2745e7b7f</t>
         </is>
       </c>
-      <c r="B72" s="17" t="inlineStr">
+      <c r="B72" s="18" t="inlineStr">
         <is>
           <t>ld163277@gmail.com</t>
         </is>
       </c>
-      <c r="C72" s="10" t="inlineStr">
+      <c r="C72" s="11" t="inlineStr">
         <is>
           <t>H6IXZHJd#T</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="12.4" customHeight="1" s="12">
-      <c r="A73" s="16" t="inlineStr">
+    <row r="73" ht="12.4" customHeight="1" s="13">
+      <c r="A73" s="17" t="inlineStr">
         <is>
           <t>0x2ef801704bfa7b175419fbfda83401a1c69a8b41</t>
         </is>
       </c>
-      <c r="B73" s="17" t="inlineStr">
+      <c r="B73" s="18" t="inlineStr">
         <is>
           <t>jenkinkatherine4@gmail.com</t>
         </is>
       </c>
-      <c r="C73" s="10" t="inlineStr">
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>!2AB5nVtue</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="12.4" customHeight="1" s="12">
-      <c r="A74" s="16" t="inlineStr">
+    <row r="74" ht="12.4" customHeight="1" s="13">
+      <c r="A74" s="17" t="inlineStr">
         <is>
           <t>0x174c50d8f6298ec9b74c90d9aa3071296bdc15da</t>
         </is>
       </c>
-      <c r="B74" s="17" t="inlineStr">
+      <c r="B74" s="18" t="inlineStr">
         <is>
           <t>agate930@gmail.com</t>
         </is>
       </c>
-      <c r="C74" s="10" t="inlineStr">
+      <c r="C74" s="11" t="inlineStr">
         <is>
           <t>+(EdhJ^uj3</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.4" customHeight="1" s="12">
-      <c r="A75" s="16" t="inlineStr">
+    <row r="75" ht="12.4" customHeight="1" s="13">
+      <c r="A75" s="17" t="inlineStr">
         <is>
           <t>0x4b63689f144cb986f24bc9bf66009bff461b01d2</t>
         </is>
       </c>
-      <c r="B75" s="17" t="inlineStr">
+      <c r="B75" s="18" t="inlineStr">
         <is>
           <t>laurenbarrington22@gmail.com</t>
         </is>
       </c>
-      <c r="C75" s="10" t="inlineStr">
+      <c r="C75" s="11" t="inlineStr">
         <is>
           <t>#qMJVuO4n0</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="12.4" customHeight="1" s="12">
-      <c r="A76" s="16" t="inlineStr">
+    <row r="76" ht="12.4" customHeight="1" s="13">
+      <c r="A76" s="17" t="inlineStr">
         <is>
           <t>0x967d0f2b2e829bb1a0a51ee982c392e5feaf3a85</t>
         </is>
       </c>
-      <c r="B76" s="17" t="inlineStr">
+      <c r="B76" s="18" t="inlineStr">
         <is>
           <t>whitealan857@gmail.com</t>
         </is>
       </c>
-      <c r="C76" s="10" t="inlineStr">
+      <c r="C76" s="11" t="inlineStr">
         <is>
           <t>h7wM4@Hf+Y</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.4" customHeight="1" s="12">
-      <c r="A77" s="16" t="inlineStr">
+    <row r="77" ht="12.4" customHeight="1" s="13">
+      <c r="A77" s="17" t="inlineStr">
         <is>
           <t>0x2e94e5c6989016c3ea1264337aa3d9ce532623cf</t>
         </is>
       </c>
-      <c r="B77" s="17" t="inlineStr">
+      <c r="B77" s="18" t="inlineStr">
         <is>
           <t>hodgesgabriel4@gmail.com</t>
         </is>
       </c>
-      <c r="C77" s="10" t="inlineStr">
+      <c r="C77" s="11" t="inlineStr">
         <is>
           <t>sn4TolWZ_8</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.4" customHeight="1" s="12">
-      <c r="A78" s="16" t="inlineStr">
+    <row r="78" ht="12.4" customHeight="1" s="13">
+      <c r="A78" s="17" t="inlineStr">
         <is>
           <t>0xc96dbef4dde9082171e7cd1a2c341008091cc8a8</t>
         </is>
       </c>
-      <c r="B78" s="17" t="inlineStr">
+      <c r="B78" s="18" t="inlineStr">
         <is>
           <t>derrickaudrey35@gmail.com</t>
         </is>
       </c>
-      <c r="C78" s="10" t="inlineStr">
+      <c r="C78" s="11" t="inlineStr">
         <is>
           <t>t*y6TPJgJ6</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.4" customHeight="1" s="12">
-      <c r="A79" s="16" t="inlineStr">
+    <row r="79" ht="12.4" customHeight="1" s="13">
+      <c r="A79" s="17" t="inlineStr">
         <is>
           <t>0x2fb64ca021a89a3af26eec4f363bb5b3502e781a</t>
         </is>
       </c>
-      <c r="B79" s="17" t="inlineStr">
+      <c r="B79" s="18" t="inlineStr">
         <is>
           <t>vg523946@gmail.com</t>
         </is>
       </c>
-      <c r="C79" s="10" t="inlineStr">
+      <c r="C79" s="11" t="inlineStr">
         <is>
           <t>*aI8UvPtEP</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.4" customHeight="1" s="12">
-      <c r="A80" s="16" t="inlineStr">
+    <row r="80" ht="12.4" customHeight="1" s="13">
+      <c r="A80" s="17" t="inlineStr">
         <is>
           <t>0x3199e0e6f0eee8bf6476a03c964dad4655b20d2e</t>
         </is>
       </c>
-      <c r="B80" s="17" t="inlineStr">
+      <c r="B80" s="18" t="inlineStr">
         <is>
           <t>parsonjulia1@gmail.com</t>
         </is>
       </c>
-      <c r="C80" s="10" t="inlineStr">
+      <c r="C80" s="11" t="inlineStr">
         <is>
           <t>_+$q1lMm60</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="12.4" customHeight="1" s="12">
-      <c r="A81" s="16" t="inlineStr">
+    <row r="81" ht="12.4" customHeight="1" s="13">
+      <c r="A81" s="17" t="inlineStr">
         <is>
           <t>0x08551dcd79818c2e178574f62c51398923286646</t>
         </is>
       </c>
-      <c r="B81" s="17" t="inlineStr">
+      <c r="B81" s="18" t="inlineStr">
         <is>
           <t>bf5341822@gmail.com</t>
         </is>
       </c>
-      <c r="C81" s="10" t="inlineStr">
+      <c r="C81" s="11" t="inlineStr">
         <is>
           <t>@@wu6_GFRt</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="12.4" customHeight="1" s="12">
-      <c r="A82" s="16" t="inlineStr">
+    <row r="82" ht="12.4" customHeight="1" s="13">
+      <c r="A82" s="17" t="inlineStr">
         <is>
           <t>0xfb96c80e85e854ade3e24c062282a17ee49d9c1d</t>
         </is>
       </c>
-      <c r="B82" s="17" t="inlineStr">
+      <c r="B82" s="18" t="inlineStr">
         <is>
           <t>mramacey2@gmail.com</t>
         </is>
       </c>
-      <c r="C82" s="10" t="inlineStr">
+      <c r="C82" s="11" t="inlineStr">
         <is>
           <t>((8J@5Yb_4</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.4" customHeight="1" s="12">
-      <c r="A83" s="16" t="inlineStr">
+    <row r="83" ht="12.4" customHeight="1" s="13">
+      <c r="A83" s="17" t="inlineStr">
         <is>
           <t>0x8e66aa1c9dc965d9ae872505b0f0f6bb6ce45f77</t>
         </is>
       </c>
-      <c r="B83" s="17" t="inlineStr">
+      <c r="B83" s="18" t="inlineStr">
         <is>
           <t>galbraithp67@gmail.com</t>
         </is>
       </c>
-      <c r="C83" s="10" t="inlineStr">
+      <c r="C83" s="11" t="inlineStr">
         <is>
           <t>#9(8CWmsq^</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="12.4" customHeight="1" s="12">
-      <c r="A84" s="16" t="inlineStr">
+    <row r="84" ht="12.4" customHeight="1" s="13">
+      <c r="A84" s="17" t="inlineStr">
         <is>
           <t>0x5381366083ad039ff65bd7df8dba07a24e38a6a7</t>
         </is>
       </c>
-      <c r="B84" s="17" t="inlineStr">
+      <c r="B84" s="18" t="inlineStr">
         <is>
           <t>hannahjerome374@gmail.com</t>
         </is>
       </c>
-      <c r="C84" s="10" t="inlineStr">
+      <c r="C84" s="11" t="inlineStr">
         <is>
           <t>@P)7LncvXA</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.4" customHeight="1" s="12">
-      <c r="A85" s="16" t="inlineStr">
+    <row r="85" ht="12.4" customHeight="1" s="13">
+      <c r="A85" s="17" t="inlineStr">
         <is>
           <t>0x85f70e5f090ea66bc489278911838b261a63debd</t>
         </is>
       </c>
-      <c r="B85" s="17" t="inlineStr">
+      <c r="B85" s="18" t="inlineStr">
         <is>
           <t>ca1803284@gmail.com</t>
         </is>
       </c>
-      <c r="C85" s="10" t="inlineStr">
+      <c r="C85" s="11" t="inlineStr">
         <is>
           <t>*Q3FdCBn3V</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="12.4" customHeight="1" s="12">
-      <c r="A86" s="16" t="inlineStr">
+    <row r="86" ht="12.4" customHeight="1" s="13">
+      <c r="A86" s="17" t="inlineStr">
         <is>
           <t>0xa02bc09823990b627e38363808db67ee36b8c4f8</t>
         </is>
       </c>
-      <c r="B86" s="17" t="inlineStr">
+      <c r="B86" s="18" t="inlineStr">
         <is>
           <t>agathabarnes23@gmail.com</t>
         </is>
       </c>
-      <c r="C86" s="10" t="inlineStr">
+      <c r="C86" s="11" t="inlineStr">
         <is>
           <t>i$9Xd@2MYd</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.4" customHeight="1" s="12">
-      <c r="A87" s="16" t="inlineStr">
+    <row r="87" ht="12.4" customHeight="1" s="13">
+      <c r="A87" s="17" t="inlineStr">
         <is>
           <t>0xff8d297f22f414b17ca8d426c5365a86d38370ca</t>
         </is>
       </c>
-      <c r="B87" s="17" t="inlineStr">
+      <c r="B87" s="18" t="inlineStr">
         <is>
           <t>me602027@gmail.com</t>
         </is>
       </c>
-      <c r="C87" s="10" t="inlineStr">
+      <c r="C87" s="11" t="inlineStr">
         <is>
           <t>7N27YIlT(7</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.4" customHeight="1" s="12">
-      <c r="A88" s="19" t="inlineStr">
+    <row r="88" ht="12.4" customHeight="1" s="13">
+      <c r="A88" s="21" t="inlineStr">
         <is>
           <t>0x4d798ccc2d71ebf48ed1f79a85b3baee04898f45</t>
         </is>
       </c>
-      <c r="B88" s="17" t="inlineStr">
+      <c r="B88" s="18" t="inlineStr">
         <is>
           <t>wifkinsonarianna@gmail.com</t>
         </is>
       </c>
-      <c r="C88" s="10" t="inlineStr">
+      <c r="C88" s="11" t="inlineStr">
         <is>
           <t>%j7C6gmE2B</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.4" customHeight="1" s="12">
-      <c r="A89" s="16" t="inlineStr">
+    <row r="89" ht="12.4" customHeight="1" s="13">
+      <c r="A89" s="17" t="inlineStr">
         <is>
           <t>0x7e16c50d178fd6b29dca845489fc32b1ac41a625</t>
         </is>
       </c>
-      <c r="B89" s="17" t="inlineStr">
+      <c r="B89" s="18" t="inlineStr">
         <is>
           <t>gatealise65@gmail.com</t>
         </is>
       </c>
-      <c r="C89" s="10" t="inlineStr">
+      <c r="C89" s="11" t="inlineStr">
         <is>
           <t>Q&amp;6H+fVb%R</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.4" customHeight="1" s="12">
-      <c r="A90" s="16" t="inlineStr">
+    <row r="90" ht="12.4" customHeight="1" s="13">
+      <c r="A90" s="17" t="inlineStr">
         <is>
           <t>0xb518994bbdd0604d2b537af5cf840d4a1c7b14c7</t>
         </is>
       </c>
-      <c r="B90" s="17" t="inlineStr">
+      <c r="B90" s="18" t="inlineStr">
         <is>
           <t>lucasaustin949@gmail.com</t>
         </is>
       </c>
-      <c r="C90" s="10" t="inlineStr">
+      <c r="C90" s="11" t="inlineStr">
         <is>
           <t>*EUQBa$Mr9</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.4" customHeight="1" s="12">
-      <c r="A91" s="16" t="inlineStr">
+    <row r="91" ht="12.4" customHeight="1" s="13">
+      <c r="A91" s="17" t="inlineStr">
         <is>
           <t>0x32cc6c3f67786afd0c3acb3967cef4c59d6e4f99</t>
         </is>
       </c>
-      <c r="B91" s="17" t="inlineStr">
+      <c r="B91" s="18" t="inlineStr">
         <is>
           <t>flemingisabel2@gmail.com</t>
         </is>
       </c>
-      <c r="C91" s="10" t="inlineStr">
+      <c r="C91" s="11" t="inlineStr">
         <is>
           <t>rI$JpGGo(2</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12.4" customHeight="1" s="12">
-      <c r="A92" s="16" t="inlineStr">
+    <row r="92" ht="12.4" customHeight="1" s="13">
+      <c r="A92" s="17" t="inlineStr">
         <is>
           <t>0x69d3405f965e1e96c2cc2bbe7dbb3c44878faac0</t>
         </is>
       </c>
-      <c r="B92" s="17" t="inlineStr">
+      <c r="B92" s="18" t="inlineStr">
         <is>
           <t>maceysebastian62@gmail.com</t>
         </is>
       </c>
-      <c r="C92" s="10" t="inlineStr">
+      <c r="C92" s="11" t="inlineStr">
         <is>
           <t>@0Fhrc#BG)</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="12.4" customHeight="1" s="12">
-      <c r="A93" s="16" t="inlineStr">
+    <row r="93" ht="12.4" customHeight="1" s="13">
+      <c r="A93" s="17" t="inlineStr">
         <is>
           <t>0x6646b912dc445b78a9f7239694fb1319726e3826</t>
         </is>
       </c>
-      <c r="B93" s="17" t="inlineStr">
+      <c r="B93" s="18" t="inlineStr">
         <is>
           <t>jenkinmadeline03@gmail.com</t>
         </is>
       </c>
-      <c r="C93" s="10" t="inlineStr">
+      <c r="C93" s="11" t="inlineStr">
         <is>
           <t>!y#L_UN7G3</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="12.4" customHeight="1" s="12">
-      <c r="A94" s="16" t="inlineStr">
+    <row r="94" ht="12.4" customHeight="1" s="13">
+      <c r="A94" s="17" t="inlineStr">
         <is>
           <t>0x45d5d6b6e667760022b74f65dd05d0101ff67c93</t>
         </is>
       </c>
-      <c r="B94" s="17" t="inlineStr">
+      <c r="B94" s="18" t="inlineStr">
         <is>
           <t>hardmanm79@gmail.com</t>
         </is>
       </c>
-      <c r="C94" s="10" t="inlineStr">
+      <c r="C94" s="11" t="inlineStr">
         <is>
           <t>sG1lKIbFJ^</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="12.4" customHeight="1" s="12">
-      <c r="A95" s="16" t="inlineStr">
+    <row r="95" ht="12.4" customHeight="1" s="13">
+      <c r="A95" s="17" t="inlineStr">
         <is>
           <t>0xba427f818cec2bb104a0f71d00723c8c0026993d</t>
         </is>
       </c>
-      <c r="B95" s="17" t="inlineStr">
+      <c r="B95" s="18" t="inlineStr">
         <is>
           <t>NoraHaig5443@gmail.com</t>
         </is>
       </c>
-      <c r="C95" s="10" t="inlineStr">
+      <c r="C95" s="11" t="inlineStr">
         <is>
           <t>3R8MUSgZ$(</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="12.4" customHeight="1" s="12">
-      <c r="A96" s="16" t="inlineStr">
+    <row r="96" ht="12.4" customHeight="1" s="13">
+      <c r="A96" s="17" t="inlineStr">
         <is>
           <t>0x4d00ba89af82c2450a4f1ecfd85948215f42e30d</t>
         </is>
       </c>
-      <c r="B96" s="17" t="inlineStr">
+      <c r="B96" s="18" t="inlineStr">
         <is>
           <t>daisyarthurs144@gmail.com</t>
         </is>
       </c>
-      <c r="C96" s="10" t="inlineStr">
+      <c r="C96" s="11" t="inlineStr">
         <is>
           <t>YN1h7uUnB!</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="12.4" customHeight="1" s="12">
-      <c r="A97" s="16" t="inlineStr">
+    <row r="97" ht="12.4" customHeight="1" s="13">
+      <c r="A97" s="17" t="inlineStr">
         <is>
           <t>0x62a91f42a8b7d70e55cef25317bca820ad2cbbd5</t>
         </is>
       </c>
-      <c r="B97" s="17" t="inlineStr">
+      <c r="B97" s="18" t="inlineStr">
         <is>
           <t>gracejeff193@gmail.com</t>
         </is>
       </c>
-      <c r="C97" s="10" t="inlineStr">
+      <c r="C97" s="11" t="inlineStr">
         <is>
           <t>m(09RK+z_i</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="12.4" customHeight="1" s="12">
-      <c r="A98" s="16" t="inlineStr">
+    <row r="98" ht="12.4" customHeight="1" s="13">
+      <c r="A98" s="17" t="inlineStr">
         <is>
           <t>0x3aa01b3675b20353ad9e30f55075ebedfdee92fd</t>
         </is>
       </c>
-      <c r="B98" s="17" t="inlineStr">
+      <c r="B98" s="18" t="inlineStr">
         <is>
           <t>VirginiaMiller6962@gmail.com</t>
         </is>
       </c>
-      <c r="C98" s="10" t="inlineStr">
+      <c r="C98" s="11" t="inlineStr">
         <is>
           <t>7DxEq0)v#X</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="12.4" customHeight="1" s="12">
-      <c r="A99" s="16" t="inlineStr">
+    <row r="99" ht="12.4" customHeight="1" s="13">
+      <c r="A99" s="17" t="inlineStr">
         <is>
           <t>0xb217dd96130f83dbe9ba95ee426968d260918b55</t>
         </is>
       </c>
-      <c r="B99" s="17" t="inlineStr">
+      <c r="B99" s="18" t="inlineStr">
         <is>
           <t>ml7493953@gmail.com</t>
         </is>
       </c>
-      <c r="C99" s="10" t="inlineStr">
+      <c r="C99" s="11" t="inlineStr">
         <is>
           <t>_3bWXeStLi</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="12.4" customHeight="1" s="12">
-      <c r="A100" s="16" t="inlineStr">
+    <row r="100" ht="12.4" customHeight="1" s="13">
+      <c r="A100" s="17" t="inlineStr">
         <is>
           <t>0x81ce67fbf56c7609820c14fbc9623411b070831a</t>
         </is>
       </c>
-      <c r="B100" s="17" t="inlineStr">
+      <c r="B100" s="18" t="inlineStr">
         <is>
           <t>lewinstanley936@gmail.com</t>
         </is>
       </c>
-      <c r="C100" s="10" t="inlineStr">
+      <c r="C100" s="11" t="inlineStr">
         <is>
           <t>+6u&amp;Ns@6km</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="12.4" customHeight="1" s="12">
-      <c r="A101" s="16" t="inlineStr">
+    <row r="101" ht="12.4" customHeight="1" s="13">
+      <c r="A101" s="17" t="inlineStr">
         <is>
           <t>0xcd84d4ff44e4895cefb093187f565c0422e4871e</t>
         </is>
       </c>
-      <c r="B101" s="17" t="inlineStr">
+      <c r="B101" s="18" t="inlineStr">
         <is>
           <t>sshackley9@gmail.com</t>
         </is>
       </c>
-      <c r="C101" s="10" t="inlineStr">
+      <c r="C101" s="11" t="inlineStr">
         <is>
           <t>J6K*0J%gk_</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="12.4" customHeight="1" s="12">
-      <c r="A102" s="16" t="inlineStr">
+    <row r="102" ht="12.4" customHeight="1" s="13">
+      <c r="A102" s="17" t="inlineStr">
         <is>
           <t>0x8e74f5d739974f09d455a09c8121dce69127c129</t>
         </is>
       </c>
-      <c r="B102" s="17" t="inlineStr">
+      <c r="B102" s="18" t="inlineStr">
         <is>
           <t>mb1142132@gmail.com</t>
         </is>
       </c>
-      <c r="C102" s="10" t="inlineStr">
+      <c r="C102" s="11" t="inlineStr">
         <is>
           <t>008BHXWgy%</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="12.4" customHeight="1" s="12">
-      <c r="A103" s="16" t="inlineStr">
+    <row r="103" ht="12.4" customHeight="1" s="13">
+      <c r="A103" s="17" t="inlineStr">
         <is>
           <t>0x961313a46c85ffd8f3995e25c83ce5dd2eb5a17d</t>
         </is>
       </c>
-      <c r="B103" s="17" t="inlineStr">
+      <c r="B103" s="18" t="inlineStr">
         <is>
           <t>holidayk716@gmail.com</t>
         </is>
       </c>
-      <c r="C103" s="10" t="inlineStr">
+      <c r="C103" s="11" t="inlineStr">
         <is>
           <t>)%I99qtOt6</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="12.4" customHeight="1" s="12">
-      <c r="A104" s="16" t="inlineStr">
+    <row r="104" ht="12.4" customHeight="1" s="13">
+      <c r="A104" s="17" t="inlineStr">
         <is>
           <t>0x366cd21f547493df436bb3e9d5274594efa6057b</t>
         </is>
       </c>
-      <c r="B104" s="17" t="inlineStr">
+      <c r="B104" s="18" t="inlineStr">
         <is>
           <t>iane26779@gmail.com</t>
         </is>
       </c>
-      <c r="C104" s="10" t="inlineStr">
+      <c r="C104" s="11" t="inlineStr">
         <is>
           <t>14Qc^xJe$Q</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="12.4" customHeight="1" s="12">
-      <c r="A105" s="16" t="inlineStr">
+    <row r="105" ht="12.4" customHeight="1" s="13">
+      <c r="A105" s="17" t="inlineStr">
         <is>
           <t>0x5f3d9750e6dcea9dee4731b99c68c3d06c31f94e</t>
         </is>
       </c>
-      <c r="B105" s="17" t="inlineStr">
+      <c r="B105" s="18" t="inlineStr">
         <is>
           <t>lnicholson199@gmail.com</t>
         </is>
       </c>
-      <c r="C105" s="10" t="inlineStr">
+      <c r="C105" s="11" t="inlineStr">
         <is>
           <t>^KJyFNWs)6</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="12.4" customHeight="1" s="12">
-      <c r="A106" s="16" t="inlineStr">
+    <row r="106" ht="12.4" customHeight="1" s="13">
+      <c r="A106" s="17" t="inlineStr">
         <is>
           <t>0x925fb95203b57307c7f8368d9852528aae87f8ec</t>
         </is>
       </c>
-      <c r="B106" s="17" t="inlineStr">
+      <c r="B106" s="18" t="inlineStr">
         <is>
           <t>angelinaalbertson@gmail.com</t>
         </is>
       </c>
-      <c r="C106" s="10" t="inlineStr">
+      <c r="C106" s="11" t="inlineStr">
         <is>
           <t>@EmxWf&amp;TT6</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="12.4" customHeight="1" s="12">
-      <c r="A107" s="16" t="inlineStr">
+    <row r="107" ht="12.4" customHeight="1" s="13">
+      <c r="A107" s="17" t="inlineStr">
         <is>
           <t>0xa85342f95e81f178f27a12dfbaa7ac1fc9858814</t>
         </is>
       </c>
-      <c r="B107" s="17" t="inlineStr">
+      <c r="B107" s="18" t="inlineStr">
         <is>
           <t>gabrielleflannagan@gmail.com</t>
         </is>
       </c>
-      <c r="C107" s="10" t="inlineStr">
+      <c r="C107" s="11" t="inlineStr">
         <is>
           <t>1z0MBjRBc)</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="12.4" customHeight="1" s="12">
-      <c r="A108" s="16" t="inlineStr">
+    <row r="108" ht="12.4" customHeight="1" s="13">
+      <c r="A108" s="17" t="inlineStr">
         <is>
           <t>0xf498c5761ee87c0620f8a31ac67232782a48d2fc</t>
         </is>
       </c>
-      <c r="B108" s="17" t="inlineStr">
+      <c r="B108" s="18" t="inlineStr">
         <is>
           <t>salisburrymorgan@gmail.com</t>
         </is>
       </c>
-      <c r="C108" s="10" t="inlineStr">
+      <c r="C108" s="11" t="inlineStr">
         <is>
           <t>q1ARjI!r$C</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="12.4" customHeight="1" s="12">
-      <c r="A109" s="16" t="inlineStr">
+    <row r="109" ht="12.4" customHeight="1" s="13">
+      <c r="A109" s="17" t="inlineStr">
         <is>
           <t>0xeb8467f557fe80cf8a875000d34ff2fa945257bc</t>
         </is>
       </c>
-      <c r="B109" s="17" t="inlineStr">
+      <c r="B109" s="18" t="inlineStr">
         <is>
           <t>curtissaunder@gmail.com</t>
         </is>
       </c>
-      <c r="C109" s="10" t="inlineStr">
+      <c r="C109" s="11" t="inlineStr">
         <is>
           <t>^Cj!87Kv3E</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="12.4" customHeight="1" s="12">
-      <c r="A110" s="16" t="inlineStr">
+    <row r="110" ht="12.4" customHeight="1" s="13">
+      <c r="A110" s="17" t="inlineStr">
         <is>
           <t>0xc4b547c63be69743d3a6b566bc60f44de5e947df</t>
         </is>
       </c>
-      <c r="B110" s="17" t="inlineStr">
+      <c r="B110" s="18" t="inlineStr">
         <is>
           <t>gimsonhunter2@gmail.com</t>
         </is>
       </c>
-      <c r="C110" s="10" t="inlineStr">
+      <c r="C110" s="11" t="inlineStr">
         <is>
           <t>_@_9Mk1OdJ</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="12.4" customHeight="1" s="12">
-      <c r="A111" s="16" t="inlineStr">
+    <row r="111" ht="12.4" customHeight="1" s="13">
+      <c r="A111" s="17" t="inlineStr">
         <is>
           <t>0xa5518c67cffb36e2a99f2a2b7669d20006c0b361</t>
         </is>
       </c>
-      <c r="B111" s="17" t="inlineStr">
+      <c r="B111" s="18" t="inlineStr">
         <is>
           <t>ThomasHoward9010@gmail.com</t>
         </is>
       </c>
-      <c r="C111" s="10" t="inlineStr">
+      <c r="C111" s="11" t="inlineStr">
         <is>
           <t>0Rgt2WghT$</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="12.4" customHeight="1" s="12">
-      <c r="A112" s="16" t="inlineStr">
+    <row r="112" ht="12.4" customHeight="1" s="13">
+      <c r="A112" s="17" t="inlineStr">
         <is>
           <t>0xb1f70a9d642ed1141f5d26d1760879d0a61d54dc</t>
         </is>
       </c>
-      <c r="B112" s="17" t="inlineStr">
+      <c r="B112" s="18" t="inlineStr">
         <is>
           <t>cm8388450@gmail.com</t>
         </is>
       </c>
-      <c r="C112" s="10" t="inlineStr">
+      <c r="C112" s="11" t="inlineStr">
         <is>
           <t>!hZ&amp;O%FyO9</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="12.4" customHeight="1" s="12">
-      <c r="A113" s="16" t="inlineStr">
+    <row r="113" ht="12.4" customHeight="1" s="13">
+      <c r="A113" s="17" t="inlineStr">
         <is>
           <t>0x545ff4b2f7079eb8eeb8d4cebc99582988bd368f</t>
         </is>
       </c>
-      <c r="B113" s="17" t="inlineStr">
+      <c r="B113" s="18" t="inlineStr">
         <is>
           <t>hfulton564@gmail.com</t>
         </is>
       </c>
-      <c r="C113" s="10" t="inlineStr">
+      <c r="C113" s="11" t="inlineStr">
         <is>
           <t>%4dSnrtn)(</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="12.4" customHeight="1" s="12">
-      <c r="A114" s="16" t="inlineStr">
+    <row r="114" ht="12.4" customHeight="1" s="13">
+      <c r="A114" s="17" t="inlineStr">
         <is>
           <t>0xb1c95f7cc6458c0ec96889111c0e277e07e72850</t>
         </is>
       </c>
-      <c r="B114" s="17" t="inlineStr">
+      <c r="B114" s="18" t="inlineStr">
         <is>
           <t>littlealexis311@gmail.com</t>
         </is>
       </c>
-      <c r="C114" s="10" t="inlineStr">
+      <c r="C114" s="11" t="inlineStr">
         <is>
           <t>!E6YRxpej!</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="12.4" customHeight="1" s="12">
-      <c r="A115" s="16" t="inlineStr">
+    <row r="115" ht="12.4" customHeight="1" s="13">
+      <c r="A115" s="17" t="inlineStr">
         <is>
           <t>0x99f59d188968bacfbf38999028857e35534f701d</t>
         </is>
       </c>
-      <c r="B115" s="17" t="inlineStr">
+      <c r="B115" s="18" t="inlineStr">
         <is>
           <t>oaudley620@gmail.com</t>
         </is>
       </c>
-      <c r="C115" s="10" t="inlineStr">
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t>D4QB3QMg_T</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="12.4" customHeight="1" s="12">
-      <c r="A116" s="16" t="inlineStr">
+    <row r="116" ht="12.4" customHeight="1" s="13">
+      <c r="A116" s="17" t="inlineStr">
         <is>
           <t>0x38c74f646cd99336f465ec90c99c795c439c9223</t>
         </is>
       </c>
-      <c r="B116" s="17" t="inlineStr">
+      <c r="B116" s="18" t="inlineStr">
         <is>
           <t>evelynpass51@gmail.com</t>
         </is>
       </c>
-      <c r="C116" s="10" t="inlineStr">
+      <c r="C116" s="11" t="inlineStr">
         <is>
           <t>2@3G&amp;fhEuY</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="12.4" customHeight="1" s="12">
-      <c r="A117" s="16" t="inlineStr">
+    <row r="117" ht="12.4" customHeight="1" s="13">
+      <c r="A117" s="17" t="inlineStr">
         <is>
           <t>0x0c499f3defe4dbd9533229efd09d25395410dd4e</t>
         </is>
       </c>
-      <c r="B117" s="17" t="inlineStr">
+      <c r="B117" s="18" t="inlineStr">
         <is>
           <t>melissapearcy6@gmail.com</t>
         </is>
       </c>
-      <c r="C117" s="10" t="inlineStr">
+      <c r="C117" s="11" t="inlineStr">
         <is>
           <t>^q%QK(rm2s</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="12.4" customHeight="1" s="12">
-      <c r="A118" s="16" t="inlineStr">
+    <row r="118" ht="12.4" customHeight="1" s="13">
+      <c r="A118" s="17" t="inlineStr">
         <is>
           <t>0xdff540cc732d8237535bead7a1f66d71cad113ea</t>
         </is>
       </c>
-      <c r="B118" s="17" t="inlineStr">
+      <c r="B118" s="18" t="inlineStr">
         <is>
           <t>marjoriej437@gmail.com</t>
         </is>
       </c>
-      <c r="C118" s="10" t="inlineStr">
+      <c r="C118" s="11" t="inlineStr">
         <is>
           <t>a_6ZKy5GED</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="12.4" customHeight="1" s="12">
-      <c r="A119" s="16" t="inlineStr">
+    <row r="119" ht="12.4" customHeight="1" s="13">
+      <c r="A119" s="17" t="inlineStr">
         <is>
           <t>0x193d3058a538900fa1b6166f0283ef2675610190</t>
         </is>
       </c>
-      <c r="B119" s="17" t="inlineStr">
+      <c r="B119" s="18" t="inlineStr">
         <is>
           <t>wifkinsonjenna77@gmail.com</t>
         </is>
       </c>
-      <c r="C119" s="10" t="inlineStr">
+      <c r="C119" s="11" t="inlineStr">
         <is>
           <t>MyEEgi#J)5</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="12.4" customHeight="1" s="12">
-      <c r="A120" s="16" t="inlineStr">
+    <row r="120" ht="12.4" customHeight="1" s="13">
+      <c r="A120" s="17" t="inlineStr">
         <is>
           <t>0x5a2d1bd26285592be7faa590dc02c465c0d686e1</t>
         </is>
       </c>
-      <c r="B120" s="17" t="inlineStr">
+      <c r="B120" s="18" t="inlineStr">
         <is>
           <t>brickmanshirley9@gmail.com</t>
         </is>
       </c>
-      <c r="C120" s="10" t="inlineStr">
+      <c r="C120" s="11" t="inlineStr">
         <is>
           <t>A^*S2H08qa</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="12.4" customHeight="1" s="12">
-      <c r="A121" s="16" t="inlineStr">
+    <row r="121" ht="12.4" customHeight="1" s="13">
+      <c r="A121" s="17" t="inlineStr">
         <is>
           <t>0x1d5663fd21bff4ba7a8897ea723aa5fd0557c684</t>
         </is>
       </c>
-      <c r="B121" s="17" t="inlineStr">
+      <c r="B121" s="18" t="inlineStr">
         <is>
           <t>hlillian922@gmail.com</t>
         </is>
       </c>
-      <c r="C121" s="10" t="inlineStr">
+      <c r="C121" s="11" t="inlineStr">
         <is>
           <t>s^3N+Ctkfc</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="12.4" customHeight="1" s="12">
-      <c r="A122" s="16" t="inlineStr">
+    <row r="122" ht="12.4" customHeight="1" s="13">
+      <c r="A122" s="17" t="inlineStr">
         <is>
           <t>0x4e46e9704e6266e20242a8d7910cd5ed3df65cc6</t>
         </is>
       </c>
-      <c r="B122" s="17" t="inlineStr">
+      <c r="B122" s="18" t="inlineStr">
         <is>
           <t>ramaceylily9@gmail.com</t>
         </is>
       </c>
-      <c r="C122" s="10" t="inlineStr">
+      <c r="C122" s="11" t="inlineStr">
         <is>
           <t>@h9XK#Eq(B</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="12.4" customHeight="1" s="12">
-      <c r="A123" s="16" t="inlineStr">
+    <row r="123" ht="12.4" customHeight="1" s="13">
+      <c r="A123" s="17" t="inlineStr">
         <is>
           <t>0x6ec0bfc84474c8f74bec63a55ee5250e0a44c934</t>
         </is>
       </c>
-      <c r="B123" s="17" t="inlineStr">
+      <c r="B123" s="18" t="inlineStr">
         <is>
           <t>ChristopherMurphy1228@gmail.com</t>
         </is>
       </c>
-      <c r="C123" s="10" t="inlineStr">
+      <c r="C123" s="11" t="inlineStr">
         <is>
           <t>*TET4VDu)S</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="12.4" customHeight="1" s="12">
-      <c r="A124" s="19" t="inlineStr">
+    <row r="124" ht="12.4" customHeight="1" s="13">
+      <c r="A124" s="21" t="inlineStr">
         <is>
           <t>0x4bc788bbf0c1a4269e552b6978968fbb325e87c4</t>
         </is>
       </c>
-      <c r="B124" s="17" t="inlineStr">
+      <c r="B124" s="18" t="inlineStr">
         <is>
           <t>saundercarl5@gmail.com</t>
         </is>
       </c>
-      <c r="C124" s="10" t="inlineStr">
+      <c r="C124" s="11" t="inlineStr">
         <is>
           <t>P3)GiVYw%_</t>
         </is>
       </c>
     </row>
-    <row r="125" ht="12.4" customHeight="1" s="12">
-      <c r="A125" s="16" t="inlineStr">
+    <row r="125" ht="12.4" customHeight="1" s="13">
+      <c r="A125" s="17" t="inlineStr">
         <is>
           <t>0x320e5fb5654bda8040a08686f50702f7d9853b6a</t>
         </is>
       </c>
-      <c r="B125" s="17" t="inlineStr">
+      <c r="B125" s="18" t="inlineStr">
         <is>
           <t>ashtonpaterson0@gmail.com</t>
         </is>
       </c>
-      <c r="C125" s="10" t="inlineStr">
+      <c r="C125" s="11" t="inlineStr">
         <is>
           <t>8fDLF1no!v</t>
         </is>
       </c>
     </row>
-    <row r="126" ht="12.4" customHeight="1" s="12">
-      <c r="A126" s="16" t="inlineStr">
+    <row r="126" ht="12.4" customHeight="1" s="13">
+      <c r="A126" s="17" t="inlineStr">
         <is>
           <t>0xf6c0d4d667703dbfe8685eaa44c79aabc43ec089</t>
         </is>
       </c>
-      <c r="B126" s="17" t="inlineStr">
+      <c r="B126" s="18" t="inlineStr">
         <is>
           <t>hkendal414@gmail.com</t>
         </is>
       </c>
-      <c r="C126" s="10" t="inlineStr">
+      <c r="C126" s="11" t="inlineStr">
         <is>
           <t>%F5aiSz3RZ</t>
         </is>
       </c>
     </row>
-    <row r="127" ht="12.4" customHeight="1" s="12">
-      <c r="A127" s="16" t="inlineStr">
+    <row r="127" ht="12.4" customHeight="1" s="13">
+      <c r="A127" s="17" t="inlineStr">
         <is>
           <t>0x9786c3a7cf5200640d98bec387708ef041454f2f</t>
         </is>
       </c>
-      <c r="B127" s="17" t="inlineStr">
+      <c r="B127" s="18" t="inlineStr">
         <is>
           <t>raleighlillian860@gmail.com</t>
         </is>
       </c>
-      <c r="C127" s="10" t="inlineStr">
+      <c r="C127" s="11" t="inlineStr">
         <is>
           <t>$54OWOMw8c</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="12.4" customHeight="1" s="12">
-      <c r="A128" s="16" t="inlineStr">
+    <row r="128" ht="12.4" customHeight="1" s="13">
+      <c r="A128" s="17" t="inlineStr">
         <is>
           <t>0x1c7c947046f6b6e9e465785291f060345231add5</t>
         </is>
       </c>
-      <c r="B128" s="17" t="inlineStr">
+      <c r="B128" s="18" t="inlineStr">
         <is>
           <t>abramsonj026@gmail.com</t>
         </is>
       </c>
-      <c r="C128" s="10" t="inlineStr">
+      <c r="C128" s="11" t="inlineStr">
         <is>
           <t>)8kBllcoz!</t>
         </is>
       </c>
     </row>
-    <row r="129" ht="12.4" customHeight="1" s="12">
-      <c r="A129" s="16" t="inlineStr">
+    <row r="129" ht="12.4" customHeight="1" s="13">
+      <c r="A129" s="17" t="inlineStr">
         <is>
           <t>0xa912ddd96702031672719c1ab644dfedbdc1c40a</t>
         </is>
       </c>
-      <c r="B129" s="17" t="inlineStr">
+      <c r="B129" s="18" t="inlineStr">
         <is>
           <t>sylviabosworth28@gmail.com</t>
         </is>
       </c>
-      <c r="C129" s="10" t="inlineStr">
+      <c r="C129" s="11" t="inlineStr">
         <is>
           <t>!jIWVCUa(0</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="12.4" customHeight="1" s="12">
-      <c r="A130" s="16" t="inlineStr">
+    <row r="130" ht="12.4" customHeight="1" s="13">
+      <c r="A130" s="17" t="inlineStr">
         <is>
           <t>0x4bd281148b2b484e0a97852cac1ddaa54d176cc6</t>
         </is>
       </c>
-      <c r="B130" s="17" t="inlineStr">
+      <c r="B130" s="18" t="inlineStr">
         <is>
           <t>adrianhailey881@gmail.com</t>
         </is>
       </c>
-      <c r="C130" s="10" t="inlineStr">
+      <c r="C130" s="11" t="inlineStr">
         <is>
           <t>xi6ED@lN*K</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="12.4" customHeight="1" s="12">
-      <c r="A131" s="16" t="inlineStr">
+    <row r="131" ht="12.4" customHeight="1" s="13">
+      <c r="A131" s="17" t="inlineStr">
         <is>
           <t>0x98729dc029c4135e41272d70fc2d1e326e1ce81d</t>
         </is>
       </c>
-      <c r="B131" s="17" t="inlineStr">
+      <c r="B131" s="18" t="inlineStr">
         <is>
           <t>owen62812@gmail.com</t>
         </is>
       </c>
-      <c r="C131" s="10" t="inlineStr">
+      <c r="C131" s="11" t="inlineStr">
         <is>
           <t>6WqdZIs0_x</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="12.4" customHeight="1" s="12">
-      <c r="A132" s="16" t="inlineStr">
+    <row r="132" ht="12.4" customHeight="1" s="13">
+      <c r="A132" s="17" t="inlineStr">
         <is>
           <t>0x433865883b55c70ecba5731863ecf97f0999812e</t>
         </is>
       </c>
-      <c r="B132" s="17" t="inlineStr">
+      <c r="B132" s="18" t="inlineStr">
         <is>
           <t>macadamangelina4@gmail.com</t>
         </is>
       </c>
-      <c r="C132" s="10" t="inlineStr">
+      <c r="C132" s="11" t="inlineStr">
         <is>
           <t>^kG!Cy)n4d</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="12.4" customHeight="1" s="12">
-      <c r="A133" s="19" t="inlineStr">
+    <row r="133" ht="12.4" customHeight="1" s="13">
+      <c r="A133" s="21" t="inlineStr">
         <is>
           <t>0x790b6474505b70638d597c68c8c2f31264566874</t>
         </is>
       </c>
-      <c r="B133" s="17" t="inlineStr">
+      <c r="B133" s="18" t="inlineStr">
         <is>
           <t>archibaldk37@gmail.com</t>
         </is>
       </c>
-      <c r="C133" s="10" t="inlineStr">
+      <c r="C133" s="11" t="inlineStr">
         <is>
           <t>$6a)vPO4xw</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="12.4" customHeight="1" s="12">
-      <c r="A134" s="16" t="inlineStr">
+    <row r="134" ht="12.4" customHeight="1" s="13">
+      <c r="A134" s="17" t="inlineStr">
         <is>
           <t>0x2320603da6734597a3179680089770de58a698f9</t>
         </is>
       </c>
-      <c r="B134" s="17" t="inlineStr">
+      <c r="B134" s="18" t="inlineStr">
         <is>
           <t>gp070726@gmail.com</t>
         </is>
       </c>
-      <c r="C134" s="10" t="inlineStr">
+      <c r="C134" s="11" t="inlineStr">
         <is>
           <t>rFg)TM$r%5</t>
         </is>
       </c>
     </row>
-    <row r="135" ht="12.4" customHeight="1" s="12">
-      <c r="A135" s="16" t="inlineStr">
+    <row r="135" ht="12.4" customHeight="1" s="13">
+      <c r="A135" s="17" t="inlineStr">
         <is>
           <t>0x0ed4aa7b5d492b5949023784c2bfcdbdf39269b0</t>
         </is>
       </c>
-      <c r="B135" s="17" t="inlineStr">
+      <c r="B135" s="18" t="inlineStr">
         <is>
           <t>keatreginald026@gmail.com</t>
         </is>
       </c>
-      <c r="C135" s="10" t="inlineStr">
+      <c r="C135" s="11" t="inlineStr">
         <is>
           <t>^m$KsZBeV8</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="12.4" customHeight="1" s="12">
-      <c r="A136" s="19" t="inlineStr">
+    <row r="136" ht="12.4" customHeight="1" s="13">
+      <c r="A136" s="21" t="inlineStr">
         <is>
           <t>0xf5fb9f24ca74efbc917b72f39618cf29b4aa590d</t>
         </is>
       </c>
-      <c r="B136" s="17" t="inlineStr">
+      <c r="B136" s="18" t="inlineStr">
         <is>
           <t>AlbertSmith9872@gmail.com</t>
         </is>
       </c>
-      <c r="C136" s="10" t="inlineStr">
+      <c r="C136" s="11" t="inlineStr">
         <is>
           <t>O22)Rw(A$0</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="12.4" customHeight="1" s="12">
-      <c r="A137" s="16" t="inlineStr">
+    <row r="137" ht="12.4" customHeight="1" s="13">
+      <c r="A137" s="17" t="inlineStr">
         <is>
           <t>0xf4a886568540cb12722be8f4f18c652740e9fedc</t>
         </is>
       </c>
-      <c r="B137" s="17" t="inlineStr">
+      <c r="B137" s="18" t="inlineStr">
         <is>
           <t>cj3375398@gmail.com</t>
         </is>
       </c>
-      <c r="C137" s="10" t="inlineStr">
+      <c r="C137" s="11" t="inlineStr">
         <is>
           <t>K#9*nWw8Ua</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="12.4" customHeight="1" s="12">
-      <c r="A138" s="19" t="inlineStr">
+    <row r="138" ht="12.4" customHeight="1" s="13">
+      <c r="A138" s="21" t="inlineStr">
         <is>
           <t>0x759176d547b520237623f5fc77e0622464fb89fb</t>
         </is>
       </c>
-      <c r="B138" s="17" t="inlineStr">
+      <c r="B138" s="18" t="inlineStr">
         <is>
           <t>AgathaLewin7981@gmail.com</t>
         </is>
       </c>
-      <c r="C138" s="10" t="inlineStr">
+      <c r="C138" s="11" t="inlineStr">
         <is>
           <t>ya%4&amp;Fhn#k</t>
         </is>
       </c>
     </row>
-    <row r="139" ht="12.4" customHeight="1" s="12">
-      <c r="A139" s="16" t="inlineStr">
+    <row r="139" ht="12.4" customHeight="1" s="13">
+      <c r="A139" s="17" t="inlineStr">
         <is>
           <t>0x512ba5f7f891ee7a6082ca90aba44b2aece1b285</t>
         </is>
       </c>
-      <c r="B139" s="17" t="inlineStr">
+      <c r="B139" s="18" t="inlineStr">
         <is>
           <t>ellingtongladys5@gmail.com</t>
         </is>
       </c>
-      <c r="C139" s="10" t="inlineStr">
+      <c r="C139" s="11" t="inlineStr">
         <is>
           <t>$A2+O9@fA*</t>
         </is>
       </c>
     </row>
-    <row r="140" ht="12.4" customHeight="1" s="12">
-      <c r="A140" s="19" t="inlineStr">
+    <row r="140" ht="12.4" customHeight="1" s="13">
+      <c r="A140" s="21" t="inlineStr">
         <is>
           <t>0x8b20496bbaf0396c7eb1e25c71e5b7cd550889a2</t>
         </is>
       </c>
-      <c r="B140" s="17" t="inlineStr">
+      <c r="B140" s="18" t="inlineStr">
         <is>
           <t>oswaldc326@gmail.com</t>
         </is>
       </c>
-      <c r="C140" s="10" t="inlineStr">
+      <c r="C140" s="11" t="inlineStr">
         <is>
           <t>7dh+5E#r!3</t>
         </is>
       </c>
     </row>
-    <row r="141" ht="12.4" customHeight="1" s="12">
-      <c r="A141" s="19" t="inlineStr">
+    <row r="141" ht="12.4" customHeight="1" s="13">
+      <c r="A141" s="21" t="inlineStr">
         <is>
           <t>0xa87abd44630a87e45e68faf37c3b61e03d322868</t>
         </is>
       </c>
-      <c r="B141" s="17" t="inlineStr">
+      <c r="B141" s="18" t="inlineStr">
         <is>
           <t>lilypearcy65@gmail.com</t>
         </is>
       </c>
-      <c r="C141" s="10" t="inlineStr">
+      <c r="C141" s="11" t="inlineStr">
         <is>
           <t>j5Me_TlT*C</t>
         </is>
       </c>
     </row>
-    <row r="142" ht="12.4" customHeight="1" s="12">
-      <c r="A142" s="16" t="inlineStr">
+    <row r="142" ht="12.4" customHeight="1" s="13">
+      <c r="A142" s="17" t="inlineStr">
         <is>
           <t>0xcac3f6a05658e8841df42ed813d6e4799e287db6</t>
         </is>
       </c>
-      <c r="B142" s="17" t="inlineStr">
+      <c r="B142" s="18" t="inlineStr">
         <is>
           <t>macadamdonald7@gmail.com</t>
         </is>
       </c>
-      <c r="C142" s="10" t="inlineStr">
+      <c r="C142" s="11" t="inlineStr">
         <is>
           <t>%1@7LzQbgA</t>
         </is>
       </c>
     </row>
-    <row r="143" ht="12.4" customHeight="1" s="12">
-      <c r="A143" s="16" t="inlineStr">
+    <row r="143" ht="12.4" customHeight="1" s="13">
+      <c r="A143" s="17" t="inlineStr">
         <is>
           <t>0xac37e9f1f8435ebd952005ca4718437330bf8cc6</t>
         </is>
       </c>
-      <c r="C143" s="10" t="inlineStr">
+      <c r="C143" s="11" t="inlineStr">
         <is>
           <t>9O3B7uCd#(</t>
         </is>
       </c>
     </row>
-    <row r="144" ht="12.4" customHeight="1" s="12">
-      <c r="A144" s="16" t="inlineStr">
+    <row r="144" ht="12.4" customHeight="1" s="13">
+      <c r="A144" s="17" t="inlineStr">
         <is>
           <t>0x9b53b86bd4bf75a9a8b20e5cd1dfffe372b9ad25</t>
         </is>
       </c>
-      <c r="C144" s="10" t="inlineStr">
+      <c r="C144" s="11" t="inlineStr">
         <is>
           <t>@$84HDSlu$</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="12.4" customHeight="1" s="12">
-      <c r="A145" s="19" t="inlineStr">
+    <row r="145" ht="12.4" customHeight="1" s="13">
+      <c r="A145" s="21" t="inlineStr">
         <is>
           <t>0x3e433a309a3232128ca6fac549e2a1265e235741</t>
         </is>
       </c>
-      <c r="C145" s="10" t="inlineStr">
+      <c r="C145" s="11" t="inlineStr">
         <is>
           <t>@pXG4KiGP2</t>
         </is>
       </c>
     </row>
-    <row r="146" ht="12.4" customHeight="1" s="12">
-      <c r="A146" s="19" t="inlineStr">
+    <row r="146" ht="12.4" customHeight="1" s="13">
+      <c r="A146" s="21" t="inlineStr">
         <is>
           <t>0x151f7b0c894c468d0a3de6f38ece50123e94d382</t>
         </is>
       </c>
-      <c r="C146" s="10" t="inlineStr">
+      <c r="C146" s="11" t="inlineStr">
         <is>
           <t>*L14TAfYn1</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="12.4" customHeight="1" s="12">
-      <c r="A147" s="16" t="inlineStr">
+    <row r="147" ht="12.4" customHeight="1" s="13">
+      <c r="A147" s="17" t="inlineStr">
         <is>
           <t>0x1d3b3f58c3c43b25ef2653972f4ac0661a2ca167</t>
         </is>
       </c>
-      <c r="C147" s="10" t="inlineStr">
+      <c r="C147" s="11" t="inlineStr">
         <is>
           <t>Flk2NOVii)</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="12.4" customHeight="1" s="12">
-      <c r="A148" s="16" t="inlineStr">
+    <row r="148" ht="12.4" customHeight="1" s="13">
+      <c r="A148" s="17" t="inlineStr">
         <is>
           <t>0xeaae34f33d6fecc948fd72ba2f508bc314ee6520</t>
         </is>
       </c>
-      <c r="C148" s="10" t="inlineStr">
+      <c r="C148" s="11" t="inlineStr">
         <is>
           <t>x^5RXQxl)C</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="12.4" customHeight="1" s="12">
-      <c r="A149" s="19" t="inlineStr">
+    <row r="149" ht="12.4" customHeight="1" s="13">
+      <c r="A149" s="21" t="inlineStr">
         <is>
           <t>0xf2b68f0f71e97a56379c4f6065e41fafc7bf34c3</t>
         </is>
       </c>
-      <c r="C149" s="10" t="inlineStr">
+      <c r="C149" s="11" t="inlineStr">
         <is>
           <t>+GblOG6r7Q</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="12.4" customHeight="1" s="12">
-      <c r="A150" s="16" t="inlineStr">
+    <row r="150" ht="12.4" customHeight="1" s="13">
+      <c r="A150" s="17" t="inlineStr">
         <is>
           <t>0x792e125b95739581a27aa344a028f88bc97a522a</t>
         </is>
       </c>
-      <c r="C150" s="18" t="n"/>
-      <c r="D150" s="18" t="n"/>
-      <c r="E150" s="18" t="n"/>
-    </row>
-    <row r="151" ht="12.4" customHeight="1" s="12">
-      <c r="A151" s="16" t="inlineStr">
+      <c r="C150" s="19" t="n"/>
+      <c r="D150" s="19" t="n"/>
+      <c r="E150" s="19" t="n"/>
+    </row>
+    <row r="151" ht="12.4" customHeight="1" s="13">
+      <c r="A151" s="17" t="inlineStr">
         <is>
           <t>0xe74c33e5d7c727c88ae6d1d7c3f0ed30d1af4e5e</t>
         </is>
       </c>
-      <c r="C151" s="18" t="n"/>
-      <c r="D151" s="18" t="n"/>
-      <c r="E151" s="18" t="n"/>
-    </row>
-    <row r="152" ht="12.4" customHeight="1" s="12">
-      <c r="A152" s="19" t="inlineStr">
+      <c r="C151" s="19" t="n"/>
+      <c r="D151" s="19" t="n"/>
+      <c r="E151" s="19" t="n"/>
+    </row>
+    <row r="152" ht="12.4" customHeight="1" s="13">
+      <c r="A152" s="21" t="inlineStr">
         <is>
           <t>0x5ed96b594e327287cbb8863a4058a615c72ebae5</t>
         </is>
       </c>
-      <c r="C152" s="18" t="n"/>
-      <c r="D152" s="18" t="n"/>
-      <c r="E152" s="18" t="n"/>
-    </row>
-    <row r="153" ht="12.4" customHeight="1" s="12">
-      <c r="A153" s="19" t="inlineStr">
+      <c r="C152" s="19" t="n"/>
+      <c r="D152" s="19" t="n"/>
+      <c r="E152" s="19" t="n"/>
+    </row>
+    <row r="153" ht="12.4" customHeight="1" s="13">
+      <c r="A153" s="21" t="inlineStr">
         <is>
           <t>0x1468fcdd8f711e06fef3618a219d4e33f6c315e6</t>
         </is>
       </c>
-      <c r="C153" s="18" t="n"/>
-      <c r="D153" s="18" t="n"/>
-      <c r="E153" s="18" t="n"/>
-    </row>
-    <row r="154" ht="12.4" customHeight="1" s="12">
-      <c r="A154" s="16" t="inlineStr">
+      <c r="C153" s="19" t="n"/>
+      <c r="D153" s="19" t="n"/>
+      <c r="E153" s="19" t="n"/>
+    </row>
+    <row r="154" ht="12.4" customHeight="1" s="13">
+      <c r="A154" s="17" t="inlineStr">
         <is>
           <t>0xc6283a643dd2833715bee047ddb56c5eb560f0d6</t>
         </is>
       </c>
-      <c r="C154" s="18" t="n"/>
-      <c r="D154" s="18" t="n"/>
-      <c r="E154" s="18" t="n"/>
-    </row>
-    <row r="155" ht="12.4" customHeight="1" s="12">
-      <c r="A155" s="19" t="inlineStr">
+      <c r="C154" s="19" t="n"/>
+      <c r="D154" s="19" t="n"/>
+      <c r="E154" s="19" t="n"/>
+    </row>
+    <row r="155" ht="12.4" customHeight="1" s="13">
+      <c r="A155" s="21" t="inlineStr">
         <is>
           <t>0xa1f3fde220f83d7fe0bd4067a7255bf3d4e32dc9</t>
         </is>
       </c>
-      <c r="C155" s="18" t="n"/>
-      <c r="D155" s="18" t="n"/>
-      <c r="E155" s="18" t="n"/>
-    </row>
-    <row r="156" ht="12.4" customHeight="1" s="12">
-      <c r="A156" s="16" t="inlineStr">
+      <c r="C155" s="19" t="n"/>
+      <c r="D155" s="19" t="n"/>
+      <c r="E155" s="19" t="n"/>
+    </row>
+    <row r="156" ht="12.4" customHeight="1" s="13">
+      <c r="A156" s="17" t="inlineStr">
         <is>
           <t>0x45613bf771c3a643909846f6638791d76b51b945</t>
         </is>
       </c>
-      <c r="C156" s="18" t="n"/>
-      <c r="D156" s="18" t="n"/>
-      <c r="E156" s="18" t="n"/>
-    </row>
-    <row r="157" ht="12.4" customHeight="1" s="12">
-      <c r="A157" s="16" t="inlineStr">
+      <c r="C156" s="19" t="n"/>
+      <c r="D156" s="19" t="n"/>
+      <c r="E156" s="19" t="n"/>
+    </row>
+    <row r="157" ht="12.4" customHeight="1" s="13">
+      <c r="A157" s="17" t="inlineStr">
         <is>
           <t>0xedd75e036b7ccdd2dda3a6f4d80d491534d43aac</t>
         </is>
       </c>
-      <c r="C157" s="18" t="n"/>
-      <c r="D157" s="18" t="n"/>
-      <c r="E157" s="18" t="n"/>
-    </row>
-    <row r="158" ht="12.4" customHeight="1" s="12">
-      <c r="A158" s="19" t="inlineStr">
+      <c r="C157" s="19" t="n"/>
+      <c r="D157" s="19" t="n"/>
+      <c r="E157" s="19" t="n"/>
+    </row>
+    <row r="158" ht="12.4" customHeight="1" s="13">
+      <c r="A158" s="21" t="inlineStr">
         <is>
           <t>0x92c2a099143369dbbfcf1ca4ef9c1c3cc872d7d9</t>
         </is>
       </c>
-      <c r="C158" s="18" t="n"/>
-      <c r="D158" s="18" t="n"/>
-      <c r="E158" s="18" t="n"/>
-    </row>
-    <row r="159" ht="12.4" customHeight="1" s="12">
-      <c r="A159" s="19" t="inlineStr">
+      <c r="C158" s="19" t="n"/>
+      <c r="D158" s="19" t="n"/>
+      <c r="E158" s="19" t="n"/>
+    </row>
+    <row r="159" ht="12.4" customHeight="1" s="13">
+      <c r="A159" s="21" t="inlineStr">
         <is>
           <t>0x657bdaeb4be7c6dd583913d70fa33f8b93d22bc2</t>
         </is>
       </c>
-      <c r="C159" s="18" t="n"/>
-      <c r="D159" s="18" t="n"/>
-      <c r="E159" s="18" t="n"/>
-    </row>
-    <row r="160" ht="12.4" customHeight="1" s="12">
-      <c r="A160" s="16" t="inlineStr">
+      <c r="C159" s="19" t="n"/>
+      <c r="D159" s="19" t="n"/>
+      <c r="E159" s="19" t="n"/>
+    </row>
+    <row r="160" ht="12.4" customHeight="1" s="13">
+      <c r="A160" s="17" t="inlineStr">
         <is>
           <t>0x525ee2b39df95a938f8ee72bfc3509b492a0ea1b</t>
         </is>
       </c>
-      <c r="C160" s="18" t="n"/>
-      <c r="D160" s="18" t="n"/>
-      <c r="E160" s="18" t="n"/>
-    </row>
-    <row r="161" ht="12.4" customHeight="1" s="12">
-      <c r="A161" s="19" t="inlineStr">
+      <c r="C160" s="19" t="n"/>
+      <c r="D160" s="19" t="n"/>
+      <c r="E160" s="19" t="n"/>
+    </row>
+    <row r="161" ht="12.4" customHeight="1" s="13">
+      <c r="A161" s="21" t="inlineStr">
         <is>
           <t>0xb340bb14343f1915a084ff39fe6b1367cf61bafc</t>
         </is>
       </c>
-      <c r="C161" s="18" t="n"/>
-      <c r="D161" s="18" t="n"/>
-      <c r="E161" s="18" t="n"/>
-    </row>
-    <row r="162" ht="12.4" customHeight="1" s="12">
-      <c r="A162" s="16" t="inlineStr">
+      <c r="C161" s="19" t="n"/>
+      <c r="D161" s="19" t="n"/>
+      <c r="E161" s="19" t="n"/>
+    </row>
+    <row r="162" ht="12.4" customHeight="1" s="13">
+      <c r="A162" s="17" t="inlineStr">
         <is>
           <t>0xaf389135be833248d97776b068a2bc5c7ec4a0f2</t>
         </is>
       </c>
-      <c r="C162" s="18" t="n"/>
-      <c r="D162" s="18" t="n"/>
-      <c r="E162" s="18" t="n"/>
-    </row>
-    <row r="163" ht="12.4" customHeight="1" s="12">
-      <c r="A163" s="19" t="inlineStr">
+      <c r="C162" s="19" t="n"/>
+      <c r="D162" s="19" t="n"/>
+      <c r="E162" s="19" t="n"/>
+    </row>
+    <row r="163" ht="12.4" customHeight="1" s="13">
+      <c r="A163" s="21" t="inlineStr">
         <is>
           <t>0x865a621349b7d15592efa776728f3ed3660e9025</t>
         </is>
       </c>
-      <c r="C163" s="18" t="n"/>
-      <c r="D163" s="18" t="n"/>
-      <c r="E163" s="18" t="n"/>
-    </row>
-    <row r="164" ht="12.4" customHeight="1" s="12">
-      <c r="A164" s="16" t="inlineStr">
+      <c r="C163" s="19" t="n"/>
+      <c r="D163" s="19" t="n"/>
+      <c r="E163" s="19" t="n"/>
+    </row>
+    <row r="164" ht="12.4" customHeight="1" s="13">
+      <c r="A164" s="17" t="inlineStr">
         <is>
           <t>0x7514fa69fd07ab5ab987683c276bbc1e8c010dc1</t>
         </is>
       </c>
-      <c r="C164" s="18" t="n"/>
-      <c r="D164" s="18" t="n"/>
-      <c r="E164" s="18" t="n"/>
-    </row>
-    <row r="165" ht="12.4" customHeight="1" s="12">
-      <c r="A165" s="19" t="inlineStr">
+      <c r="C164" s="19" t="n"/>
+      <c r="D164" s="19" t="n"/>
+      <c r="E164" s="19" t="n"/>
+    </row>
+    <row r="165" ht="12.4" customHeight="1" s="13">
+      <c r="A165" s="21" t="inlineStr">
         <is>
           <t>0x9920d3a27b66c82ffcf69ee439477379d6471d92</t>
         </is>
       </c>
-      <c r="C165" s="18" t="n"/>
-      <c r="D165" s="18" t="n"/>
-      <c r="E165" s="18" t="n"/>
-    </row>
-    <row r="166" ht="12.4" customHeight="1" s="12">
-      <c r="A166" s="16" t="inlineStr">
+      <c r="C165" s="19" t="n"/>
+      <c r="D165" s="19" t="n"/>
+      <c r="E165" s="19" t="n"/>
+    </row>
+    <row r="166" ht="12.4" customHeight="1" s="13">
+      <c r="A166" s="17" t="inlineStr">
         <is>
           <t>0x99ea0cd38fb789b0e20fded004af0b61430263c0</t>
         </is>
       </c>
-      <c r="C166" s="18" t="n"/>
-      <c r="D166" s="18" t="n"/>
-      <c r="E166" s="18" t="n"/>
-    </row>
-    <row r="167" ht="12.4" customHeight="1" s="12">
-      <c r="A167" s="16" t="inlineStr">
+      <c r="C166" s="19" t="n"/>
+      <c r="D166" s="19" t="n"/>
+      <c r="E166" s="19" t="n"/>
+    </row>
+    <row r="167" ht="12.4" customHeight="1" s="13">
+      <c r="A167" s="17" t="inlineStr">
         <is>
           <t>0xa8c07ceb6f77a687f10e0698e7f97a9cf37c641d</t>
         </is>
       </c>
-      <c r="C167" s="18" t="n"/>
-      <c r="D167" s="18" t="n"/>
-      <c r="E167" s="18" t="n"/>
-    </row>
-    <row r="168" ht="12.4" customHeight="1" s="12">
-      <c r="A168" s="16" t="inlineStr">
+      <c r="C167" s="19" t="n"/>
+      <c r="D167" s="19" t="n"/>
+      <c r="E167" s="19" t="n"/>
+    </row>
+    <row r="168" ht="12.4" customHeight="1" s="13">
+      <c r="A168" s="17" t="inlineStr">
         <is>
           <t>0x60832ce6ed7688b97c12ace5fadc24394809e02f</t>
         </is>
       </c>
-      <c r="C168" s="18" t="n"/>
-      <c r="D168" s="18" t="n"/>
-      <c r="E168" s="18" t="n"/>
-    </row>
-    <row r="169" ht="12.4" customHeight="1" s="12">
-      <c r="A169" s="16" t="inlineStr">
+      <c r="C168" s="19" t="n"/>
+      <c r="D168" s="19" t="n"/>
+      <c r="E168" s="19" t="n"/>
+    </row>
+    <row r="169" ht="12.4" customHeight="1" s="13">
+      <c r="A169" s="17" t="inlineStr">
         <is>
           <t>0x8cc51287ccb910ae3ddc8151df865fb8448ce760</t>
         </is>
       </c>
-      <c r="C169" s="18" t="n"/>
-      <c r="D169" s="18" t="n"/>
-      <c r="E169" s="18" t="n"/>
-    </row>
-    <row r="170" ht="12.4" customHeight="1" s="12">
-      <c r="A170" s="16" t="inlineStr">
+      <c r="C169" s="19" t="n"/>
+      <c r="D169" s="19" t="n"/>
+      <c r="E169" s="19" t="n"/>
+    </row>
+    <row r="170" ht="12.4" customHeight="1" s="13">
+      <c r="A170" s="17" t="inlineStr">
         <is>
           <t>0x6496973e1a2640dcd0ca6b3a0bc46da3bf457356</t>
         </is>
       </c>
-      <c r="C170" s="18" t="n"/>
-      <c r="D170" s="18" t="n"/>
-      <c r="E170" s="18" t="n"/>
-    </row>
-    <row r="171" ht="12.4" customHeight="1" s="12">
-      <c r="A171" s="19" t="inlineStr">
+      <c r="C170" s="19" t="n"/>
+      <c r="D170" s="19" t="n"/>
+      <c r="E170" s="19" t="n"/>
+    </row>
+    <row r="171" ht="12.4" customHeight="1" s="13">
+      <c r="A171" s="21" t="inlineStr">
         <is>
           <t>0xa9267f4c446cc3369ed02e54fae966ba6115e883</t>
         </is>
       </c>
-      <c r="C171" s="18" t="n"/>
-      <c r="D171" s="18" t="n"/>
-      <c r="E171" s="18" t="n"/>
-    </row>
-    <row r="172" ht="12.4" customHeight="1" s="12">
-      <c r="A172" s="16" t="inlineStr">
+      <c r="C171" s="19" t="n"/>
+      <c r="D171" s="19" t="n"/>
+      <c r="E171" s="19" t="n"/>
+    </row>
+    <row r="172" ht="12.4" customHeight="1" s="13">
+      <c r="A172" s="17" t="inlineStr">
         <is>
           <t>0x06e4edea365a91d8a0ccc8acb6c6be2a7a27df0c</t>
         </is>
       </c>
-      <c r="C172" s="18" t="n"/>
-      <c r="D172" s="18" t="n"/>
-      <c r="E172" s="18" t="n"/>
-    </row>
-    <row r="173" ht="12.4" customHeight="1" s="12">
-      <c r="A173" s="19" t="inlineStr">
+      <c r="C172" s="19" t="n"/>
+      <c r="D172" s="19" t="n"/>
+      <c r="E172" s="19" t="n"/>
+    </row>
+    <row r="173" ht="12.4" customHeight="1" s="13">
+      <c r="A173" s="21" t="inlineStr">
         <is>
           <t>0x9519cfc3d294d94ac89a2309ffb0213387e67893</t>
         </is>
       </c>
-      <c r="C173" s="18" t="n"/>
-      <c r="D173" s="18" t="n"/>
-      <c r="E173" s="18" t="n"/>
-    </row>
-    <row r="174" ht="12.4" customHeight="1" s="12">
-      <c r="A174" s="16" t="inlineStr">
+      <c r="C173" s="19" t="n"/>
+      <c r="D173" s="19" t="n"/>
+      <c r="E173" s="19" t="n"/>
+    </row>
+    <row r="174" ht="12.4" customHeight="1" s="13">
+      <c r="A174" s="17" t="inlineStr">
         <is>
           <t>0x50b684d91908e0da7544026cb68f277370af3bbe</t>
         </is>
       </c>
-      <c r="C174" s="18" t="n"/>
-      <c r="D174" s="18" t="n"/>
-      <c r="E174" s="18" t="n"/>
-    </row>
-    <row r="175" ht="12.4" customHeight="1" s="12">
-      <c r="A175" s="19" t="inlineStr">
+      <c r="C174" s="19" t="n"/>
+      <c r="D174" s="19" t="n"/>
+      <c r="E174" s="19" t="n"/>
+    </row>
+    <row r="175" ht="12.4" customHeight="1" s="13">
+      <c r="A175" s="21" t="inlineStr">
         <is>
           <t>0x6c9143dd9f2e0e0ea194adf89c75ebc5865d6c2d</t>
         </is>
       </c>
-      <c r="C175" s="18" t="n"/>
-      <c r="D175" s="18" t="n"/>
-      <c r="E175" s="18" t="n"/>
-    </row>
-    <row r="176" ht="12.4" customHeight="1" s="12">
-      <c r="A176" s="16" t="inlineStr">
+      <c r="C175" s="19" t="n"/>
+      <c r="D175" s="19" t="n"/>
+      <c r="E175" s="19" t="n"/>
+    </row>
+    <row r="176" ht="12.4" customHeight="1" s="13">
+      <c r="A176" s="17" t="inlineStr">
         <is>
           <t>0x9e462421a103f40ff584563c314942e4128fae42</t>
         </is>
       </c>
-      <c r="C176" s="18" t="n"/>
-      <c r="D176" s="18" t="n"/>
-      <c r="E176" s="18" t="n"/>
-    </row>
-    <row r="177" ht="12.4" customHeight="1" s="12">
-      <c r="A177" s="19" t="inlineStr">
+      <c r="C176" s="19" t="n"/>
+      <c r="D176" s="19" t="n"/>
+      <c r="E176" s="19" t="n"/>
+    </row>
+    <row r="177" ht="12.4" customHeight="1" s="13">
+      <c r="A177" s="21" t="inlineStr">
         <is>
           <t>0xd6f989b9a65850ba2a4de34312ac61b9158b882d</t>
         </is>
       </c>
-      <c r="C177" s="18" t="n"/>
-      <c r="D177" s="18" t="n"/>
-      <c r="E177" s="18" t="n"/>
-    </row>
-    <row r="178" ht="12.4" customHeight="1" s="12">
-      <c r="A178" s="16" t="inlineStr">
+      <c r="C177" s="19" t="n"/>
+      <c r="D177" s="19" t="n"/>
+      <c r="E177" s="19" t="n"/>
+    </row>
+    <row r="178" ht="12.4" customHeight="1" s="13">
+      <c r="A178" s="17" t="inlineStr">
         <is>
           <t>0xd7db508bbb8deca4505749b921905fcc9c2c91a2</t>
         </is>
       </c>
-      <c r="C178" s="18" t="n"/>
-      <c r="D178" s="18" t="n"/>
-      <c r="E178" s="18" t="n"/>
-    </row>
-    <row r="179" ht="12.4" customHeight="1" s="12">
-      <c r="A179" s="16" t="inlineStr">
+      <c r="C178" s="19" t="n"/>
+      <c r="D178" s="19" t="n"/>
+      <c r="E178" s="19" t="n"/>
+    </row>
+    <row r="179" ht="12.4" customHeight="1" s="13">
+      <c r="A179" s="17" t="inlineStr">
         <is>
           <t>0x90f9d51562a47c06bc1101e93ad0eea2477e88f3</t>
         </is>
       </c>
-      <c r="C179" s="18" t="n"/>
-      <c r="D179" s="18" t="n"/>
-      <c r="E179" s="18" t="n"/>
-    </row>
-    <row r="180" ht="12.4" customHeight="1" s="12">
-      <c r="A180" s="16" t="inlineStr">
+      <c r="C179" s="19" t="n"/>
+      <c r="D179" s="19" t="n"/>
+      <c r="E179" s="19" t="n"/>
+    </row>
+    <row r="180" ht="12.4" customHeight="1" s="13">
+      <c r="A180" s="17" t="inlineStr">
         <is>
           <t>0x521d022dce49a25ebb34d008b69f4430d56a511b</t>
         </is>
       </c>
-      <c r="C180" s="18" t="n"/>
-      <c r="D180" s="18" t="n"/>
-      <c r="E180" s="18" t="n"/>
-    </row>
-    <row r="181" ht="12.4" customHeight="1" s="12">
-      <c r="A181" s="16" t="inlineStr">
+      <c r="C180" s="19" t="n"/>
+      <c r="D180" s="19" t="n"/>
+      <c r="E180" s="19" t="n"/>
+    </row>
+    <row r="181" ht="12.4" customHeight="1" s="13">
+      <c r="A181" s="17" t="inlineStr">
         <is>
           <t>0xd5c5fea355dcfe8ef309000e5b6aa81b954ef015</t>
         </is>
       </c>
-      <c r="C181" s="18" t="n"/>
-      <c r="D181" s="18" t="n"/>
-      <c r="E181" s="18" t="n"/>
-    </row>
-    <row r="182" ht="12.4" customHeight="1" s="12">
-      <c r="A182" s="19" t="inlineStr">
+      <c r="C181" s="19" t="n"/>
+      <c r="D181" s="19" t="n"/>
+      <c r="E181" s="19" t="n"/>
+    </row>
+    <row r="182" ht="12.4" customHeight="1" s="13">
+      <c r="A182" s="21" t="inlineStr">
         <is>
           <t>0x5cfe7a64a6c9de565c317a86b1ffa20139e57a4f</t>
         </is>
       </c>
-      <c r="C182" s="18" t="n"/>
-      <c r="D182" s="18" t="n"/>
-      <c r="E182" s="18" t="n"/>
-    </row>
-    <row r="183" ht="12.4" customHeight="1" s="12">
-      <c r="A183" s="16" t="inlineStr">
+      <c r="C182" s="19" t="n"/>
+      <c r="D182" s="19" t="n"/>
+      <c r="E182" s="19" t="n"/>
+    </row>
+    <row r="183" ht="12.4" customHeight="1" s="13">
+      <c r="A183" s="17" t="inlineStr">
         <is>
           <t>0x01e0508f7c236debea96c3df3b22b967a7e6570a</t>
         </is>
       </c>
-      <c r="C183" s="18" t="n"/>
-      <c r="D183" s="18" t="n"/>
-      <c r="E183" s="18" t="n"/>
-    </row>
-    <row r="184" ht="12.4" customHeight="1" s="12">
-      <c r="A184" s="16" t="inlineStr">
+      <c r="C183" s="19" t="n"/>
+      <c r="D183" s="19" t="n"/>
+      <c r="E183" s="19" t="n"/>
+    </row>
+    <row r="184" ht="12.4" customHeight="1" s="13">
+      <c r="A184" s="17" t="inlineStr">
         <is>
           <t>0x2c60a8ffce45c52cbee0d88f2cd42af841cbca13</t>
         </is>
       </c>
-      <c r="C184" s="18" t="n"/>
-      <c r="D184" s="18" t="n"/>
-      <c r="E184" s="18" t="n"/>
-    </row>
-    <row r="185" ht="12.4" customHeight="1" s="12">
-      <c r="A185" s="16" t="inlineStr">
+      <c r="C184" s="19" t="n"/>
+      <c r="D184" s="19" t="n"/>
+      <c r="E184" s="19" t="n"/>
+    </row>
+    <row r="185" ht="12.4" customHeight="1" s="13">
+      <c r="A185" s="17" t="inlineStr">
         <is>
           <t>0xefac8d081c360299f92bd2fe00150b20a83885ed</t>
         </is>
       </c>
-      <c r="C185" s="18" t="n"/>
-      <c r="D185" s="18" t="n"/>
-      <c r="E185" s="18" t="n"/>
-    </row>
-    <row r="186" ht="12.4" customHeight="1" s="12">
-      <c r="A186" s="19" t="inlineStr">
+      <c r="C185" s="19" t="n"/>
+      <c r="D185" s="19" t="n"/>
+      <c r="E185" s="19" t="n"/>
+    </row>
+    <row r="186" ht="12.4" customHeight="1" s="13">
+      <c r="A186" s="21" t="inlineStr">
         <is>
           <t>0x562e0b08023ab992b4355a4391c087963b599919</t>
         </is>
       </c>
-      <c r="C186" s="18" t="n"/>
-      <c r="D186" s="18" t="n"/>
-      <c r="E186" s="18" t="n"/>
-    </row>
-    <row r="187" ht="12.4" customHeight="1" s="12">
-      <c r="A187" s="16" t="inlineStr">
+      <c r="C186" s="19" t="n"/>
+      <c r="D186" s="19" t="n"/>
+      <c r="E186" s="19" t="n"/>
+    </row>
+    <row r="187" ht="12.4" customHeight="1" s="13">
+      <c r="A187" s="17" t="inlineStr">
         <is>
           <t>0x20e791b1351964ff66ba4e8b68139315d4ad0853</t>
         </is>
       </c>
-      <c r="C187" s="18" t="n"/>
-      <c r="D187" s="18" t="n"/>
-      <c r="E187" s="18" t="n"/>
-    </row>
-    <row r="188" ht="12.4" customHeight="1" s="12">
-      <c r="A188" s="16" t="inlineStr">
+      <c r="C187" s="19" t="n"/>
+      <c r="D187" s="19" t="n"/>
+      <c r="E187" s="19" t="n"/>
+    </row>
+    <row r="188" ht="12.4" customHeight="1" s="13">
+      <c r="A188" s="17" t="inlineStr">
         <is>
           <t>0xa749241ac9ce2c97d099059757e01cf3b389e56f</t>
         </is>
       </c>
-      <c r="C188" s="18" t="n"/>
-      <c r="D188" s="18" t="n"/>
-      <c r="E188" s="18" t="n"/>
-    </row>
-    <row r="189" ht="12.4" customHeight="1" s="12">
-      <c r="A189" s="16" t="inlineStr">
+      <c r="C188" s="19" t="n"/>
+      <c r="D188" s="19" t="n"/>
+      <c r="E188" s="19" t="n"/>
+    </row>
+    <row r="189" ht="12.4" customHeight="1" s="13">
+      <c r="A189" s="17" t="inlineStr">
         <is>
           <t>0x495ded2ceec8f7520bd9e01085c2a833ed9279f5</t>
         </is>
       </c>
-      <c r="C189" s="18" t="n"/>
-      <c r="D189" s="18" t="n"/>
-      <c r="E189" s="18" t="n"/>
-    </row>
-    <row r="190" ht="12.4" customHeight="1" s="12">
-      <c r="A190" s="16" t="inlineStr">
+      <c r="C189" s="19" t="n"/>
+      <c r="D189" s="19" t="n"/>
+      <c r="E189" s="19" t="n"/>
+    </row>
+    <row r="190" ht="12.4" customHeight="1" s="13">
+      <c r="A190" s="17" t="inlineStr">
         <is>
           <t>0x3129aae0c2cc261707cd9fae1dfcca0c2e0ab6ae</t>
         </is>
       </c>
-      <c r="C190" s="18" t="n"/>
-      <c r="D190" s="18" t="n"/>
-      <c r="E190" s="18" t="n"/>
-    </row>
-    <row r="191" ht="12.4" customHeight="1" s="12">
-      <c r="A191" s="19" t="inlineStr">
+      <c r="C190" s="19" t="n"/>
+      <c r="D190" s="19" t="n"/>
+      <c r="E190" s="19" t="n"/>
+    </row>
+    <row r="191" ht="12.4" customHeight="1" s="13">
+      <c r="A191" s="21" t="inlineStr">
         <is>
           <t>0xe92e56cd8e6c4c9a2c9def572fb96b532a8940d6</t>
         </is>
       </c>
-      <c r="C191" s="18" t="n"/>
-      <c r="D191" s="18" t="n"/>
-      <c r="E191" s="18" t="n"/>
-    </row>
-    <row r="192" ht="12.4" customHeight="1" s="12">
-      <c r="A192" s="16" t="inlineStr">
+      <c r="C191" s="19" t="n"/>
+      <c r="D191" s="19" t="n"/>
+      <c r="E191" s="19" t="n"/>
+    </row>
+    <row r="192" ht="12.4" customHeight="1" s="13">
+      <c r="A192" s="17" t="inlineStr">
         <is>
           <t>0x96c088133f97f43fe38c175407c7cc91337ce0a9</t>
         </is>
       </c>
-      <c r="C192" s="18" t="n"/>
-      <c r="D192" s="18" t="n"/>
-      <c r="E192" s="18" t="n"/>
-    </row>
-    <row r="193" ht="12.4" customHeight="1" s="12">
-      <c r="A193" s="16" t="inlineStr">
+      <c r="C192" s="19" t="n"/>
+      <c r="D192" s="19" t="n"/>
+      <c r="E192" s="19" t="n"/>
+    </row>
+    <row r="193" ht="12.4" customHeight="1" s="13">
+      <c r="A193" s="17" t="inlineStr">
         <is>
           <t>0xe5694c0ab756003ab963518f15dcba23f75a6143</t>
         </is>
       </c>
-      <c r="C193" s="18" t="n"/>
-      <c r="D193" s="18" t="n"/>
-      <c r="E193" s="18" t="n"/>
-    </row>
-    <row r="194" ht="12.4" customHeight="1" s="12">
-      <c r="A194" s="19" t="inlineStr">
+      <c r="C193" s="19" t="n"/>
+      <c r="D193" s="19" t="n"/>
+      <c r="E193" s="19" t="n"/>
+    </row>
+    <row r="194" ht="12.4" customHeight="1" s="13">
+      <c r="A194" s="21" t="inlineStr">
         <is>
           <t>0x9eb9ef68b1de521a9cc9d8e52b86dc813defc00d</t>
         </is>
       </c>
-      <c r="C194" s="18" t="n"/>
-      <c r="D194" s="18" t="n"/>
-      <c r="E194" s="18" t="n"/>
-    </row>
-    <row r="195" ht="12.4" customHeight="1" s="12">
-      <c r="A195" s="16" t="inlineStr">
+      <c r="C194" s="19" t="n"/>
+      <c r="D194" s="19" t="n"/>
+      <c r="E194" s="19" t="n"/>
+    </row>
+    <row r="195" ht="12.4" customHeight="1" s="13">
+      <c r="A195" s="17" t="inlineStr">
         <is>
           <t>0xcf8972bd2750b2c41063c7b2daa69a50bb20ffab</t>
         </is>
       </c>
-      <c r="C195" s="18" t="n"/>
-      <c r="D195" s="18" t="n"/>
-      <c r="E195" s="18" t="n"/>
-    </row>
-    <row r="196" ht="12.4" customHeight="1" s="12">
-      <c r="A196" s="16" t="inlineStr">
+      <c r="C195" s="19" t="n"/>
+      <c r="D195" s="19" t="n"/>
+      <c r="E195" s="19" t="n"/>
+    </row>
+    <row r="196" ht="12.4" customHeight="1" s="13">
+      <c r="A196" s="17" t="inlineStr">
         <is>
           <t>0x8327fea3c808a241fe2c0d66e2d1e88349522642</t>
         </is>
       </c>
-      <c r="C196" s="18" t="n"/>
-      <c r="D196" s="18" t="n"/>
-      <c r="E196" s="18" t="n"/>
-    </row>
-    <row r="197" ht="12.4" customHeight="1" s="12">
-      <c r="A197" s="16" t="inlineStr">
+      <c r="C196" s="19" t="n"/>
+      <c r="D196" s="19" t="n"/>
+      <c r="E196" s="19" t="n"/>
+    </row>
+    <row r="197" ht="12.4" customHeight="1" s="13">
+      <c r="A197" s="17" t="inlineStr">
         <is>
           <t>0x6237f75e494e6bfd4b6cb0a9ec37cf2b78411057</t>
         </is>
       </c>
-      <c r="C197" s="18" t="n"/>
-      <c r="D197" s="18" t="n"/>
-      <c r="E197" s="18" t="n"/>
-    </row>
-    <row r="198" ht="12.4" customHeight="1" s="12">
-      <c r="A198" s="16" t="inlineStr">
+      <c r="C197" s="19" t="n"/>
+      <c r="D197" s="19" t="n"/>
+      <c r="E197" s="19" t="n"/>
+    </row>
+    <row r="198" ht="12.4" customHeight="1" s="13">
+      <c r="A198" s="17" t="inlineStr">
         <is>
           <t>0x49ff1674310531dd42f0a0f654a49094ea018c6e</t>
         </is>
       </c>
-      <c r="C198" s="18" t="n"/>
-      <c r="D198" s="18" t="n"/>
-      <c r="E198" s="18" t="n"/>
-    </row>
-    <row r="199" ht="12.4" customHeight="1" s="12">
-      <c r="A199" s="16" t="inlineStr">
+      <c r="C198" s="19" t="n"/>
+      <c r="D198" s="19" t="n"/>
+      <c r="E198" s="19" t="n"/>
+    </row>
+    <row r="199" ht="12.4" customHeight="1" s="13">
+      <c r="A199" s="17" t="inlineStr">
         <is>
           <t>0xf41f968f6decd082d1c2f6e3b2bbf2911390503e</t>
         </is>
       </c>
-      <c r="C199" s="18" t="n"/>
-      <c r="D199" s="18" t="n"/>
-      <c r="E199" s="18" t="n"/>
-    </row>
-    <row r="200" ht="12.4" customHeight="1" s="12">
-      <c r="A200" s="16" t="inlineStr">
+      <c r="C199" s="19" t="n"/>
+      <c r="D199" s="19" t="n"/>
+      <c r="E199" s="19" t="n"/>
+    </row>
+    <row r="200" ht="12.4" customHeight="1" s="13">
+      <c r="A200" s="17" t="inlineStr">
         <is>
           <t>0x6aee777232ea5a6e32aaef980214e43481777f7c</t>
         </is>
       </c>
-      <c r="C200" s="18" t="n"/>
-      <c r="D200" s="18" t="n"/>
-      <c r="E200" s="18" t="n"/>
+      <c r="C200" s="19" t="n"/>
+      <c r="D200" s="19" t="n"/>
+      <c r="E200" s="19" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -48,12 +48,6 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
@@ -69,6 +63,7 @@
     </font>
     <font>
       <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
       <family val="2"/>
       <color rgb="FFC9211E"/>
       <sz val="11"/>
@@ -114,7 +109,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -130,10 +125,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -142,10 +140,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -161,10 +159,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -173,10 +174,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -542,3294 +543,3300 @@
   </sheetPr>
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="15.98" customWidth="1" style="11" min="1" max="1"/>
-    <col width="22.43" customWidth="1" style="12" min="2" max="2"/>
-    <col width="17.15" customWidth="1" style="11" min="3" max="3"/>
-    <col width="15.29" customWidth="1" style="11" min="4" max="5"/>
-    <col width="26.7" customWidth="1" style="12" min="6" max="6"/>
-    <col width="54.43" customWidth="1" style="12" min="7" max="7"/>
-    <col width="66.37" customWidth="1" style="12" min="8" max="8"/>
+    <col width="15.98" customWidth="1" style="12" min="1" max="1"/>
+    <col width="22.43" customWidth="1" style="13" min="2" max="2"/>
+    <col width="17.15" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.29" customWidth="1" style="12" min="4" max="5"/>
+    <col width="26.7" customWidth="1" style="13" min="6" max="6"/>
+    <col width="63.34" customWidth="1" style="13" min="7" max="7"/>
+    <col width="66.37" customWidth="1" style="13" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" customHeight="1" s="13">
-      <c r="A1" s="14" t="inlineStr">
+    <row r="1" ht="42.25" customHeight="1" s="14">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>钱包地址</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>邮箱</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="16" t="inlineStr">
         <is>
           <t>随机密码</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>找到resent激活链接?</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
-        <is>
-          <t>点击了激活?</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Week 1 NFT已领？</t>
-        </is>
-      </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>点击了激活active?</t>
+        </is>
+      </c>
+      <c r="F1" s="17" t="inlineStr">
+        <is>
+          <t>获取alchemy的项目https,
+将来填入小狐狸</t>
+        </is>
+      </c>
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>完整 IPFS Json_CID</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>https填入到小狐狸</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" s="13">
-      <c r="A2" s="17" t="inlineStr">
+    <row r="2" ht="16.5" customHeight="1" s="14">
+      <c r="A2" s="19" t="inlineStr">
         <is>
           <t>0x02662179a7f9c9d5107690bf3725a75e0eb00041</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>linkguopeng@gmail.com</t>
         </is>
       </c>
-      <c r="C2" s="19" t="n"/>
-      <c r="D2" s="20" t="inlineStr">
+      <c r="C2" s="21" t="n"/>
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t>Y红色是测试用</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G2" s="18" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="13">
-      <c r="A3" s="17" t="inlineStr">
+    <row r="3" ht="16.5" customHeight="1" s="14">
+      <c r="A3" s="19" t="inlineStr">
         <is>
           <t>0x77d9023bf64a306612180451a00a5f5e3142b036</t>
         </is>
       </c>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>mcharlson29@gmail.com</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>23498ji234</t>
         </is>
       </c>
-      <c r="D3" s="20" t="inlineStr">
+      <c r="D3" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G3" s="18" t="inlineStr">
+      <c r="G3" s="20" t="inlineStr">
         <is>
           <t>QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="13">
-      <c r="A4" s="17" t="inlineStr">
+    <row r="4" ht="16.5" customHeight="1" s="14">
+      <c r="A4" s="19" t="inlineStr">
         <is>
           <t>0xf5ddc19afacca35d0f4533d48dd876f651542e9d</t>
         </is>
       </c>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>mpass7289@gmail.com</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>kjgkuy8769</t>
         </is>
       </c>
-      <c r="D4" s="20" t="inlineStr">
+      <c r="D4" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G4" s="18" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="16.5" customHeight="1" s="13">
-      <c r="A5" s="17" t="inlineStr">
+    <row r="5" ht="16.5" customHeight="1" s="14">
+      <c r="A5" s="19" t="inlineStr">
         <is>
           <t>0x8cab4ce0d6fe819ddbf3e371031bf61bb606dfc8</t>
         </is>
       </c>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="B5" s="20" t="inlineStr">
         <is>
           <t>angelfreeman495@gmail.com</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>cht32489</t>
         </is>
       </c>
-      <c r="D5" s="20" t="inlineStr">
+      <c r="D5" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G5" s="18" t="inlineStr">
+      <c r="G5" s="20" t="inlineStr">
         <is>
           <t>QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1" s="13">
-      <c r="A6" s="17" t="inlineStr">
+    <row r="6" ht="16.5" customHeight="1" s="14">
+      <c r="A6" s="19" t="inlineStr">
         <is>
           <t>0xc62ea2653b4b60081a2802bd65b01f65b64f79be</t>
         </is>
       </c>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>croftoonsheila73@gmail.com</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>hHy5DTHxy&amp;</t>
         </is>
       </c>
-      <c r="D6" s="20" t="inlineStr">
+      <c r="D6" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="16.5" customHeight="1" s="13">
-      <c r="A7" s="17" t="inlineStr">
+    <row r="7" ht="16.5" customHeight="1" s="14">
+      <c r="A7" s="19" t="inlineStr">
         <is>
           <t>0x4325005407ca2c4638e637fd2c98594f7c8a4d48</t>
         </is>
       </c>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="B7" s="20" t="inlineStr">
         <is>
           <t>ritagrrsn@gmail.com</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>2e)Z5QCaU%</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="H7" s="20" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" s="13">
-      <c r="A8" s="17" t="inlineStr">
+    <row r="8" ht="16.5" customHeight="1" s="14">
+      <c r="A8" s="19" t="inlineStr">
         <is>
           <t>0x261147a248d0849ec4fbda5130fc7c01647ec6ee</t>
         </is>
       </c>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>AlexandraMathews6713@gmail.com</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>sHtMKn1d_2</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="H8" s="20" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" s="13">
-      <c r="A9" s="17" t="inlineStr">
+    <row r="9" ht="16.5" customHeight="1" s="14">
+      <c r="A9" s="19" t="inlineStr">
         <is>
           <t>0xfa4771750904470939ed910747617f071750d334</t>
         </is>
       </c>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="B9" s="20" t="inlineStr">
         <is>
           <t>EdwardMiller6883@gmail.com</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>l6iJL5Ye^Q</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" s="13">
-      <c r="A10" s="17" t="inlineStr">
+    <row r="10" ht="16.5" customHeight="1" s="14">
+      <c r="A10" s="19" t="inlineStr">
         <is>
           <t>0xbe2952c51f90c96b1b075bc3f57af1fc84381b50</t>
         </is>
       </c>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>AnitaSmith6459@gmail.com</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>(jHDLmhSl1</t>
         </is>
       </c>
-      <c r="D10" s="20" t="inlineStr">
+      <c r="D10" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H10" s="12" t="inlineStr">
+      <c r="H10" s="13" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1" s="13">
-      <c r="A11" s="17" t="inlineStr">
+    <row r="11" ht="16.5" customHeight="1" s="14">
+      <c r="A11" s="19" t="inlineStr">
         <is>
           <t>0x3e3d04141394dcd356f99919dd1528a76cfedd73</t>
         </is>
       </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" s="20" t="inlineStr">
         <is>
           <t>nshorter236@gmail.com</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>+8cgQPlw*A</t>
         </is>
       </c>
-      <c r="D11" s="20" t="inlineStr">
+      <c r="D11" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H11" s="12" t="inlineStr">
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" s="13">
-      <c r="A12" s="17" t="inlineStr">
+    <row r="12" ht="16.5" customHeight="1" s="14">
+      <c r="A12" s="19" t="inlineStr">
         <is>
           <t>0x830a542642a936176fa558219a51f8f1bbd5a444</t>
         </is>
       </c>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>leonarsdonovan@gmail.com</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>&amp;1bCgi4s+2</t>
         </is>
       </c>
-      <c r="D12" s="20" t="inlineStr">
+      <c r="D12" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1" s="13">
-      <c r="A13" s="17" t="inlineStr">
+    <row r="13" ht="16.5" customHeight="1" s="14">
+      <c r="A13" s="19" t="inlineStr">
         <is>
           <t>0x5a4934cfa415f0a5fe5c2a176f5b9476f59257c8</t>
         </is>
       </c>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>holidayj775@gmail.com</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>%w3w4Y#f4I</t>
         </is>
       </c>
-      <c r="D13" s="20" t="inlineStr">
+      <c r="D13" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H13" s="12" t="inlineStr">
+      <c r="H13" s="13" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="16.5" customHeight="1" s="13">
-      <c r="A14" s="17" t="inlineStr">
+    <row r="14" ht="16.5" customHeight="1" s="14">
+      <c r="A14" s="19" t="inlineStr">
         <is>
           <t>0x7a6810eda940e07b9b979c02af67dd2e6fbdea01</t>
         </is>
       </c>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>macduffm99@gmail.com</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>!K!&amp;fBqQ0l</t>
         </is>
       </c>
-      <c r="D14" s="20" t="inlineStr">
+      <c r="D14" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H14" s="12" t="inlineStr">
+      <c r="H14" s="13" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" s="13">
-      <c r="A15" s="17" t="inlineStr">
+    <row r="15" ht="16.5" customHeight="1" s="14">
+      <c r="A15" s="19" t="inlineStr">
         <is>
           <t>0x90f5593b4faf3ff4fee7468110b4196109e13c23</t>
         </is>
       </c>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <t>owenlwn@gmail.com</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>2rCg0JC$^o</t>
         </is>
       </c>
-      <c r="D15" s="20" t="inlineStr">
+      <c r="D15" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" s="13">
-      <c r="A16" s="17" t="inlineStr">
+    <row r="16" ht="16.5" customHeight="1" s="14">
+      <c r="A16" s="19" t="inlineStr">
         <is>
           <t>0x5bf23d262f9827e48a772f828c462f48fd6b0045</t>
         </is>
       </c>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>dwifkinson6@gmail.com</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>^nt#1We68F</t>
         </is>
       </c>
-      <c r="D16" s="20" t="inlineStr">
+      <c r="D16" s="22" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="16.5" customHeight="1" s="13">
-      <c r="A17" s="17" t="inlineStr">
+    <row r="17" ht="16.5" customHeight="1" s="14">
+      <c r="A17" s="19" t="inlineStr">
         <is>
           <t>0x07b75bd161e4b5bf62cced1039c1b697a3c1bf48</t>
         </is>
       </c>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="B17" s="20" t="inlineStr">
         <is>
           <t>macduffdavid61@gmail.com</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>H)GPF9Cpy*</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="16.5" customHeight="1" s="13">
-      <c r="A18" s="17" t="inlineStr">
+    <row r="18" ht="16.5" customHeight="1" s="14">
+      <c r="A18" s="19" t="inlineStr">
         <is>
           <t>0x99263cb51ba4b79008819b17b5e3b0d021769e21</t>
         </is>
       </c>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>MichaelFreeman6075@gmail.com</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="12" t="inlineStr">
         <is>
           <t>sxm2QVj@$%</t>
         </is>
       </c>
-      <c r="D18" s="12" t="inlineStr">
+      <c r="D18" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="H18" s="12" t="inlineStr">
+      <c r="H18" s="13" t="inlineStr">
         <is>
           <t>https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="16.5" customHeight="1" s="13">
-      <c r="A19" s="17" t="inlineStr">
+    <row r="19" ht="16.5" customHeight="1" s="14">
+      <c r="A19" s="19" t="inlineStr">
         <is>
           <t>0x0a509720f3a7f13e2d869f7be85ac858fa2010b3</t>
         </is>
       </c>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="B19" s="20" t="inlineStr">
         <is>
           <t>juliawinter964@gmail.com</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="12" t="inlineStr">
         <is>
           <t>TCkSeOuw*1</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D19" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="16.5" customHeight="1" s="13">
-      <c r="A20" s="17" t="inlineStr">
+    <row r="20" ht="16.5" customHeight="1" s="14">
+      <c r="A20" s="19" t="inlineStr">
         <is>
           <t>0xfba900dac833dcca5add483c11e2aec9ed7ad2b5</t>
         </is>
       </c>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>adrianwalter085@gmail.com</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="12" t="inlineStr">
         <is>
           <t>_28R&amp;pqzPr</t>
         </is>
       </c>
-      <c r="G20" s="12" t="inlineStr">
+      <c r="G20" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmYxhRXCp7SBiBLWfp6msrwG5fwyukV5q7jFnnoLD1b5XU</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" s="13">
-      <c r="A21" s="17" t="inlineStr">
+    <row r="21" ht="16.5" customHeight="1" s="14">
+      <c r="A21" s="19" t="inlineStr">
         <is>
           <t>0x06789b91f1451b06eb7de842409a5d781349ff35</t>
         </is>
       </c>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
         <is>
           <t>destinybawerman270@gmail.com</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr">
         <is>
           <t>#sHL*HuB&amp;2</t>
         </is>
       </c>
-      <c r="D21" s="12" t="inlineStr">
+      <c r="D21" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="E21" s="12" t="inlineStr">
+      <c r="E21" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G21" s="12" t="inlineStr">
+      <c r="G21" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" s="13">
-      <c r="A22" s="17" t="inlineStr">
+    <row r="22" ht="16.5" customHeight="1" s="14">
+      <c r="A22" s="19" t="inlineStr">
         <is>
           <t>0x6945260086bf76504306c735344abec516c5f2f2</t>
         </is>
       </c>
-      <c r="B22" s="18" t="inlineStr">
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>dysonjames662@gmail.com</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="12" t="inlineStr">
         <is>
           <t>(zz%Y^hjO2</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmcbihzC3yb3aeHqHsQicf44rL4zn3GcPLuz7RjQppmYJT</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="16.5" customHeight="1" s="13">
-      <c r="A23" s="17" t="inlineStr">
+    <row r="23" ht="16.5" customHeight="1" s="14">
+      <c r="A23" s="19" t="inlineStr">
         <is>
           <t>0x5664a523839be49ba831898ecc825987cdaa4d6e</t>
         </is>
       </c>
-      <c r="B23" s="18" t="inlineStr">
+      <c r="B23" s="20" t="inlineStr">
         <is>
           <t>antoniogustman7@gmail.com</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="12" t="inlineStr">
         <is>
           <t>vgWvDb!L&amp;8</t>
         </is>
       </c>
-      <c r="D23" s="12" t="inlineStr">
+      <c r="D23" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="E23" s="12" t="inlineStr">
+      <c r="E23" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G23" s="12" t="inlineStr">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://eth-rinkeby.alchemyapi.io/v2/dB0WkyqLYSejLIzuSFyy3BHkvQFIWzJ6</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="16.5" customHeight="1" s="13">
-      <c r="A24" s="17" t="inlineStr">
+    <row r="24" ht="16.5" customHeight="1" s="14">
+      <c r="A24" s="19" t="inlineStr">
         <is>
           <t>0x8e92b134ec476b2637a7d5b9b9beb47a55e4669a</t>
         </is>
       </c>
-      <c r="B24" s="18" t="inlineStr">
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>marshmanj148@gmail.com</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C24" s="12" t="inlineStr">
         <is>
           <t>%#+8E*V!xi</t>
         </is>
       </c>
-      <c r="D24" s="12" t="inlineStr">
+      <c r="D24" s="13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G24" s="12" t="inlineStr">
+      <c r="G24" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="16.5" customHeight="1" s="13">
-      <c r="A25" s="17" t="inlineStr">
+    <row r="25" ht="16.5" customHeight="1" s="14">
+      <c r="A25" s="19" t="inlineStr">
         <is>
           <t>0x53bb214f5f22f80b6597d19b4d2a47156300b3c3</t>
         </is>
       </c>
-      <c r="B25" s="18" t="inlineStr">
+      <c r="B25" s="20" t="inlineStr">
         <is>
           <t>tclapton3@gmail.com</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C25" s="12" t="inlineStr">
         <is>
           <t>Jw1GJl!U$$</t>
         </is>
       </c>
-      <c r="G25" s="12" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="16.5" customHeight="1" s="13">
-      <c r="A26" s="17" t="inlineStr">
+    <row r="26" ht="16.5" customHeight="1" s="14">
+      <c r="A26" s="19" t="inlineStr">
         <is>
           <t>0xd243188352ed7358606e3367a0df9de846fbc0bd</t>
         </is>
       </c>
-      <c r="B26" s="18" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>pass51428@gmail.com</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C26" s="12" t="inlineStr">
         <is>
           <t>A6ZMYDMq!s</t>
         </is>
       </c>
-      <c r="G26" s="12" t="inlineStr">
+      <c r="G26" s="13" t="inlineStr">
         <is>
           <t>ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16.5" customHeight="1" s="13">
-      <c r="A27" s="17" t="inlineStr">
+    <row r="27" ht="16.5" customHeight="1" s="14">
+      <c r="A27" s="19" t="inlineStr">
         <is>
           <t>0x08dff33cb05e1bd59dfd09ccedc7980496994f48</t>
         </is>
       </c>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="B27" s="20" t="inlineStr">
         <is>
           <t>mathewsbernard57@gmail.com</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="12" t="inlineStr">
         <is>
           <t>(Hh55ZTmw5</t>
         </is>
       </c>
-      <c r="G27" s="12" t="inlineStr">
+      <c r="G27" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="12.4" customHeight="1" s="13">
-      <c r="A28" s="17" t="inlineStr">
+    <row r="28" ht="12.4" customHeight="1" s="14">
+      <c r="A28" s="19" t="inlineStr">
         <is>
           <t>0x9636d8d24e64878f2f22e29a3bca42ecec08af56</t>
         </is>
       </c>
-      <c r="B28" s="18" t="inlineStr">
+      <c r="B28" s="20" t="inlineStr">
         <is>
           <t>joshuabawerman@gmail.com</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C28" s="12" t="inlineStr">
         <is>
           <t>H!8o2LtCzL</t>
         </is>
       </c>
-      <c r="G28" s="12" t="inlineStr">
+      <c r="G28" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="12.4" customHeight="1" s="13">
-      <c r="A29" s="17" t="inlineStr">
+    <row r="29" ht="12.4" customHeight="1" s="14">
+      <c r="A29" s="19" t="inlineStr">
         <is>
           <t>0x4b1150db6788a20d1609847f88d3751a97bc6438</t>
         </is>
       </c>
-      <c r="B29" s="18" t="inlineStr">
+      <c r="B29" s="20" t="inlineStr">
         <is>
           <t>cdunce0@gmail.com</t>
         </is>
       </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>R*8Cr6ttvH</t>
         </is>
       </c>
-      <c r="G29" s="12" t="inlineStr">
+      <c r="G29" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="12.4" customHeight="1" s="13">
-      <c r="A30" s="17" t="inlineStr">
+    <row r="30" ht="12.4" customHeight="1" s="14">
+      <c r="A30" s="19" t="inlineStr">
         <is>
           <t>0x2783e12c7bb563c18134a6e916de5878a1a73e75</t>
         </is>
       </c>
-      <c r="B30" s="18" t="inlineStr">
+      <c r="B30" s="20" t="inlineStr">
         <is>
           <t>annbarrington216@gmail.com</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C30" s="12" t="inlineStr">
         <is>
           <t>24TdrHBh%R</t>
         </is>
       </c>
-      <c r="G30" s="12" t="inlineStr">
+      <c r="G30" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="12.4" customHeight="1" s="13">
-      <c r="A31" s="17" t="inlineStr">
+    <row r="31" ht="12.4" customHeight="1" s="14">
+      <c r="A31" s="19" t="inlineStr">
         <is>
           <t>0x635792167ed832dc93deffcc6544335d41c75349</t>
         </is>
       </c>
-      <c r="B31" s="18" t="inlineStr">
+      <c r="B31" s="20" t="inlineStr">
         <is>
           <t>sierrabootman@gmail.com</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr">
+      <c r="C31" s="12" t="inlineStr">
         <is>
           <t>W5*+1RqXMV</t>
         </is>
       </c>
-      <c r="G31" s="12" t="inlineStr">
+      <c r="G31" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="12.4" customHeight="1" s="13">
-      <c r="A32" s="17" t="inlineStr">
+    <row r="32" ht="12.4" customHeight="1" s="14">
+      <c r="A32" s="19" t="inlineStr">
         <is>
           <t>0xc3246a1daa2cfacaa5be4dd3f10c392d40388cc1</t>
         </is>
       </c>
-      <c r="B32" s="18" t="inlineStr">
+      <c r="B32" s="20" t="inlineStr">
         <is>
           <t>jbarrington799@gmail.com</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="12" t="inlineStr">
         <is>
           <t>98XUFqAq!L</t>
         </is>
       </c>
-      <c r="G32" s="12" t="inlineStr">
+      <c r="G32" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="12.4" customHeight="1" s="13">
-      <c r="A33" s="17" t="inlineStr">
+    <row r="33" ht="12.4" customHeight="1" s="14">
+      <c r="A33" s="19" t="inlineStr">
         <is>
           <t>0x6af85ab80a9b42b309ad3ce431e4317d5e3b06da</t>
         </is>
       </c>
-      <c r="B33" s="18" t="inlineStr">
+      <c r="B33" s="20" t="inlineStr">
         <is>
           <t>GeorgeStanley6726@gmail.com</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="C33" s="12" t="inlineStr">
         <is>
           <t>W_3IAnh5A*</t>
         </is>
       </c>
-      <c r="G33" s="12" t="inlineStr">
+      <c r="G33" s="13" t="inlineStr">
         <is>
           <t>×</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="12.4" customHeight="1" s="13">
-      <c r="A34" s="17" t="inlineStr">
+    <row r="34" ht="12.4" customHeight="1" s="14">
+      <c r="A34" s="19" t="inlineStr">
         <is>
           <t>0x1617cdd435f3d5514f3afb3850105c113ee828eb</t>
         </is>
       </c>
-      <c r="B34" s="18" t="inlineStr">
+      <c r="B34" s="20" t="inlineStr">
         <is>
           <t>hamphreyjohn77@gmail.com</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C34" s="12" t="inlineStr">
         <is>
           <t>niv(J8TueC</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="12.4" customHeight="1" s="13">
-      <c r="A35" s="17" t="inlineStr">
+    <row r="35" ht="12.4" customHeight="1" s="14">
+      <c r="A35" s="19" t="inlineStr">
         <is>
           <t>0xa1bd20d1110abbc03db80701b484f207fc2831c0</t>
         </is>
       </c>
-      <c r="B35" s="18" t="inlineStr">
+      <c r="B35" s="20" t="inlineStr">
         <is>
           <t>cameronbosworth165@gmail.com</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
         <is>
           <t>#j2o%ZIyo+</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="12.4" customHeight="1" s="13">
-      <c r="A36" s="17" t="inlineStr">
+    <row r="36" ht="12.4" customHeight="1" s="14">
+      <c r="A36" s="19" t="inlineStr">
         <is>
           <t>0x8a7a7cbac6f6f8b71666c08e439d1ef107b67231</t>
         </is>
       </c>
-      <c r="B36" s="18" t="inlineStr">
+      <c r="B36" s="20" t="inlineStr">
         <is>
           <t>carringtonsean2@gmail.com</t>
         </is>
       </c>
-      <c r="C36" s="11" t="inlineStr">
+      <c r="C36" s="12" t="inlineStr">
         <is>
           <t>^JP*eWJr77</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="12.4" customHeight="1" s="13">
-      <c r="A37" s="17" t="inlineStr">
+    <row r="37" ht="12.4" customHeight="1" s="14">
+      <c r="A37" s="19" t="inlineStr">
         <is>
           <t>0x5e9f378752c7f060b048583ca0ef99d777d68d0c</t>
         </is>
       </c>
-      <c r="B37" s="18" t="inlineStr">
+      <c r="B37" s="20" t="inlineStr">
         <is>
           <t>vltarchibald@gmail.com</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
         <is>
           <t>&amp;#7XRHdb$E</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="12.4" customHeight="1" s="13">
-      <c r="A38" s="17" t="inlineStr">
+    <row r="38" ht="12.4" customHeight="1" s="14">
+      <c r="A38" s="19" t="inlineStr">
         <is>
           <t>0x5c647f190d5a2a5e4b2fddfaa6db09c66b7080d1</t>
         </is>
       </c>
-      <c r="B38" s="18" t="inlineStr">
+      <c r="B38" s="20" t="inlineStr">
         <is>
           <t>LindaGoodman9356@gmail.com</t>
         </is>
       </c>
-      <c r="C38" s="11" t="inlineStr">
+      <c r="C38" s="12" t="inlineStr">
         <is>
           <t>$S8CdfSO78</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="12.4" customHeight="1" s="13">
-      <c r="A39" s="17" t="inlineStr">
+    <row r="39" ht="12.4" customHeight="1" s="14">
+      <c r="A39" s="19" t="inlineStr">
         <is>
           <t>0xdf547d2e6bddd2aa15c4a696cd7492b20fddff04</t>
         </is>
       </c>
-      <c r="B39" s="18" t="inlineStr">
+      <c r="B39" s="20" t="inlineStr">
         <is>
           <t>fane6314@gmail.com</t>
         </is>
       </c>
-      <c r="C39" s="11" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
         <is>
           <t>0)21TVEx(A</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="12.4" customHeight="1" s="13">
-      <c r="A40" s="17" t="inlineStr">
+    <row r="40" ht="12.4" customHeight="1" s="14">
+      <c r="A40" s="19" t="inlineStr">
         <is>
           <t>0x44f8f034e199fe15662329f42b52cc1c3988d136</t>
         </is>
       </c>
-      <c r="B40" s="18" t="inlineStr">
+      <c r="B40" s="20" t="inlineStr">
         <is>
           <t>lambertslandon40@gmail.com</t>
         </is>
       </c>
-      <c r="C40" s="11" t="inlineStr">
+      <c r="C40" s="12" t="inlineStr">
         <is>
           <t>g(Nt7uPr1C</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="12.4" customHeight="1" s="13">
-      <c r="A41" s="17" t="inlineStr">
+    <row r="41" ht="12.4" customHeight="1" s="14">
+      <c r="A41" s="19" t="inlineStr">
         <is>
           <t>0x45c5f259505113fc0dc2c77c77681cedcfc5b233</t>
         </is>
       </c>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="B41" s="20" t="inlineStr">
         <is>
           <t>brickmanb619@gmail.com</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
         <is>
           <t>_O_A5U_o$7</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="12.4" customHeight="1" s="13">
-      <c r="A42" s="17" t="inlineStr">
+    <row r="42" ht="12.4" customHeight="1" s="14">
+      <c r="A42" s="19" t="inlineStr">
         <is>
           <t>0x2e945850e28cd77bdcf9d3e4f484c9aaac86c091</t>
         </is>
       </c>
-      <c r="B42" s="18" t="inlineStr">
+      <c r="B42" s="20" t="inlineStr">
         <is>
           <t>passseth511@gmail.com</t>
         </is>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C42" s="12" t="inlineStr">
         <is>
           <t>p(6sfSwvER</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="12.4" customHeight="1" s="13">
-      <c r="A43" s="17" t="inlineStr">
+    <row r="43" ht="12.4" customHeight="1" s="14">
+      <c r="A43" s="19" t="inlineStr">
         <is>
           <t>0x94187914510d1a9ff56d5b6ebf2ff21ac1062087</t>
         </is>
       </c>
-      <c r="B43" s="18" t="inlineStr">
+      <c r="B43" s="20" t="inlineStr">
         <is>
           <t>dflatcher726@gmail.com</t>
         </is>
       </c>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
         <is>
           <t>*nn3IVWu9^</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="12.4" customHeight="1" s="13">
-      <c r="A44" s="17" t="inlineStr">
+    <row r="44" ht="12.4" customHeight="1" s="14">
+      <c r="A44" s="19" t="inlineStr">
         <is>
           <t>0xfbe5a91db70acf9818ff8db87a232b351e6a1da4</t>
         </is>
       </c>
-      <c r="B44" s="18" t="inlineStr">
+      <c r="B44" s="20" t="inlineStr">
         <is>
           <t>NicholasPhilips5725@gmail.com</t>
         </is>
       </c>
-      <c r="C44" s="11" t="inlineStr">
+      <c r="C44" s="12" t="inlineStr">
         <is>
           <t>$zIfnw_M86</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="12.4" customHeight="1" s="13">
-      <c r="A45" s="17" t="inlineStr">
+    <row r="45" ht="12.4" customHeight="1" s="14">
+      <c r="A45" s="19" t="inlineStr">
         <is>
           <t>0xebdeea026222b6c41141019013eb332a9c60f52b</t>
         </is>
       </c>
-      <c r="B45" s="18" t="inlineStr">
+      <c r="B45" s="20" t="inlineStr">
         <is>
           <t>margaretmarlow644@gmail.com</t>
         </is>
       </c>
-      <c r="C45" s="11" t="inlineStr">
+      <c r="C45" s="12" t="inlineStr">
         <is>
           <t>_8EsyEza#*</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="12.4" customHeight="1" s="13">
-      <c r="A46" s="17" t="inlineStr">
+    <row r="46" ht="12.4" customHeight="1" s="14">
+      <c r="A46" s="19" t="inlineStr">
         <is>
           <t>0x66a12f392f27ad4bb21ab8c17d951c84520f1d75</t>
         </is>
       </c>
-      <c r="B46" s="18" t="inlineStr">
+      <c r="B46" s="20" t="inlineStr">
         <is>
           <t>youmansj71@gmail.com</t>
         </is>
       </c>
-      <c r="C46" s="11" t="inlineStr">
+      <c r="C46" s="12" t="inlineStr">
         <is>
           <t>^J5$f*PbD2</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="12.4" customHeight="1" s="13">
-      <c r="A47" s="17" t="inlineStr">
+    <row r="47" ht="12.4" customHeight="1" s="14">
+      <c r="A47" s="19" t="inlineStr">
         <is>
           <t>0x1a2b12e60cb3a745f43817e4aac99742d610c1b0</t>
         </is>
       </c>
-      <c r="B47" s="18" t="inlineStr">
+      <c r="B47" s="20" t="inlineStr">
         <is>
           <t>alsoppluccile9@gmail.com</t>
         </is>
       </c>
-      <c r="C47" s="11" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
         <is>
           <t>p9gaVG!q_c</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="12.4" customHeight="1" s="13">
-      <c r="A48" s="17" t="inlineStr">
+    <row r="48" ht="12.4" customHeight="1" s="14">
+      <c r="A48" s="19" t="inlineStr">
         <is>
           <t>0xf1147f8b03a4a09e3d7af5f2acb618ae36705e4a</t>
         </is>
       </c>
-      <c r="B48" s="18" t="inlineStr">
+      <c r="B48" s="20" t="inlineStr">
         <is>
           <t>jt4992705@gmail.com</t>
         </is>
       </c>
-      <c r="C48" s="11" t="inlineStr">
+      <c r="C48" s="12" t="inlineStr">
         <is>
           <t>F13dQS3u%Y</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="12.4" customHeight="1" s="13">
-      <c r="A49" s="17" t="inlineStr">
+    <row r="49" ht="12.4" customHeight="1" s="14">
+      <c r="A49" s="19" t="inlineStr">
         <is>
           <t>0xc7bbf906e86458b49d8b31d4fcfdbe1c3a55254c</t>
         </is>
       </c>
-      <c r="B49" s="18" t="inlineStr">
+      <c r="B49" s="20" t="inlineStr">
         <is>
           <t>oswaldantonio249@gmail.com</t>
         </is>
       </c>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
         <is>
           <t>tH7WB9vps%</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="12.4" customHeight="1" s="13">
-      <c r="A50" s="17" t="inlineStr">
+    <row r="50" ht="12.4" customHeight="1" s="14">
+      <c r="A50" s="19" t="inlineStr">
         <is>
           <t>0xc4504e2e7fc7f7a41e39f6a2372ee469fa42438b</t>
         </is>
       </c>
-      <c r="B50" s="18" t="inlineStr">
+      <c r="B50" s="20" t="inlineStr">
         <is>
           <t>deborahdyson5@gmail.com</t>
         </is>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C50" s="12" t="inlineStr">
         <is>
           <t>Gh&amp;2EiNrH4</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="12.4" customHeight="1" s="13">
-      <c r="A51" s="17" t="inlineStr">
+    <row r="51" ht="12.4" customHeight="1" s="14">
+      <c r="A51" s="19" t="inlineStr">
         <is>
           <t>0xc15b3269d49afb9a63f4ac64221cdcb0ebe41f68</t>
         </is>
       </c>
-      <c r="B51" s="18" t="inlineStr">
+      <c r="B51" s="20" t="inlineStr">
         <is>
           <t>avac3936@gmail.com</t>
         </is>
       </c>
-      <c r="C51" s="11" t="inlineStr">
+      <c r="C51" s="12" t="inlineStr">
         <is>
           <t>EC@J6Epc1h</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="12.4" customHeight="1" s="13">
-      <c r="A52" s="21" t="inlineStr">
+    <row r="52" ht="12.4" customHeight="1" s="14">
+      <c r="A52" s="23" t="inlineStr">
         <is>
           <t>0x00ddf48b657323694409d4a6d7e6175df3f2e24c</t>
         </is>
       </c>
-      <c r="B52" s="18" t="inlineStr">
+      <c r="B52" s="20" t="inlineStr">
         <is>
           <t>fr7534003@gmail.com</t>
         </is>
       </c>
-      <c r="C52" s="11" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
         <is>
           <t>hM3ZBOTw(8</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="12.4" customHeight="1" s="13">
-      <c r="A53" s="17" t="inlineStr">
+    <row r="53" ht="12.4" customHeight="1" s="14">
+      <c r="A53" s="19" t="inlineStr">
         <is>
           <t>0x0fc013436ecfa181f2994977f599da571b6fc88c</t>
         </is>
       </c>
-      <c r="B53" s="18" t="inlineStr">
+      <c r="B53" s="20" t="inlineStr">
         <is>
           <t>hannahralphs012@gmail.com</t>
         </is>
       </c>
-      <c r="C53" s="11" t="inlineStr">
+      <c r="C53" s="12" t="inlineStr">
         <is>
           <t>^dUSj7b43O</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="12.4" customHeight="1" s="13">
-      <c r="A54" s="17" t="inlineStr">
+    <row r="54" ht="12.4" customHeight="1" s="14">
+      <c r="A54" s="19" t="inlineStr">
         <is>
           <t>0x5403f46962b863751580550e404c7b6e0bec6644</t>
         </is>
       </c>
-      <c r="B54" s="18" t="inlineStr">
+      <c r="B54" s="20" t="inlineStr">
         <is>
           <t>sheldonmaria02@gmail.com</t>
         </is>
       </c>
-      <c r="C54" s="11" t="inlineStr">
+      <c r="C54" s="12" t="inlineStr">
         <is>
           <t>S_9v6OmbVg</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="12.4" customHeight="1" s="13">
-      <c r="A55" s="17" t="inlineStr">
+    <row r="55" ht="12.4" customHeight="1" s="14">
+      <c r="A55" s="19" t="inlineStr">
         <is>
           <t>0x4fe7c586c71c6b21f5d4a82f4d4fc02d8388848c</t>
         </is>
       </c>
-      <c r="B55" s="18" t="inlineStr">
+      <c r="B55" s="20" t="inlineStr">
         <is>
           <t>nymanclaire084@gmail.com</t>
         </is>
       </c>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
         <is>
           <t>grfX%lR&amp;(8</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="12.4" customHeight="1" s="13">
-      <c r="A56" s="17" t="inlineStr">
+    <row r="56" ht="12.4" customHeight="1" s="14">
+      <c r="A56" s="19" t="inlineStr">
         <is>
           <t>0x91d6bff23f4e4ebd4f46a1456b19681b4444b338</t>
         </is>
       </c>
-      <c r="B56" s="18" t="inlineStr">
+      <c r="B56" s="20" t="inlineStr">
         <is>
           <t>taftbarbara034@gmail.com</t>
         </is>
       </c>
-      <c r="C56" s="11" t="inlineStr">
+      <c r="C56" s="12" t="inlineStr">
         <is>
           <t>m95&amp;1RML(7</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="12.4" customHeight="1" s="13">
-      <c r="A57" s="17" t="inlineStr">
+    <row r="57" ht="12.4" customHeight="1" s="14">
+      <c r="A57" s="19" t="inlineStr">
         <is>
           <t>0xeffbeb9ace834f8490271a1cdfd821e44bbea130</t>
         </is>
       </c>
-      <c r="B57" s="18" t="inlineStr">
+      <c r="B57" s="20" t="inlineStr">
         <is>
           <t>cartermiln578@gmail.com</t>
         </is>
       </c>
-      <c r="C57" s="11" t="inlineStr">
+      <c r="C57" s="12" t="inlineStr">
         <is>
           <t>Z^O64gY(9w</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="12.4" customHeight="1" s="13">
-      <c r="A58" s="17" t="inlineStr">
+    <row r="58" ht="12.4" customHeight="1" s="14">
+      <c r="A58" s="19" t="inlineStr">
         <is>
           <t>0x1f2f5bd41ccd36a45cdff1d6e9a6a39ed3860810</t>
         </is>
       </c>
-      <c r="B58" s="18" t="inlineStr">
+      <c r="B58" s="20" t="inlineStr">
         <is>
           <t>bt2389128@gmail.com</t>
         </is>
       </c>
-      <c r="C58" s="11" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
         <is>
           <t>W9S5IQy3+^</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="12.4" customHeight="1" s="13">
-      <c r="A59" s="17" t="inlineStr">
+    <row r="59" ht="12.4" customHeight="1" s="14">
+      <c r="A59" s="19" t="inlineStr">
         <is>
           <t>0x7e09a169e6943fc793159573b2a7d5095ce1f8ef</t>
         </is>
       </c>
-      <c r="B59" s="18" t="inlineStr">
+      <c r="B59" s="20" t="inlineStr">
         <is>
           <t>bblomfield440@gmail.com</t>
         </is>
       </c>
-      <c r="C59" s="11" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
         <is>
           <t>krV6LWtsg#</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="12.4" customHeight="1" s="13">
-      <c r="A60" s="17" t="inlineStr">
+    <row r="60" ht="12.4" customHeight="1" s="14">
+      <c r="A60" s="19" t="inlineStr">
         <is>
           <t>0x07fe4533077291d9211e8b6ee418c6bb973dfbc7</t>
         </is>
       </c>
-      <c r="B60" s="18" t="inlineStr">
+      <c r="B60" s="20" t="inlineStr">
         <is>
           <t>bbridjet4@gmail.com</t>
         </is>
       </c>
-      <c r="C60" s="11" t="inlineStr">
+      <c r="C60" s="12" t="inlineStr">
         <is>
           <t>*91VbDIxt9</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="12.4" customHeight="1" s="13">
-      <c r="A61" s="17" t="inlineStr">
+    <row r="61" ht="12.4" customHeight="1" s="14">
+      <c r="A61" s="19" t="inlineStr">
         <is>
           <t>0x74767cf992b5a033533121e920afed3ba7a272ab</t>
         </is>
       </c>
-      <c r="B61" s="18" t="inlineStr">
+      <c r="B61" s="20" t="inlineStr">
         <is>
           <t>kingsmaneric270@gmail.com</t>
         </is>
       </c>
-      <c r="C61" s="11" t="inlineStr">
+      <c r="C61" s="12" t="inlineStr">
         <is>
           <t>qLf%zFlq!2</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="12.4" customHeight="1" s="13">
-      <c r="A62" s="17" t="inlineStr">
+    <row r="62" ht="12.4" customHeight="1" s="14">
+      <c r="A62" s="19" t="inlineStr">
         <is>
           <t>0x50aba257019f1ce87da905b9e10cbe9daa44b369</t>
         </is>
       </c>
-      <c r="B62" s="18" t="inlineStr">
+      <c r="B62" s="20" t="inlineStr">
         <is>
           <t>chandterlucy87@gmail.com</t>
         </is>
       </c>
-      <c r="C62" s="11" t="inlineStr">
+      <c r="C62" s="12" t="inlineStr">
         <is>
           <t>SDN&amp;07zxL+</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="12.4" customHeight="1" s="13">
-      <c r="A63" s="17" t="inlineStr">
+    <row r="63" ht="12.4" customHeight="1" s="14">
+      <c r="A63" s="19" t="inlineStr">
         <is>
           <t>0x95a0c4aab9dd190e0fc33cd4c97c9b346ffc2db2</t>
         </is>
       </c>
-      <c r="B63" s="18" t="inlineStr">
+      <c r="B63" s="20" t="inlineStr">
         <is>
           <t>bo609703@gmail.com</t>
         </is>
       </c>
-      <c r="C63" s="11" t="inlineStr">
+      <c r="C63" s="12" t="inlineStr">
         <is>
           <t>NRa4_9Bx67</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="12.4" customHeight="1" s="13">
-      <c r="A64" s="17" t="inlineStr">
+    <row r="64" ht="12.4" customHeight="1" s="14">
+      <c r="A64" s="19" t="inlineStr">
         <is>
           <t>0x0233c8fb7bf45b52553b1443e5cedbeae3715bf6</t>
         </is>
       </c>
-      <c r="B64" s="18" t="inlineStr">
+      <c r="B64" s="20" t="inlineStr">
         <is>
           <t>angelinaconors960@gmail.com</t>
         </is>
       </c>
-      <c r="C64" s="11" t="inlineStr">
+      <c r="C64" s="12" t="inlineStr">
         <is>
           <t>(V3HUmS7Vg</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="12.4" customHeight="1" s="13">
-      <c r="A65" s="17" t="inlineStr">
+    <row r="65" ht="12.4" customHeight="1" s="14">
+      <c r="A65" s="19" t="inlineStr">
         <is>
           <t>0xee7863bcd9fc8fe38f10f32b50c0ec9477d099ae</t>
         </is>
       </c>
-      <c r="B65" s="18" t="inlineStr">
+      <c r="B65" s="20" t="inlineStr">
         <is>
           <t>haleyelmers004@gmail.com</t>
         </is>
       </c>
-      <c r="C65" s="11" t="inlineStr">
+      <c r="C65" s="12" t="inlineStr">
         <is>
           <t>(A^b7Z(scz</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="12.4" customHeight="1" s="13">
-      <c r="A66" s="17" t="inlineStr">
+    <row r="66" ht="12.4" customHeight="1" s="14">
+      <c r="A66" s="19" t="inlineStr">
         <is>
           <t>0x8dcd0ee994e7cbff8497a5725e6f3c43c505c3b9</t>
         </is>
       </c>
-      <c r="B66" s="18" t="inlineStr">
+      <c r="B66" s="20" t="inlineStr">
         <is>
           <t>elmersj2@gmail.com</t>
         </is>
       </c>
-      <c r="C66" s="11" t="inlineStr">
+      <c r="C66" s="12" t="inlineStr">
         <is>
           <t>u#zYkpg*+9</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="12.4" customHeight="1" s="13">
-      <c r="A67" s="17" t="inlineStr">
+    <row r="67" ht="12.4" customHeight="1" s="14">
+      <c r="A67" s="19" t="inlineStr">
         <is>
           <t>0x58227dc321cbfe3cd2d22a59f8904a03e72613df</t>
         </is>
       </c>
-      <c r="B67" s="18" t="inlineStr">
+      <c r="B67" s="20" t="inlineStr">
         <is>
           <t>ellaraleigh72@gmail.com</t>
         </is>
       </c>
-      <c r="C67" s="11" t="inlineStr">
+      <c r="C67" s="12" t="inlineStr">
         <is>
           <t>QR2YSVlL_o</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="12.4" customHeight="1" s="13">
-      <c r="A68" s="17" t="inlineStr">
+    <row r="68" ht="12.4" customHeight="1" s="14">
+      <c r="A68" s="19" t="inlineStr">
         <is>
           <t>0x5adb75fa5836e72b423d455ab93118dc714c7649</t>
         </is>
       </c>
-      <c r="B68" s="18" t="inlineStr">
+      <c r="B68" s="20" t="inlineStr">
         <is>
           <t>db986259@gmail.com</t>
         </is>
       </c>
-      <c r="C68" s="11" t="inlineStr">
+      <c r="C68" s="12" t="inlineStr">
         <is>
           <t>(30pFAfgL7</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="12.4" customHeight="1" s="13">
-      <c r="A69" s="17" t="inlineStr">
+    <row r="69" ht="12.4" customHeight="1" s="14">
+      <c r="A69" s="19" t="inlineStr">
         <is>
           <t>0x4b961608e462e0fff4af3dc3274161d80a87c72b</t>
         </is>
       </c>
-      <c r="B69" s="18" t="inlineStr">
+      <c r="B69" s="20" t="inlineStr">
         <is>
           <t>adriansimon874@gmail.com</t>
         </is>
       </c>
-      <c r="C69" s="11" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
         <is>
           <t>@9WBaWQx25</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="12.4" customHeight="1" s="13">
-      <c r="A70" s="17" t="inlineStr">
+    <row r="70" ht="12.4" customHeight="1" s="14">
+      <c r="A70" s="19" t="inlineStr">
         <is>
           <t>0x39a48898625cfe545fb712ab754f7f92b61291eb</t>
         </is>
       </c>
-      <c r="B70" s="18" t="inlineStr">
+      <c r="B70" s="20" t="inlineStr">
         <is>
           <t>AdrianSmith6187@gmail.com</t>
         </is>
       </c>
-      <c r="C70" s="11" t="inlineStr">
+      <c r="C70" s="12" t="inlineStr">
         <is>
           <t>_sgAIN&amp;Nh0</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="12.4" customHeight="1" s="13">
-      <c r="A71" s="17" t="inlineStr">
+    <row r="71" ht="12.4" customHeight="1" s="14">
+      <c r="A71" s="19" t="inlineStr">
         <is>
           <t>0x1fe1560ad732dd216c1b30b7f25ea2cc298a05fe</t>
         </is>
       </c>
-      <c r="B71" s="18" t="inlineStr">
+      <c r="B71" s="20" t="inlineStr">
         <is>
           <t>crossmansierra865@gmail.com</t>
         </is>
       </c>
-      <c r="C71" s="11" t="inlineStr">
+      <c r="C71" s="12" t="inlineStr">
         <is>
           <t>#&amp;6X$JZL2l</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="12.4" customHeight="1" s="13">
-      <c r="A72" s="17" t="inlineStr">
+    <row r="72" ht="12.4" customHeight="1" s="14">
+      <c r="A72" s="19" t="inlineStr">
         <is>
           <t>0x9b18431bec41d40393a27671d1f142e2745e7b7f</t>
         </is>
       </c>
-      <c r="B72" s="18" t="inlineStr">
+      <c r="B72" s="20" t="inlineStr">
         <is>
           <t>ld163277@gmail.com</t>
         </is>
       </c>
-      <c r="C72" s="11" t="inlineStr">
+      <c r="C72" s="12" t="inlineStr">
         <is>
           <t>H6IXZHJd#T</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="12.4" customHeight="1" s="13">
-      <c r="A73" s="17" t="inlineStr">
+    <row r="73" ht="12.4" customHeight="1" s="14">
+      <c r="A73" s="19" t="inlineStr">
         <is>
           <t>0x2ef801704bfa7b175419fbfda83401a1c69a8b41</t>
         </is>
       </c>
-      <c r="B73" s="18" t="inlineStr">
+      <c r="B73" s="20" t="inlineStr">
         <is>
           <t>jenkinkatherine4@gmail.com</t>
         </is>
       </c>
-      <c r="C73" s="11" t="inlineStr">
+      <c r="C73" s="12" t="inlineStr">
         <is>
           <t>!2AB5nVtue</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="12.4" customHeight="1" s="13">
-      <c r="A74" s="17" t="inlineStr">
+    <row r="74" ht="12.4" customHeight="1" s="14">
+      <c r="A74" s="19" t="inlineStr">
         <is>
           <t>0x174c50d8f6298ec9b74c90d9aa3071296bdc15da</t>
         </is>
       </c>
-      <c r="B74" s="18" t="inlineStr">
+      <c r="B74" s="20" t="inlineStr">
         <is>
           <t>agate930@gmail.com</t>
         </is>
       </c>
-      <c r="C74" s="11" t="inlineStr">
+      <c r="C74" s="12" t="inlineStr">
         <is>
           <t>+(EdhJ^uj3</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="12.4" customHeight="1" s="13">
-      <c r="A75" s="17" t="inlineStr">
+    <row r="75" ht="12.4" customHeight="1" s="14">
+      <c r="A75" s="19" t="inlineStr">
         <is>
           <t>0x4b63689f144cb986f24bc9bf66009bff461b01d2</t>
         </is>
       </c>
-      <c r="B75" s="18" t="inlineStr">
+      <c r="B75" s="20" t="inlineStr">
         <is>
           <t>laurenbarrington22@gmail.com</t>
         </is>
       </c>
-      <c r="C75" s="11" t="inlineStr">
+      <c r="C75" s="12" t="inlineStr">
         <is>
           <t>#qMJVuO4n0</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="12.4" customHeight="1" s="13">
-      <c r="A76" s="17" t="inlineStr">
+    <row r="76" ht="12.4" customHeight="1" s="14">
+      <c r="A76" s="19" t="inlineStr">
         <is>
           <t>0x967d0f2b2e829bb1a0a51ee982c392e5feaf3a85</t>
         </is>
       </c>
-      <c r="B76" s="18" t="inlineStr">
+      <c r="B76" s="20" t="inlineStr">
         <is>
           <t>whitealan857@gmail.com</t>
         </is>
       </c>
-      <c r="C76" s="11" t="inlineStr">
+      <c r="C76" s="12" t="inlineStr">
         <is>
           <t>h7wM4@Hf+Y</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="12.4" customHeight="1" s="13">
-      <c r="A77" s="17" t="inlineStr">
+    <row r="77" ht="12.4" customHeight="1" s="14">
+      <c r="A77" s="19" t="inlineStr">
         <is>
           <t>0x2e94e5c6989016c3ea1264337aa3d9ce532623cf</t>
         </is>
       </c>
-      <c r="B77" s="18" t="inlineStr">
+      <c r="B77" s="20" t="inlineStr">
         <is>
           <t>hodgesgabriel4@gmail.com</t>
         </is>
       </c>
-      <c r="C77" s="11" t="inlineStr">
+      <c r="C77" s="12" t="inlineStr">
         <is>
           <t>sn4TolWZ_8</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="12.4" customHeight="1" s="13">
-      <c r="A78" s="17" t="inlineStr">
+    <row r="78" ht="12.4" customHeight="1" s="14">
+      <c r="A78" s="19" t="inlineStr">
         <is>
           <t>0xc96dbef4dde9082171e7cd1a2c341008091cc8a8</t>
         </is>
       </c>
-      <c r="B78" s="18" t="inlineStr">
+      <c r="B78" s="20" t="inlineStr">
         <is>
           <t>derrickaudrey35@gmail.com</t>
         </is>
       </c>
-      <c r="C78" s="11" t="inlineStr">
+      <c r="C78" s="12" t="inlineStr">
         <is>
           <t>t*y6TPJgJ6</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="12.4" customHeight="1" s="13">
-      <c r="A79" s="17" t="inlineStr">
+    <row r="79" ht="12.4" customHeight="1" s="14">
+      <c r="A79" s="19" t="inlineStr">
         <is>
           <t>0x2fb64ca021a89a3af26eec4f363bb5b3502e781a</t>
         </is>
       </c>
-      <c r="B79" s="18" t="inlineStr">
+      <c r="B79" s="20" t="inlineStr">
         <is>
           <t>vg523946@gmail.com</t>
         </is>
       </c>
-      <c r="C79" s="11" t="inlineStr">
+      <c r="C79" s="12" t="inlineStr">
         <is>
           <t>*aI8UvPtEP</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="12.4" customHeight="1" s="13">
-      <c r="A80" s="17" t="inlineStr">
+    <row r="80" ht="12.4" customHeight="1" s="14">
+      <c r="A80" s="19" t="inlineStr">
         <is>
           <t>0x3199e0e6f0eee8bf6476a03c964dad4655b20d2e</t>
         </is>
       </c>
-      <c r="B80" s="18" t="inlineStr">
+      <c r="B80" s="20" t="inlineStr">
         <is>
           <t>parsonjulia1@gmail.com</t>
         </is>
       </c>
-      <c r="C80" s="11" t="inlineStr">
+      <c r="C80" s="12" t="inlineStr">
         <is>
           <t>_+$q1lMm60</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="12.4" customHeight="1" s="13">
-      <c r="A81" s="17" t="inlineStr">
+    <row r="81" ht="12.4" customHeight="1" s="14">
+      <c r="A81" s="19" t="inlineStr">
         <is>
           <t>0x08551dcd79818c2e178574f62c51398923286646</t>
         </is>
       </c>
-      <c r="B81" s="18" t="inlineStr">
+      <c r="B81" s="20" t="inlineStr">
         <is>
           <t>bf5341822@gmail.com</t>
         </is>
       </c>
-      <c r="C81" s="11" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
         <is>
           <t>@@wu6_GFRt</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="12.4" customHeight="1" s="13">
-      <c r="A82" s="17" t="inlineStr">
+    <row r="82" ht="12.4" customHeight="1" s="14">
+      <c r="A82" s="19" t="inlineStr">
         <is>
           <t>0xfb96c80e85e854ade3e24c062282a17ee49d9c1d</t>
         </is>
       </c>
-      <c r="B82" s="18" t="inlineStr">
+      <c r="B82" s="20" t="inlineStr">
         <is>
           <t>mramacey2@gmail.com</t>
         </is>
       </c>
-      <c r="C82" s="11" t="inlineStr">
+      <c r="C82" s="12" t="inlineStr">
         <is>
           <t>((8J@5Yb_4</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="12.4" customHeight="1" s="13">
-      <c r="A83" s="17" t="inlineStr">
+    <row r="83" ht="12.4" customHeight="1" s="14">
+      <c r="A83" s="19" t="inlineStr">
         <is>
           <t>0x8e66aa1c9dc965d9ae872505b0f0f6bb6ce45f77</t>
         </is>
       </c>
-      <c r="B83" s="18" t="inlineStr">
+      <c r="B83" s="20" t="inlineStr">
         <is>
           <t>galbraithp67@gmail.com</t>
         </is>
       </c>
-      <c r="C83" s="11" t="inlineStr">
+      <c r="C83" s="12" t="inlineStr">
         <is>
           <t>#9(8CWmsq^</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="12.4" customHeight="1" s="13">
-      <c r="A84" s="17" t="inlineStr">
+    <row r="84" ht="12.4" customHeight="1" s="14">
+      <c r="A84" s="19" t="inlineStr">
         <is>
           <t>0x5381366083ad039ff65bd7df8dba07a24e38a6a7</t>
         </is>
       </c>
-      <c r="B84" s="18" t="inlineStr">
+      <c r="B84" s="20" t="inlineStr">
         <is>
           <t>hannahjerome374@gmail.com</t>
         </is>
       </c>
-      <c r="C84" s="11" t="inlineStr">
+      <c r="C84" s="12" t="inlineStr">
         <is>
           <t>@P)7LncvXA</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="12.4" customHeight="1" s="13">
-      <c r="A85" s="17" t="inlineStr">
+    <row r="85" ht="12.4" customHeight="1" s="14">
+      <c r="A85" s="19" t="inlineStr">
         <is>
           <t>0x85f70e5f090ea66bc489278911838b261a63debd</t>
         </is>
       </c>
-      <c r="B85" s="18" t="inlineStr">
+      <c r="B85" s="20" t="inlineStr">
         <is>
           <t>ca1803284@gmail.com</t>
         </is>
       </c>
-      <c r="C85" s="11" t="inlineStr">
+      <c r="C85" s="12" t="inlineStr">
         <is>
           <t>*Q3FdCBn3V</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="12.4" customHeight="1" s="13">
-      <c r="A86" s="17" t="inlineStr">
+    <row r="86" ht="12.4" customHeight="1" s="14">
+      <c r="A86" s="19" t="inlineStr">
         <is>
           <t>0xa02bc09823990b627e38363808db67ee36b8c4f8</t>
         </is>
       </c>
-      <c r="B86" s="18" t="inlineStr">
+      <c r="B86" s="20" t="inlineStr">
         <is>
           <t>agathabarnes23@gmail.com</t>
         </is>
       </c>
-      <c r="C86" s="11" t="inlineStr">
+      <c r="C86" s="12" t="inlineStr">
         <is>
           <t>i$9Xd@2MYd</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="12.4" customHeight="1" s="13">
-      <c r="A87" s="17" t="inlineStr">
+    <row r="87" ht="12.4" customHeight="1" s="14">
+      <c r="A87" s="19" t="inlineStr">
         <is>
           <t>0xff8d297f22f414b17ca8d426c5365a86d38370ca</t>
         </is>
       </c>
-      <c r="B87" s="18" t="inlineStr">
+      <c r="B87" s="20" t="inlineStr">
         <is>
           <t>me602027@gmail.com</t>
         </is>
       </c>
-      <c r="C87" s="11" t="inlineStr">
+      <c r="C87" s="12" t="inlineStr">
         <is>
           <t>7N27YIlT(7</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="12.4" customHeight="1" s="13">
-      <c r="A88" s="21" t="inlineStr">
+    <row r="88" ht="12.4" customHeight="1" s="14">
+      <c r="A88" s="23" t="inlineStr">
         <is>
           <t>0x4d798ccc2d71ebf48ed1f79a85b3baee04898f45</t>
         </is>
       </c>
-      <c r="B88" s="18" t="inlineStr">
+      <c r="B88" s="20" t="inlineStr">
         <is>
           <t>wifkinsonarianna@gmail.com</t>
         </is>
       </c>
-      <c r="C88" s="11" t="inlineStr">
+      <c r="C88" s="12" t="inlineStr">
         <is>
           <t>%j7C6gmE2B</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="12.4" customHeight="1" s="13">
-      <c r="A89" s="17" t="inlineStr">
+    <row r="89" ht="12.4" customHeight="1" s="14">
+      <c r="A89" s="19" t="inlineStr">
         <is>
           <t>0x7e16c50d178fd6b29dca845489fc32b1ac41a625</t>
         </is>
       </c>
-      <c r="B89" s="18" t="inlineStr">
+      <c r="B89" s="20" t="inlineStr">
         <is>
           <t>gatealise65@gmail.com</t>
         </is>
       </c>
-      <c r="C89" s="11" t="inlineStr">
+      <c r="C89" s="12" t="inlineStr">
         <is>
           <t>Q&amp;6H+fVb%R</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="12.4" customHeight="1" s="13">
-      <c r="A90" s="17" t="inlineStr">
+    <row r="90" ht="12.4" customHeight="1" s="14">
+      <c r="A90" s="19" t="inlineStr">
         <is>
           <t>0xb518994bbdd0604d2b537af5cf840d4a1c7b14c7</t>
         </is>
       </c>
-      <c r="B90" s="18" t="inlineStr">
+      <c r="B90" s="20" t="inlineStr">
         <is>
           <t>lucasaustin949@gmail.com</t>
         </is>
       </c>
-      <c r="C90" s="11" t="inlineStr">
+      <c r="C90" s="12" t="inlineStr">
         <is>
           <t>*EUQBa$Mr9</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="12.4" customHeight="1" s="13">
-      <c r="A91" s="17" t="inlineStr">
+    <row r="91" ht="12.4" customHeight="1" s="14">
+      <c r="A91" s="19" t="inlineStr">
         <is>
           <t>0x32cc6c3f67786afd0c3acb3967cef4c59d6e4f99</t>
         </is>
       </c>
-      <c r="B91" s="18" t="inlineStr">
+      <c r="B91" s="20" t="inlineStr">
         <is>
           <t>flemingisabel2@gmail.com</t>
         </is>
       </c>
-      <c r="C91" s="11" t="inlineStr">
+      <c r="C91" s="12" t="inlineStr">
         <is>
           <t>rI$JpGGo(2</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="12.4" customHeight="1" s="13">
-      <c r="A92" s="17" t="inlineStr">
+    <row r="92" ht="12.4" customHeight="1" s="14">
+      <c r="A92" s="19" t="inlineStr">
         <is>
           <t>0x69d3405f965e1e96c2cc2bbe7dbb3c44878faac0</t>
         </is>
       </c>
-      <c r="B92" s="18" t="inlineStr">
+      <c r="B92" s="20" t="inlineStr">
         <is>
           <t>maceysebastian62@gmail.com</t>
         </is>
       </c>
-      <c r="C92" s="11" t="inlineStr">
+      <c r="C92" s="12" t="inlineStr">
         <is>
           <t>@0Fhrc#BG)</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="12.4" customHeight="1" s="13">
-      <c r="A93" s="17" t="inlineStr">
+    <row r="93" ht="12.4" customHeight="1" s="14">
+      <c r="A93" s="19" t="inlineStr">
         <is>
           <t>0x6646b912dc445b78a9f7239694fb1319726e3826</t>
         </is>
       </c>
-      <c r="B93" s="18" t="inlineStr">
+      <c r="B93" s="20" t="inlineStr">
         <is>
           <t>jenkinmadeline03@gmail.com</t>
         </is>
       </c>
-      <c r="C93" s="11" t="inlineStr">
+      <c r="C93" s="12" t="inlineStr">
         <is>
           <t>!y#L_UN7G3</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="12.4" customHeight="1" s="13">
-      <c r="A94" s="17" t="inlineStr">
+    <row r="94" ht="12.4" customHeight="1" s="14">
+      <c r="A94" s="19" t="inlineStr">
         <is>
           <t>0x45d5d6b6e667760022b74f65dd05d0101ff67c93</t>
         </is>
       </c>
-      <c r="B94" s="18" t="inlineStr">
+      <c r="B94" s="20" t="inlineStr">
         <is>
           <t>hardmanm79@gmail.com</t>
         </is>
       </c>
-      <c r="C94" s="11" t="inlineStr">
+      <c r="C94" s="12" t="inlineStr">
         <is>
           <t>sG1lKIbFJ^</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="12.4" customHeight="1" s="13">
-      <c r="A95" s="17" t="inlineStr">
+    <row r="95" ht="12.4" customHeight="1" s="14">
+      <c r="A95" s="19" t="inlineStr">
         <is>
           <t>0xba427f818cec2bb104a0f71d00723c8c0026993d</t>
         </is>
       </c>
-      <c r="B95" s="18" t="inlineStr">
+      <c r="B95" s="20" t="inlineStr">
         <is>
           <t>NoraHaig5443@gmail.com</t>
         </is>
       </c>
-      <c r="C95" s="11" t="inlineStr">
+      <c r="C95" s="12" t="inlineStr">
         <is>
           <t>3R8MUSgZ$(</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="12.4" customHeight="1" s="13">
-      <c r="A96" s="17" t="inlineStr">
+    <row r="96" ht="12.4" customHeight="1" s="14">
+      <c r="A96" s="19" t="inlineStr">
         <is>
           <t>0x4d00ba89af82c2450a4f1ecfd85948215f42e30d</t>
         </is>
       </c>
-      <c r="B96" s="18" t="inlineStr">
+      <c r="B96" s="20" t="inlineStr">
         <is>
           <t>daisyarthurs144@gmail.com</t>
         </is>
       </c>
-      <c r="C96" s="11" t="inlineStr">
+      <c r="C96" s="12" t="inlineStr">
         <is>
           <t>YN1h7uUnB!</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="12.4" customHeight="1" s="13">
-      <c r="A97" s="17" t="inlineStr">
+    <row r="97" ht="12.4" customHeight="1" s="14">
+      <c r="A97" s="19" t="inlineStr">
         <is>
           <t>0x62a91f42a8b7d70e55cef25317bca820ad2cbbd5</t>
         </is>
       </c>
-      <c r="B97" s="18" t="inlineStr">
+      <c r="B97" s="20" t="inlineStr">
         <is>
           <t>gracejeff193@gmail.com</t>
         </is>
       </c>
-      <c r="C97" s="11" t="inlineStr">
+      <c r="C97" s="12" t="inlineStr">
         <is>
           <t>m(09RK+z_i</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="12.4" customHeight="1" s="13">
-      <c r="A98" s="17" t="inlineStr">
+    <row r="98" ht="12.4" customHeight="1" s="14">
+      <c r="A98" s="19" t="inlineStr">
         <is>
           <t>0x3aa01b3675b20353ad9e30f55075ebedfdee92fd</t>
         </is>
       </c>
-      <c r="B98" s="18" t="inlineStr">
+      <c r="B98" s="20" t="inlineStr">
         <is>
           <t>VirginiaMiller6962@gmail.com</t>
         </is>
       </c>
-      <c r="C98" s="11" t="inlineStr">
+      <c r="C98" s="12" t="inlineStr">
         <is>
           <t>7DxEq0)v#X</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="12.4" customHeight="1" s="13">
-      <c r="A99" s="17" t="inlineStr">
+    <row r="99" ht="12.4" customHeight="1" s="14">
+      <c r="A99" s="19" t="inlineStr">
         <is>
           <t>0xb217dd96130f83dbe9ba95ee426968d260918b55</t>
         </is>
       </c>
-      <c r="B99" s="18" t="inlineStr">
+      <c r="B99" s="20" t="inlineStr">
         <is>
           <t>ml7493953@gmail.com</t>
         </is>
       </c>
-      <c r="C99" s="11" t="inlineStr">
+      <c r="C99" s="12" t="inlineStr">
         <is>
           <t>_3bWXeStLi</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="12.4" customHeight="1" s="13">
-      <c r="A100" s="17" t="inlineStr">
+    <row r="100" ht="12.4" customHeight="1" s="14">
+      <c r="A100" s="19" t="inlineStr">
         <is>
           <t>0x81ce67fbf56c7609820c14fbc9623411b070831a</t>
         </is>
       </c>
-      <c r="B100" s="18" t="inlineStr">
+      <c r="B100" s="20" t="inlineStr">
         <is>
           <t>lewinstanley936@gmail.com</t>
         </is>
       </c>
-      <c r="C100" s="11" t="inlineStr">
+      <c r="C100" s="12" t="inlineStr">
         <is>
           <t>+6u&amp;Ns@6km</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="12.4" customHeight="1" s="13">
-      <c r="A101" s="17" t="inlineStr">
+    <row r="101" ht="12.4" customHeight="1" s="14">
+      <c r="A101" s="19" t="inlineStr">
         <is>
           <t>0xcd84d4ff44e4895cefb093187f565c0422e4871e</t>
         </is>
       </c>
-      <c r="B101" s="18" t="inlineStr">
+      <c r="B101" s="20" t="inlineStr">
         <is>
           <t>sshackley9@gmail.com</t>
         </is>
       </c>
-      <c r="C101" s="11" t="inlineStr">
+      <c r="C101" s="12" t="inlineStr">
         <is>
           <t>J6K*0J%gk_</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="12.4" customHeight="1" s="13">
-      <c r="A102" s="17" t="inlineStr">
+    <row r="102" ht="12.4" customHeight="1" s="14">
+      <c r="A102" s="19" t="inlineStr">
         <is>
           <t>0x8e74f5d739974f09d455a09c8121dce69127c129</t>
         </is>
       </c>
-      <c r="B102" s="18" t="inlineStr">
+      <c r="B102" s="20" t="inlineStr">
         <is>
           <t>mb1142132@gmail.com</t>
         </is>
       </c>
-      <c r="C102" s="11" t="inlineStr">
+      <c r="C102" s="12" t="inlineStr">
         <is>
           <t>008BHXWgy%</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="12.4" customHeight="1" s="13">
-      <c r="A103" s="17" t="inlineStr">
+    <row r="103" ht="12.4" customHeight="1" s="14">
+      <c r="A103" s="19" t="inlineStr">
         <is>
           <t>0x961313a46c85ffd8f3995e25c83ce5dd2eb5a17d</t>
         </is>
       </c>
-      <c r="B103" s="18" t="inlineStr">
+      <c r="B103" s="20" t="inlineStr">
         <is>
           <t>holidayk716@gmail.com</t>
         </is>
       </c>
-      <c r="C103" s="11" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
         <is>
           <t>)%I99qtOt6</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="12.4" customHeight="1" s="13">
-      <c r="A104" s="17" t="inlineStr">
+    <row r="104" ht="12.4" customHeight="1" s="14">
+      <c r="A104" s="19" t="inlineStr">
         <is>
           <t>0x366cd21f547493df436bb3e9d5274594efa6057b</t>
         </is>
       </c>
-      <c r="B104" s="18" t="inlineStr">
+      <c r="B104" s="20" t="inlineStr">
         <is>
           <t>iane26779@gmail.com</t>
         </is>
       </c>
-      <c r="C104" s="11" t="inlineStr">
+      <c r="C104" s="12" t="inlineStr">
         <is>
           <t>14Qc^xJe$Q</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="12.4" customHeight="1" s="13">
-      <c r="A105" s="17" t="inlineStr">
+    <row r="105" ht="12.4" customHeight="1" s="14">
+      <c r="A105" s="19" t="inlineStr">
         <is>
           <t>0x5f3d9750e6dcea9dee4731b99c68c3d06c31f94e</t>
         </is>
       </c>
-      <c r="B105" s="18" t="inlineStr">
+      <c r="B105" s="20" t="inlineStr">
         <is>
           <t>lnicholson199@gmail.com</t>
         </is>
       </c>
-      <c r="C105" s="11" t="inlineStr">
+      <c r="C105" s="12" t="inlineStr">
         <is>
           <t>^KJyFNWs)6</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="12.4" customHeight="1" s="13">
-      <c r="A106" s="17" t="inlineStr">
+    <row r="106" ht="12.4" customHeight="1" s="14">
+      <c r="A106" s="19" t="inlineStr">
         <is>
           <t>0x925fb95203b57307c7f8368d9852528aae87f8ec</t>
         </is>
       </c>
-      <c r="B106" s="18" t="inlineStr">
+      <c r="B106" s="20" t="inlineStr">
         <is>
           <t>angelinaalbertson@gmail.com</t>
         </is>
       </c>
-      <c r="C106" s="11" t="inlineStr">
+      <c r="C106" s="12" t="inlineStr">
         <is>
           <t>@EmxWf&amp;TT6</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="12.4" customHeight="1" s="13">
-      <c r="A107" s="17" t="inlineStr">
+    <row r="107" ht="12.4" customHeight="1" s="14">
+      <c r="A107" s="19" t="inlineStr">
         <is>
           <t>0xa85342f95e81f178f27a12dfbaa7ac1fc9858814</t>
         </is>
       </c>
-      <c r="B107" s="18" t="inlineStr">
+      <c r="B107" s="20" t="inlineStr">
         <is>
           <t>gabrielleflannagan@gmail.com</t>
         </is>
       </c>
-      <c r="C107" s="11" t="inlineStr">
+      <c r="C107" s="12" t="inlineStr">
         <is>
           <t>1z0MBjRBc)</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="12.4" customHeight="1" s="13">
-      <c r="A108" s="17" t="inlineStr">
+    <row r="108" ht="12.4" customHeight="1" s="14">
+      <c r="A108" s="19" t="inlineStr">
         <is>
           <t>0xf498c5761ee87c0620f8a31ac67232782a48d2fc</t>
         </is>
       </c>
-      <c r="B108" s="18" t="inlineStr">
+      <c r="B108" s="20" t="inlineStr">
         <is>
           <t>salisburrymorgan@gmail.com</t>
         </is>
       </c>
-      <c r="C108" s="11" t="inlineStr">
+      <c r="C108" s="12" t="inlineStr">
         <is>
           <t>q1ARjI!r$C</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="12.4" customHeight="1" s="13">
-      <c r="A109" s="17" t="inlineStr">
+    <row r="109" ht="12.4" customHeight="1" s="14">
+      <c r="A109" s="19" t="inlineStr">
         <is>
           <t>0xeb8467f557fe80cf8a875000d34ff2fa945257bc</t>
         </is>
       </c>
-      <c r="B109" s="18" t="inlineStr">
+      <c r="B109" s="20" t="inlineStr">
         <is>
           <t>curtissaunder@gmail.com</t>
         </is>
       </c>
-      <c r="C109" s="11" t="inlineStr">
+      <c r="C109" s="12" t="inlineStr">
         <is>
           <t>^Cj!87Kv3E</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="12.4" customHeight="1" s="13">
-      <c r="A110" s="17" t="inlineStr">
+    <row r="110" ht="12.4" customHeight="1" s="14">
+      <c r="A110" s="19" t="inlineStr">
         <is>
           <t>0xc4b547c63be69743d3a6b566bc60f44de5e947df</t>
         </is>
       </c>
-      <c r="B110" s="18" t="inlineStr">
+      <c r="B110" s="20" t="inlineStr">
         <is>
           <t>gimsonhunter2@gmail.com</t>
         </is>
       </c>
-      <c r="C110" s="11" t="inlineStr">
+      <c r="C110" s="12" t="inlineStr">
         <is>
           <t>_@_9Mk1OdJ</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="12.4" customHeight="1" s="13">
-      <c r="A111" s="17" t="inlineStr">
+    <row r="111" ht="12.4" customHeight="1" s="14">
+      <c r="A111" s="19" t="inlineStr">
         <is>
           <t>0xa5518c67cffb36e2a99f2a2b7669d20006c0b361</t>
         </is>
       </c>
-      <c r="B111" s="18" t="inlineStr">
+      <c r="B111" s="20" t="inlineStr">
         <is>
           <t>ThomasHoward9010@gmail.com</t>
         </is>
       </c>
-      <c r="C111" s="11" t="inlineStr">
+      <c r="C111" s="12" t="inlineStr">
         <is>
           <t>0Rgt2WghT$</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="12.4" customHeight="1" s="13">
-      <c r="A112" s="17" t="inlineStr">
+    <row r="112" ht="12.4" customHeight="1" s="14">
+      <c r="A112" s="19" t="inlineStr">
         <is>
           <t>0xb1f70a9d642ed1141f5d26d1760879d0a61d54dc</t>
         </is>
       </c>
-      <c r="B112" s="18" t="inlineStr">
+      <c r="B112" s="20" t="inlineStr">
         <is>
           <t>cm8388450@gmail.com</t>
         </is>
       </c>
-      <c r="C112" s="11" t="inlineStr">
+      <c r="C112" s="12" t="inlineStr">
         <is>
           <t>!hZ&amp;O%FyO9</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="12.4" customHeight="1" s="13">
-      <c r="A113" s="17" t="inlineStr">
+    <row r="113" ht="12.4" customHeight="1" s="14">
+      <c r="A113" s="19" t="inlineStr">
         <is>
           <t>0x545ff4b2f7079eb8eeb8d4cebc99582988bd368f</t>
         </is>
       </c>
-      <c r="B113" s="18" t="inlineStr">
+      <c r="B113" s="20" t="inlineStr">
         <is>
           <t>hfulton564@gmail.com</t>
         </is>
       </c>
-      <c r="C113" s="11" t="inlineStr">
+      <c r="C113" s="12" t="inlineStr">
         <is>
           <t>%4dSnrtn)(</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="12.4" customHeight="1" s="13">
-      <c r="A114" s="17" t="inlineStr">
+    <row r="114" ht="12.4" customHeight="1" s="14">
+      <c r="A114" s="19" t="inlineStr">
         <is>
           <t>0xb1c95f7cc6458c0ec96889111c0e277e07e72850</t>
         </is>
       </c>
-      <c r="B114" s="18" t="inlineStr">
+      <c r="B114" s="20" t="inlineStr">
         <is>
           <t>littlealexis311@gmail.com</t>
         </is>
       </c>
-      <c r="C114" s="11" t="inlineStr">
+      <c r="C114" s="12" t="inlineStr">
         <is>
           <t>!E6YRxpej!</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="12.4" customHeight="1" s="13">
-      <c r="A115" s="17" t="inlineStr">
+    <row r="115" ht="12.4" customHeight="1" s="14">
+      <c r="A115" s="19" t="inlineStr">
         <is>
           <t>0x99f59d188968bacfbf38999028857e35534f701d</t>
         </is>
       </c>
-      <c r="B115" s="18" t="inlineStr">
+      <c r="B115" s="20" t="inlineStr">
         <is>
           <t>oaudley620@gmail.com</t>
         </is>
       </c>
-      <c r="C115" s="11" t="inlineStr">
+      <c r="C115" s="12" t="inlineStr">
         <is>
           <t>D4QB3QMg_T</t>
         </is>
       </c>
     </row>
-    <row r="116" ht="12.4" customHeight="1" s="13">
-      <c r="A116" s="17" t="inlineStr">
+    <row r="116" ht="12.4" customHeight="1" s="14">
+      <c r="A116" s="19" t="inlineStr">
         <is>
           <t>0x38c74f646cd99336f465ec90c99c795c439c9223</t>
         </is>
       </c>
-      <c r="B116" s="18" t="inlineStr">
+      <c r="B116" s="20" t="inlineStr">
         <is>
           <t>evelynpass51@gmail.com</t>
         </is>
       </c>
-      <c r="C116" s="11" t="inlineStr">
+      <c r="C116" s="12" t="inlineStr">
         <is>
           <t>2@3G&amp;fhEuY</t>
         </is>
       </c>
     </row>
-    <row r="117" ht="12.4" customHeight="1" s="13">
-      <c r="A117" s="17" t="inlineStr">
+    <row r="117" ht="12.4" customHeight="1" s="14">
+      <c r="A117" s="19" t="inlineStr">
         <is>
           <t>0x0c499f3defe4dbd9533229efd09d25395410dd4e</t>
         </is>
       </c>
-      <c r="B117" s="18" t="inlineStr">
+      <c r="B117" s="20" t="inlineStr">
         <is>
           <t>melissapearcy6@gmail.com</t>
         </is>
       </c>
-      <c r="C117" s="11" t="inlineStr">
+      <c r="C117" s="12" t="inlineStr">
         <is>
           <t>^q%QK(rm2s</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="12.4" customHeight="1" s="13">
-      <c r="A118" s="17" t="inlineStr">
+    <row r="118" ht="12.4" customHeight="1" s="14">
+      <c r="A118" s="19" t="inlineStr">
         <is>
           <t>0xdff540cc732d8237535bead7a1f66d71cad113ea</t>
         </is>
       </c>
-      <c r="B118" s="18" t="inlineStr">
+      <c r="B118" s="20" t="inlineStr">
         <is>
           <t>marjoriej437@gmail.com</t>
         </is>
       </c>
-      <c r="C118" s="11" t="inlineStr">
+      <c r="C118" s="12" t="inlineStr">
         <is>
           <t>a_6ZKy5GED</t>
         </is>
       </c>
     </row>
-    <row r="119" ht="12.4" customHeight="1" s="13">
-      <c r="A119" s="17" t="inlineStr">
+    <row r="119" ht="12.4" customHeight="1" s="14">
+      <c r="A119" s="19" t="inlineStr">
         <is>
           <t>0x193d3058a538900fa1b6166f0283ef2675610190</t>
         </is>
       </c>
-      <c r="B119" s="18" t="inlineStr">
+      <c r="B119" s="20" t="inlineStr">
         <is>
           <t>wifkinsonjenna77@gmail.com</t>
         </is>
       </c>
-      <c r="C119" s="11" t="inlineStr">
+      <c r="C119" s="12" t="inlineStr">
         <is>
           <t>MyEEgi#J)5</t>
         </is>
       </c>
     </row>
-    <row r="120" ht="12.4" customHeight="1" s="13">
-      <c r="A120" s="17" t="inlineStr">
+    <row r="120" ht="12.4" customHeight="1" s="14">
+      <c r="A120" s="19" t="inlineStr">
         <is>
           <t>0x5a2d1bd26285592be7faa590dc02c465c0d686e1</t>
         </is>
       </c>
-      <c r="B120" s="18" t="inlineStr">
+      <c r="B120" s="20" t="inlineStr">
         <is>
           <t>brickmanshirley9@gmail.com</t>
         </is>
       </c>
-      <c r="C120" s="11" t="inlineStr">
+      <c r="C120" s="12" t="inlineStr">
         <is>
           <t>A^*S2H08qa</t>
         </is>
       </c>
     </row>
-    <row r="121" ht="12.4" customHeight="1" s="13">
-      <c r="A121" s="17" t="inlineStr">
+    <row r="121" ht="12.4" customHeight="1" s="14">
+      <c r="A121" s="19" t="inlineStr">
         <is>
           <t>0x1d5663fd21bff4ba7a8897ea723aa5fd0557c684</t>
         </is>
       </c>
-      <c r="B121" s="18" t="inlineStr">
+      <c r="B121" s="20" t="inlineStr">
         <is>
           <t>hlillian922@gmail.com</t>
         </is>
       </c>
-      <c r="C121" s="11" t="inlineStr">
+      <c r="C121" s="12" t="inlineStr">
         <is>
           <t>s^3N+Ctkfc</t>
         </is>
       </c>
     </row>
-    <row r="122" ht="12.4" customHeight="1" s="13">
-      <c r="A122" s="17" t="inlineStr">
+    <row r="122" ht="12.4" customHeight="1" s="14">
+      <c r="A122" s="19" t="inlineStr">
         <is>
           <t>0x4e46e9704e6266e20242a8d7910cd5ed3df65cc6</t>
         </is>
       </c>
-      <c r="B122" s="18" t="inlineStr">
+      <c r="B122" s="20" t="inlineStr">
         <is>
           <t>ramaceylily9@gmail.com</t>
         </is>
       </c>
-      <c r="C122" s="11" t="inlineStr">
+      <c r="C122" s="12" t="inlineStr">
         <is>
           <t>@h9XK#Eq(B</t>
         </is>
       </c>
     </row>
-    <row r="123" ht="12.4" customHeight="1" s="13">
-      <c r="A123" s="17" t="inlineStr">
+    <row r="123" ht="12.4" customHeight="1" s="14">
+      <c r="A123" s="19" t="inlineStr">
         <is>
           <t>0x6ec0bfc84474c8f74bec63a55ee5250e0a44c934</t>
         </is>
       </c>
-      <c r="B123" s="18" t="inlineStr">
+      <c r="B123" s="20" t="inlineStr">
         <is>
           <t>ChristopherMurphy1228@gmail.com</t>
         </is>
       </c>
-      <c r="C123" s="11" t="inlineStr">
+      <c r="C123" s="12" t="inlineStr">
         <is>
           <t>*TET4VDu)S</t>
         </is>
       </c>
     </row>
-    <row r="124" ht="12.4" customHeight="1" s="13">
-      <c r="A124" s="21" t="inlineStr">
+    <row r="124" ht="12.4" customHeight="1" s="14">
+      <c r="A124" s="23" t="inlineStr">
         <is>
           <t>0x4bc788bbf0c1a4269e552b6978968fbb325e87c4</t>
         </is>
       </c>
-      <c r="B124" s="18" t="inlineStr">
+      <c r="B124" s="20" t="inlineStr">
         <is>
           <t>saundercarl5@gmail.com</t>
         </is>
       </c>
-      <c r="C124" s="11" t="inlineStr">
+      <c r="C124" s="12" t="inlineStr">
         <is>
           <t>P3)GiVYw%_</t>
         </is>
       </c>
     </row>
-    <row r="125" ht="12.4" customHeight="1" s="13">
-      <c r="A125" s="17" t="inlineStr">
+    <row r="125" ht="12.4" customHeight="1" s="14">
+      <c r="A125" s="19" t="inlineStr">
         <is>
           <t>0x320e5fb5654bda8040a08686f50702f7d9853b6a</t>
         </is>
       </c>
-      <c r="B125" s="18" t="inlineStr">
+      <c r="B125" s="20" t="inlineStr">
         <is>
           <t>ashtonpaterson0@gmail.com</t>
         </is>
       </c>
-      <c r="C125" s="11" t="inlineStr">
+      <c r="C125" s="12" t="inlineStr">
         <is>
           <t>8fDLF1no!v</t>
         </is>
       </c>
     </row>
-    <row r="126" ht="12.4" customHeight="1" s="13">
-      <c r="A126" s="17" t="inlineStr">
+    <row r="126" ht="12.4" customHeight="1" s="14">
+      <c r="A126" s="19" t="inlineStr">
         <is>
           <t>0xf6c0d4d667703dbfe8685eaa44c79aabc43ec089</t>
         </is>
       </c>
-      <c r="B126" s="18" t="inlineStr">
+      <c r="B126" s="20" t="inlineStr">
         <is>
           <t>hkendal414@gmail.com</t>
         </is>
       </c>
-      <c r="C126" s="11" t="inlineStr">
+      <c r="C126" s="12" t="inlineStr">
         <is>
           <t>%F5aiSz3RZ</t>
         </is>
       </c>
     </row>
-    <row r="127" ht="12.4" customHeight="1" s="13">
-      <c r="A127" s="17" t="inlineStr">
+    <row r="127" ht="12.4" customHeight="1" s="14">
+      <c r="A127" s="19" t="inlineStr">
         <is>
           <t>0x9786c3a7cf5200640d98bec387708ef041454f2f</t>
         </is>
       </c>
-      <c r="B127" s="18" t="inlineStr">
+      <c r="B127" s="20" t="inlineStr">
         <is>
           <t>raleighlillian860@gmail.com</t>
         </is>
       </c>
-      <c r="C127" s="11" t="inlineStr">
+      <c r="C127" s="12" t="inlineStr">
         <is>
           <t>$54OWOMw8c</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="12.4" customHeight="1" s="13">
-      <c r="A128" s="17" t="inlineStr">
+    <row r="128" ht="12.4" customHeight="1" s="14">
+      <c r="A128" s="19" t="inlineStr">
         <is>
           <t>0x1c7c947046f6b6e9e465785291f060345231add5</t>
         </is>
       </c>
-      <c r="B128" s="18" t="inlineStr">
+      <c r="B128" s="20" t="inlineStr">
         <is>
           <t>abramsonj026@gmail.com</t>
         </is>
       </c>
-      <c r="C128" s="11" t="inlineStr">
+      <c r="C128" s="12" t="inlineStr">
         <is>
           <t>)8kBllcoz!</t>
         </is>
       </c>
     </row>
-    <row r="129" ht="12.4" customHeight="1" s="13">
-      <c r="A129" s="17" t="inlineStr">
+    <row r="129" ht="12.4" customHeight="1" s="14">
+      <c r="A129" s="19" t="inlineStr">
         <is>
           <t>0xa912ddd96702031672719c1ab644dfedbdc1c40a</t>
         </is>
       </c>
-      <c r="B129" s="18" t="inlineStr">
+      <c r="B129" s="20" t="inlineStr">
         <is>
           <t>sylviabosworth28@gmail.com</t>
         </is>
       </c>
-      <c r="C129" s="11" t="inlineStr">
+      <c r="C129" s="12" t="inlineStr">
         <is>
           <t>!jIWVCUa(0</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="12.4" customHeight="1" s="13">
-      <c r="A130" s="17" t="inlineStr">
+    <row r="130" ht="12.4" customHeight="1" s="14">
+      <c r="A130" s="19" t="inlineStr">
         <is>
           <t>0x4bd281148b2b484e0a97852cac1ddaa54d176cc6</t>
         </is>
       </c>
-      <c r="B130" s="18" t="inlineStr">
+      <c r="B130" s="20" t="inlineStr">
         <is>
           <t>adrianhailey881@gmail.com</t>
         </is>
       </c>
-      <c r="C130" s="11" t="inlineStr">
+      <c r="C130" s="12" t="inlineStr">
         <is>
           <t>xi6ED@lN*K</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="12.4" customHeight="1" s="13">
-      <c r="A131" s="17" t="inlineStr">
+    <row r="131" ht="12.4" customHeight="1" s="14">
+      <c r="A131" s="19" t="inlineStr">
         <is>
           <t>0x98729dc029c4135e41272d70fc2d1e326e1ce81d</t>
         </is>
       </c>
-      <c r="B131" s="18" t="inlineStr">
+      <c r="B131" s="20" t="inlineStr">
         <is>
           <t>owen62812@gmail.com</t>
         </is>
       </c>
-      <c r="C131" s="11" t="inlineStr">
+      <c r="C131" s="12" t="inlineStr">
         <is>
           <t>6WqdZIs0_x</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="12.4" customHeight="1" s="13">
-      <c r="A132" s="17" t="inlineStr">
+    <row r="132" ht="12.4" customHeight="1" s="14">
+      <c r="A132" s="19" t="inlineStr">
         <is>
           <t>0x433865883b55c70ecba5731863ecf97f0999812e</t>
         </is>
       </c>
-      <c r="B132" s="18" t="inlineStr">
+      <c r="B132" s="20" t="inlineStr">
         <is>
           <t>macadamangelina4@gmail.com</t>
         </is>
       </c>
-      <c r="C132" s="11" t="inlineStr">
+      <c r="C132" s="12" t="inlineStr">
         <is>
           <t>^kG!Cy)n4d</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="12.4" customHeight="1" s="13">
-      <c r="A133" s="21" t="inlineStr">
+    <row r="133" ht="12.4" customHeight="1" s="14">
+      <c r="A133" s="23" t="inlineStr">
         <is>
           <t>0x790b6474505b70638d597c68c8c2f31264566874</t>
         </is>
       </c>
-      <c r="B133" s="18" t="inlineStr">
+      <c r="B133" s="20" t="inlineStr">
         <is>
           <t>archibaldk37@gmail.com</t>
         </is>
       </c>
-      <c r="C133" s="11" t="inlineStr">
+      <c r="C133" s="12" t="inlineStr">
         <is>
           <t>$6a)vPO4xw</t>
         </is>
       </c>
     </row>
-    <row r="134" ht="12.4" customHeight="1" s="13">
-      <c r="A134" s="17" t="inlineStr">
+    <row r="134" ht="12.4" customHeight="1" s="14">
+      <c r="A134" s="19" t="inlineStr">
         <is>
           <t>0x2320603da6734597a3179680089770de58a698f9</t>
         </is>
       </c>
-      <c r="B134" s="18" t="inlineStr">
+      <c r="B134" s="20" t="inlineStr">
         <is>
           <t>gp070726@gmail.com</t>
         </is>
       </c>
-      <c r="C134" s="11" t="inlineStr">
+      <c r="C134" s="12" t="inlineStr">
         <is>
           <t>rFg)TM$r%5</t>
         </is>
       </c>
     </row>
-    <row r="135" ht="12.4" customHeight="1" s="13">
-      <c r="A135" s="17" t="inlineStr">
+    <row r="135" ht="12.4" customHeight="1" s="14">
+      <c r="A135" s="19" t="inlineStr">
         <is>
           <t>0x0ed4aa7b5d492b5949023784c2bfcdbdf39269b0</t>
         </is>
       </c>
-      <c r="B135" s="18" t="inlineStr">
+      <c r="B135" s="20" t="inlineStr">
         <is>
           <t>keatreginald026@gmail.com</t>
         </is>
       </c>
-      <c r="C135" s="11" t="inlineStr">
+      <c r="C135" s="12" t="inlineStr">
         <is>
           <t>^m$KsZBeV8</t>
         </is>
       </c>
     </row>
-    <row r="136" ht="12.4" customHeight="1" s="13">
-      <c r="A136" s="21" t="inlineStr">
+    <row r="136" ht="12.4" customHeight="1" s="14">
+      <c r="A136" s="23" t="inlineStr">
         <is>
           <t>0xf5fb9f24ca74efbc917b72f39618cf29b4aa590d</t>
         </is>
       </c>
-      <c r="B136" s="18" t="inlineStr">
+      <c r="B136" s="20" t="inlineStr">
         <is>
           <t>AlbertSmith9872@gmail.com</t>
         </is>
       </c>
-      <c r="C136" s="11" t="inlineStr">
+      <c r="C136" s="12" t="inlineStr">
         <is>
           <t>O22)Rw(A$0</t>
         </is>
       </c>
     </row>
-    <row r="137" ht="12.4" customHeight="1" s="13">
-      <c r="A137" s="17" t="inlineStr">
+    <row r="137" ht="12.4" customHeight="1" s="14">
+      <c r="A137" s="19" t="inlineStr">
         <is>
           <t>0xf4a886568540cb12722be8f4f18c652740e9fedc</t>
         </is>
       </c>
-      <c r="B137" s="18" t="inlineStr">
+      <c r="B137" s="20" t="inlineStr">
         <is>
           <t>cj3375398@gmail.com</t>
         </is>
       </c>
-      <c r="C137" s="11" t="inlineStr">
+      <c r="C137" s="12" t="inlineStr">
         <is>
           <t>K#9*nWw8Ua</t>
         </is>
       </c>
     </row>
-    <row r="138" ht="12.4" customHeight="1" s="13">
-      <c r="A138" s="21" t="inlineStr">
+    <row r="138" ht="12.4" customHeight="1" s="14">
+      <c r="A138" s="23" t="inlineStr">
         <is>
           <t>0x759176d547b520237623f5fc77e0622464fb89fb</t>
         </is>
       </c>
-      <c r="B138" s="18" t="inlineStr">
+      <c r="B138" s="20" t="inlineStr">
         <is>
           <t>AgathaLewin7981@gmail.com</t>
         </is>
       </c>
-      <c r="C138" s="11" t="inlineStr">
+      <c r="C138" s="12" t="inlineStr">
         <is>
           <t>ya%4&amp;Fhn#k</t>
         </is>
       </c>
     </row>
-    <row r="139" ht="12.4" customHeight="1" s="13">
-      <c r="A139" s="17" t="inlineStr">
+    <row r="139" ht="12.4" customHeight="1" s="14">
+      <c r="A139" s="19" t="inlineStr">
         <is>
           <t>0x512ba5f7f891ee7a6082ca90aba44b2aece1b285</t>
         </is>
       </c>
-      <c r="B139" s="18" t="inlineStr">
+      <c r="B139" s="20" t="inlineStr">
         <is>
           <t>ellingtongladys5@gmail.com</t>
         </is>
       </c>
-      <c r="C139" s="11" t="inlineStr">
+      <c r="C139" s="12" t="inlineStr">
         <is>
           <t>$A2+O9@fA*</t>
         </is>
       </c>
     </row>
-    <row r="140" ht="12.4" customHeight="1" s="13">
-      <c r="A140" s="21" t="inlineStr">
+    <row r="140" ht="12.4" customHeight="1" s="14">
+      <c r="A140" s="23" t="inlineStr">
         <is>
           <t>0x8b20496bbaf0396c7eb1e25c71e5b7cd550889a2</t>
         </is>
       </c>
-      <c r="B140" s="18" t="inlineStr">
+      <c r="B140" s="20" t="inlineStr">
         <is>
           <t>oswaldc326@gmail.com</t>
         </is>
       </c>
-      <c r="C140" s="11" t="inlineStr">
+      <c r="C140" s="12" t="inlineStr">
         <is>
           <t>7dh+5E#r!3</t>
         </is>
       </c>
     </row>
-    <row r="141" ht="12.4" customHeight="1" s="13">
-      <c r="A141" s="21" t="inlineStr">
+    <row r="141" ht="12.4" customHeight="1" s="14">
+      <c r="A141" s="23" t="inlineStr">
         <is>
           <t>0xa87abd44630a87e45e68faf37c3b61e03d322868</t>
         </is>
       </c>
-      <c r="B141" s="18" t="inlineStr">
+      <c r="B141" s="20" t="inlineStr">
         <is>
           <t>lilypearcy65@gmail.com</t>
         </is>
       </c>
-      <c r="C141" s="11" t="inlineStr">
+      <c r="C141" s="12" t="inlineStr">
         <is>
           <t>j5Me_TlT*C</t>
         </is>
       </c>
     </row>
-    <row r="142" ht="12.4" customHeight="1" s="13">
-      <c r="A142" s="17" t="inlineStr">
+    <row r="142" ht="12.4" customHeight="1" s="14">
+      <c r="A142" s="19" t="inlineStr">
         <is>
           <t>0xcac3f6a05658e8841df42ed813d6e4799e287db6</t>
         </is>
       </c>
-      <c r="B142" s="18" t="inlineStr">
+      <c r="B142" s="20" t="inlineStr">
         <is>
           <t>macadamdonald7@gmail.com</t>
         </is>
       </c>
-      <c r="C142" s="11" t="inlineStr">
+      <c r="C142" s="12" t="inlineStr">
         <is>
           <t>%1@7LzQbgA</t>
         </is>
       </c>
     </row>
-    <row r="143" ht="12.4" customHeight="1" s="13">
-      <c r="A143" s="17" t="inlineStr">
+    <row r="143" ht="12.4" customHeight="1" s="14">
+      <c r="A143" s="19" t="inlineStr">
         <is>
           <t>0xac37e9f1f8435ebd952005ca4718437330bf8cc6</t>
         </is>
       </c>
-      <c r="C143" s="11" t="inlineStr">
+      <c r="C143" s="12" t="inlineStr">
         <is>
           <t>9O3B7uCd#(</t>
         </is>
       </c>
     </row>
-    <row r="144" ht="12.4" customHeight="1" s="13">
-      <c r="A144" s="17" t="inlineStr">
+    <row r="144" ht="12.4" customHeight="1" s="14">
+      <c r="A144" s="19" t="inlineStr">
         <is>
           <t>0x9b53b86bd4bf75a9a8b20e5cd1dfffe372b9ad25</t>
         </is>
       </c>
-      <c r="C144" s="11" t="inlineStr">
+      <c r="C144" s="12" t="inlineStr">
         <is>
           <t>@$84HDSlu$</t>
         </is>
       </c>
     </row>
-    <row r="145" ht="12.4" customHeight="1" s="13">
-      <c r="A145" s="21" t="inlineStr">
+    <row r="145" ht="12.4" customHeight="1" s="14">
+      <c r="A145" s="23" t="inlineStr">
         <is>
           <t>0x3e433a309a3232128ca6fac549e2a1265e235741</t>
         </is>
       </c>
-      <c r="C145" s="11" t="inlineStr">
+      <c r="C145" s="12" t="inlineStr">
         <is>
           <t>@pXG4KiGP2</t>
         </is>
       </c>
     </row>
-    <row r="146" ht="12.4" customHeight="1" s="13">
-      <c r="A146" s="21" t="inlineStr">
+    <row r="146" ht="12.4" customHeight="1" s="14">
+      <c r="A146" s="23" t="inlineStr">
         <is>
           <t>0x151f7b0c894c468d0a3de6f38ece50123e94d382</t>
         </is>
       </c>
-      <c r="C146" s="11" t="inlineStr">
+      <c r="C146" s="12" t="inlineStr">
         <is>
           <t>*L14TAfYn1</t>
         </is>
       </c>
     </row>
-    <row r="147" ht="12.4" customHeight="1" s="13">
-      <c r="A147" s="17" t="inlineStr">
+    <row r="147" ht="12.4" customHeight="1" s="14">
+      <c r="A147" s="19" t="inlineStr">
         <is>
           <t>0x1d3b3f58c3c43b25ef2653972f4ac0661a2ca167</t>
         </is>
       </c>
-      <c r="C147" s="11" t="inlineStr">
+      <c r="C147" s="12" t="inlineStr">
         <is>
           <t>Flk2NOVii)</t>
         </is>
       </c>
     </row>
-    <row r="148" ht="12.4" customHeight="1" s="13">
-      <c r="A148" s="17" t="inlineStr">
+    <row r="148" ht="12.4" customHeight="1" s="14">
+      <c r="A148" s="19" t="inlineStr">
         <is>
           <t>0xeaae34f33d6fecc948fd72ba2f508bc314ee6520</t>
         </is>
       </c>
-      <c r="C148" s="11" t="inlineStr">
+      <c r="C148" s="12" t="inlineStr">
         <is>
           <t>x^5RXQxl)C</t>
         </is>
       </c>
     </row>
-    <row r="149" ht="12.4" customHeight="1" s="13">
-      <c r="A149" s="21" t="inlineStr">
+    <row r="149" ht="12.4" customHeight="1" s="14">
+      <c r="A149" s="23" t="inlineStr">
         <is>
           <t>0xf2b68f0f71e97a56379c4f6065e41fafc7bf34c3</t>
         </is>
       </c>
-      <c r="C149" s="11" t="inlineStr">
+      <c r="C149" s="12" t="inlineStr">
         <is>
           <t>+GblOG6r7Q</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="12.4" customHeight="1" s="13">
-      <c r="A150" s="17" t="inlineStr">
+    <row r="150" ht="12.4" customHeight="1" s="14">
+      <c r="A150" s="19" t="inlineStr">
         <is>
           <t>0x792e125b95739581a27aa344a028f88bc97a522a</t>
         </is>
       </c>
-      <c r="C150" s="19" t="n"/>
-      <c r="D150" s="19" t="n"/>
-      <c r="E150" s="19" t="n"/>
-    </row>
-    <row r="151" ht="12.4" customHeight="1" s="13">
-      <c r="A151" s="17" t="inlineStr">
+      <c r="C150" s="21" t="n"/>
+      <c r="D150" s="21" t="n"/>
+      <c r="E150" s="21" t="n"/>
+    </row>
+    <row r="151" ht="12.4" customHeight="1" s="14">
+      <c r="A151" s="19" t="inlineStr">
         <is>
           <t>0xe74c33e5d7c727c88ae6d1d7c3f0ed30d1af4e5e</t>
         </is>
       </c>
-      <c r="C151" s="19" t="n"/>
-      <c r="D151" s="19" t="n"/>
-      <c r="E151" s="19" t="n"/>
-    </row>
-    <row r="152" ht="12.4" customHeight="1" s="13">
-      <c r="A152" s="21" t="inlineStr">
+      <c r="C151" s="21" t="n"/>
+      <c r="D151" s="21" t="n"/>
+      <c r="E151" s="21" t="n"/>
+    </row>
+    <row r="152" ht="12.4" customHeight="1" s="14">
+      <c r="A152" s="23" t="inlineStr">
         <is>
           <t>0x5ed96b594e327287cbb8863a4058a615c72ebae5</t>
         </is>
       </c>
-      <c r="C152" s="19" t="n"/>
-      <c r="D152" s="19" t="n"/>
-      <c r="E152" s="19" t="n"/>
-    </row>
-    <row r="153" ht="12.4" customHeight="1" s="13">
-      <c r="A153" s="21" t="inlineStr">
+      <c r="C152" s="21" t="n"/>
+      <c r="D152" s="21" t="n"/>
+      <c r="E152" s="21" t="n"/>
+    </row>
+    <row r="153" ht="12.4" customHeight="1" s="14">
+      <c r="A153" s="23" t="inlineStr">
         <is>
           <t>0x1468fcdd8f711e06fef3618a219d4e33f6c315e6</t>
         </is>
       </c>
-      <c r="C153" s="19" t="n"/>
-      <c r="D153" s="19" t="n"/>
-      <c r="E153" s="19" t="n"/>
-    </row>
-    <row r="154" ht="12.4" customHeight="1" s="13">
-      <c r="A154" s="17" t="inlineStr">
+      <c r="C153" s="21" t="n"/>
+      <c r="D153" s="21" t="n"/>
+      <c r="E153" s="21" t="n"/>
+    </row>
+    <row r="154" ht="12.4" customHeight="1" s="14">
+      <c r="A154" s="19" t="inlineStr">
         <is>
           <t>0xc6283a643dd2833715bee047ddb56c5eb560f0d6</t>
         </is>
       </c>
-      <c r="C154" s="19" t="n"/>
-      <c r="D154" s="19" t="n"/>
-      <c r="E154" s="19" t="n"/>
-    </row>
-    <row r="155" ht="12.4" customHeight="1" s="13">
-      <c r="A155" s="21" t="inlineStr">
+      <c r="C154" s="21" t="n"/>
+      <c r="D154" s="21" t="n"/>
+      <c r="E154" s="21" t="n"/>
+    </row>
+    <row r="155" ht="12.4" customHeight="1" s="14">
+      <c r="A155" s="23" t="inlineStr">
         <is>
           <t>0xa1f3fde220f83d7fe0bd4067a7255bf3d4e32dc9</t>
         </is>
       </c>
-      <c r="C155" s="19" t="n"/>
-      <c r="D155" s="19" t="n"/>
-      <c r="E155" s="19" t="n"/>
-    </row>
-    <row r="156" ht="12.4" customHeight="1" s="13">
-      <c r="A156" s="17" t="inlineStr">
+      <c r="C155" s="21" t="n"/>
+      <c r="D155" s="21" t="n"/>
+      <c r="E155" s="21" t="n"/>
+    </row>
+    <row r="156" ht="12.4" customHeight="1" s="14">
+      <c r="A156" s="19" t="inlineStr">
         <is>
           <t>0x45613bf771c3a643909846f6638791d76b51b945</t>
         </is>
       </c>
-      <c r="C156" s="19" t="n"/>
-      <c r="D156" s="19" t="n"/>
-      <c r="E156" s="19" t="n"/>
-    </row>
-    <row r="157" ht="12.4" customHeight="1" s="13">
-      <c r="A157" s="17" t="inlineStr">
+      <c r="C156" s="21" t="n"/>
+      <c r="D156" s="21" t="n"/>
+      <c r="E156" s="21" t="n"/>
+    </row>
+    <row r="157" ht="12.4" customHeight="1" s="14">
+      <c r="A157" s="19" t="inlineStr">
         <is>
           <t>0xedd75e036b7ccdd2dda3a6f4d80d491534d43aac</t>
         </is>
       </c>
-      <c r="C157" s="19" t="n"/>
-      <c r="D157" s="19" t="n"/>
-      <c r="E157" s="19" t="n"/>
-    </row>
-    <row r="158" ht="12.4" customHeight="1" s="13">
-      <c r="A158" s="21" t="inlineStr">
+      <c r="C157" s="21" t="n"/>
+      <c r="D157" s="21" t="n"/>
+      <c r="E157" s="21" t="n"/>
+    </row>
+    <row r="158" ht="12.4" customHeight="1" s="14">
+      <c r="A158" s="23" t="inlineStr">
         <is>
           <t>0x92c2a099143369dbbfcf1ca4ef9c1c3cc872d7d9</t>
         </is>
       </c>
-      <c r="C158" s="19" t="n"/>
-      <c r="D158" s="19" t="n"/>
-      <c r="E158" s="19" t="n"/>
-    </row>
-    <row r="159" ht="12.4" customHeight="1" s="13">
-      <c r="A159" s="21" t="inlineStr">
+      <c r="C158" s="21" t="n"/>
+      <c r="D158" s="21" t="n"/>
+      <c r="E158" s="21" t="n"/>
+    </row>
+    <row r="159" ht="12.4" customHeight="1" s="14">
+      <c r="A159" s="23" t="inlineStr">
         <is>
           <t>0x657bdaeb4be7c6dd583913d70fa33f8b93d22bc2</t>
         </is>
       </c>
-      <c r="C159" s="19" t="n"/>
-      <c r="D159" s="19" t="n"/>
-      <c r="E159" s="19" t="n"/>
-    </row>
-    <row r="160" ht="12.4" customHeight="1" s="13">
-      <c r="A160" s="17" t="inlineStr">
+      <c r="C159" s="21" t="n"/>
+      <c r="D159" s="21" t="n"/>
+      <c r="E159" s="21" t="n"/>
+    </row>
+    <row r="160" ht="12.4" customHeight="1" s="14">
+      <c r="A160" s="19" t="inlineStr">
         <is>
           <t>0x525ee2b39df95a938f8ee72bfc3509b492a0ea1b</t>
         </is>
       </c>
-      <c r="C160" s="19" t="n"/>
-      <c r="D160" s="19" t="n"/>
-      <c r="E160" s="19" t="n"/>
-    </row>
-    <row r="161" ht="12.4" customHeight="1" s="13">
-      <c r="A161" s="21" t="inlineStr">
+      <c r="C160" s="21" t="n"/>
+      <c r="D160" s="21" t="n"/>
+      <c r="E160" s="21" t="n"/>
+    </row>
+    <row r="161" ht="12.4" customHeight="1" s="14">
+      <c r="A161" s="23" t="inlineStr">
         <is>
           <t>0xb340bb14343f1915a084ff39fe6b1367cf61bafc</t>
         </is>
       </c>
-      <c r="C161" s="19" t="n"/>
-      <c r="D161" s="19" t="n"/>
-      <c r="E161" s="19" t="n"/>
-    </row>
-    <row r="162" ht="12.4" customHeight="1" s="13">
-      <c r="A162" s="17" t="inlineStr">
+      <c r="C161" s="21" t="n"/>
+      <c r="D161" s="21" t="n"/>
+      <c r="E161" s="21" t="n"/>
+    </row>
+    <row r="162" ht="12.4" customHeight="1" s="14">
+      <c r="A162" s="19" t="inlineStr">
         <is>
           <t>0xaf389135be833248d97776b068a2bc5c7ec4a0f2</t>
         </is>
       </c>
-      <c r="C162" s="19" t="n"/>
-      <c r="D162" s="19" t="n"/>
-      <c r="E162" s="19" t="n"/>
-    </row>
-    <row r="163" ht="12.4" customHeight="1" s="13">
-      <c r="A163" s="21" t="inlineStr">
+      <c r="C162" s="21" t="n"/>
+      <c r="D162" s="21" t="n"/>
+      <c r="E162" s="21" t="n"/>
+    </row>
+    <row r="163" ht="12.4" customHeight="1" s="14">
+      <c r="A163" s="23" t="inlineStr">
         <is>
           <t>0x865a621349b7d15592efa776728f3ed3660e9025</t>
         </is>
       </c>
-      <c r="C163" s="19" t="n"/>
-      <c r="D163" s="19" t="n"/>
-      <c r="E163" s="19" t="n"/>
-    </row>
-    <row r="164" ht="12.4" customHeight="1" s="13">
-      <c r="A164" s="17" t="inlineStr">
+      <c r="C163" s="21" t="n"/>
+      <c r="D163" s="21" t="n"/>
+      <c r="E163" s="21" t="n"/>
+    </row>
+    <row r="164" ht="12.4" customHeight="1" s="14">
+      <c r="A164" s="19" t="inlineStr">
         <is>
           <t>0x7514fa69fd07ab5ab987683c276bbc1e8c010dc1</t>
         </is>
       </c>
-      <c r="C164" s="19" t="n"/>
-      <c r="D164" s="19" t="n"/>
-      <c r="E164" s="19" t="n"/>
-    </row>
-    <row r="165" ht="12.4" customHeight="1" s="13">
-      <c r="A165" s="21" t="inlineStr">
+      <c r="C164" s="21" t="n"/>
+      <c r="D164" s="21" t="n"/>
+      <c r="E164" s="21" t="n"/>
+    </row>
+    <row r="165" ht="12.4" customHeight="1" s="14">
+      <c r="A165" s="23" t="inlineStr">
         <is>
           <t>0x9920d3a27b66c82ffcf69ee439477379d6471d92</t>
         </is>
       </c>
-      <c r="C165" s="19" t="n"/>
-      <c r="D165" s="19" t="n"/>
-      <c r="E165" s="19" t="n"/>
-    </row>
-    <row r="166" ht="12.4" customHeight="1" s="13">
-      <c r="A166" s="17" t="inlineStr">
+      <c r="C165" s="21" t="n"/>
+      <c r="D165" s="21" t="n"/>
+      <c r="E165" s="21" t="n"/>
+    </row>
+    <row r="166" ht="12.4" customHeight="1" s="14">
+      <c r="A166" s="19" t="inlineStr">
         <is>
           <t>0x99ea0cd38fb789b0e20fded004af0b61430263c0</t>
         </is>
       </c>
-      <c r="C166" s="19" t="n"/>
-      <c r="D166" s="19" t="n"/>
-      <c r="E166" s="19" t="n"/>
-    </row>
-    <row r="167" ht="12.4" customHeight="1" s="13">
-      <c r="A167" s="17" t="inlineStr">
+      <c r="C166" s="21" t="n"/>
+      <c r="D166" s="21" t="n"/>
+      <c r="E166" s="21" t="n"/>
+    </row>
+    <row r="167" ht="12.4" customHeight="1" s="14">
+      <c r="A167" s="19" t="inlineStr">
         <is>
           <t>0xa8c07ceb6f77a687f10e0698e7f97a9cf37c641d</t>
         </is>
       </c>
-      <c r="C167" s="19" t="n"/>
-      <c r="D167" s="19" t="n"/>
-      <c r="E167" s="19" t="n"/>
-    </row>
-    <row r="168" ht="12.4" customHeight="1" s="13">
-      <c r="A168" s="17" t="inlineStr">
+      <c r="C167" s="21" t="n"/>
+      <c r="D167" s="21" t="n"/>
+      <c r="E167" s="21" t="n"/>
+    </row>
+    <row r="168" ht="12.4" customHeight="1" s="14">
+      <c r="A168" s="19" t="inlineStr">
         <is>
           <t>0x60832ce6ed7688b97c12ace5fadc24394809e02f</t>
         </is>
       </c>
-      <c r="C168" s="19" t="n"/>
-      <c r="D168" s="19" t="n"/>
-      <c r="E168" s="19" t="n"/>
-    </row>
-    <row r="169" ht="12.4" customHeight="1" s="13">
-      <c r="A169" s="17" t="inlineStr">
+      <c r="C168" s="21" t="n"/>
+      <c r="D168" s="21" t="n"/>
+      <c r="E168" s="21" t="n"/>
+    </row>
+    <row r="169" ht="12.4" customHeight="1" s="14">
+      <c r="A169" s="19" t="inlineStr">
         <is>
           <t>0x8cc51287ccb910ae3ddc8151df865fb8448ce760</t>
         </is>
       </c>
-      <c r="C169" s="19" t="n"/>
-      <c r="D169" s="19" t="n"/>
-      <c r="E169" s="19" t="n"/>
-    </row>
-    <row r="170" ht="12.4" customHeight="1" s="13">
-      <c r="A170" s="17" t="inlineStr">
+      <c r="C169" s="21" t="n"/>
+      <c r="D169" s="21" t="n"/>
+      <c r="E169" s="21" t="n"/>
+    </row>
+    <row r="170" ht="12.4" customHeight="1" s="14">
+      <c r="A170" s="19" t="inlineStr">
         <is>
           <t>0x6496973e1a2640dcd0ca6b3a0bc46da3bf457356</t>
         </is>
       </c>
-      <c r="C170" s="19" t="n"/>
-      <c r="D170" s="19" t="n"/>
-      <c r="E170" s="19" t="n"/>
-    </row>
-    <row r="171" ht="12.4" customHeight="1" s="13">
-      <c r="A171" s="21" t="inlineStr">
+      <c r="C170" s="21" t="n"/>
+      <c r="D170" s="21" t="n"/>
+      <c r="E170" s="21" t="n"/>
+    </row>
+    <row r="171" ht="12.4" customHeight="1" s="14">
+      <c r="A171" s="23" t="inlineStr">
         <is>
           <t>0xa9267f4c446cc3369ed02e54fae966ba6115e883</t>
         </is>
       </c>
-      <c r="C171" s="19" t="n"/>
-      <c r="D171" s="19" t="n"/>
-      <c r="E171" s="19" t="n"/>
-    </row>
-    <row r="172" ht="12.4" customHeight="1" s="13">
-      <c r="A172" s="17" t="inlineStr">
+      <c r="C171" s="21" t="n"/>
+      <c r="D171" s="21" t="n"/>
+      <c r="E171" s="21" t="n"/>
+    </row>
+    <row r="172" ht="12.4" customHeight="1" s="14">
+      <c r="A172" s="19" t="inlineStr">
         <is>
           <t>0x06e4edea365a91d8a0ccc8acb6c6be2a7a27df0c</t>
         </is>
       </c>
-      <c r="C172" s="19" t="n"/>
-      <c r="D172" s="19" t="n"/>
-      <c r="E172" s="19" t="n"/>
-    </row>
-    <row r="173" ht="12.4" customHeight="1" s="13">
-      <c r="A173" s="21" t="inlineStr">
+      <c r="C172" s="21" t="n"/>
+      <c r="D172" s="21" t="n"/>
+      <c r="E172" s="21" t="n"/>
+    </row>
+    <row r="173" ht="12.4" customHeight="1" s="14">
+      <c r="A173" s="23" t="inlineStr">
         <is>
           <t>0x9519cfc3d294d94ac89a2309ffb0213387e67893</t>
         </is>
       </c>
-      <c r="C173" s="19" t="n"/>
-      <c r="D173" s="19" t="n"/>
-      <c r="E173" s="19" t="n"/>
-    </row>
-    <row r="174" ht="12.4" customHeight="1" s="13">
-      <c r="A174" s="17" t="inlineStr">
+      <c r="C173" s="21" t="n"/>
+      <c r="D173" s="21" t="n"/>
+      <c r="E173" s="21" t="n"/>
+    </row>
+    <row r="174" ht="12.4" customHeight="1" s="14">
+      <c r="A174" s="19" t="inlineStr">
         <is>
           <t>0x50b684d91908e0da7544026cb68f277370af3bbe</t>
         </is>
       </c>
-      <c r="C174" s="19" t="n"/>
-      <c r="D174" s="19" t="n"/>
-      <c r="E174" s="19" t="n"/>
-    </row>
-    <row r="175" ht="12.4" customHeight="1" s="13">
-      <c r="A175" s="21" t="inlineStr">
+      <c r="C174" s="21" t="n"/>
+      <c r="D174" s="21" t="n"/>
+      <c r="E174" s="21" t="n"/>
+    </row>
+    <row r="175" ht="12.4" customHeight="1" s="14">
+      <c r="A175" s="23" t="inlineStr">
         <is>
           <t>0x6c9143dd9f2e0e0ea194adf89c75ebc5865d6c2d</t>
         </is>
       </c>
-      <c r="C175" s="19" t="n"/>
-      <c r="D175" s="19" t="n"/>
-      <c r="E175" s="19" t="n"/>
-    </row>
-    <row r="176" ht="12.4" customHeight="1" s="13">
-      <c r="A176" s="17" t="inlineStr">
+      <c r="C175" s="21" t="n"/>
+      <c r="D175" s="21" t="n"/>
+      <c r="E175" s="21" t="n"/>
+    </row>
+    <row r="176" ht="12.4" customHeight="1" s="14">
+      <c r="A176" s="19" t="inlineStr">
         <is>
           <t>0x9e462421a103f40ff584563c314942e4128fae42</t>
         </is>
       </c>
-      <c r="C176" s="19" t="n"/>
-      <c r="D176" s="19" t="n"/>
-      <c r="E176" s="19" t="n"/>
-    </row>
-    <row r="177" ht="12.4" customHeight="1" s="13">
-      <c r="A177" s="21" t="inlineStr">
+      <c r="C176" s="21" t="n"/>
+      <c r="D176" s="21" t="n"/>
+      <c r="E176" s="21" t="n"/>
+    </row>
+    <row r="177" ht="12.4" customHeight="1" s="14">
+      <c r="A177" s="23" t="inlineStr">
         <is>
           <t>0xd6f989b9a65850ba2a4de34312ac61b9158b882d</t>
         </is>
       </c>
-      <c r="C177" s="19" t="n"/>
-      <c r="D177" s="19" t="n"/>
-      <c r="E177" s="19" t="n"/>
-    </row>
-    <row r="178" ht="12.4" customHeight="1" s="13">
-      <c r="A178" s="17" t="inlineStr">
+      <c r="C177" s="21" t="n"/>
+      <c r="D177" s="21" t="n"/>
+      <c r="E177" s="21" t="n"/>
+    </row>
+    <row r="178" ht="12.4" customHeight="1" s="14">
+      <c r="A178" s="19" t="inlineStr">
         <is>
           <t>0xd7db508bbb8deca4505749b921905fcc9c2c91a2</t>
         </is>
       </c>
-      <c r="C178" s="19" t="n"/>
-      <c r="D178" s="19" t="n"/>
-      <c r="E178" s="19" t="n"/>
-    </row>
-    <row r="179" ht="12.4" customHeight="1" s="13">
-      <c r="A179" s="17" t="inlineStr">
+      <c r="C178" s="21" t="n"/>
+      <c r="D178" s="21" t="n"/>
+      <c r="E178" s="21" t="n"/>
+    </row>
+    <row r="179" ht="12.4" customHeight="1" s="14">
+      <c r="A179" s="19" t="inlineStr">
         <is>
           <t>0x90f9d51562a47c06bc1101e93ad0eea2477e88f3</t>
         </is>
       </c>
-      <c r="C179" s="19" t="n"/>
-      <c r="D179" s="19" t="n"/>
-      <c r="E179" s="19" t="n"/>
-    </row>
-    <row r="180" ht="12.4" customHeight="1" s="13">
-      <c r="A180" s="17" t="inlineStr">
+      <c r="C179" s="21" t="n"/>
+      <c r="D179" s="21" t="n"/>
+      <c r="E179" s="21" t="n"/>
+    </row>
+    <row r="180" ht="12.4" customHeight="1" s="14">
+      <c r="A180" s="19" t="inlineStr">
         <is>
           <t>0x521d022dce49a25ebb34d008b69f4430d56a511b</t>
         </is>
       </c>
-      <c r="C180" s="19" t="n"/>
-      <c r="D180" s="19" t="n"/>
-      <c r="E180" s="19" t="n"/>
-    </row>
-    <row r="181" ht="12.4" customHeight="1" s="13">
-      <c r="A181" s="17" t="inlineStr">
+      <c r="C180" s="21" t="n"/>
+      <c r="D180" s="21" t="n"/>
+      <c r="E180" s="21" t="n"/>
+    </row>
+    <row r="181" ht="12.4" customHeight="1" s="14">
+      <c r="A181" s="19" t="inlineStr">
         <is>
           <t>0xd5c5fea355dcfe8ef309000e5b6aa81b954ef015</t>
         </is>
       </c>
-      <c r="C181" s="19" t="n"/>
-      <c r="D181" s="19" t="n"/>
-      <c r="E181" s="19" t="n"/>
-    </row>
-    <row r="182" ht="12.4" customHeight="1" s="13">
-      <c r="A182" s="21" t="inlineStr">
+      <c r="C181" s="21" t="n"/>
+      <c r="D181" s="21" t="n"/>
+      <c r="E181" s="21" t="n"/>
+    </row>
+    <row r="182" ht="12.4" customHeight="1" s="14">
+      <c r="A182" s="23" t="inlineStr">
         <is>
           <t>0x5cfe7a64a6c9de565c317a86b1ffa20139e57a4f</t>
         </is>
       </c>
-      <c r="C182" s="19" t="n"/>
-      <c r="D182" s="19" t="n"/>
-      <c r="E182" s="19" t="n"/>
-    </row>
-    <row r="183" ht="12.4" customHeight="1" s="13">
-      <c r="A183" s="17" t="inlineStr">
+      <c r="C182" s="21" t="n"/>
+      <c r="D182" s="21" t="n"/>
+      <c r="E182" s="21" t="n"/>
+    </row>
+    <row r="183" ht="12.4" customHeight="1" s="14">
+      <c r="A183" s="19" t="inlineStr">
         <is>
           <t>0x01e0508f7c236debea96c3df3b22b967a7e6570a</t>
         </is>
       </c>
-      <c r="C183" s="19" t="n"/>
-      <c r="D183" s="19" t="n"/>
-      <c r="E183" s="19" t="n"/>
-    </row>
-    <row r="184" ht="12.4" customHeight="1" s="13">
-      <c r="A184" s="17" t="inlineStr">
+      <c r="C183" s="21" t="n"/>
+      <c r="D183" s="21" t="n"/>
+      <c r="E183" s="21" t="n"/>
+    </row>
+    <row r="184" ht="12.4" customHeight="1" s="14">
+      <c r="A184" s="19" t="inlineStr">
         <is>
           <t>0x2c60a8ffce45c52cbee0d88f2cd42af841cbca13</t>
         </is>
       </c>
-      <c r="C184" s="19" t="n"/>
-      <c r="D184" s="19" t="n"/>
-      <c r="E184" s="19" t="n"/>
-    </row>
-    <row r="185" ht="12.4" customHeight="1" s="13">
-      <c r="A185" s="17" t="inlineStr">
+      <c r="C184" s="21" t="n"/>
+      <c r="D184" s="21" t="n"/>
+      <c r="E184" s="21" t="n"/>
+    </row>
+    <row r="185" ht="12.4" customHeight="1" s="14">
+      <c r="A185" s="19" t="inlineStr">
         <is>
           <t>0xefac8d081c360299f92bd2fe00150b20a83885ed</t>
         </is>
       </c>
-      <c r="C185" s="19" t="n"/>
-      <c r="D185" s="19" t="n"/>
-      <c r="E185" s="19" t="n"/>
-    </row>
-    <row r="186" ht="12.4" customHeight="1" s="13">
-      <c r="A186" s="21" t="inlineStr">
+      <c r="C185" s="21" t="n"/>
+      <c r="D185" s="21" t="n"/>
+      <c r="E185" s="21" t="n"/>
+    </row>
+    <row r="186" ht="12.4" customHeight="1" s="14">
+      <c r="A186" s="23" t="inlineStr">
         <is>
           <t>0x562e0b08023ab992b4355a4391c087963b599919</t>
         </is>
       </c>
-      <c r="C186" s="19" t="n"/>
-      <c r="D186" s="19" t="n"/>
-      <c r="E186" s="19" t="n"/>
-    </row>
-    <row r="187" ht="12.4" customHeight="1" s="13">
-      <c r="A187" s="17" t="inlineStr">
+      <c r="C186" s="21" t="n"/>
+      <c r="D186" s="21" t="n"/>
+      <c r="E186" s="21" t="n"/>
+    </row>
+    <row r="187" ht="12.4" customHeight="1" s="14">
+      <c r="A187" s="19" t="inlineStr">
         <is>
           <t>0x20e791b1351964ff66ba4e8b68139315d4ad0853</t>
         </is>
       </c>
-      <c r="C187" s="19" t="n"/>
-      <c r="D187" s="19" t="n"/>
-      <c r="E187" s="19" t="n"/>
-    </row>
-    <row r="188" ht="12.4" customHeight="1" s="13">
-      <c r="A188" s="17" t="inlineStr">
+      <c r="C187" s="21" t="n"/>
+      <c r="D187" s="21" t="n"/>
+      <c r="E187" s="21" t="n"/>
+    </row>
+    <row r="188" ht="12.4" customHeight="1" s="14">
+      <c r="A188" s="19" t="inlineStr">
         <is>
           <t>0xa749241ac9ce2c97d099059757e01cf3b389e56f</t>
         </is>
       </c>
-      <c r="C188" s="19" t="n"/>
-      <c r="D188" s="19" t="n"/>
-      <c r="E188" s="19" t="n"/>
-    </row>
-    <row r="189" ht="12.4" customHeight="1" s="13">
-      <c r="A189" s="17" t="inlineStr">
+      <c r="C188" s="21" t="n"/>
+      <c r="D188" s="21" t="n"/>
+      <c r="E188" s="21" t="n"/>
+    </row>
+    <row r="189" ht="12.4" customHeight="1" s="14">
+      <c r="A189" s="19" t="inlineStr">
         <is>
           <t>0x495ded2ceec8f7520bd9e01085c2a833ed9279f5</t>
         </is>
       </c>
-      <c r="C189" s="19" t="n"/>
-      <c r="D189" s="19" t="n"/>
-      <c r="E189" s="19" t="n"/>
-    </row>
-    <row r="190" ht="12.4" customHeight="1" s="13">
-      <c r="A190" s="17" t="inlineStr">
+      <c r="C189" s="21" t="n"/>
+      <c r="D189" s="21" t="n"/>
+      <c r="E189" s="21" t="n"/>
+    </row>
+    <row r="190" ht="12.4" customHeight="1" s="14">
+      <c r="A190" s="19" t="inlineStr">
         <is>
           <t>0x3129aae0c2cc261707cd9fae1dfcca0c2e0ab6ae</t>
         </is>
       </c>
-      <c r="C190" s="19" t="n"/>
-      <c r="D190" s="19" t="n"/>
-      <c r="E190" s="19" t="n"/>
-    </row>
-    <row r="191" ht="12.4" customHeight="1" s="13">
-      <c r="A191" s="21" t="inlineStr">
+      <c r="C190" s="21" t="n"/>
+      <c r="D190" s="21" t="n"/>
+      <c r="E190" s="21" t="n"/>
+    </row>
+    <row r="191" ht="12.4" customHeight="1" s="14">
+      <c r="A191" s="23" t="inlineStr">
         <is>
           <t>0xe92e56cd8e6c4c9a2c9def572fb96b532a8940d6</t>
         </is>
       </c>
-      <c r="C191" s="19" t="n"/>
-      <c r="D191" s="19" t="n"/>
-      <c r="E191" s="19" t="n"/>
-    </row>
-    <row r="192" ht="12.4" customHeight="1" s="13">
-      <c r="A192" s="17" t="inlineStr">
+      <c r="C191" s="21" t="n"/>
+      <c r="D191" s="21" t="n"/>
+      <c r="E191" s="21" t="n"/>
+    </row>
+    <row r="192" ht="12.4" customHeight="1" s="14">
+      <c r="A192" s="19" t="inlineStr">
         <is>
           <t>0x96c088133f97f43fe38c175407c7cc91337ce0a9</t>
         </is>
       </c>
-      <c r="C192" s="19" t="n"/>
-      <c r="D192" s="19" t="n"/>
-      <c r="E192" s="19" t="n"/>
-    </row>
-    <row r="193" ht="12.4" customHeight="1" s="13">
-      <c r="A193" s="17" t="inlineStr">
+      <c r="C192" s="21" t="n"/>
+      <c r="D192" s="21" t="n"/>
+      <c r="E192" s="21" t="n"/>
+    </row>
+    <row r="193" ht="12.4" customHeight="1" s="14">
+      <c r="A193" s="19" t="inlineStr">
         <is>
           <t>0xe5694c0ab756003ab963518f15dcba23f75a6143</t>
         </is>
       </c>
-      <c r="C193" s="19" t="n"/>
-      <c r="D193" s="19" t="n"/>
-      <c r="E193" s="19" t="n"/>
-    </row>
-    <row r="194" ht="12.4" customHeight="1" s="13">
-      <c r="A194" s="21" t="inlineStr">
+      <c r="C193" s="21" t="n"/>
+      <c r="D193" s="21" t="n"/>
+      <c r="E193" s="21" t="n"/>
+    </row>
+    <row r="194" ht="12.4" customHeight="1" s="14">
+      <c r="A194" s="23" t="inlineStr">
         <is>
           <t>0x9eb9ef68b1de521a9cc9d8e52b86dc813defc00d</t>
         </is>
       </c>
-      <c r="C194" s="19" t="n"/>
-      <c r="D194" s="19" t="n"/>
-      <c r="E194" s="19" t="n"/>
-    </row>
-    <row r="195" ht="12.4" customHeight="1" s="13">
-      <c r="A195" s="17" t="inlineStr">
+      <c r="C194" s="21" t="n"/>
+      <c r="D194" s="21" t="n"/>
+      <c r="E194" s="21" t="n"/>
+    </row>
+    <row r="195" ht="12.4" customHeight="1" s="14">
+      <c r="A195" s="19" t="inlineStr">
         <is>
           <t>0xcf8972bd2750b2c41063c7b2daa69a50bb20ffab</t>
         </is>
       </c>
-      <c r="C195" s="19" t="n"/>
-      <c r="D195" s="19" t="n"/>
-      <c r="E195" s="19" t="n"/>
-    </row>
-    <row r="196" ht="12.4" customHeight="1" s="13">
-      <c r="A196" s="17" t="inlineStr">
+      <c r="C195" s="21" t="n"/>
+      <c r="D195" s="21" t="n"/>
+      <c r="E195" s="21" t="n"/>
+    </row>
+    <row r="196" ht="12.4" customHeight="1" s="14">
+      <c r="A196" s="19" t="inlineStr">
         <is>
           <t>0x8327fea3c808a241fe2c0d66e2d1e88349522642</t>
         </is>
       </c>
-      <c r="C196" s="19" t="n"/>
-      <c r="D196" s="19" t="n"/>
-      <c r="E196" s="19" t="n"/>
-    </row>
-    <row r="197" ht="12.4" customHeight="1" s="13">
-      <c r="A197" s="17" t="inlineStr">
+      <c r="C196" s="21" t="n"/>
+      <c r="D196" s="21" t="n"/>
+      <c r="E196" s="21" t="n"/>
+    </row>
+    <row r="197" ht="12.4" customHeight="1" s="14">
+      <c r="A197" s="19" t="inlineStr">
         <is>
           <t>0x6237f75e494e6bfd4b6cb0a9ec37cf2b78411057</t>
         </is>
       </c>
-      <c r="C197" s="19" t="n"/>
-      <c r="D197" s="19" t="n"/>
-      <c r="E197" s="19" t="n"/>
-    </row>
-    <row r="198" ht="12.4" customHeight="1" s="13">
-      <c r="A198" s="17" t="inlineStr">
+      <c r="C197" s="21" t="n"/>
+      <c r="D197" s="21" t="n"/>
+      <c r="E197" s="21" t="n"/>
+    </row>
+    <row r="198" ht="12.4" customHeight="1" s="14">
+      <c r="A198" s="19" t="inlineStr">
         <is>
           <t>0x49ff1674310531dd42f0a0f654a49094ea018c6e</t>
         </is>
       </c>
-      <c r="C198" s="19" t="n"/>
-      <c r="D198" s="19" t="n"/>
-      <c r="E198" s="19" t="n"/>
-    </row>
-    <row r="199" ht="12.4" customHeight="1" s="13">
-      <c r="A199" s="17" t="inlineStr">
+      <c r="C198" s="21" t="n"/>
+      <c r="D198" s="21" t="n"/>
+      <c r="E198" s="21" t="n"/>
+    </row>
+    <row r="199" ht="12.4" customHeight="1" s="14">
+      <c r="A199" s="19" t="inlineStr">
         <is>
           <t>0xf41f968f6decd082d1c2f6e3b2bbf2911390503e</t>
         </is>
       </c>
-      <c r="C199" s="19" t="n"/>
-      <c r="D199" s="19" t="n"/>
-      <c r="E199" s="19" t="n"/>
-    </row>
-    <row r="200" ht="12.4" customHeight="1" s="13">
-      <c r="A200" s="17" t="inlineStr">
+      <c r="C199" s="21" t="n"/>
+      <c r="D199" s="21" t="n"/>
+      <c r="E199" s="21" t="n"/>
+    </row>
+    <row r="200" ht="12.4" customHeight="1" s="14">
+      <c r="A200" s="19" t="inlineStr">
         <is>
           <t>0x6aee777232ea5a6e32aaef980214e43481777f7c</t>
         </is>
       </c>
-      <c r="C200" s="19" t="n"/>
-      <c r="D200" s="19" t="n"/>
-      <c r="E200" s="19" t="n"/>
+      <c r="C200" s="21" t="n"/>
+      <c r="D200" s="21" t="n"/>
+      <c r="E200" s="21" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -1370,7 +1370,7 @@
       <c r="G28" s="14" t="n"/>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmSLrBwxSWv8B5yUu8WAp6qArenwgaQsUAGFpc8RTTFAnv</t>
         </is>
       </c>
       <c r="I28" s="14" t="n"/>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -1283,7 +1283,11 @@
           <t>Jw1GJl!U$$</t>
         </is>
       </c>
-      <c r="D25" s="13" t="n"/>
+      <c r="D25" s="13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E25" s="13" t="n"/>
       <c r="F25" s="14" t="n"/>
       <c r="G25" s="14" t="n"/>
@@ -1310,7 +1314,11 @@
           <t>A6ZMYDMq!s</t>
         </is>
       </c>
-      <c r="D26" s="13" t="n"/>
+      <c r="D26" s="13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E26" s="13" t="n"/>
       <c r="F26" s="14" t="n"/>
       <c r="G26" s="14" t="n"/>
@@ -1337,7 +1345,11 @@
           <t>(Hh55ZTmw5</t>
         </is>
       </c>
-      <c r="D27" s="13" t="n"/>
+      <c r="D27" s="13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E27" s="13" t="n"/>
       <c r="F27" s="14" t="n"/>
       <c r="G27" s="14" t="n"/>
@@ -1364,7 +1376,11 @@
           <t>H!8o2LtCzL</t>
         </is>
       </c>
-      <c r="D28" s="13" t="n"/>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E28" s="13" t="n"/>
       <c r="F28" s="14" t="n"/>
       <c r="G28" s="14" t="n"/>
@@ -1391,7 +1407,11 @@
           <t>R*8Cr6ttvH</t>
         </is>
       </c>
-      <c r="D29" s="13" t="n"/>
+      <c r="D29" s="13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E29" s="13" t="n"/>
       <c r="F29" s="14" t="n"/>
       <c r="G29" s="14" t="n"/>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -1424,7 +1424,7 @@
       <c r="G30" s="14" t="n"/>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmRTA9VNnfghjb1viWER3U5cghK9RZwmjvwcpzKTkMQZyh</t>
         </is>
       </c>
       <c r="I30" s="14" t="n"/>
@@ -1451,7 +1451,7 @@
       <c r="G31" s="14" t="n"/>
       <c r="H31" s="6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmYXTpye4wWjHx2QG9EuE3tx3yj6fKzeEay9yhZfPPoYxL</t>
         </is>
       </c>
       <c r="I31" s="14" t="n"/>
@@ -1478,7 +1478,7 @@
       <c r="G32" s="14" t="n"/>
       <c r="H32" s="6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmW1USgv8KHiGvnaJN7KDs4XqwWYjDeQQjb4Ksi2tZ7UX2</t>
         </is>
       </c>
       <c r="I32" s="14" t="n"/>
@@ -1505,7 +1505,7 @@
       <c r="G33" s="14" t="n"/>
       <c r="H33" s="6" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>ipfs://QmYyQzUZ5X3YErCoUppLnSkL6d8HkjFuymfrcXfh4DtWNv</t>
         </is>
       </c>
       <c r="I33" s="14" t="n"/>
@@ -1530,7 +1530,11 @@
       <c r="E34" s="13" t="n"/>
       <c r="F34" s="14" t="n"/>
       <c r="G34" s="14" t="n"/>
-      <c r="H34" s="14" t="n"/>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmf8VC46wEyGt4bmhKR7dwuy3JADPFhH4GRceJ4DEAmCNs</t>
+        </is>
+      </c>
       <c r="I34" s="14" t="n"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
@@ -1553,7 +1557,11 @@
       <c r="E35" s="13" t="n"/>
       <c r="F35" s="14" t="n"/>
       <c r="G35" s="14" t="n"/>
-      <c r="H35" s="14" t="n"/>
+      <c r="H35" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmfVWqwneMy34qirQw69f1CcK8FrsEfs6hdExtkncikS34</t>
+        </is>
+      </c>
       <c r="I35" s="14" t="n"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
@@ -1576,7 +1584,11 @@
       <c r="E36" s="13" t="n"/>
       <c r="F36" s="14" t="n"/>
       <c r="G36" s="14" t="n"/>
-      <c r="H36" s="14" t="n"/>
+      <c r="H36" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPjbkCqSj6MPX17XKcJP7FtQ676wXPduqtErpFeXzamBS</t>
+        </is>
+      </c>
       <c r="I36" s="14" t="n"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
@@ -1599,7 +1611,11 @@
       <c r="E37" s="13" t="n"/>
       <c r="F37" s="14" t="n"/>
       <c r="G37" s="14" t="n"/>
-      <c r="H37" s="14" t="n"/>
+      <c r="H37" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmaPFwadKb2KgsEpzCSXS9iZ6CvxkmM8uZg9FKCqpkThcJ</t>
+        </is>
+      </c>
       <c r="I37" s="14" t="n"/>
     </row>
     <row r="38" ht="16.5" customHeight="1">
@@ -1622,7 +1638,11 @@
       <c r="E38" s="13" t="n"/>
       <c r="F38" s="14" t="n"/>
       <c r="G38" s="14" t="n"/>
-      <c r="H38" s="14" t="n"/>
+      <c r="H38" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPb81TbHjRZuiMGi1B1pmYu6gnb3kBJc7bDAa1qfnPh8m</t>
+        </is>
+      </c>
       <c r="I38" s="14" t="n"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
@@ -1645,7 +1665,11 @@
       <c r="E39" s="13" t="n"/>
       <c r="F39" s="14" t="n"/>
       <c r="G39" s="14" t="n"/>
-      <c r="H39" s="14" t="n"/>
+      <c r="H39" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmeJ2aQ8iwgMTPKX2gDTUQVvJexbDSZ5fcddRsp7DpSFKS</t>
+        </is>
+      </c>
       <c r="I39" s="14" t="n"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
@@ -1668,7 +1692,11 @@
       <c r="E40" s="13" t="n"/>
       <c r="F40" s="14" t="n"/>
       <c r="G40" s="14" t="n"/>
-      <c r="H40" s="14" t="n"/>
+      <c r="H40" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWmZUvjXGtjvp7f1bjR9yM74yonJLTPTS2UydZvub83Ua</t>
+        </is>
+      </c>
       <c r="I40" s="14" t="n"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
@@ -1691,7 +1719,11 @@
       <c r="E41" s="13" t="n"/>
       <c r="F41" s="14" t="n"/>
       <c r="G41" s="14" t="n"/>
-      <c r="H41" s="14" t="n"/>
+      <c r="H41" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbXdgHj7cu63ZHE3gDSWXrzKS37sy1tMScCYm6swTRJ9a</t>
+        </is>
+      </c>
       <c r="I41" s="14" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
@@ -1714,7 +1746,11 @@
       <c r="E42" s="13" t="n"/>
       <c r="F42" s="14" t="n"/>
       <c r="G42" s="14" t="n"/>
-      <c r="H42" s="14" t="n"/>
+      <c r="H42" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYJEVxzCa886ERC7XxhvYocFyy7i19Keo9R1GJ2VZ5AWq</t>
+        </is>
+      </c>
       <c r="I42" s="14" t="n"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
@@ -1737,7 +1773,11 @@
       <c r="E43" s="13" t="n"/>
       <c r="F43" s="14" t="n"/>
       <c r="G43" s="14" t="n"/>
-      <c r="H43" s="14" t="n"/>
+      <c r="H43" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmSNGCNWrnZY4paiNVHQJ3ouSWvRrbSXPendNP5gLvSYQm</t>
+        </is>
+      </c>
       <c r="I43" s="14" t="n"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
@@ -1760,7 +1800,11 @@
       <c r="E44" s="13" t="n"/>
       <c r="F44" s="14" t="n"/>
       <c r="G44" s="14" t="n"/>
-      <c r="H44" s="14" t="n"/>
+      <c r="H44" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmezkHsnxzidBF6RQQdddSHRsRcMQtJ5GvLCv1V1QhFgKV</t>
+        </is>
+      </c>
       <c r="I44" s="14" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
@@ -1783,7 +1827,11 @@
       <c r="E45" s="13" t="n"/>
       <c r="F45" s="14" t="n"/>
       <c r="G45" s="14" t="n"/>
-      <c r="H45" s="14" t="n"/>
+      <c r="H45" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmevgTJX48LzLkKjquD3EZ3zJ3D3mHP1fvY4NRxkhdnAKE</t>
+        </is>
+      </c>
       <c r="I45" s="14" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
@@ -1806,7 +1854,11 @@
       <c r="E46" s="13" t="n"/>
       <c r="F46" s="14" t="n"/>
       <c r="G46" s="14" t="n"/>
-      <c r="H46" s="14" t="n"/>
+      <c r="H46" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYE3LZdLZANVZCfey5nZcGKrP9v2dfTByrG6hfjiDFL5t</t>
+        </is>
+      </c>
       <c r="I46" s="14" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -1829,7 +1881,11 @@
       <c r="E47" s="13" t="n"/>
       <c r="F47" s="14" t="n"/>
       <c r="G47" s="14" t="n"/>
-      <c r="H47" s="14" t="n"/>
+      <c r="H47" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQtX9GZc9tFdKFkF8V4GbZKc8JjgCjVMbQU7FvwPHHDfD</t>
+        </is>
+      </c>
       <c r="I47" s="14" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
@@ -1852,7 +1908,11 @@
       <c r="E48" s="13" t="n"/>
       <c r="F48" s="14" t="n"/>
       <c r="G48" s="14" t="n"/>
-      <c r="H48" s="14" t="n"/>
+      <c r="H48" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYNqa3ViyLMFGQYyjRa8JccgLKfabDrJY3BgbSu8jiyfV</t>
+        </is>
+      </c>
       <c r="I48" s="14" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
@@ -1875,7 +1935,11 @@
       <c r="E49" s="13" t="n"/>
       <c r="F49" s="14" t="n"/>
       <c r="G49" s="14" t="n"/>
-      <c r="H49" s="14" t="n"/>
+      <c r="H49" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTFBKn31aL85isVgyF9cjHzjD4Uptvvx9jBkyWqVtLbiX</t>
+        </is>
+      </c>
       <c r="I49" s="14" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
@@ -1898,7 +1962,11 @@
       <c r="E50" s="13" t="n"/>
       <c r="F50" s="14" t="n"/>
       <c r="G50" s="14" t="n"/>
-      <c r="H50" s="14" t="n"/>
+      <c r="H50" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTWc3h1qe5whVF7edHEN4h8nefVsJCcUbuPCcEzCpBaPx</t>
+        </is>
+      </c>
       <c r="I50" s="14" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
@@ -1921,7 +1989,11 @@
       <c r="E51" s="13" t="n"/>
       <c r="F51" s="14" t="n"/>
       <c r="G51" s="14" t="n"/>
-      <c r="H51" s="14" t="n"/>
+      <c r="H51" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmc6FjYWp27xfUFZgXjqZYJitcSZZQK9bYUrAED6pFuTAw</t>
+        </is>
+      </c>
       <c r="I51" s="14" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
@@ -1944,7 +2016,11 @@
       <c r="E52" s="13" t="n"/>
       <c r="F52" s="14" t="n"/>
       <c r="G52" s="14" t="n"/>
-      <c r="H52" s="14" t="n"/>
+      <c r="H52" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmd9RVu2AASkY146BpuzTwE7QwqnPNGUdfQ8oWY7aPyM8w</t>
+        </is>
+      </c>
       <c r="I52" s="14" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
@@ -1967,7 +2043,11 @@
       <c r="E53" s="13" t="n"/>
       <c r="F53" s="14" t="n"/>
       <c r="G53" s="14" t="n"/>
-      <c r="H53" s="14" t="n"/>
+      <c r="H53" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVSHR2h6MszyQS1uHr15D6dVXzrAs12ZxsCHWjb3PVzLV</t>
+        </is>
+      </c>
       <c r="I53" s="14" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
@@ -1990,7 +2070,11 @@
       <c r="E54" s="13" t="n"/>
       <c r="F54" s="14" t="n"/>
       <c r="G54" s="14" t="n"/>
-      <c r="H54" s="14" t="n"/>
+      <c r="H54" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTDRkoYKs7SgEn6pFSBuxE5gbAfAqC9kejjbHH477jLgw</t>
+        </is>
+      </c>
       <c r="I54" s="14" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
@@ -2013,7 +2097,11 @@
       <c r="E55" s="13" t="n"/>
       <c r="F55" s="14" t="n"/>
       <c r="G55" s="14" t="n"/>
-      <c r="H55" s="14" t="n"/>
+      <c r="H55" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmdG1YUP56hbG51hpDBECUAZ5mWDiYpYCMb84VAmv836SP</t>
+        </is>
+      </c>
       <c r="I55" s="14" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
@@ -2036,7 +2124,11 @@
       <c r="E56" s="13" t="n"/>
       <c r="F56" s="14" t="n"/>
       <c r="G56" s="14" t="n"/>
-      <c r="H56" s="14" t="n"/>
+      <c r="H56" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbkdK8oY5WCyox1kybSaGy4aLcfUMWzhGyFdUdNE9NAvK</t>
+        </is>
+      </c>
       <c r="I56" s="14" t="n"/>
     </row>
     <row r="57" ht="12.4" customHeight="1">
@@ -2059,7 +2151,11 @@
       <c r="E57" s="13" t="n"/>
       <c r="F57" s="14" t="n"/>
       <c r="G57" s="14" t="n"/>
-      <c r="H57" s="14" t="n"/>
+      <c r="H57" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmSk271b9u5Lwc4t4QgybdrGNkZdPSYm3HGgdSnny8HpU1</t>
+        </is>
+      </c>
       <c r="I57" s="14" t="n"/>
     </row>
     <row r="58" ht="12.4" customHeight="1">
@@ -2082,7 +2178,11 @@
       <c r="E58" s="13" t="n"/>
       <c r="F58" s="14" t="n"/>
       <c r="G58" s="14" t="n"/>
-      <c r="H58" s="14" t="n"/>
+      <c r="H58" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQYZkkAaaMdsZ2LHSR17Gac3gb5nckiSvFeKfhgpSGHyE</t>
+        </is>
+      </c>
       <c r="I58" s="14" t="n"/>
     </row>
     <row r="59" ht="12.4" customHeight="1">
@@ -2105,7 +2205,11 @@
       <c r="E59" s="13" t="n"/>
       <c r="F59" s="14" t="n"/>
       <c r="G59" s="14" t="n"/>
-      <c r="H59" s="14" t="n"/>
+      <c r="H59" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmP2kKFFp4nseLoNLU4a1nJQTaRWWkhAwRBjYsqEN1w1rV</t>
+        </is>
+      </c>
       <c r="I59" s="14" t="n"/>
     </row>
     <row r="60" ht="12.4" customHeight="1">
@@ -2128,7 +2232,11 @@
       <c r="E60" s="13" t="n"/>
       <c r="F60" s="14" t="n"/>
       <c r="G60" s="14" t="n"/>
-      <c r="H60" s="14" t="n"/>
+      <c r="H60" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPwZeXZoayaWNPdiv2pegDUPGMh8pWvL6Znhr66kkQoP8</t>
+        </is>
+      </c>
       <c r="I60" s="14" t="n"/>
     </row>
     <row r="61" ht="12.4" customHeight="1">
@@ -2151,7 +2259,11 @@
       <c r="E61" s="13" t="n"/>
       <c r="F61" s="14" t="n"/>
       <c r="G61" s="14" t="n"/>
-      <c r="H61" s="14" t="n"/>
+      <c r="H61" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmciTn95mJGcyqvzyv3Y8J1CSgAMQtDuMfdEHeVgBYad9o</t>
+        </is>
+      </c>
       <c r="I61" s="14" t="n"/>
     </row>
     <row r="62" ht="12.4" customHeight="1">
@@ -2174,7 +2286,11 @@
       <c r="E62" s="13" t="n"/>
       <c r="F62" s="14" t="n"/>
       <c r="G62" s="14" t="n"/>
-      <c r="H62" s="14" t="n"/>
+      <c r="H62" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQUYdraNPj5i31fjjeV5gxgkKEt2JqiUHyWB6o79jnAvj</t>
+        </is>
+      </c>
       <c r="I62" s="14" t="n"/>
     </row>
     <row r="63" ht="12.4" customHeight="1">
@@ -2197,7 +2313,11 @@
       <c r="E63" s="13" t="n"/>
       <c r="F63" s="14" t="n"/>
       <c r="G63" s="14" t="n"/>
-      <c r="H63" s="14" t="n"/>
+      <c r="H63" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXn9fUMDsia48iRDCof8YfWdaS9VdiMG9of6C3nPpmcGF</t>
+        </is>
+      </c>
       <c r="I63" s="14" t="n"/>
     </row>
     <row r="64" ht="12.4" customHeight="1">
@@ -2220,7 +2340,11 @@
       <c r="E64" s="13" t="n"/>
       <c r="F64" s="14" t="n"/>
       <c r="G64" s="14" t="n"/>
-      <c r="H64" s="14" t="n"/>
+      <c r="H64" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRbhjSk2eC7T16xyjoUVRnKMDwK8TdY2TWQ3ESK7b9gVz</t>
+        </is>
+      </c>
       <c r="I64" s="14" t="n"/>
     </row>
     <row r="65" ht="12.4" customHeight="1">
@@ -2243,7 +2367,11 @@
       <c r="E65" s="13" t="n"/>
       <c r="F65" s="14" t="n"/>
       <c r="G65" s="14" t="n"/>
-      <c r="H65" s="14" t="n"/>
+      <c r="H65" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQ7Dd6aKXoCU9FwrAbnqWwxxyUKxZyqVz39ppL4dh1z2L</t>
+        </is>
+      </c>
       <c r="I65" s="14" t="n"/>
     </row>
     <row r="66" ht="12.4" customHeight="1">
@@ -2266,7 +2394,11 @@
       <c r="E66" s="13" t="n"/>
       <c r="F66" s="14" t="n"/>
       <c r="G66" s="14" t="n"/>
-      <c r="H66" s="14" t="n"/>
+      <c r="H66" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPqbhvRti4DaTkKCkSvFUTwfQ4MERR6Pd3PJwFTiMfcYi</t>
+        </is>
+      </c>
       <c r="I66" s="14" t="n"/>
     </row>
     <row r="67" ht="12.4" customHeight="1">
@@ -2289,7 +2421,11 @@
       <c r="E67" s="13" t="n"/>
       <c r="F67" s="14" t="n"/>
       <c r="G67" s="14" t="n"/>
-      <c r="H67" s="14" t="n"/>
+      <c r="H67" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmZNsVHTVSCBx4vA4tu1kFa8nStdHUQZq9GMKAKyfiG3Le</t>
+        </is>
+      </c>
       <c r="I67" s="14" t="n"/>
     </row>
     <row r="68" ht="12.4" customHeight="1">
@@ -2312,7 +2448,11 @@
       <c r="E68" s="13" t="n"/>
       <c r="F68" s="14" t="n"/>
       <c r="G68" s="14" t="n"/>
-      <c r="H68" s="14" t="n"/>
+      <c r="H68" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmX4qbCyjhmBkwUFWma7jyyJZ1cBTzbxJ7v6VLmEJjJfgi</t>
+        </is>
+      </c>
       <c r="I68" s="14" t="n"/>
     </row>
     <row r="69" ht="12.4" customHeight="1">
@@ -2335,7 +2475,11 @@
       <c r="E69" s="13" t="n"/>
       <c r="F69" s="14" t="n"/>
       <c r="G69" s="14" t="n"/>
-      <c r="H69" s="14" t="n"/>
+      <c r="H69" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmd6QwNUtURufmeJTfnJfQWXhYKTbkujsWEj24yhQ9TUQu</t>
+        </is>
+      </c>
       <c r="I69" s="14" t="n"/>
     </row>
     <row r="70" ht="12.4" customHeight="1">
@@ -2358,7 +2502,11 @@
       <c r="E70" s="13" t="n"/>
       <c r="F70" s="14" t="n"/>
       <c r="G70" s="14" t="n"/>
-      <c r="H70" s="14" t="n"/>
+      <c r="H70" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmcngq4aQwa3gZX5mnfHQx6YQjYVJ5huC2k6eQHgVoz2A9</t>
+        </is>
+      </c>
       <c r="I70" s="14" t="n"/>
     </row>
     <row r="71" ht="12.4" customHeight="1">
@@ -2381,7 +2529,11 @@
       <c r="E71" s="13" t="n"/>
       <c r="F71" s="14" t="n"/>
       <c r="G71" s="14" t="n"/>
-      <c r="H71" s="14" t="n"/>
+      <c r="H71" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRNb59VwfGaV5PKr5r9bnK9XTJXq67NNzTcfYZkJZ7fAo</t>
+        </is>
+      </c>
       <c r="I71" s="14" t="n"/>
     </row>
     <row r="72" ht="12.4" customHeight="1">
@@ -2404,7 +2556,11 @@
       <c r="E72" s="13" t="n"/>
       <c r="F72" s="14" t="n"/>
       <c r="G72" s="14" t="n"/>
-      <c r="H72" s="14" t="n"/>
+      <c r="H72" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbEbWyfZnBwg7VNEmaAeG2Zjj8kzkKNQi25GsLhtdYE62</t>
+        </is>
+      </c>
       <c r="I72" s="14" t="n"/>
     </row>
     <row r="73" ht="12.4" customHeight="1">
@@ -2427,7 +2583,11 @@
       <c r="E73" s="13" t="n"/>
       <c r="F73" s="14" t="n"/>
       <c r="G73" s="14" t="n"/>
-      <c r="H73" s="14" t="n"/>
+      <c r="H73" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmfHYHo6c8Mw9MaCHm1NGECBVcMpQxPTC4xfFQY4X5rLDh</t>
+        </is>
+      </c>
       <c r="I73" s="14" t="n"/>
     </row>
     <row r="74" ht="12.4" customHeight="1">
@@ -2450,7 +2610,11 @@
       <c r="E74" s="13" t="n"/>
       <c r="F74" s="14" t="n"/>
       <c r="G74" s="14" t="n"/>
-      <c r="H74" s="14" t="n"/>
+      <c r="H74" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPGfQz8zPagtdBJwiCM6bVQX5hSSbSAhzrqr7YsCaCL9S</t>
+        </is>
+      </c>
       <c r="I74" s="14" t="n"/>
     </row>
     <row r="75" ht="12.4" customHeight="1">
@@ -2473,7 +2637,11 @@
       <c r="E75" s="13" t="n"/>
       <c r="F75" s="14" t="n"/>
       <c r="G75" s="14" t="n"/>
-      <c r="H75" s="14" t="n"/>
+      <c r="H75" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcnxwiRphLN4uLosSxgdLFNEysRAiMsQfuCc6Qr5fXLqm</t>
+        </is>
+      </c>
       <c r="I75" s="14" t="n"/>
     </row>
     <row r="76" ht="12.4" customHeight="1">
@@ -2496,7 +2664,11 @@
       <c r="E76" s="13" t="n"/>
       <c r="F76" s="14" t="n"/>
       <c r="G76" s="14" t="n"/>
-      <c r="H76" s="14" t="n"/>
+      <c r="H76" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVJgrwAHPvwSWX1BknCsYQ713twcvGQPg8Gr6Nf9LvSbo</t>
+        </is>
+      </c>
       <c r="I76" s="14" t="n"/>
     </row>
     <row r="77" ht="12.4" customHeight="1">
@@ -2519,7 +2691,11 @@
       <c r="E77" s="13" t="n"/>
       <c r="F77" s="14" t="n"/>
       <c r="G77" s="14" t="n"/>
-      <c r="H77" s="14" t="n"/>
+      <c r="H77" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcVkVvk5yXE5gym1r7dGcn5C8Cu2edSMzhDZxsBtXMbkV</t>
+        </is>
+      </c>
       <c r="I77" s="14" t="n"/>
     </row>
     <row r="78" ht="12.4" customHeight="1">
@@ -2542,7 +2718,11 @@
       <c r="E78" s="13" t="n"/>
       <c r="F78" s="14" t="n"/>
       <c r="G78" s="14" t="n"/>
-      <c r="H78" s="14" t="n"/>
+      <c r="H78" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNsofHCW6Skwcya38RRTA6H85gVZrKSunUGMaBpvgMDwT</t>
+        </is>
+      </c>
       <c r="I78" s="14" t="n"/>
     </row>
     <row r="79" ht="12.4" customHeight="1">
@@ -2565,7 +2745,11 @@
       <c r="E79" s="13" t="n"/>
       <c r="F79" s="14" t="n"/>
       <c r="G79" s="14" t="n"/>
-      <c r="H79" s="14" t="n"/>
+      <c r="H79" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTzt1W81QQUhiEqFpUBeCSyLR2LKccpJ2tgi8ybYpdhuu</t>
+        </is>
+      </c>
       <c r="I79" s="14" t="n"/>
     </row>
     <row r="80" ht="12.4" customHeight="1">
@@ -2588,7 +2772,11 @@
       <c r="E80" s="13" t="n"/>
       <c r="F80" s="14" t="n"/>
       <c r="G80" s="14" t="n"/>
-      <c r="H80" s="14" t="n"/>
+      <c r="H80" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmagMivUpgER8cJAFF9K5YofQwb9KqR6UvHk6n5EAL1zbc</t>
+        </is>
+      </c>
       <c r="I80" s="14" t="n"/>
     </row>
     <row r="81" ht="12.4" customHeight="1">
@@ -2611,7 +2799,11 @@
       <c r="E81" s="13" t="n"/>
       <c r="F81" s="14" t="n"/>
       <c r="G81" s="14" t="n"/>
-      <c r="H81" s="14" t="n"/>
+      <c r="H81" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmfJD6ZddWfrSLjnoASV2peqqf62n3tK2qbnxmgvPFy9J8</t>
+        </is>
+      </c>
       <c r="I81" s="14" t="n"/>
     </row>
     <row r="82" ht="12.4" customHeight="1">
@@ -2634,7 +2826,11 @@
       <c r="E82" s="13" t="n"/>
       <c r="F82" s="14" t="n"/>
       <c r="G82" s="14" t="n"/>
-      <c r="H82" s="14" t="n"/>
+      <c r="H82" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPsAebx37Dj9LFtjbGhrf1eGzKxVYehtzZAGXssP6284M</t>
+        </is>
+      </c>
       <c r="I82" s="14" t="n"/>
     </row>
     <row r="83" ht="12.4" customHeight="1">
@@ -2657,7 +2853,11 @@
       <c r="E83" s="13" t="n"/>
       <c r="F83" s="14" t="n"/>
       <c r="G83" s="14" t="n"/>
-      <c r="H83" s="14" t="n"/>
+      <c r="H83" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVjquCupenqmVVLqsKJFcE6cozFGvyETVNgXEEPUTUYMx</t>
+        </is>
+      </c>
       <c r="I83" s="14" t="n"/>
     </row>
     <row r="84" ht="12.4" customHeight="1">
@@ -2680,7 +2880,11 @@
       <c r="E84" s="13" t="n"/>
       <c r="F84" s="14" t="n"/>
       <c r="G84" s="14" t="n"/>
-      <c r="H84" s="14" t="n"/>
+      <c r="H84" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmc6ZkpsBrX3f9LRBbS7HWVWuizHiZFjb3XkfDS9zgzEoB</t>
+        </is>
+      </c>
       <c r="I84" s="14" t="n"/>
     </row>
     <row r="85" ht="12.4" customHeight="1">
@@ -2703,7 +2907,11 @@
       <c r="E85" s="13" t="n"/>
       <c r="F85" s="14" t="n"/>
       <c r="G85" s="14" t="n"/>
-      <c r="H85" s="14" t="n"/>
+      <c r="H85" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmaDE4jjwcNT3bhDXPxuT3Mzia5M3mKEHpftki5cSmYKhG</t>
+        </is>
+      </c>
       <c r="I85" s="14" t="n"/>
     </row>
     <row r="86" ht="12.4" customHeight="1">
@@ -2726,7 +2934,11 @@
       <c r="E86" s="13" t="n"/>
       <c r="F86" s="14" t="n"/>
       <c r="G86" s="14" t="n"/>
-      <c r="H86" s="14" t="n"/>
+      <c r="H86" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQUdLhVa11evU1ebJJ14WkYDd4gyzd8PP9kXZq5ChQqhb</t>
+        </is>
+      </c>
       <c r="I86" s="14" t="n"/>
     </row>
     <row r="87" ht="12.4" customHeight="1">
@@ -2749,7 +2961,11 @@
       <c r="E87" s="13" t="n"/>
       <c r="F87" s="14" t="n"/>
       <c r="G87" s="14" t="n"/>
-      <c r="H87" s="14" t="n"/>
+      <c r="H87" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPqx66draXotgYYNjxo8ZNu4zEk3P7Qk4ifoyaB5dL8Zw</t>
+        </is>
+      </c>
       <c r="I87" s="14" t="n"/>
     </row>
     <row r="88" ht="12.4" customHeight="1">
@@ -2772,7 +2988,11 @@
       <c r="E88" s="13" t="n"/>
       <c r="F88" s="14" t="n"/>
       <c r="G88" s="14" t="n"/>
-      <c r="H88" s="14" t="n"/>
+      <c r="H88" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmf9DP8FyXUtpVZ3Y7WxfNfPdQ4waCwbxJdXuTrB6dTTvm</t>
+        </is>
+      </c>
       <c r="I88" s="14" t="n"/>
     </row>
     <row r="89" ht="12.4" customHeight="1">
@@ -2795,7 +3015,11 @@
       <c r="E89" s="13" t="n"/>
       <c r="F89" s="14" t="n"/>
       <c r="G89" s="14" t="n"/>
-      <c r="H89" s="14" t="n"/>
+      <c r="H89" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXwFLdHG8Td1Y7nnEDqamt2hycNGSARNT8q3gCHpnWQ7i</t>
+        </is>
+      </c>
       <c r="I89" s="14" t="n"/>
     </row>
     <row r="90" ht="12.4" customHeight="1">
@@ -2818,7 +3042,11 @@
       <c r="E90" s="13" t="n"/>
       <c r="F90" s="14" t="n"/>
       <c r="G90" s="14" t="n"/>
-      <c r="H90" s="14" t="n"/>
+      <c r="H90" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVj6ExFaQbEc5xdmQDmrpLSxPAV5YoUehAofLna5fV7VV</t>
+        </is>
+      </c>
       <c r="I90" s="14" t="n"/>
     </row>
     <row r="91" ht="12.4" customHeight="1">
@@ -2841,7 +3069,11 @@
       <c r="E91" s="13" t="n"/>
       <c r="F91" s="14" t="n"/>
       <c r="G91" s="14" t="n"/>
-      <c r="H91" s="14" t="n"/>
+      <c r="H91" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmciEXMch3THJ42WrWKvvV3xHftbM1LZBSc7xV4qcpkv6G</t>
+        </is>
+      </c>
       <c r="I91" s="14" t="n"/>
     </row>
     <row r="92" ht="12.4" customHeight="1">
@@ -2864,7 +3096,11 @@
       <c r="E92" s="13" t="n"/>
       <c r="F92" s="14" t="n"/>
       <c r="G92" s="14" t="n"/>
-      <c r="H92" s="14" t="n"/>
+      <c r="H92" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNbCPEoU2ytVa7qw5XoYPKRK5Sc1di2JapL5Ht9T7N8PC</t>
+        </is>
+      </c>
       <c r="I92" s="14" t="n"/>
     </row>
     <row r="93" ht="12.4" customHeight="1">
@@ -2887,7 +3123,11 @@
       <c r="E93" s="13" t="n"/>
       <c r="F93" s="14" t="n"/>
       <c r="G93" s="14" t="n"/>
-      <c r="H93" s="14" t="n"/>
+      <c r="H93" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmc5tkMkLNG9PCNAzbXzeGfv98hdDxYsB9jom5hxmzyb3q</t>
+        </is>
+      </c>
       <c r="I93" s="14" t="n"/>
     </row>
     <row r="94" ht="12.4" customHeight="1">
@@ -2910,7 +3150,11 @@
       <c r="E94" s="13" t="n"/>
       <c r="F94" s="14" t="n"/>
       <c r="G94" s="14" t="n"/>
-      <c r="H94" s="14" t="n"/>
+      <c r="H94" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmaAckik5NHio5Fo9j82wJzVMtf86kBiTAPftahVzy5swx</t>
+        </is>
+      </c>
       <c r="I94" s="14" t="n"/>
     </row>
     <row r="95" ht="12.4" customHeight="1">
@@ -2933,7 +3177,11 @@
       <c r="E95" s="13" t="n"/>
       <c r="F95" s="14" t="n"/>
       <c r="G95" s="14" t="n"/>
-      <c r="H95" s="14" t="n"/>
+      <c r="H95" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmX4bfhdanHFbPWnxSsM4HPJBVG318mrHLtnvuuKtNpdDG</t>
+        </is>
+      </c>
       <c r="I95" s="14" t="n"/>
     </row>
     <row r="96" ht="12.4" customHeight="1">
@@ -2956,7 +3204,11 @@
       <c r="E96" s="13" t="n"/>
       <c r="F96" s="14" t="n"/>
       <c r="G96" s="14" t="n"/>
-      <c r="H96" s="14" t="n"/>
+      <c r="H96" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPJJtSujCjD1rbbNNcruy6b7TxeegT8EFRx2ZuDsZqE2J</t>
+        </is>
+      </c>
       <c r="I96" s="14" t="n"/>
     </row>
     <row r="97" ht="12.4" customHeight="1">
@@ -2979,7 +3231,11 @@
       <c r="E97" s="13" t="n"/>
       <c r="F97" s="14" t="n"/>
       <c r="G97" s="14" t="n"/>
-      <c r="H97" s="14" t="n"/>
+      <c r="H97" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcW58cuHhLKnvD9cgsMas33QazrBKePeQCSWwKY5dU2KF</t>
+        </is>
+      </c>
       <c r="I97" s="14" t="n"/>
     </row>
     <row r="98" ht="12.4" customHeight="1">
@@ -3002,7 +3258,11 @@
       <c r="E98" s="13" t="n"/>
       <c r="F98" s="14" t="n"/>
       <c r="G98" s="14" t="n"/>
-      <c r="H98" s="14" t="n"/>
+      <c r="H98" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXaWCYcP2G9XwRMrtBbYPPyxbuUYvUndZvia6tjvMx9cM</t>
+        </is>
+      </c>
       <c r="I98" s="14" t="n"/>
     </row>
     <row r="99" ht="12.4" customHeight="1">
@@ -3025,7 +3285,11 @@
       <c r="E99" s="13" t="n"/>
       <c r="F99" s="14" t="n"/>
       <c r="G99" s="14" t="n"/>
-      <c r="H99" s="14" t="n"/>
+      <c r="H99" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQcf9NdmoUtstjxV7FsMexEHaUVczLu1jUcqSCW5yhD1J</t>
+        </is>
+      </c>
       <c r="I99" s="14" t="n"/>
     </row>
     <row r="100" ht="12.4" customHeight="1">
@@ -3048,7 +3312,11 @@
       <c r="E100" s="13" t="n"/>
       <c r="F100" s="14" t="n"/>
       <c r="G100" s="14" t="n"/>
-      <c r="H100" s="14" t="n"/>
+      <c r="H100" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXzk7gSDPvyQz3rQd257WdMnLVvg32rdT3ffvEx7SAEWd</t>
+        </is>
+      </c>
       <c r="I100" s="14" t="n"/>
     </row>
     <row r="101" ht="12.4" customHeight="1">
@@ -3071,7 +3339,11 @@
       <c r="E101" s="13" t="n"/>
       <c r="F101" s="14" t="n"/>
       <c r="G101" s="14" t="n"/>
-      <c r="H101" s="14" t="n"/>
+      <c r="H101" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmdCoZgKAVxWMR7HsR284WCF8PFXtjPWZPxXQN7pshxjTr</t>
+        </is>
+      </c>
       <c r="I101" s="14" t="n"/>
     </row>
     <row r="102" ht="12.4" customHeight="1">
@@ -3094,7 +3366,11 @@
       <c r="E102" s="13" t="n"/>
       <c r="F102" s="14" t="n"/>
       <c r="G102" s="14" t="n"/>
-      <c r="H102" s="14" t="n"/>
+      <c r="H102" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNWJCsjMLsj2fR1bXDJb7Km2mqJ3oMVqy74oym6ew6KaZ</t>
+        </is>
+      </c>
       <c r="I102" s="14" t="n"/>
     </row>
     <row r="103" ht="12.4" customHeight="1">
@@ -3117,7 +3393,11 @@
       <c r="E103" s="13" t="n"/>
       <c r="F103" s="14" t="n"/>
       <c r="G103" s="14" t="n"/>
-      <c r="H103" s="14" t="n"/>
+      <c r="H103" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmP1owxvA5BhVoyY2iBBPditGGWw7cWRrJCujRF8ZeTaFz</t>
+        </is>
+      </c>
       <c r="I103" s="14" t="n"/>
     </row>
     <row r="104" ht="12.4" customHeight="1">
@@ -3140,7 +3420,11 @@
       <c r="E104" s="13" t="n"/>
       <c r="F104" s="14" t="n"/>
       <c r="G104" s="14" t="n"/>
-      <c r="H104" s="14" t="n"/>
+      <c r="H104" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNZU91L6Xri66LFoh2nTTYZYcJAzpmg6fqKAnZXvniSyP</t>
+        </is>
+      </c>
       <c r="I104" s="14" t="n"/>
     </row>
     <row r="105" ht="12.4" customHeight="1">
@@ -3163,7 +3447,11 @@
       <c r="E105" s="13" t="n"/>
       <c r="F105" s="14" t="n"/>
       <c r="G105" s="14" t="n"/>
-      <c r="H105" s="14" t="n"/>
+      <c r="H105" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmX2Pnfe9kxhyXs8LTmhyiBiiu5bMqVro7TpPwAhRw5LvP</t>
+        </is>
+      </c>
       <c r="I105" s="14" t="n"/>
     </row>
     <row r="106" ht="12.4" customHeight="1">
@@ -3186,7 +3474,11 @@
       <c r="E106" s="13" t="n"/>
       <c r="F106" s="14" t="n"/>
       <c r="G106" s="14" t="n"/>
-      <c r="H106" s="14" t="n"/>
+      <c r="H106" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVsuBVX3nLM4T75rZ2YuS1JK5DvAurR7EA9SdoSduQkRB</t>
+        </is>
+      </c>
       <c r="I106" s="14" t="n"/>
     </row>
     <row r="107" ht="12.4" customHeight="1">
@@ -3209,7 +3501,11 @@
       <c r="E107" s="13" t="n"/>
       <c r="F107" s="14" t="n"/>
       <c r="G107" s="14" t="n"/>
-      <c r="H107" s="14" t="n"/>
+      <c r="H107" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYCv2E1NPxSqfyJHcXML8h3UWoGAk4NzwtfthtYsL93tW</t>
+        </is>
+      </c>
       <c r="I107" s="14" t="n"/>
     </row>
     <row r="108" ht="12.4" customHeight="1">
@@ -3232,7 +3528,11 @@
       <c r="E108" s="13" t="n"/>
       <c r="F108" s="14" t="n"/>
       <c r="G108" s="14" t="n"/>
-      <c r="H108" s="14" t="n"/>
+      <c r="H108" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTAqqaVh6nDjZPYkzBqmDqf8rrSxDxRGTCygBWPUP8Vxh</t>
+        </is>
+      </c>
       <c r="I108" s="14" t="n"/>
     </row>
     <row r="109" ht="12.4" customHeight="1">
@@ -3255,7 +3555,11 @@
       <c r="E109" s="13" t="n"/>
       <c r="F109" s="14" t="n"/>
       <c r="G109" s="14" t="n"/>
-      <c r="H109" s="14" t="n"/>
+      <c r="H109" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmP5XwX7MXYgYE2QGNpHPzRzE8N28CBWGNPenSyXvMHLdk</t>
+        </is>
+      </c>
       <c r="I109" s="14" t="n"/>
     </row>
     <row r="110" ht="12.4" customHeight="1">
@@ -3278,7 +3582,11 @@
       <c r="E110" s="13" t="n"/>
       <c r="F110" s="14" t="n"/>
       <c r="G110" s="14" t="n"/>
-      <c r="H110" s="14" t="n"/>
+      <c r="H110" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmP1sDzgpSfa624ymoB36DfGqzwwnGjwVCjHGHNRQFhq5q</t>
+        </is>
+      </c>
       <c r="I110" s="14" t="n"/>
     </row>
     <row r="111" ht="12.4" customHeight="1">
@@ -3301,7 +3609,11 @@
       <c r="E111" s="13" t="n"/>
       <c r="F111" s="14" t="n"/>
       <c r="G111" s="14" t="n"/>
-      <c r="H111" s="14" t="n"/>
+      <c r="H111" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQXm9LTeWqXTvmsnJ2YWjv5C6osaJb9BVfiEUXAPHNHri</t>
+        </is>
+      </c>
       <c r="I111" s="14" t="n"/>
     </row>
     <row r="112" ht="12.4" customHeight="1">
@@ -3324,7 +3636,11 @@
       <c r="E112" s="13" t="n"/>
       <c r="F112" s="14" t="n"/>
       <c r="G112" s="14" t="n"/>
-      <c r="H112" s="14" t="n"/>
+      <c r="H112" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmP5ZyF9PPJuxR8dY3kUubb1upUe7j4daHkV9xmQWWMBJC</t>
+        </is>
+      </c>
       <c r="I112" s="14" t="n"/>
     </row>
     <row r="113" ht="12.4" customHeight="1">
@@ -3347,7 +3663,11 @@
       <c r="E113" s="13" t="n"/>
       <c r="F113" s="14" t="n"/>
       <c r="G113" s="14" t="n"/>
-      <c r="H113" s="14" t="n"/>
+      <c r="H113" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcW9NF8EUymTq5Ye3YCD8L73fR35qRNpF9hMwaN8wyEMc</t>
+        </is>
+      </c>
       <c r="I113" s="14" t="n"/>
     </row>
     <row r="114" ht="12.4" customHeight="1">
@@ -3370,7 +3690,11 @@
       <c r="E114" s="13" t="n"/>
       <c r="F114" s="14" t="n"/>
       <c r="G114" s="14" t="n"/>
-      <c r="H114" s="14" t="n"/>
+      <c r="H114" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNWiYGWFeZpjGnv3t4WebmQ4g4Nxft1G2QXdBwCHpEBhq</t>
+        </is>
+      </c>
       <c r="I114" s="14" t="n"/>
     </row>
     <row r="115" ht="12.4" customHeight="1">
@@ -3393,7 +3717,11 @@
       <c r="E115" s="13" t="n"/>
       <c r="F115" s="14" t="n"/>
       <c r="G115" s="14" t="n"/>
-      <c r="H115" s="14" t="n"/>
+      <c r="H115" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbV4RRNiZnrVAj7ypp3xCbGbmMZLybfR5Weo87Pd72gp2</t>
+        </is>
+      </c>
       <c r="I115" s="14" t="n"/>
     </row>
     <row r="116" ht="12.4" customHeight="1">
@@ -3416,7 +3744,11 @@
       <c r="E116" s="13" t="n"/>
       <c r="F116" s="14" t="n"/>
       <c r="G116" s="14" t="n"/>
-      <c r="H116" s="14" t="n"/>
+      <c r="H116" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPRceBrHbo925Px2HxdUwcG3TQqzDd45YSWRcm91WEUu8</t>
+        </is>
+      </c>
       <c r="I116" s="14" t="n"/>
     </row>
     <row r="117" ht="12.4" customHeight="1">
@@ -3439,7 +3771,11 @@
       <c r="E117" s="13" t="n"/>
       <c r="F117" s="14" t="n"/>
       <c r="G117" s="14" t="n"/>
-      <c r="H117" s="14" t="n"/>
+      <c r="H117" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmeH1F3yqeh1YTWa2b76RdicU4oreR1qgoXbJJ98GCevn1</t>
+        </is>
+      </c>
       <c r="I117" s="14" t="n"/>
     </row>
     <row r="118" ht="12.4" customHeight="1">
@@ -3462,7 +3798,11 @@
       <c r="E118" s="13" t="n"/>
       <c r="F118" s="14" t="n"/>
       <c r="G118" s="14" t="n"/>
-      <c r="H118" s="14" t="n"/>
+      <c r="H118" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNRXtkF52bWesTvmuQ9XTUwLedWSdx2VuB6yRUQCE3PjY</t>
+        </is>
+      </c>
       <c r="I118" s="14" t="n"/>
     </row>
     <row r="119" ht="12.4" customHeight="1">
@@ -3485,7 +3825,11 @@
       <c r="E119" s="13" t="n"/>
       <c r="F119" s="14" t="n"/>
       <c r="G119" s="14" t="n"/>
-      <c r="H119" s="14" t="n"/>
+      <c r="H119" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYBsw4jCY4jXKBqxSYTuU77RLqHFN9D6dYBzKUD3495uN</t>
+        </is>
+      </c>
       <c r="I119" s="14" t="n"/>
     </row>
     <row r="120" ht="12.4" customHeight="1">
@@ -3508,7 +3852,11 @@
       <c r="E120" s="13" t="n"/>
       <c r="F120" s="14" t="n"/>
       <c r="G120" s="14" t="n"/>
-      <c r="H120" s="14" t="n"/>
+      <c r="H120" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbjB2cTxgq635xgXYpjDcsu71ZnQzJ5a7VbGwzjEYpYDe</t>
+        </is>
+      </c>
       <c r="I120" s="14" t="n"/>
     </row>
     <row r="121" ht="12.4" customHeight="1">
@@ -3531,7 +3879,11 @@
       <c r="E121" s="13" t="n"/>
       <c r="F121" s="14" t="n"/>
       <c r="G121" s="14" t="n"/>
-      <c r="H121" s="14" t="n"/>
+      <c r="H121" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTwd2A6LEL5YrdEmwcZE4dQQ75vkBiDfPW28rdS9SzNM9</t>
+        </is>
+      </c>
       <c r="I121" s="14" t="n"/>
     </row>
     <row r="122" ht="12.4" customHeight="1">
@@ -3554,7 +3906,11 @@
       <c r="E122" s="13" t="n"/>
       <c r="F122" s="14" t="n"/>
       <c r="G122" s="14" t="n"/>
-      <c r="H122" s="14" t="n"/>
+      <c r="H122" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmaZEP69XS4HpiYyygsc1eWdPXWJ16y9fVhfTgXx1uWXgT</t>
+        </is>
+      </c>
       <c r="I122" s="14" t="n"/>
     </row>
     <row r="123" ht="12.4" customHeight="1">
@@ -3577,7 +3933,11 @@
       <c r="E123" s="13" t="n"/>
       <c r="F123" s="14" t="n"/>
       <c r="G123" s="14" t="n"/>
-      <c r="H123" s="14" t="n"/>
+      <c r="H123" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTYsBKrJM95PE3b6nnDbCeFdGdnfVPjxpDmg7feAnXQYg</t>
+        </is>
+      </c>
       <c r="I123" s="14" t="n"/>
     </row>
     <row r="124" ht="12.4" customHeight="1">
@@ -3600,7 +3960,11 @@
       <c r="E124" s="13" t="n"/>
       <c r="F124" s="14" t="n"/>
       <c r="G124" s="14" t="n"/>
-      <c r="H124" s="14" t="n"/>
+      <c r="H124" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmU7iE2B27hC38uDWKJTYiPjbRVx6zqGqMg6SCU7gh3Hiq</t>
+        </is>
+      </c>
       <c r="I124" s="14" t="n"/>
     </row>
     <row r="125" ht="12.4" customHeight="1">
@@ -3623,7 +3987,11 @@
       <c r="E125" s="13" t="n"/>
       <c r="F125" s="14" t="n"/>
       <c r="G125" s="14" t="n"/>
-      <c r="H125" s="14" t="n"/>
+      <c r="H125" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmUwJ6oJ4E4bJQwqssup4DstUNZ41XpBn3ogR8KEtCjMYV</t>
+        </is>
+      </c>
       <c r="I125" s="14" t="n"/>
     </row>
     <row r="126" ht="12.4" customHeight="1">
@@ -3646,7 +4014,11 @@
       <c r="E126" s="13" t="n"/>
       <c r="F126" s="14" t="n"/>
       <c r="G126" s="14" t="n"/>
-      <c r="H126" s="14" t="n"/>
+      <c r="H126" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmU2xmWVwtfgAC97D1NNJzCBeQJg85B6mAeiMD2XAsEtj4</t>
+        </is>
+      </c>
       <c r="I126" s="14" t="n"/>
     </row>
     <row r="127" ht="12.4" customHeight="1">
@@ -3669,7 +4041,11 @@
       <c r="E127" s="13" t="n"/>
       <c r="F127" s="14" t="n"/>
       <c r="G127" s="14" t="n"/>
-      <c r="H127" s="14" t="n"/>
+      <c r="H127" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRfycSsA5fvrPiwMbQHkyv17oiuPgvuMUiJZ768Nr6zpP</t>
+        </is>
+      </c>
       <c r="I127" s="14" t="n"/>
     </row>
     <row r="128" ht="12.4" customHeight="1">
@@ -3692,7 +4068,11 @@
       <c r="E128" s="13" t="n"/>
       <c r="F128" s="14" t="n"/>
       <c r="G128" s="14" t="n"/>
-      <c r="H128" s="14" t="n"/>
+      <c r="H128" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmagtw7wFw2cSMKzcPs9SJXWiCYV4bnKHUff3ejJ2eAVnL</t>
+        </is>
+      </c>
       <c r="I128" s="14" t="n"/>
     </row>
     <row r="129" ht="12.4" customHeight="1">
@@ -3715,7 +4095,11 @@
       <c r="E129" s="13" t="n"/>
       <c r="F129" s="14" t="n"/>
       <c r="G129" s="14" t="n"/>
-      <c r="H129" s="14" t="n"/>
+      <c r="H129" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTTpBpxJFmAsnQjCBechidu49ph41xWN3p5JREzUeragM</t>
+        </is>
+      </c>
       <c r="I129" s="14" t="n"/>
     </row>
     <row r="130" ht="12.4" customHeight="1">
@@ -3738,7 +4122,11 @@
       <c r="E130" s="13" t="n"/>
       <c r="F130" s="14" t="n"/>
       <c r="G130" s="14" t="n"/>
-      <c r="H130" s="14" t="n"/>
+      <c r="H130" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmSK2bmG761zzrmcnUWXfxM5GsHuaCC4bPZvJJavo8PBzs</t>
+        </is>
+      </c>
       <c r="I130" s="14" t="n"/>
     </row>
     <row r="131" ht="12.4" customHeight="1">
@@ -3761,7 +4149,11 @@
       <c r="E131" s="13" t="n"/>
       <c r="F131" s="14" t="n"/>
       <c r="G131" s="14" t="n"/>
-      <c r="H131" s="14" t="n"/>
+      <c r="H131" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmf85q5tzPsVzSHnk8VNEHqS4bWaJiFco4pi3kyWJ3s61w</t>
+        </is>
+      </c>
       <c r="I131" s="14" t="n"/>
     </row>
     <row r="132" ht="12.4" customHeight="1">
@@ -3784,7 +4176,11 @@
       <c r="E132" s="13" t="n"/>
       <c r="F132" s="14" t="n"/>
       <c r="G132" s="14" t="n"/>
-      <c r="H132" s="14" t="n"/>
+      <c r="H132" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmeQW53wLzEDmVQYHDSDxk83Lz3RcC8e6MnJP2sHzFj1e6</t>
+        </is>
+      </c>
       <c r="I132" s="14" t="n"/>
     </row>
     <row r="133" ht="12.4" customHeight="1">
@@ -3807,7 +4203,11 @@
       <c r="E133" s="13" t="n"/>
       <c r="F133" s="14" t="n"/>
       <c r="G133" s="14" t="n"/>
-      <c r="H133" s="14" t="n"/>
+      <c r="H133" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRcC2bwJrKKwJ8REhnwj2fSAfXMFoNgctas86PgR6t2CW</t>
+        </is>
+      </c>
       <c r="I133" s="14" t="n"/>
     </row>
     <row r="134" ht="12.4" customHeight="1">
@@ -3830,7 +4230,11 @@
       <c r="E134" s="13" t="n"/>
       <c r="F134" s="14" t="n"/>
       <c r="G134" s="14" t="n"/>
-      <c r="H134" s="14" t="n"/>
+      <c r="H134" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWs7cMSaPxXn6C5UUAvh7pNGTBjgtM4xoEhL66iWQ6q6M</t>
+        </is>
+      </c>
       <c r="I134" s="14" t="n"/>
     </row>
     <row r="135" ht="12.4" customHeight="1">
@@ -3853,7 +4257,11 @@
       <c r="E135" s="13" t="n"/>
       <c r="F135" s="14" t="n"/>
       <c r="G135" s="14" t="n"/>
-      <c r="H135" s="14" t="n"/>
+      <c r="H135" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNd6cLSGZ8yjcWKsCTZMHcxbzaijkfR4eUUH77gkFhgTF</t>
+        </is>
+      </c>
       <c r="I135" s="14" t="n"/>
     </row>
     <row r="136" ht="12.4" customHeight="1">
@@ -3876,7 +4284,11 @@
       <c r="E136" s="13" t="n"/>
       <c r="F136" s="14" t="n"/>
       <c r="G136" s="14" t="n"/>
-      <c r="H136" s="14" t="n"/>
+      <c r="H136" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPxtcYf37GZYxGDzc79kxyC5S7JweQYfHyTwfQc3sRcAX</t>
+        </is>
+      </c>
       <c r="I136" s="14" t="n"/>
     </row>
     <row r="137" ht="12.4" customHeight="1">
@@ -3899,7 +4311,11 @@
       <c r="E137" s="13" t="n"/>
       <c r="F137" s="14" t="n"/>
       <c r="G137" s="14" t="n"/>
-      <c r="H137" s="14" t="n"/>
+      <c r="H137" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNScrqPoPuCkRnzGSgfHJH2Y35C6T1AwBaMo4pEwu6XVz</t>
+        </is>
+      </c>
       <c r="I137" s="14" t="n"/>
     </row>
     <row r="138" ht="12.4" customHeight="1">
@@ -3922,7 +4338,11 @@
       <c r="E138" s="13" t="n"/>
       <c r="F138" s="14" t="n"/>
       <c r="G138" s="14" t="n"/>
-      <c r="H138" s="14" t="n"/>
+      <c r="H138" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYjLzCgr2D5pHQ2MAEPRLVhEBBJuWVNf217Ai49ZwThZN</t>
+        </is>
+      </c>
       <c r="I138" s="14" t="n"/>
     </row>
     <row r="139" ht="12.4" customHeight="1">
@@ -3945,7 +4365,11 @@
       <c r="E139" s="13" t="n"/>
       <c r="F139" s="14" t="n"/>
       <c r="G139" s="14" t="n"/>
-      <c r="H139" s="14" t="n"/>
+      <c r="H139" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQciJgL7zW5pFcCKQPw2N5fF4ieFsK7RRzv2dpf1tu9Jf</t>
+        </is>
+      </c>
       <c r="I139" s="14" t="n"/>
     </row>
     <row r="140" ht="12.4" customHeight="1">
@@ -3968,7 +4392,11 @@
       <c r="E140" s="13" t="n"/>
       <c r="F140" s="14" t="n"/>
       <c r="G140" s="14" t="n"/>
-      <c r="H140" s="14" t="n"/>
+      <c r="H140" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRcA19Uqdre9UtDA8X5VEgoCUpZqjmqQ1JRLPthLas9zG</t>
+        </is>
+      </c>
       <c r="I140" s="14" t="n"/>
     </row>
     <row r="141" ht="12.4" customHeight="1">
@@ -3991,7 +4419,11 @@
       <c r="E141" s="13" t="n"/>
       <c r="F141" s="14" t="n"/>
       <c r="G141" s="14" t="n"/>
-      <c r="H141" s="14" t="n"/>
+      <c r="H141" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmctafWMtQE4ZzofeYfSuqZU9tJgcN3XJFPn3SXRmdjjuq</t>
+        </is>
+      </c>
       <c r="I141" s="14" t="n"/>
     </row>
     <row r="142" ht="12.4" customHeight="1">
@@ -4014,7 +4446,11 @@
       <c r="E142" s="13" t="n"/>
       <c r="F142" s="14" t="n"/>
       <c r="G142" s="14" t="n"/>
-      <c r="H142" s="14" t="n"/>
+      <c r="H142" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmW3hpB9iDWT4Mh1WDHrngvmJc7F2CSUScCiWa4vu33nRf</t>
+        </is>
+      </c>
       <c r="I142" s="14" t="n"/>
     </row>
     <row r="143" ht="12.4" customHeight="1">
@@ -4033,7 +4469,11 @@
       <c r="E143" s="13" t="n"/>
       <c r="F143" s="14" t="n"/>
       <c r="G143" s="14" t="n"/>
-      <c r="H143" s="14" t="n"/>
+      <c r="H143" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQedKUb3zydkmghkCFdAT6JSTo6NusBhPWsygvLtLvoY6</t>
+        </is>
+      </c>
       <c r="I143" s="14" t="n"/>
     </row>
     <row r="144" ht="12.4" customHeight="1">
@@ -4052,7 +4492,11 @@
       <c r="E144" s="13" t="n"/>
       <c r="F144" s="14" t="n"/>
       <c r="G144" s="14" t="n"/>
-      <c r="H144" s="14" t="n"/>
+      <c r="H144" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbJuEw5E2nYkt7gBEMvaGjZYUeyCQZmmuJTKRa8X9yEF5</t>
+        </is>
+      </c>
       <c r="I144" s="14" t="n"/>
     </row>
     <row r="145" ht="12.4" customHeight="1">
@@ -4071,7 +4515,11 @@
       <c r="E145" s="13" t="n"/>
       <c r="F145" s="14" t="n"/>
       <c r="G145" s="14" t="n"/>
-      <c r="H145" s="14" t="n"/>
+      <c r="H145" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPq8KKi3czmwfhjhejgSGEVT7o671n6X36L3MRaxQmqec</t>
+        </is>
+      </c>
       <c r="I145" s="14" t="n"/>
     </row>
     <row r="146" ht="12.4" customHeight="1">
@@ -4090,7 +4538,11 @@
       <c r="E146" s="13" t="n"/>
       <c r="F146" s="14" t="n"/>
       <c r="G146" s="14" t="n"/>
-      <c r="H146" s="14" t="n"/>
+      <c r="H146" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmUxrrmDPE9YR3eUFsSvutXLGzywEyPSCfhxwCcik9Pu3N</t>
+        </is>
+      </c>
       <c r="I146" s="14" t="n"/>
     </row>
     <row r="147" ht="12.4" customHeight="1">
@@ -4109,7 +4561,11 @@
       <c r="E147" s="13" t="n"/>
       <c r="F147" s="14" t="n"/>
       <c r="G147" s="14" t="n"/>
-      <c r="H147" s="14" t="n"/>
+      <c r="H147" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWTiQDkdzEdBcdJsjKgvyk7oHywgiHy2Xmohi8BpUCLvK</t>
+        </is>
+      </c>
       <c r="I147" s="14" t="n"/>
     </row>
     <row r="148" ht="12.4" customHeight="1">
@@ -4128,7 +4584,11 @@
       <c r="E148" s="13" t="n"/>
       <c r="F148" s="14" t="n"/>
       <c r="G148" s="14" t="n"/>
-      <c r="H148" s="14" t="n"/>
+      <c r="H148" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXcvcyzCSe7QfJUNZ4Q5Wii3rg94WMyZH9LPQKcTjXQ2T</t>
+        </is>
+      </c>
       <c r="I148" s="14" t="n"/>
     </row>
     <row r="149" ht="12.4" customHeight="1">
@@ -4147,7 +4607,11 @@
       <c r="E149" s="13" t="n"/>
       <c r="F149" s="14" t="n"/>
       <c r="G149" s="14" t="n"/>
-      <c r="H149" s="14" t="n"/>
+      <c r="H149" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qmeacu2XtQ43228Fe8xq9fp8EcsVM5GDWCYYjfQpkQcFn3</t>
+        </is>
+      </c>
       <c r="I149" s="14" t="n"/>
     </row>
     <row r="150" ht="12.4" customHeight="1">
@@ -4162,7 +4626,11 @@
       <c r="E150" s="7" t="n"/>
       <c r="F150" s="14" t="n"/>
       <c r="G150" s="14" t="n"/>
-      <c r="H150" s="14" t="n"/>
+      <c r="H150" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPUpVuswBCd4Ngm1ouk3gsq9n8N8385an4beWUHkReKav</t>
+        </is>
+      </c>
       <c r="I150" s="14" t="n"/>
     </row>
     <row r="151" ht="12.4" customHeight="1">
@@ -4177,7 +4645,11 @@
       <c r="E151" s="7" t="n"/>
       <c r="F151" s="14" t="n"/>
       <c r="G151" s="14" t="n"/>
-      <c r="H151" s="14" t="n"/>
+      <c r="H151" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYEdykD5QdEcZ6srw43Dxs8rPH5J2vGpKXR6f6FLXuLsm</t>
+        </is>
+      </c>
       <c r="I151" s="14" t="n"/>
     </row>
     <row r="152" ht="12.4" customHeight="1">
@@ -4192,7 +4664,11 @@
       <c r="E152" s="7" t="n"/>
       <c r="F152" s="14" t="n"/>
       <c r="G152" s="14" t="n"/>
-      <c r="H152" s="14" t="n"/>
+      <c r="H152" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmZFjczJZWfNpaFy539Ey1p3oLKYLQA179VbDBxNGHRvnF</t>
+        </is>
+      </c>
       <c r="I152" s="14" t="n"/>
     </row>
     <row r="153" ht="12.4" customHeight="1">
@@ -4207,7 +4683,11 @@
       <c r="E153" s="7" t="n"/>
       <c r="F153" s="14" t="n"/>
       <c r="G153" s="14" t="n"/>
-      <c r="H153" s="14" t="n"/>
+      <c r="H153" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmfPZSn3HLicDuRBNE1SMKrxUghCoktKsGPcREVkCgBhcr</t>
+        </is>
+      </c>
       <c r="I153" s="14" t="n"/>
     </row>
     <row r="154" ht="12.4" customHeight="1">
@@ -4222,7 +4702,11 @@
       <c r="E154" s="7" t="n"/>
       <c r="F154" s="14" t="n"/>
       <c r="G154" s="14" t="n"/>
-      <c r="H154" s="14" t="n"/>
+      <c r="H154" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmSZqrVmGTe3GtHaUDeryqW1EfmMiWRqea9bvuiGQ4FRfj</t>
+        </is>
+      </c>
       <c r="I154" s="14" t="n"/>
     </row>
     <row r="155" ht="12.4" customHeight="1">
@@ -4237,7 +4721,11 @@
       <c r="E155" s="7" t="n"/>
       <c r="F155" s="14" t="n"/>
       <c r="G155" s="14" t="n"/>
-      <c r="H155" s="14" t="n"/>
+      <c r="H155" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWs1fZqogcpRVqFaeJV5JFm2vmA6Z61y2NWMRnX2E2Qu2</t>
+        </is>
+      </c>
       <c r="I155" s="14" t="n"/>
     </row>
     <row r="156" ht="12.4" customHeight="1">
@@ -4252,7 +4740,11 @@
       <c r="E156" s="7" t="n"/>
       <c r="F156" s="14" t="n"/>
       <c r="G156" s="14" t="n"/>
-      <c r="H156" s="14" t="n"/>
+      <c r="H156" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRnymwoqM4sTBbww3h4kzx9Yx5txSPb9tsQvCqDq5Vhix</t>
+        </is>
+      </c>
       <c r="I156" s="14" t="n"/>
     </row>
     <row r="157" ht="12.4" customHeight="1">
@@ -4267,7 +4759,11 @@
       <c r="E157" s="7" t="n"/>
       <c r="F157" s="14" t="n"/>
       <c r="G157" s="14" t="n"/>
-      <c r="H157" s="14" t="n"/>
+      <c r="H157" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcVYeCNhE3GrtJNBJaWuXDrLzVxP6LKV1cQNahMuJZTEs</t>
+        </is>
+      </c>
       <c r="I157" s="14" t="n"/>
     </row>
     <row r="158" ht="12.4" customHeight="1">
@@ -4282,7 +4778,11 @@
       <c r="E158" s="7" t="n"/>
       <c r="F158" s="14" t="n"/>
       <c r="G158" s="14" t="n"/>
-      <c r="H158" s="14" t="n"/>
+      <c r="H158" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmZAbQXyZ8Ke7y2kHhJiWmBjPrNyQDUi4kMqo4DbAKyD2B</t>
+        </is>
+      </c>
       <c r="I158" s="14" t="n"/>
     </row>
     <row r="159" ht="12.4" customHeight="1">
@@ -4297,7 +4797,11 @@
       <c r="E159" s="7" t="n"/>
       <c r="F159" s="14" t="n"/>
       <c r="G159" s="14" t="n"/>
-      <c r="H159" s="14" t="n"/>
+      <c r="H159" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVwDxKAzHaqhXN8bMfACbw5e552pnqp5PArGYpFxz4BTr</t>
+        </is>
+      </c>
       <c r="I159" s="14" t="n"/>
     </row>
     <row r="160" ht="12.4" customHeight="1">
@@ -4312,7 +4816,11 @@
       <c r="E160" s="7" t="n"/>
       <c r="F160" s="14" t="n"/>
       <c r="G160" s="14" t="n"/>
-      <c r="H160" s="14" t="n"/>
+      <c r="H160" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmUPSBDq1BSdpCFBkHSU5o66oYgnSRiS8PwBUkRMTSrdyL</t>
+        </is>
+      </c>
       <c r="I160" s="14" t="n"/>
     </row>
     <row r="161" ht="12.4" customHeight="1">
@@ -4327,7 +4835,11 @@
       <c r="E161" s="7" t="n"/>
       <c r="F161" s="14" t="n"/>
       <c r="G161" s="14" t="n"/>
-      <c r="H161" s="14" t="n"/>
+      <c r="H161" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQYFcRGRZrN9EJerXENy3jBhidTamMRnNGYwtSvgJDohw</t>
+        </is>
+      </c>
       <c r="I161" s="14" t="n"/>
     </row>
     <row r="162" ht="12.4" customHeight="1">
@@ -4342,7 +4854,11 @@
       <c r="E162" s="7" t="n"/>
       <c r="F162" s="14" t="n"/>
       <c r="G162" s="14" t="n"/>
-      <c r="H162" s="14" t="n"/>
+      <c r="H162" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmZszERSrLwfvXoKJPom9mNMRr1Z99n13aziHD2XAKpMA9</t>
+        </is>
+      </c>
       <c r="I162" s="14" t="n"/>
     </row>
     <row r="163" ht="12.4" customHeight="1">
@@ -4357,7 +4873,11 @@
       <c r="E163" s="7" t="n"/>
       <c r="F163" s="14" t="n"/>
       <c r="G163" s="14" t="n"/>
-      <c r="H163" s="14" t="n"/>
+      <c r="H163" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmZ554ambTuJJ65NeJqGq5zSi7bx8soKp1eZdBDYsoGkYK</t>
+        </is>
+      </c>
       <c r="I163" s="14" t="n"/>
     </row>
     <row r="164" ht="12.4" customHeight="1">
@@ -4372,7 +4892,11 @@
       <c r="E164" s="7" t="n"/>
       <c r="F164" s="14" t="n"/>
       <c r="G164" s="14" t="n"/>
-      <c r="H164" s="14" t="n"/>
+      <c r="H164" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmPEgFZeqTb7Az9VhftvLfNWdfMKWHTevEB8Qiy3rd8ikN</t>
+        </is>
+      </c>
       <c r="I164" s="14" t="n"/>
     </row>
     <row r="165" ht="12.4" customHeight="1">
@@ -4387,7 +4911,11 @@
       <c r="E165" s="7" t="n"/>
       <c r="F165" s="14" t="n"/>
       <c r="G165" s="14" t="n"/>
-      <c r="H165" s="14" t="n"/>
+      <c r="H165" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmX6GnScVUPtMHpKagBtteSNeYenJcnXkGLGm3PTKkxgmb</t>
+        </is>
+      </c>
       <c r="I165" s="14" t="n"/>
     </row>
     <row r="166" ht="12.4" customHeight="1">
@@ -4402,7 +4930,11 @@
       <c r="E166" s="7" t="n"/>
       <c r="F166" s="14" t="n"/>
       <c r="G166" s="14" t="n"/>
-      <c r="H166" s="14" t="n"/>
+      <c r="H166" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qma2mR7xhQUm5GCL3MVSoPkKDWrmVKf7qTki7S9EATbde8</t>
+        </is>
+      </c>
       <c r="I166" s="14" t="n"/>
     </row>
     <row r="167" ht="12.4" customHeight="1">
@@ -4417,7 +4949,11 @@
       <c r="E167" s="7" t="n"/>
       <c r="F167" s="14" t="n"/>
       <c r="G167" s="14" t="n"/>
-      <c r="H167" s="14" t="n"/>
+      <c r="H167" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNq4L2CdzL4ujQYSbLJzjSwK5z1QfRZDCJJ2XeMtfUk1a</t>
+        </is>
+      </c>
       <c r="I167" s="14" t="n"/>
     </row>
     <row r="168" ht="12.4" customHeight="1">
@@ -4432,7 +4968,11 @@
       <c r="E168" s="7" t="n"/>
       <c r="F168" s="14" t="n"/>
       <c r="G168" s="14" t="n"/>
-      <c r="H168" s="14" t="n"/>
+      <c r="H168" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTjEJu1LZKcZGFpH9rvUCQCpsfV8UPw3D53b2bhMbXFfg</t>
+        </is>
+      </c>
       <c r="I168" s="14" t="n"/>
     </row>
     <row r="169" ht="12.4" customHeight="1">
@@ -4447,7 +4987,11 @@
       <c r="E169" s="7" t="n"/>
       <c r="F169" s="14" t="n"/>
       <c r="G169" s="14" t="n"/>
-      <c r="H169" s="14" t="n"/>
+      <c r="H169" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNpYhrxUAccuYsfSseoSuWzbefTnVGyiEUBqsbT968RPo</t>
+        </is>
+      </c>
       <c r="I169" s="14" t="n"/>
     </row>
     <row r="170" ht="12.4" customHeight="1">
@@ -4462,7 +5006,11 @@
       <c r="E170" s="7" t="n"/>
       <c r="F170" s="14" t="n"/>
       <c r="G170" s="14" t="n"/>
-      <c r="H170" s="14" t="n"/>
+      <c r="H170" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmT21ST9p9Y6f11UzjjwNa9mDhf4f2LB9C25FJ1kKgYJp5</t>
+        </is>
+      </c>
       <c r="I170" s="14" t="n"/>
     </row>
     <row r="171" ht="12.4" customHeight="1">
@@ -4477,7 +5025,11 @@
       <c r="E171" s="7" t="n"/>
       <c r="F171" s="14" t="n"/>
       <c r="G171" s="14" t="n"/>
-      <c r="H171" s="14" t="n"/>
+      <c r="H171" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmW6g6KyHnxYDw7kJG1d6rZb7EJHKdXTFrnPdHU6N97eUh</t>
+        </is>
+      </c>
       <c r="I171" s="14" t="n"/>
     </row>
     <row r="172" ht="12.4" customHeight="1">
@@ -4492,7 +5044,11 @@
       <c r="E172" s="7" t="n"/>
       <c r="F172" s="14" t="n"/>
       <c r="G172" s="14" t="n"/>
-      <c r="H172" s="14" t="n"/>
+      <c r="H172" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbjBi7KMs8HZnGXHMm6xwmCVwVxn7ad4iZkzTzXnfj1AA</t>
+        </is>
+      </c>
       <c r="I172" s="14" t="n"/>
     </row>
     <row r="173" ht="12.4" customHeight="1">
@@ -4507,7 +5063,11 @@
       <c r="E173" s="7" t="n"/>
       <c r="F173" s="14" t="n"/>
       <c r="G173" s="14" t="n"/>
-      <c r="H173" s="14" t="n"/>
+      <c r="H173" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWdbqTmgSo9ubL8ep6sTd33tDRrhyGnXuA2jQuU3WSmYy</t>
+        </is>
+      </c>
       <c r="I173" s="14" t="n"/>
     </row>
     <row r="174" ht="12.4" customHeight="1">
@@ -4522,7 +5082,11 @@
       <c r="E174" s="7" t="n"/>
       <c r="F174" s="14" t="n"/>
       <c r="G174" s="14" t="n"/>
-      <c r="H174" s="14" t="n"/>
+      <c r="H174" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXH3X5m2By34RUqtFHyRpDKnyWiziKUX8QtYWMy3g4GX5</t>
+        </is>
+      </c>
       <c r="I174" s="14" t="n"/>
     </row>
     <row r="175" ht="12.4" customHeight="1">
@@ -4537,7 +5101,11 @@
       <c r="E175" s="7" t="n"/>
       <c r="F175" s="14" t="n"/>
       <c r="G175" s="14" t="n"/>
-      <c r="H175" s="14" t="n"/>
+      <c r="H175" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmdMoVZQu6nbMKh8EGEiBkcAkSoNvLFHsUWJ5m7rzmmywN</t>
+        </is>
+      </c>
       <c r="I175" s="14" t="n"/>
     </row>
     <row r="176" ht="12.4" customHeight="1">
@@ -4552,7 +5120,11 @@
       <c r="E176" s="7" t="n"/>
       <c r="F176" s="14" t="n"/>
       <c r="G176" s="14" t="n"/>
-      <c r="H176" s="14" t="n"/>
+      <c r="H176" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTUPMNnsaPRtJinAFRxiMp4pREgeX1wSwxUTth8CYVLqE</t>
+        </is>
+      </c>
       <c r="I176" s="14" t="n"/>
     </row>
     <row r="177" ht="12.4" customHeight="1">
@@ -4567,7 +5139,11 @@
       <c r="E177" s="7" t="n"/>
       <c r="F177" s="14" t="n"/>
       <c r="G177" s="14" t="n"/>
-      <c r="H177" s="14" t="n"/>
+      <c r="H177" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVSMy3ACwPtg8fJTVPkgMyyTKPpDD3Tw8PuKBDUW13KyH</t>
+        </is>
+      </c>
       <c r="I177" s="14" t="n"/>
     </row>
     <row r="178" ht="12.4" customHeight="1">
@@ -4582,7 +5158,11 @@
       <c r="E178" s="7" t="n"/>
       <c r="F178" s="14" t="n"/>
       <c r="G178" s="14" t="n"/>
-      <c r="H178" s="14" t="n"/>
+      <c r="H178" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmaTZqgy9ysBsvkRfhjvdzuuzZWbSNZfhXVdVeK3fY16Vm</t>
+        </is>
+      </c>
       <c r="I178" s="14" t="n"/>
     </row>
     <row r="179" ht="12.4" customHeight="1">
@@ -4597,7 +5177,11 @@
       <c r="E179" s="7" t="n"/>
       <c r="F179" s="14" t="n"/>
       <c r="G179" s="14" t="n"/>
-      <c r="H179" s="14" t="n"/>
+      <c r="H179" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmfKC2YKD1YN5PiVaANyLcYprzBw8V6zXEZqx4TSyZ37k6</t>
+        </is>
+      </c>
       <c r="I179" s="14" t="n"/>
     </row>
     <row r="180" ht="12.4" customHeight="1">
@@ -4612,7 +5196,11 @@
       <c r="E180" s="7" t="n"/>
       <c r="F180" s="14" t="n"/>
       <c r="G180" s="14" t="n"/>
-      <c r="H180" s="14" t="n"/>
+      <c r="H180" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYiBSx876Y6wSp3rmdVGMmYkYUPmdFeJ8dkPZQyyCMAp8</t>
+        </is>
+      </c>
       <c r="I180" s="14" t="n"/>
     </row>
     <row r="181" ht="12.4" customHeight="1">
@@ -4627,7 +5215,11 @@
       <c r="E181" s="7" t="n"/>
       <c r="F181" s="14" t="n"/>
       <c r="G181" s="14" t="n"/>
-      <c r="H181" s="14" t="n"/>
+      <c r="H181" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://Qme78XkYu9LVXAdKFX4BRYBYBw8vfdGHihhqx41dpR2zX3</t>
+        </is>
+      </c>
       <c r="I181" s="14" t="n"/>
     </row>
     <row r="182" ht="12.4" customHeight="1">
@@ -4642,7 +5234,11 @@
       <c r="E182" s="7" t="n"/>
       <c r="F182" s="14" t="n"/>
       <c r="G182" s="14" t="n"/>
-      <c r="H182" s="14" t="n"/>
+      <c r="H182" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVga66MkunUKJTqeCUA3oJhewoKPUEm63VDe7FzV36Fpn</t>
+        </is>
+      </c>
       <c r="I182" s="14" t="n"/>
     </row>
     <row r="183" ht="12.4" customHeight="1">
@@ -4657,7 +5253,11 @@
       <c r="E183" s="7" t="n"/>
       <c r="F183" s="14" t="n"/>
       <c r="G183" s="14" t="n"/>
-      <c r="H183" s="14" t="n"/>
+      <c r="H183" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmQNEe7AbemU7pydrToLcacaQohdxn9x5kZfhqMuqMQK2H</t>
+        </is>
+      </c>
       <c r="I183" s="14" t="n"/>
     </row>
     <row r="184" ht="12.4" customHeight="1">
@@ -4672,7 +5272,11 @@
       <c r="E184" s="7" t="n"/>
       <c r="F184" s="14" t="n"/>
       <c r="G184" s="14" t="n"/>
-      <c r="H184" s="14" t="n"/>
+      <c r="H184" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVZPnzWUHNCnJ4ksgNACLLMwE4vjnxDUwLyuDv83WWExM</t>
+        </is>
+      </c>
       <c r="I184" s="14" t="n"/>
     </row>
     <row r="185" ht="12.4" customHeight="1">
@@ -4687,7 +5291,11 @@
       <c r="E185" s="7" t="n"/>
       <c r="F185" s="14" t="n"/>
       <c r="G185" s="14" t="n"/>
-      <c r="H185" s="14" t="n"/>
+      <c r="H185" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmcWbkdhZu8F4cEEEFgkfgwF88Sf8VpHYUtBbb7Q2gzkLQ</t>
+        </is>
+      </c>
       <c r="I185" s="14" t="n"/>
     </row>
     <row r="186" ht="12.4" customHeight="1">
@@ -4702,7 +5310,11 @@
       <c r="E186" s="7" t="n"/>
       <c r="F186" s="14" t="n"/>
       <c r="G186" s="14" t="n"/>
-      <c r="H186" s="14" t="n"/>
+      <c r="H186" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmbLBKRcGRT3A4fi87CxMUCJt6v3usCEvtNgdK1XKYDKfK</t>
+        </is>
+      </c>
       <c r="I186" s="14" t="n"/>
     </row>
     <row r="187" ht="12.4" customHeight="1">
@@ -4717,7 +5329,11 @@
       <c r="E187" s="7" t="n"/>
       <c r="F187" s="14" t="n"/>
       <c r="G187" s="14" t="n"/>
-      <c r="H187" s="14" t="n"/>
+      <c r="H187" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmYXEHfqoUYB8BX6imBME7UJitEzUnDZoQh1JPdwGBoSvR</t>
+        </is>
+      </c>
       <c r="I187" s="14" t="n"/>
     </row>
     <row r="188" ht="12.4" customHeight="1">
@@ -4732,7 +5348,11 @@
       <c r="E188" s="7" t="n"/>
       <c r="F188" s="14" t="n"/>
       <c r="G188" s="14" t="n"/>
-      <c r="H188" s="14" t="n"/>
+      <c r="H188" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmVptgcGTQyh1Bfr3BAqxSXAugqfMkZyyJXo9qBc48grjN</t>
+        </is>
+      </c>
       <c r="I188" s="14" t="n"/>
     </row>
     <row r="189" ht="12.4" customHeight="1">
@@ -4747,7 +5367,11 @@
       <c r="E189" s="7" t="n"/>
       <c r="F189" s="14" t="n"/>
       <c r="G189" s="14" t="n"/>
-      <c r="H189" s="14" t="n"/>
+      <c r="H189" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmduMderYbfBAksgBYMD2eTdFyVDB1GPxBSzh8k422sUk7</t>
+        </is>
+      </c>
       <c r="I189" s="14" t="n"/>
     </row>
     <row r="190" ht="12.4" customHeight="1">
@@ -4762,7 +5386,11 @@
       <c r="E190" s="7" t="n"/>
       <c r="F190" s="14" t="n"/>
       <c r="G190" s="14" t="n"/>
-      <c r="H190" s="14" t="n"/>
+      <c r="H190" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRajpPvV3m3vWLhu22mq7xMUa4dxCz5N2uL92fX5mqJDA</t>
+        </is>
+      </c>
       <c r="I190" s="14" t="n"/>
     </row>
     <row r="191" ht="12.4" customHeight="1">
@@ -4777,7 +5405,11 @@
       <c r="E191" s="7" t="n"/>
       <c r="F191" s="14" t="n"/>
       <c r="G191" s="14" t="n"/>
-      <c r="H191" s="14" t="n"/>
+      <c r="H191" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNSYETPprWekrDnb3DHcAYVubiXHBcP7Ua7tM6TYTZBeE</t>
+        </is>
+      </c>
       <c r="I191" s="14" t="n"/>
     </row>
     <row r="192" ht="12.4" customHeight="1">
@@ -4792,7 +5424,11 @@
       <c r="E192" s="7" t="n"/>
       <c r="F192" s="14" t="n"/>
       <c r="G192" s="14" t="n"/>
-      <c r="H192" s="14" t="n"/>
+      <c r="H192" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmW3V4YBsdbQhEhLDw3JAcUNpAzDfqgNjmigUnuG6FBNT3</t>
+        </is>
+      </c>
       <c r="I192" s="14" t="n"/>
     </row>
     <row r="193" ht="12.4" customHeight="1">
@@ -4807,7 +5443,11 @@
       <c r="E193" s="7" t="n"/>
       <c r="F193" s="14" t="n"/>
       <c r="G193" s="14" t="n"/>
-      <c r="H193" s="14" t="n"/>
+      <c r="H193" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmdLbLwaBkBrd6tJCUar7dRvsW5sVvonvj32oEvwmqwsyJ</t>
+        </is>
+      </c>
       <c r="I193" s="14" t="n"/>
     </row>
     <row r="194" ht="12.4" customHeight="1">
@@ -4822,7 +5462,11 @@
       <c r="E194" s="7" t="n"/>
       <c r="F194" s="14" t="n"/>
       <c r="G194" s="14" t="n"/>
-      <c r="H194" s="14" t="n"/>
+      <c r="H194" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmW1jxZaVza3SrGnvFNTP8Aj6iEVCNtWC5UJWtJmtn629w</t>
+        </is>
+      </c>
       <c r="I194" s="14" t="n"/>
     </row>
     <row r="195" ht="12.4" customHeight="1">
@@ -4837,7 +5481,11 @@
       <c r="E195" s="7" t="n"/>
       <c r="F195" s="14" t="n"/>
       <c r="G195" s="14" t="n"/>
-      <c r="H195" s="14" t="n"/>
+      <c r="H195" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmRFJNpjyVoN5DW1BiwyPU2rv9zoRZHfobXYs7WYbKdQNo</t>
+        </is>
+      </c>
       <c r="I195" s="14" t="n"/>
     </row>
     <row r="196" ht="12.4" customHeight="1">
@@ -4852,7 +5500,11 @@
       <c r="E196" s="7" t="n"/>
       <c r="F196" s="14" t="n"/>
       <c r="G196" s="14" t="n"/>
-      <c r="H196" s="14" t="n"/>
+      <c r="H196" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmNj1suSki6ycHTVxWMbeh4cskJJChj6FUwknH98NLNuVh</t>
+        </is>
+      </c>
       <c r="I196" s="14" t="n"/>
     </row>
     <row r="197" ht="12.4" customHeight="1">
@@ -4867,7 +5519,11 @@
       <c r="E197" s="7" t="n"/>
       <c r="F197" s="14" t="n"/>
       <c r="G197" s="14" t="n"/>
-      <c r="H197" s="14" t="n"/>
+      <c r="H197" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmTEWCxYMYtxPDjyGXpdpiYF1B5P4KUFTMZBezh15vzPUV</t>
+        </is>
+      </c>
       <c r="I197" s="14" t="n"/>
     </row>
     <row r="198" ht="12.4" customHeight="1">
@@ -4882,7 +5538,11 @@
       <c r="E198" s="7" t="n"/>
       <c r="F198" s="14" t="n"/>
       <c r="G198" s="14" t="n"/>
-      <c r="H198" s="14" t="n"/>
+      <c r="H198" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWF5GD133FNUB3gtVaedZnat5TAZ9XqGn8op2rio41NJA</t>
+        </is>
+      </c>
       <c r="I198" s="14" t="n"/>
     </row>
     <row r="199" ht="12.4" customHeight="1">
@@ -4897,7 +5557,11 @@
       <c r="E199" s="7" t="n"/>
       <c r="F199" s="14" t="n"/>
       <c r="G199" s="14" t="n"/>
-      <c r="H199" s="14" t="n"/>
+      <c r="H199" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmXxsLhUK11d4uhVyT5CPtJoMPqPc5Ddc7oXHxR3qJnaQZ</t>
+        </is>
+      </c>
       <c r="I199" s="14" t="n"/>
     </row>
     <row r="200" ht="12.4" customHeight="1">
@@ -4912,7 +5576,11 @@
       <c r="E200" s="7" t="n"/>
       <c r="F200" s="14" t="n"/>
       <c r="G200" s="14" t="n"/>
-      <c r="H200" s="14" t="n"/>
+      <c r="H200" s="14" t="inlineStr">
+        <is>
+          <t>ipfs://QmWcm7Tyxjh8i33dhjXDacoTxnSnmEKoALxi7dq4xkhrcB</t>
+        </is>
+      </c>
       <c r="I200" s="14" t="n"/>
     </row>
   </sheetData>

--- a/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
+++ b/scripts_on_ubuntu/Alchemy/week 1/alchemy可用邮箱手动整理版.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="497">
   <si>
     <t xml:space="preserve">钱包地址</t>
   </si>
@@ -68,9 +68,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">0x02662179a7f9c9d5107690bf3725a75e0eb00041</t>
-  </si>
-  <si>
     <t xml:space="preserve">linkguopeng@gmail.com</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t xml:space="preserve">QmZw9fZpJvArXjYsbRksaJHJZGvnHsAJkkGnk7EosKu9bJ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x77d9023bf64a306612180451a00a5f5e3142b036</t>
-  </si>
-  <si>
     <t xml:space="preserve">mcharlson29@gmail.com</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t xml:space="preserve">QmSHdJ42swY6BK31CtbPcjMYZgVtG2X7WmjdpVQ1DAB4uW</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf5ddc19afacca35d0f4533d48dd876f651542e9d</t>
-  </si>
-  <si>
     <t xml:space="preserve">mpass7289@gmail.com</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t xml:space="preserve">QmWMAEW2v5ZyxUPwkGWcEJJiwy2UaZuRcmjHf6CUS9Uvkc</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8cab4ce0d6fe819ddbf3e371031bf61bb606dfc8</t>
-  </si>
-  <si>
     <t xml:space="preserve">angelfreeman495@gmail.com</t>
   </si>
   <si>
@@ -137,18 +125,12 @@
     <t xml:space="preserve">QmVAxmBWgNXCZabLygEYg5i9kXhapDRhohgPTUjdED65Ge</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc62ea2653b4b60081a2802bd65b01f65b64f79be</t>
-  </si>
-  <si>
     <t xml:space="preserve">croftoonsheila73@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">hHy5DTHxy&amp;</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4325005407ca2c4638e637fd2c98594f7c8a4d48</t>
-  </si>
-  <si>
     <t xml:space="preserve">ritagrrsn@gmail.com</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
     <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/zwrMdWK5mxQHy8dYoiO4Seg_FQ3i95or</t>
   </si>
   <si>
-    <t xml:space="preserve">0x261147a248d0849ec4fbda5130fc7c01647ec6ee</t>
-  </si>
-  <si>
     <t xml:space="preserve">AlexandraMathews6713@gmail.com</t>
   </si>
   <si>
@@ -170,27 +149,18 @@
     <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/6qcLDO7APBwB_9eEXF0-QCCNRJqTaR-_</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfa4771750904470939ed910747617f071750d334</t>
-  </si>
-  <si>
     <t xml:space="preserve">EdwardMiller6883@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">l6iJL5Ye^Q</t>
   </si>
   <si>
-    <t xml:space="preserve">0xbe2952c51f90c96b1b075bc3f57af1fc84381b50</t>
-  </si>
-  <si>
     <t xml:space="preserve">AnitaSmith6459@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">(jHDLmhSl1</t>
   </si>
   <si>
-    <t xml:space="preserve">0x3e3d04141394dcd356f99919dd1528a76cfedd73</t>
-  </si>
-  <si>
     <t xml:space="preserve">nshorter236@gmail.com</t>
   </si>
   <si>
@@ -200,18 +170,12 @@
     <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/IhQ2gl-ANUQmfTqn51z6K7VJWhs9Nczt</t>
   </si>
   <si>
-    <t xml:space="preserve">0x830a542642a936176fa558219a51f8f1bbd5a444</t>
-  </si>
-  <si>
     <t xml:space="preserve">leonarsdonovan@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">&amp;1bCgi4s+2</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5a4934cfa415f0a5fe5c2a176f5b9476f59257c8</t>
-  </si>
-  <si>
     <t xml:space="preserve">holidayj775@gmail.com</t>
   </si>
   <si>
@@ -221,45 +185,30 @@
     <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/vtFe7KQ3EL6ScaNH1qGaqTico69wNLq7</t>
   </si>
   <si>
-    <t xml:space="preserve">0x7a6810eda940e07b9b979c02af67dd2e6fbdea01</t>
-  </si>
-  <si>
     <t xml:space="preserve">macduffm99@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">!K!&amp;fBqQ0l</t>
   </si>
   <si>
-    <t xml:space="preserve">0x90f5593b4faf3ff4fee7468110b4196109e13c23</t>
-  </si>
-  <si>
     <t xml:space="preserve">owenlwn@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">2rCg0JC$^o</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5bf23d262f9827e48a772f828c462f48fd6b0045</t>
-  </si>
-  <si>
     <t xml:space="preserve">dwifkinson6@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">^nt#1We68F</t>
   </si>
   <si>
-    <t xml:space="preserve">0x07b75bd161e4b5bf62cced1039c1b697a3c1bf48</t>
-  </si>
-  <si>
     <t xml:space="preserve">macduffdavid61@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">H)GPF9Cpy*</t>
   </si>
   <si>
-    <t xml:space="preserve">0x99263cb51ba4b79008819b17b5e3b0d021769e21</t>
-  </si>
-  <si>
     <t xml:space="preserve">MichaelFreeman6075@gmail.com</t>
   </si>
   <si>
@@ -269,18 +218,12 @@
     <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/MyzPmXS95XaKlxQS6FzA_KrcS_sI2EGb</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0a509720f3a7f13e2d869f7be85ac858fa2010b3</t>
-  </si>
-  <si>
     <t xml:space="preserve">juliawinter964@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCkSeOuw*1</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfba900dac833dcca5add483c11e2aec9ed7ad2b5</t>
-  </si>
-  <si>
     <t xml:space="preserve">adrianwalter085@gmail.com</t>
   </si>
   <si>
@@ -290,33 +233,33 @@
     <t xml:space="preserve">ipfs://QmYxhRXCp7SBiBLWfp6msrwG5fwyukV5q7jFnnoLD1b5XU</t>
   </si>
   <si>
-    <t xml:space="preserve">0x06789b91f1451b06eb7de842409a5d781349ff35</t>
-  </si>
-  <si>
     <t xml:space="preserve">destinybawerman270@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">#sHL*HuB&amp;2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9rJ-o-nN-F40QSRx684ZTW0PqWGWVVP_</t>
+  </si>
+  <si>
     <t xml:space="preserve">ipfs://QmYxSU7rxtAnVxYSh77WVmJox2j2cshQHtngVo7bXJW2tE</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6945260086bf76504306c735344abec516c5f2f2</t>
-  </si>
-  <si>
     <t xml:space="preserve">dysonjames662@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">(zz%Y^hjO2</t>
   </si>
   <si>
+    <t xml:space="preserve">×</t>
+  </si>
+  <si>
     <t xml:space="preserve">ipfs://QmcbihzC3yb3aeHqHsQicf44rL4zn3GcPLuz7RjQppmYJT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5664a523839be49ba831898ecc825987cdaa4d6e</t>
-  </si>
-  <si>
     <t xml:space="preserve">antoniogustman7@gmail.com</t>
   </si>
   <si>
@@ -329,33 +272,36 @@
     <t xml:space="preserve">ipfs://Qmd6vipZgxtJCdKQ4kUVRGcJGQj4fRNZ9nGmpXNpkcZMEZ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8e92b134ec476b2637a7d5b9b9beb47a55e4669a</t>
-  </si>
-  <si>
     <t xml:space="preserve">marshmanj148@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">%#+8E*V!xi</t>
   </si>
   <si>
+    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0RLYJ1Hpw6D0Tg3bmHt2wxeSKjJcUcEb</t>
+  </si>
+  <si>
     <t xml:space="preserve">ipfs://QmXuk6esWMEXB2qf7EgCpNPwxrgSzmYTW8EFodTuAXiLFV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x53bb214f5f22f80b6597d19b4d2a47156300b3c3</t>
-  </si>
-  <si>
     <t xml:space="preserve">tclapton3@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Jw1GJl!U$$</t>
   </si>
   <si>
+    <t xml:space="preserve">https://eth-rinkeby.alchemyapi.io/v2/ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZR7CuO2PPz50GGEpiHhzF_40ZHFzFwhq</t>
+  </si>
+  <si>
     <t xml:space="preserve">ipfs://QmUuvUrRgjACixdWs2FWsMa3AZc9K8fp2P3VdmSjzuZbvA</t>
   </si>
   <si>
-    <t xml:space="preserve">0xd243188352ed7358606e3367a0df9de846fbc0bd</t>
-  </si>
-  <si>
     <t xml:space="preserve">pass51428@gmail.com</t>
   </si>
   <si>
@@ -365,9 +311,6 @@
     <t xml:space="preserve">ipfs://QmYFMGUWqHYwwW1GLPiy6T7cAs2Qx9DVe12GgMVhwZK8Uf</t>
   </si>
   <si>
-    <t xml:space="preserve">0x08dff33cb05e1bd59dfd09ccedc7980496994f48</t>
-  </si>
-  <si>
     <t xml:space="preserve">mathewsbernard57@gmail.com</t>
   </si>
   <si>
@@ -377,9 +320,6 @@
     <t xml:space="preserve">ipfs://QmVZ9wTfL2wmVjcfz5SYKaGgFpqTLGddrMZPAXszmeShry</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9636d8d24e64878f2f22e29a3bca42ecec08af56</t>
-  </si>
-  <si>
     <t xml:space="preserve">joshuabawerman@gmail.com</t>
   </si>
   <si>
@@ -389,9 +329,6 @@
     <t xml:space="preserve">ipfs://QmSLrBwxSWv8B5yUu8WAp6qArenwgaQsUAGFpc8RTTFAnv</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4b1150db6788a20d1609847f88d3751a97bc6438</t>
-  </si>
-  <si>
     <t xml:space="preserve">cdunce0@gmail.com</t>
   </si>
   <si>
@@ -401,9 +338,6 @@
     <t xml:space="preserve">ipfs://QmWnRxBrE3Fv3hErcnedGeFLJsoqv7MHaGZQmS4JokSAuB</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2783e12c7bb563c18134a6e916de5878a1a73e75</t>
-  </si>
-  <si>
     <t xml:space="preserve">annbarrington216@gmail.com</t>
   </si>
   <si>
@@ -413,9 +347,6 @@
     <t xml:space="preserve">ipfs://QmRTA9VNnfghjb1viWER3U5cghK9RZwmjvwcpzKTkMQZyh</t>
   </si>
   <si>
-    <t xml:space="preserve">0x635792167ed832dc93deffcc6544335d41c75349</t>
-  </si>
-  <si>
     <t xml:space="preserve">sierrabootman@gmail.com</t>
   </si>
   <si>
@@ -425,24 +356,15 @@
     <t xml:space="preserve">ipfs://QmYXTpye4wWjHx2QG9EuE3tx3yj6fKzeEay9yhZfPPoYxL</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc3246a1daa2cfacaa5be4dd3f10c392d40388cc1</t>
-  </si>
-  <si>
     <t xml:space="preserve">jbarrington799@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">98XUFqAq!L</t>
   </si>
   <si>
-    <t xml:space="preserve">×</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmW1USgv8KHiGvnaJN7KDs4XqwWYjDeQQjb4Ksi2tZ7UX2</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6af85ab80a9b42b309ad3ce431e4317d5e3b06da</t>
-  </si>
-  <si>
     <t xml:space="preserve">GeorgeStanley6726@gmail.com</t>
   </si>
   <si>
@@ -452,9 +374,6 @@
     <t xml:space="preserve">ipfs://QmYyQzUZ5X3YErCoUppLnSkL6d8HkjFuymfrcXfh4DtWNv</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1617cdd435f3d5514f3afb3850105c113ee828eb</t>
-  </si>
-  <si>
     <t xml:space="preserve">hamphreyjohn77@gmail.com</t>
   </si>
   <si>
@@ -464,9 +383,6 @@
     <t xml:space="preserve">ipfs://Qmf8VC46wEyGt4bmhKR7dwuy3JADPFhH4GRceJ4DEAmCNs</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa1bd20d1110abbc03db80701b484f207fc2831c0</t>
-  </si>
-  <si>
     <t xml:space="preserve">cameronbosworth165@gmail.com</t>
   </si>
   <si>
@@ -476,9 +392,6 @@
     <t xml:space="preserve">ipfs://QmfVWqwneMy34qirQw69f1CcK8FrsEfs6hdExtkncikS34</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8a7a7cbac6f6f8b71666c08e439d1ef107b67231</t>
-  </si>
-  <si>
     <t xml:space="preserve">carringtonsean2@gmail.com</t>
   </si>
   <si>
@@ -488,9 +401,6 @@
     <t xml:space="preserve">ipfs://QmPjbkCqSj6MPX17XKcJP7FtQ676wXPduqtErpFeXzamBS</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5e9f378752c7f060b048583ca0ef99d777d68d0c</t>
-  </si>
-  <si>
     <t xml:space="preserve">vltarchibald@gmail.com</t>
   </si>
   <si>
@@ -500,9 +410,6 @@
     <t xml:space="preserve">ipfs://QmaPFwadKb2KgsEpzCSXS9iZ6CvxkmM8uZg9FKCqpkThcJ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5c647f190d5a2a5e4b2fddfaa6db09c66b7080d1</t>
-  </si>
-  <si>
     <t xml:space="preserve">LindaGoodman9356@gmail.com</t>
   </si>
   <si>
@@ -512,9 +419,6 @@
     <t xml:space="preserve">ipfs://QmPb81TbHjRZuiMGi1B1pmYu6gnb3kBJc7bDAa1qfnPh8m</t>
   </si>
   <si>
-    <t xml:space="preserve">0xdf547d2e6bddd2aa15c4a696cd7492b20fddff04</t>
-  </si>
-  <si>
     <t xml:space="preserve">fane6314@gmail.com</t>
   </si>
   <si>
@@ -524,9 +428,6 @@
     <t xml:space="preserve">ipfs://QmeJ2aQ8iwgMTPKX2gDTUQVvJexbDSZ5fcddRsp7DpSFKS</t>
   </si>
   <si>
-    <t xml:space="preserve">0x44f8f034e199fe15662329f42b52cc1c3988d136</t>
-  </si>
-  <si>
     <t xml:space="preserve">lambertslandon40@gmail.com</t>
   </si>
   <si>
@@ -536,9 +437,6 @@
     <t xml:space="preserve">ipfs://QmWmZUvjXGtjvp7f1bjR9yM74yonJLTPTS2UydZvub83Ua</t>
   </si>
   <si>
-    <t xml:space="preserve">0x45c5f259505113fc0dc2c77c77681cedcfc5b233</t>
-  </si>
-  <si>
     <t xml:space="preserve">brickmanb619@gmail.com</t>
   </si>
   <si>
@@ -548,9 +446,6 @@
     <t xml:space="preserve">ipfs://QmbXdgHj7cu63ZHE3gDSWXrzKS37sy1tMScCYm6swTRJ9a</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2e945850e28cd77bdcf9d3e4f484c9aaac86c091</t>
-  </si>
-  <si>
     <t xml:space="preserve">passseth511@gmail.com</t>
   </si>
   <si>
@@ -560,9 +455,6 @@
     <t xml:space="preserve">ipfs://QmYJEVxzCa886ERC7XxhvYocFyy7i19Keo9R1GJ2VZ5AWq</t>
   </si>
   <si>
-    <t xml:space="preserve">0x94187914510d1a9ff56d5b6ebf2ff21ac1062087</t>
-  </si>
-  <si>
     <t xml:space="preserve">dflatcher726@gmail.com</t>
   </si>
   <si>
@@ -572,9 +464,6 @@
     <t xml:space="preserve">ipfs://QmSNGCNWrnZY4paiNVHQJ3ouSWvRrbSXPendNP5gLvSYQm</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfbe5a91db70acf9818ff8db87a232b351e6a1da4</t>
-  </si>
-  <si>
     <t xml:space="preserve">NicholasPhilips5725@gmail.com</t>
   </si>
   <si>
@@ -584,9 +473,6 @@
     <t xml:space="preserve">ipfs://QmezkHsnxzidBF6RQQdddSHRsRcMQtJ5GvLCv1V1QhFgKV</t>
   </si>
   <si>
-    <t xml:space="preserve">0xebdeea026222b6c41141019013eb332a9c60f52b</t>
-  </si>
-  <si>
     <t xml:space="preserve">margaretmarlow644@gmail.com</t>
   </si>
   <si>
@@ -596,9 +482,6 @@
     <t xml:space="preserve">ipfs://QmevgTJX48LzLkKjquD3EZ3zJ3D3mHP1fvY4NRxkhdnAKE</t>
   </si>
   <si>
-    <t xml:space="preserve">0x66a12f392f27ad4bb21ab8c17d951c84520f1d75</t>
-  </si>
-  <si>
     <t xml:space="preserve">youmansj71@gmail.com</t>
   </si>
   <si>
@@ -608,9 +491,6 @@
     <t xml:space="preserve">ipfs://QmYE3LZdLZANVZCfey5nZcGKrP9v2dfTByrG6hfjiDFL5t</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1a2b12e60cb3a745f43817e4aac99742d610c1b0</t>
-  </si>
-  <si>
     <t xml:space="preserve">alsoppluccile9@gmail.com</t>
   </si>
   <si>
@@ -620,9 +500,6 @@
     <t xml:space="preserve">ipfs://QmQtX9GZc9tFdKFkF8V4GbZKc8JjgCjVMbQU7FvwPHHDfD</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf1147f8b03a4a09e3d7af5f2acb618ae36705e4a</t>
-  </si>
-  <si>
     <t xml:space="preserve">jt4992705@gmail.com</t>
   </si>
   <si>
@@ -632,9 +509,6 @@
     <t xml:space="preserve">ipfs://QmYNqa3ViyLMFGQYyjRa8JccgLKfabDrJY3BgbSu8jiyfV</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc7bbf906e86458b49d8b31d4fcfdbe1c3a55254c</t>
-  </si>
-  <si>
     <t xml:space="preserve">oswaldantonio249@gmail.com</t>
   </si>
   <si>
@@ -644,9 +518,6 @@
     <t xml:space="preserve">ipfs://QmTFBKn31aL85isVgyF9cjHzjD4Uptvvx9jBkyWqVtLbiX</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc4504e2e7fc7f7a41e39f6a2372ee469fa42438b</t>
-  </si>
-  <si>
     <t xml:space="preserve">deborahdyson5@gmail.com</t>
   </si>
   <si>
@@ -656,9 +527,6 @@
     <t xml:space="preserve">ipfs://QmTWc3h1qe5whVF7edHEN4h8nefVsJCcUbuPCcEzCpBaPx</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc15b3269d49afb9a63f4ac64221cdcb0ebe41f68</t>
-  </si>
-  <si>
     <t xml:space="preserve">avac3936@gmail.com</t>
   </si>
   <si>
@@ -668,9 +536,6 @@
     <t xml:space="preserve">ipfs://Qmc6FjYWp27xfUFZgXjqZYJitcSZZQK9bYUrAED6pFuTAw</t>
   </si>
   <si>
-    <t xml:space="preserve">0x00ddf48b657323694409d4a6d7e6175df3f2e24c</t>
-  </si>
-  <si>
     <t xml:space="preserve">fr7534003@gmail.com</t>
   </si>
   <si>
@@ -680,9 +545,6 @@
     <t xml:space="preserve">ipfs://Qmd9RVu2AASkY146BpuzTwE7QwqnPNGUdfQ8oWY7aPyM8w</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0fc013436ecfa181f2994977f599da571b6fc88c</t>
-  </si>
-  <si>
     <t xml:space="preserve">hannahralphs012@gmail.com</t>
   </si>
   <si>
@@ -692,9 +554,6 @@
     <t xml:space="preserve">ipfs://QmVSHR2h6MszyQS1uHr15D6dVXzrAs12ZxsCHWjb3PVzLV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5403f46962b863751580550e404c7b6e0bec6644</t>
-  </si>
-  <si>
     <t xml:space="preserve">sheldonmaria02@gmail.com</t>
   </si>
   <si>
@@ -704,9 +563,6 @@
     <t xml:space="preserve">ipfs://QmTDRkoYKs7SgEn6pFSBuxE5gbAfAqC9kejjbHH477jLgw</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4fe7c586c71c6b21f5d4a82f4d4fc02d8388848c</t>
-  </si>
-  <si>
     <t xml:space="preserve">nymanclaire084@gmail.com</t>
   </si>
   <si>
@@ -716,9 +572,6 @@
     <t xml:space="preserve">ipfs://QmdG1YUP56hbG51hpDBECUAZ5mWDiYpYCMb84VAmv836SP</t>
   </si>
   <si>
-    <t xml:space="preserve">0x91d6bff23f4e4ebd4f46a1456b19681b4444b338</t>
-  </si>
-  <si>
     <t xml:space="preserve">taftbarbara034@gmail.com</t>
   </si>
   <si>
@@ -728,9 +581,6 @@
     <t xml:space="preserve">ipfs://QmbkdK8oY5WCyox1kybSaGy4aLcfUMWzhGyFdUdNE9NAvK</t>
   </si>
   <si>
-    <t xml:space="preserve">0xeffbeb9ace834f8490271a1cdfd821e44bbea130</t>
-  </si>
-  <si>
     <t xml:space="preserve">cartermiln578@gmail.com</t>
   </si>
   <si>
@@ -740,9 +590,6 @@
     <t xml:space="preserve">ipfs://QmSk271b9u5Lwc4t4QgybdrGNkZdPSYm3HGgdSnny8HpU1</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1f2f5bd41ccd36a45cdff1d6e9a6a39ed3860810</t>
-  </si>
-  <si>
     <t xml:space="preserve">bt2389128@gmail.com</t>
   </si>
   <si>
@@ -752,9 +599,6 @@
     <t xml:space="preserve">ipfs://QmQYZkkAaaMdsZ2LHSR17Gac3gb5nckiSvFeKfhgpSGHyE</t>
   </si>
   <si>
-    <t xml:space="preserve">0x7e09a169e6943fc793159573b2a7d5095ce1f8ef</t>
-  </si>
-  <si>
     <t xml:space="preserve">bblomfield440@gmail.com</t>
   </si>
   <si>
@@ -764,9 +608,6 @@
     <t xml:space="preserve">ipfs://QmP2kKFFp4nseLoNLU4a1nJQTaRWWkhAwRBjYsqEN1w1rV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x07fe4533077291d9211e8b6ee418c6bb973dfbc7</t>
-  </si>
-  <si>
     <t xml:space="preserve">bbridjet4@gmail.com</t>
   </si>
   <si>
@@ -776,9 +617,6 @@
     <t xml:space="preserve">ipfs://QmPwZeXZoayaWNPdiv2pegDUPGMh8pWvL6Znhr66kkQoP8</t>
   </si>
   <si>
-    <t xml:space="preserve">0x74767cf992b5a033533121e920afed3ba7a272ab</t>
-  </si>
-  <si>
     <t xml:space="preserve">kingsmaneric270@gmail.com</t>
   </si>
   <si>
@@ -788,9 +626,6 @@
     <t xml:space="preserve">ipfs://QmciTn95mJGcyqvzyv3Y8J1CSgAMQtDuMfdEHeVgBYad9o</t>
   </si>
   <si>
-    <t xml:space="preserve">0x50aba257019f1ce87da905b9e10cbe9daa44b369</t>
-  </si>
-  <si>
     <t xml:space="preserve">chandterlucy87@gmail.com</t>
   </si>
   <si>
@@ -800,9 +635,6 @@
     <t xml:space="preserve">ipfs://QmQUYdraNPj5i31fjjeV5gxgkKEt2JqiUHyWB6o79jnAvj</t>
   </si>
   <si>
-    <t xml:space="preserve">0x95a0c4aab9dd190e0fc33cd4c97c9b346ffc2db2</t>
-  </si>
-  <si>
     <t xml:space="preserve">bo609703@gmail.com</t>
   </si>
   <si>
@@ -812,9 +644,6 @@
     <t xml:space="preserve">ipfs://QmXn9fUMDsia48iRDCof8YfWdaS9VdiMG9of6C3nPpmcGF</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0233c8fb7bf45b52553b1443e5cedbeae3715bf6</t>
-  </si>
-  <si>
     <t xml:space="preserve">angelinaconors960@gmail.com</t>
   </si>
   <si>
@@ -824,9 +653,6 @@
     <t xml:space="preserve">ipfs://QmRbhjSk2eC7T16xyjoUVRnKMDwK8TdY2TWQ3ESK7b9gVz</t>
   </si>
   <si>
-    <t xml:space="preserve">0xee7863bcd9fc8fe38f10f32b50c0ec9477d099ae</t>
-  </si>
-  <si>
     <t xml:space="preserve">haleyelmers004@gmail.com</t>
   </si>
   <si>
@@ -836,9 +662,6 @@
     <t xml:space="preserve">ipfs://QmQ7Dd6aKXoCU9FwrAbnqWwxxyUKxZyqVz39ppL4dh1z2L</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8dcd0ee994e7cbff8497a5725e6f3c43c505c3b9</t>
-  </si>
-  <si>
     <t xml:space="preserve">elmersj2@gmail.com</t>
   </si>
   <si>
@@ -848,9 +671,6 @@
     <t xml:space="preserve">ipfs://QmPqbhvRti4DaTkKCkSvFUTwfQ4MERR6Pd3PJwFTiMfcYi</t>
   </si>
   <si>
-    <t xml:space="preserve">0x58227dc321cbfe3cd2d22a59f8904a03e72613df</t>
-  </si>
-  <si>
     <t xml:space="preserve">ellaraleigh72@gmail.com</t>
   </si>
   <si>
@@ -860,9 +680,6 @@
     <t xml:space="preserve">ipfs://QmZNsVHTVSCBx4vA4tu1kFa8nStdHUQZq9GMKAKyfiG3Le</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5adb75fa5836e72b423d455ab93118dc714c7649</t>
-  </si>
-  <si>
     <t xml:space="preserve">db986259@gmail.com</t>
   </si>
   <si>
@@ -872,9 +689,6 @@
     <t xml:space="preserve">ipfs://QmX4qbCyjhmBkwUFWma7jyyJZ1cBTzbxJ7v6VLmEJjJfgi</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4b961608e462e0fff4af3dc3274161d80a87c72b</t>
-  </si>
-  <si>
     <t xml:space="preserve">adriansimon874@gmail.com</t>
   </si>
   <si>
@@ -884,9 +698,6 @@
     <t xml:space="preserve">ipfs://Qmd6QwNUtURufmeJTfnJfQWXhYKTbkujsWEj24yhQ9TUQu</t>
   </si>
   <si>
-    <t xml:space="preserve">0x39a48898625cfe545fb712ab754f7f92b61291eb</t>
-  </si>
-  <si>
     <t xml:space="preserve">AdrianSmith6187@gmail.com</t>
   </si>
   <si>
@@ -896,9 +707,6 @@
     <t xml:space="preserve">ipfs://Qmcngq4aQwa3gZX5mnfHQx6YQjYVJ5huC2k6eQHgVoz2A9</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1fe1560ad732dd216c1b30b7f25ea2cc298a05fe</t>
-  </si>
-  <si>
     <t xml:space="preserve">crossmansierra865@gmail.com</t>
   </si>
   <si>
@@ -908,9 +716,6 @@
     <t xml:space="preserve">ipfs://QmRNb59VwfGaV5PKr5r9bnK9XTJXq67NNzTcfYZkJZ7fAo</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9b18431bec41d40393a27671d1f142e2745e7b7f</t>
-  </si>
-  <si>
     <t xml:space="preserve">ld163277@gmail.com</t>
   </si>
   <si>
@@ -920,9 +725,6 @@
     <t xml:space="preserve">ipfs://QmbEbWyfZnBwg7VNEmaAeG2Zjj8kzkKNQi25GsLhtdYE62</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2ef801704bfa7b175419fbfda83401a1c69a8b41</t>
-  </si>
-  <si>
     <t xml:space="preserve">jenkinkatherine4@gmail.com</t>
   </si>
   <si>
@@ -932,9 +734,6 @@
     <t xml:space="preserve">ipfs://QmfHYHo6c8Mw9MaCHm1NGECBVcMpQxPTC4xfFQY4X5rLDh</t>
   </si>
   <si>
-    <t xml:space="preserve">0x174c50d8f6298ec9b74c90d9aa3071296bdc15da</t>
-  </si>
-  <si>
     <t xml:space="preserve">agate930@gmail.com</t>
   </si>
   <si>
@@ -944,9 +743,6 @@
     <t xml:space="preserve">ipfs://QmPGfQz8zPagtdBJwiCM6bVQX5hSSbSAhzrqr7YsCaCL9S</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4b63689f144cb986f24bc9bf66009bff461b01d2</t>
-  </si>
-  <si>
     <t xml:space="preserve">laurenbarrington22@gmail.com</t>
   </si>
   <si>
@@ -956,9 +752,6 @@
     <t xml:space="preserve">ipfs://QmcnxwiRphLN4uLosSxgdLFNEysRAiMsQfuCc6Qr5fXLqm</t>
   </si>
   <si>
-    <t xml:space="preserve">0x967d0f2b2e829bb1a0a51ee982c392e5feaf3a85</t>
-  </si>
-  <si>
     <t xml:space="preserve">whitealan857@gmail.com</t>
   </si>
   <si>
@@ -968,9 +761,6 @@
     <t xml:space="preserve">ipfs://QmVJgrwAHPvwSWX1BknCsYQ713twcvGQPg8Gr6Nf9LvSbo</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2e94e5c6989016c3ea1264337aa3d9ce532623cf</t>
-  </si>
-  <si>
     <t xml:space="preserve">hodgesgabriel4@gmail.com</t>
   </si>
   <si>
@@ -980,9 +770,6 @@
     <t xml:space="preserve">ipfs://QmcVkVvk5yXE5gym1r7dGcn5C8Cu2edSMzhDZxsBtXMbkV</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc96dbef4dde9082171e7cd1a2c341008091cc8a8</t>
-  </si>
-  <si>
     <t xml:space="preserve">derrickaudrey35@gmail.com</t>
   </si>
   <si>
@@ -992,9 +779,6 @@
     <t xml:space="preserve">ipfs://QmNsofHCW6Skwcya38RRTA6H85gVZrKSunUGMaBpvgMDwT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2fb64ca021a89a3af26eec4f363bb5b3502e781a</t>
-  </si>
-  <si>
     <t xml:space="preserve">vg523946@gmail.com</t>
   </si>
   <si>
@@ -1004,9 +788,6 @@
     <t xml:space="preserve">ipfs://QmTzt1W81QQUhiEqFpUBeCSyLR2LKccpJ2tgi8ybYpdhuu</t>
   </si>
   <si>
-    <t xml:space="preserve">0x3199e0e6f0eee8bf6476a03c964dad4655b20d2e</t>
-  </si>
-  <si>
     <t xml:space="preserve">parsonjulia1@gmail.com</t>
   </si>
   <si>
@@ -1016,9 +797,6 @@
     <t xml:space="preserve">ipfs://QmagMivUpgER8cJAFF9K5YofQwb9KqR6UvHk6n5EAL1zbc</t>
   </si>
   <si>
-    <t xml:space="preserve">0x08551dcd79818c2e178574f62c51398923286646</t>
-  </si>
-  <si>
     <t xml:space="preserve">bf5341822@gmail.com</t>
   </si>
   <si>
@@ -1028,9 +806,6 @@
     <t xml:space="preserve">ipfs://QmfJD6ZddWfrSLjnoASV2peqqf62n3tK2qbnxmgvPFy9J8</t>
   </si>
   <si>
-    <t xml:space="preserve">0xfb96c80e85e854ade3e24c062282a17ee49d9c1d</t>
-  </si>
-  <si>
     <t xml:space="preserve">mramacey2@gmail.com</t>
   </si>
   <si>
@@ -1040,9 +815,6 @@
     <t xml:space="preserve">ipfs://QmPsAebx37Dj9LFtjbGhrf1eGzKxVYehtzZAGXssP6284M</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8e66aa1c9dc965d9ae872505b0f0f6bb6ce45f77</t>
-  </si>
-  <si>
     <t xml:space="preserve">galbraithp67@gmail.com</t>
   </si>
   <si>
@@ -1052,9 +824,6 @@
     <t xml:space="preserve">ipfs://QmVjquCupenqmVVLqsKJFcE6cozFGvyETVNgXEEPUTUYMx</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5381366083ad039ff65bd7df8dba07a24e38a6a7</t>
-  </si>
-  <si>
     <t xml:space="preserve">hannahjerome374@gmail.com</t>
   </si>
   <si>
@@ -1064,9 +833,6 @@
     <t xml:space="preserve">ipfs://Qmc6ZkpsBrX3f9LRBbS7HWVWuizHiZFjb3XkfDS9zgzEoB</t>
   </si>
   <si>
-    <t xml:space="preserve">0x85f70e5f090ea66bc489278911838b261a63debd</t>
-  </si>
-  <si>
     <t xml:space="preserve">ca1803284@gmail.com</t>
   </si>
   <si>
@@ -1076,9 +842,6 @@
     <t xml:space="preserve">ipfs://QmaDE4jjwcNT3bhDXPxuT3Mzia5M3mKEHpftki5cSmYKhG</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa02bc09823990b627e38363808db67ee36b8c4f8</t>
-  </si>
-  <si>
     <t xml:space="preserve">agathabarnes23@gmail.com</t>
   </si>
   <si>
@@ -1088,9 +851,6 @@
     <t xml:space="preserve">ipfs://QmQUdLhVa11evU1ebJJ14WkYDd4gyzd8PP9kXZq5ChQqhb</t>
   </si>
   <si>
-    <t xml:space="preserve">0xff8d297f22f414b17ca8d426c5365a86d38370ca</t>
-  </si>
-  <si>
     <t xml:space="preserve">me602027@gmail.com</t>
   </si>
   <si>
@@ -1100,9 +860,6 @@
     <t xml:space="preserve">ipfs://QmPqx66draXotgYYNjxo8ZNu4zEk3P7Qk4ifoyaB5dL8Zw</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4d798ccc2d71ebf48ed1f79a85b3baee04898f45</t>
-  </si>
-  <si>
     <t xml:space="preserve">wifkinsonarianna@gmail.com</t>
   </si>
   <si>
@@ -1112,9 +869,6 @@
     <t xml:space="preserve">ipfs://Qmf9DP8FyXUtpVZ3Y7WxfNfPdQ4waCwbxJdXuTrB6dTTvm</t>
   </si>
   <si>
-    <t xml:space="preserve">0x7e16c50d178fd6b29dca845489fc32b1ac41a625</t>
-  </si>
-  <si>
     <t xml:space="preserve">gatealise65@gmail.com</t>
   </si>
   <si>
@@ -1124,9 +878,6 @@
     <t xml:space="preserve">ipfs://QmXwFLdHG8Td1Y7nnEDqamt2hycNGSARNT8q3gCHpnWQ7i</t>
   </si>
   <si>
-    <t xml:space="preserve">0xb518994bbdd0604d2b537af5cf840d4a1c7b14c7</t>
-  </si>
-  <si>
     <t xml:space="preserve">lucasaustin949@gmail.com</t>
   </si>
   <si>
@@ -1136,9 +887,6 @@
     <t xml:space="preserve">ipfs://QmVj6ExFaQbEc5xdmQDmrpLSxPAV5YoUehAofLna5fV7VV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x32cc6c3f67786afd0c3acb3967cef4c59d6e4f99</t>
-  </si>
-  <si>
     <t xml:space="preserve">flemingisabel2@gmail.com</t>
   </si>
   <si>
@@ -1148,9 +896,6 @@
     <t xml:space="preserve">ipfs://QmciEXMch3THJ42WrWKvvV3xHftbM1LZBSc7xV4qcpkv6G</t>
   </si>
   <si>
-    <t xml:space="preserve">0x69d3405f965e1e96c2cc2bbe7dbb3c44878faac0</t>
-  </si>
-  <si>
     <t xml:space="preserve">maceysebastian62@gmail.com</t>
   </si>
   <si>
@@ -1160,9 +905,6 @@
     <t xml:space="preserve">ipfs://QmNbCPEoU2ytVa7qw5XoYPKRK5Sc1di2JapL5Ht9T7N8PC</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6646b912dc445b78a9f7239694fb1319726e3826</t>
-  </si>
-  <si>
     <t xml:space="preserve">jenkinmadeline03@gmail.com</t>
   </si>
   <si>
@@ -1172,9 +914,6 @@
     <t xml:space="preserve">ipfs://Qmc5tkMkLNG9PCNAzbXzeGfv98hdDxYsB9jom5hxmzyb3q</t>
   </si>
   <si>
-    <t xml:space="preserve">0x45d5d6b6e667760022b74f65dd05d0101ff67c93</t>
-  </si>
-  <si>
     <t xml:space="preserve">hardmanm79@gmail.com</t>
   </si>
   <si>
@@ -1184,9 +923,6 @@
     <t xml:space="preserve">ipfs://QmaAckik5NHio5Fo9j82wJzVMtf86kBiTAPftahVzy5swx</t>
   </si>
   <si>
-    <t xml:space="preserve">0xba427f818cec2bb104a0f71d00723c8c0026993d</t>
-  </si>
-  <si>
     <t xml:space="preserve">NoraHaig5443@gmail.com</t>
   </si>
   <si>
@@ -1196,9 +932,6 @@
     <t xml:space="preserve">ipfs://QmX4bfhdanHFbPWnxSsM4HPJBVG318mrHLtnvuuKtNpdDG</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4d00ba89af82c2450a4f1ecfd85948215f42e30d</t>
-  </si>
-  <si>
     <t xml:space="preserve">daisyarthurs144@gmail.com</t>
   </si>
   <si>
@@ -1208,9 +941,6 @@
     <t xml:space="preserve">ipfs://QmPJJtSujCjD1rbbNNcruy6b7TxeegT8EFRx2ZuDsZqE2J</t>
   </si>
   <si>
-    <t xml:space="preserve">0x62a91f42a8b7d70e55cef25317bca820ad2cbbd5</t>
-  </si>
-  <si>
     <t xml:space="preserve">gracejeff193@gmail.com</t>
   </si>
   <si>
@@ -1220,9 +950,6 @@
     <t xml:space="preserve">ipfs://QmcW58cuHhLKnvD9cgsMas33QazrBKePeQCSWwKY5dU2KF</t>
   </si>
   <si>
-    <t xml:space="preserve">0x3aa01b3675b20353ad9e30f55075ebedfdee92fd</t>
-  </si>
-  <si>
     <t xml:space="preserve">VirginiaMiller6962@gmail.com</t>
   </si>
   <si>
@@ -1232,9 +959,6 @@
     <t xml:space="preserve">ipfs://QmXaWCYcP2G9XwRMrtBbYPPyxbuUYvUndZvia6tjvMx9cM</t>
   </si>
   <si>
-    <t xml:space="preserve">0xb217dd96130f83dbe9ba95ee426968d260918b55</t>
-  </si>
-  <si>
     <t xml:space="preserve">ml7493953@gmail.com</t>
   </si>
   <si>
@@ -1244,9 +968,6 @@
     <t xml:space="preserve">ipfs://QmQcf9NdmoUtstjxV7FsMexEHaUVczLu1jUcqSCW5yhD1J</t>
   </si>
   <si>
-    <t xml:space="preserve">0x81ce67fbf56c7609820c14fbc9623411b070831a</t>
-  </si>
-  <si>
     <t xml:space="preserve">lewinstanley936@gmail.com</t>
   </si>
   <si>
@@ -1256,9 +977,6 @@
     <t xml:space="preserve">ipfs://QmXzk7gSDPvyQz3rQd257WdMnLVvg32rdT3ffvEx7SAEWd</t>
   </si>
   <si>
-    <t xml:space="preserve">0xcd84d4ff44e4895cefb093187f565c0422e4871e</t>
-  </si>
-  <si>
     <t xml:space="preserve">sshackley9@gmail.com</t>
   </si>
   <si>
@@ -1268,9 +986,6 @@
     <t xml:space="preserve">ipfs://QmdCoZgKAVxWMR7HsR284WCF8PFXtjPWZPxXQN7pshxjTr</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8e74f5d739974f09d455a09c8121dce69127c129</t>
-  </si>
-  <si>
     <t xml:space="preserve">mb1142132@gmail.com</t>
   </si>
   <si>
@@ -1280,9 +995,6 @@
     <t xml:space="preserve">ipfs://QmNWJCsjMLsj2fR1bXDJb7Km2mqJ3oMVqy74oym6ew6KaZ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x961313a46c85ffd8f3995e25c83ce5dd2eb5a17d</t>
-  </si>
-  <si>
     <t xml:space="preserve">holidayk716@gmail.com</t>
   </si>
   <si>
@@ -1292,9 +1004,6 @@
     <t xml:space="preserve">ipfs://QmP1owxvA5BhVoyY2iBBPditGGWw7cWRrJCujRF8ZeTaFz</t>
   </si>
   <si>
-    <t xml:space="preserve">0x366cd21f547493df436bb3e9d5274594efa6057b</t>
-  </si>
-  <si>
     <t xml:space="preserve">iane26779@gmail.com</t>
   </si>
   <si>
@@ -1304,9 +1013,6 @@
     <t xml:space="preserve">ipfs://QmNZU91L6Xri66LFoh2nTTYZYcJAzpmg6fqKAnZXvniSyP</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5f3d9750e6dcea9dee4731b99c68c3d06c31f94e</t>
-  </si>
-  <si>
     <t xml:space="preserve">lnicholson199@gmail.com</t>
   </si>
   <si>
@@ -1316,9 +1022,6 @@
     <t xml:space="preserve">ipfs://QmX2Pnfe9kxhyXs8LTmhyiBiiu5bMqVro7TpPwAhRw5LvP</t>
   </si>
   <si>
-    <t xml:space="preserve">0x925fb95203b57307c7f8368d9852528aae87f8ec</t>
-  </si>
-  <si>
     <t xml:space="preserve">angelinaalbertson@gmail.com</t>
   </si>
   <si>
@@ -1328,9 +1031,6 @@
     <t xml:space="preserve">ipfs://QmVsuBVX3nLM4T75rZ2YuS1JK5DvAurR7EA9SdoSduQkRB</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa85342f95e81f178f27a12dfbaa7ac1fc9858814</t>
-  </si>
-  <si>
     <t xml:space="preserve">gabrielleflannagan@gmail.com</t>
   </si>
   <si>
@@ -1340,9 +1040,6 @@
     <t xml:space="preserve">ipfs://QmYCv2E1NPxSqfyJHcXML8h3UWoGAk4NzwtfthtYsL93tW</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf498c5761ee87c0620f8a31ac67232782a48d2fc</t>
-  </si>
-  <si>
     <t xml:space="preserve">salisburrymorgan@gmail.com</t>
   </si>
   <si>
@@ -1352,9 +1049,6 @@
     <t xml:space="preserve">ipfs://QmTAqqaVh6nDjZPYkzBqmDqf8rrSxDxRGTCygBWPUP8Vxh</t>
   </si>
   <si>
-    <t xml:space="preserve">0xeb8467f557fe80cf8a875000d34ff2fa945257bc</t>
-  </si>
-  <si>
     <t xml:space="preserve">curtissaunder@gmail.com</t>
   </si>
   <si>
@@ -1364,9 +1058,6 @@
     <t xml:space="preserve">ipfs://QmP5XwX7MXYgYE2QGNpHPzRzE8N28CBWGNPenSyXvMHLdk</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc4b547c63be69743d3a6b566bc60f44de5e947df</t>
-  </si>
-  <si>
     <t xml:space="preserve">gimsonhunter2@gmail.com</t>
   </si>
   <si>
@@ -1376,9 +1067,6 @@
     <t xml:space="preserve">ipfs://QmP1sDzgpSfa624ymoB36DfGqzwwnGjwVCjHGHNRQFhq5q</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa5518c67cffb36e2a99f2a2b7669d20006c0b361</t>
-  </si>
-  <si>
     <t xml:space="preserve">ThomasHoward9010@gmail.com</t>
   </si>
   <si>
@@ -1388,9 +1076,6 @@
     <t xml:space="preserve">ipfs://QmQXm9LTeWqXTvmsnJ2YWjv5C6osaJb9BVfiEUXAPHNHri</t>
   </si>
   <si>
-    <t xml:space="preserve">0xb1f70a9d642ed1141f5d26d1760879d0a61d54dc</t>
-  </si>
-  <si>
     <t xml:space="preserve">cm8388450@gmail.com</t>
   </si>
   <si>
@@ -1400,9 +1085,6 @@
     <t xml:space="preserve">ipfs://QmP5ZyF9PPJuxR8dY3kUubb1upUe7j4daHkV9xmQWWMBJC</t>
   </si>
   <si>
-    <t xml:space="preserve">0x545ff4b2f7079eb8eeb8d4cebc99582988bd368f</t>
-  </si>
-  <si>
     <t xml:space="preserve">hfulton564@gmail.com</t>
   </si>
   <si>
@@ -1412,9 +1094,6 @@
     <t xml:space="preserve">ipfs://QmcW9NF8EUymTq5Ye3YCD8L73fR35qRNpF9hMwaN8wyEMc</t>
   </si>
   <si>
-    <t xml:space="preserve">0xb1c95f7cc6458c0ec96889111c0e277e07e72850</t>
-  </si>
-  <si>
     <t xml:space="preserve">littlealexis311@gmail.com</t>
   </si>
   <si>
@@ -1424,9 +1103,6 @@
     <t xml:space="preserve">ipfs://QmNWiYGWFeZpjGnv3t4WebmQ4g4Nxft1G2QXdBwCHpEBhq</t>
   </si>
   <si>
-    <t xml:space="preserve">0x99f59d188968bacfbf38999028857e35534f701d</t>
-  </si>
-  <si>
     <t xml:space="preserve">oaudley620@gmail.com</t>
   </si>
   <si>
@@ -1436,9 +1112,6 @@
     <t xml:space="preserve">ipfs://QmbV4RRNiZnrVAj7ypp3xCbGbmMZLybfR5Weo87Pd72gp2</t>
   </si>
   <si>
-    <t xml:space="preserve">0x38c74f646cd99336f465ec90c99c795c439c9223</t>
-  </si>
-  <si>
     <t xml:space="preserve">evelynpass51@gmail.com</t>
   </si>
   <si>
@@ -1448,9 +1121,6 @@
     <t xml:space="preserve">ipfs://QmPRceBrHbo925Px2HxdUwcG3TQqzDd45YSWRcm91WEUu8</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0c499f3defe4dbd9533229efd09d25395410dd4e</t>
-  </si>
-  <si>
     <t xml:space="preserve">melissapearcy6@gmail.com</t>
   </si>
   <si>
@@ -1460,9 +1130,6 @@
     <t xml:space="preserve">ipfs://QmeH1F3yqeh1YTWa2b76RdicU4oreR1qgoXbJJ98GCevn1</t>
   </si>
   <si>
-    <t xml:space="preserve">0xdff540cc732d8237535bead7a1f66d71cad113ea</t>
-  </si>
-  <si>
     <t xml:space="preserve">marjoriej437@gmail.com</t>
   </si>
   <si>
@@ -1472,9 +1139,6 @@
     <t xml:space="preserve">ipfs://QmNRXtkF52bWesTvmuQ9XTUwLedWSdx2VuB6yRUQCE3PjY</t>
   </si>
   <si>
-    <t xml:space="preserve">0x193d3058a538900fa1b6166f0283ef2675610190</t>
-  </si>
-  <si>
     <t xml:space="preserve">wifkinsonjenna77@gmail.com</t>
   </si>
   <si>
@@ -1484,9 +1148,6 @@
     <t xml:space="preserve">ipfs://QmYBsw4jCY4jXKBqxSYTuU77RLqHFN9D6dYBzKUD3495uN</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5a2d1bd26285592be7faa590dc02c465c0d686e1</t>
-  </si>
-  <si>
     <t xml:space="preserve">brickmanshirley9@gmail.com</t>
   </si>
   <si>
@@ -1496,9 +1157,6 @@
     <t xml:space="preserve">ipfs://QmbjB2cTxgq635xgXYpjDcsu71ZnQzJ5a7VbGwzjEYpYDe</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1d5663fd21bff4ba7a8897ea723aa5fd0557c684</t>
-  </si>
-  <si>
     <t xml:space="preserve">hlillian922@gmail.com</t>
   </si>
   <si>
@@ -1508,9 +1166,6 @@
     <t xml:space="preserve">ipfs://QmTwd2A6LEL5YrdEmwcZE4dQQ75vkBiDfPW28rdS9SzNM9</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4e46e9704e6266e20242a8d7910cd5ed3df65cc6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ramaceylily9@gmail.com</t>
   </si>
   <si>
@@ -1520,9 +1175,6 @@
     <t xml:space="preserve">ipfs://QmaZEP69XS4HpiYyygsc1eWdPXWJ16y9fVhfTgXx1uWXgT</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6ec0bfc84474c8f74bec63a55ee5250e0a44c934</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChristopherMurphy1228@gmail.com</t>
   </si>
   <si>
@@ -1532,9 +1184,6 @@
     <t xml:space="preserve">ipfs://QmTYsBKrJM95PE3b6nnDbCeFdGdnfVPjxpDmg7feAnXQYg</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4bc788bbf0c1a4269e552b6978968fbb325e87c4</t>
-  </si>
-  <si>
     <t xml:space="preserve">saundercarl5@gmail.com</t>
   </si>
   <si>
@@ -1544,9 +1193,6 @@
     <t xml:space="preserve">ipfs://QmU7iE2B27hC38uDWKJTYiPjbRVx6zqGqMg6SCU7gh3Hiq</t>
   </si>
   <si>
-    <t xml:space="preserve">0x320e5fb5654bda8040a08686f50702f7d9853b6a</t>
-  </si>
-  <si>
     <t xml:space="preserve">ashtonpaterson0@gmail.com</t>
   </si>
   <si>
@@ -1556,9 +1202,6 @@
     <t xml:space="preserve">ipfs://QmUwJ6oJ4E4bJQwqssup4DstUNZ41XpBn3ogR8KEtCjMYV</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf6c0d4d667703dbfe8685eaa44c79aabc43ec089</t>
-  </si>
-  <si>
     <t xml:space="preserve">hkendal414@gmail.com</t>
   </si>
   <si>
@@ -1568,9 +1211,6 @@
     <t xml:space="preserve">ipfs://QmU2xmWVwtfgAC97D1NNJzCBeQJg85B6mAeiMD2XAsEtj4</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9786c3a7cf5200640d98bec387708ef041454f2f</t>
-  </si>
-  <si>
     <t xml:space="preserve">raleighlillian860@gmail.com</t>
   </si>
   <si>
@@ -1580,9 +1220,6 @@
     <t xml:space="preserve">ipfs://QmRfycSsA5fvrPiwMbQHkyv17oiuPgvuMUiJZ768Nr6zpP</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1c7c947046f6b6e9e465785291f060345231add5</t>
-  </si>
-  <si>
     <t xml:space="preserve">abramsonj026@gmail.com</t>
   </si>
   <si>
@@ -1592,9 +1229,6 @@
     <t xml:space="preserve">ipfs://Qmagtw7wFw2cSMKzcPs9SJXWiCYV4bnKHUff3ejJ2eAVnL</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa912ddd96702031672719c1ab644dfedbdc1c40a</t>
-  </si>
-  <si>
     <t xml:space="preserve">sylviabosworth28@gmail.com</t>
   </si>
   <si>
@@ -1604,9 +1238,6 @@
     <t xml:space="preserve">ipfs://QmTTpBpxJFmAsnQjCBechidu49ph41xWN3p5JREzUeragM</t>
   </si>
   <si>
-    <t xml:space="preserve">0x4bd281148b2b484e0a97852cac1ddaa54d176cc6</t>
-  </si>
-  <si>
     <t xml:space="preserve">adrianhailey881@gmail.com</t>
   </si>
   <si>
@@ -1616,9 +1247,6 @@
     <t xml:space="preserve">ipfs://QmSK2bmG761zzrmcnUWXfxM5GsHuaCC4bPZvJJavo8PBzs</t>
   </si>
   <si>
-    <t xml:space="preserve">0x98729dc029c4135e41272d70fc2d1e326e1ce81d</t>
-  </si>
-  <si>
     <t xml:space="preserve">owen62812@gmail.com</t>
   </si>
   <si>
@@ -1628,9 +1256,6 @@
     <t xml:space="preserve">ipfs://Qmf85q5tzPsVzSHnk8VNEHqS4bWaJiFco4pi3kyWJ3s61w</t>
   </si>
   <si>
-    <t xml:space="preserve">0x433865883b55c70ecba5731863ecf97f0999812e</t>
-  </si>
-  <si>
     <t xml:space="preserve">macadamangelina4@gmail.com</t>
   </si>
   <si>
@@ -1640,9 +1265,6 @@
     <t xml:space="preserve">ipfs://QmeQW53wLzEDmVQYHDSDxk83Lz3RcC8e6MnJP2sHzFj1e6</t>
   </si>
   <si>
-    <t xml:space="preserve">0x790b6474505b70638d597c68c8c2f31264566874</t>
-  </si>
-  <si>
     <t xml:space="preserve">archibaldk37@gmail.com</t>
   </si>
   <si>
@@ -1652,9 +1274,6 @@
     <t xml:space="preserve">ipfs://QmRcC2bwJrKKwJ8REhnwj2fSAfXMFoNgctas86PgR6t2CW</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2320603da6734597a3179680089770de58a698f9</t>
-  </si>
-  <si>
     <t xml:space="preserve">gp070726@gmail.com</t>
   </si>
   <si>
@@ -1664,9 +1283,6 @@
     <t xml:space="preserve">ipfs://QmWs7cMSaPxXn6C5UUAvh7pNGTBjgtM4xoEhL66iWQ6q6M</t>
   </si>
   <si>
-    <t xml:space="preserve">0x0ed4aa7b5d492b5949023784c2bfcdbdf39269b0</t>
-  </si>
-  <si>
     <t xml:space="preserve">keatreginald026@gmail.com</t>
   </si>
   <si>
@@ -1676,9 +1292,6 @@
     <t xml:space="preserve">ipfs://QmNd6cLSGZ8yjcWKsCTZMHcxbzaijkfR4eUUH77gkFhgTF</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf5fb9f24ca74efbc917b72f39618cf29b4aa590d</t>
-  </si>
-  <si>
     <t xml:space="preserve">AlbertSmith9872@gmail.com</t>
   </si>
   <si>
@@ -1688,9 +1301,6 @@
     <t xml:space="preserve">ipfs://QmPxtcYf37GZYxGDzc79kxyC5S7JweQYfHyTwfQc3sRcAX</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf4a886568540cb12722be8f4f18c652740e9fedc</t>
-  </si>
-  <si>
     <t xml:space="preserve">cj3375398@gmail.com</t>
   </si>
   <si>
@@ -1700,9 +1310,6 @@
     <t xml:space="preserve">ipfs://QmNScrqPoPuCkRnzGSgfHJH2Y35C6T1AwBaMo4pEwu6XVz</t>
   </si>
   <si>
-    <t xml:space="preserve">0x759176d547b520237623f5fc77e0622464fb89fb</t>
-  </si>
-  <si>
     <t xml:space="preserve">AgathaLewin7981@gmail.com</t>
   </si>
   <si>
@@ -1712,9 +1319,6 @@
     <t xml:space="preserve">ipfs://QmYjLzCgr2D5pHQ2MAEPRLVhEBBJuWVNf217Ai49ZwThZN</t>
   </si>
   <si>
-    <t xml:space="preserve">0x512ba5f7f891ee7a6082ca90aba44b2aece1b285</t>
-  </si>
-  <si>
     <t xml:space="preserve">ellingtongladys5@gmail.com</t>
   </si>
   <si>
@@ -1724,9 +1328,6 @@
     <t xml:space="preserve">ipfs://QmQciJgL7zW5pFcCKQPw2N5fF4ieFsK7RRzv2dpf1tu9Jf</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8b20496bbaf0396c7eb1e25c71e5b7cd550889a2</t>
-  </si>
-  <si>
     <t xml:space="preserve">oswaldc326@gmail.com</t>
   </si>
   <si>
@@ -1736,9 +1337,6 @@
     <t xml:space="preserve">ipfs://QmRcA19Uqdre9UtDA8X5VEgoCUpZqjmqQ1JRLPthLas9zG</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa87abd44630a87e45e68faf37c3b61e03d322868</t>
-  </si>
-  <si>
     <t xml:space="preserve">lilypearcy65@gmail.com</t>
   </si>
   <si>
@@ -1748,9 +1346,6 @@
     <t xml:space="preserve">ipfs://QmctafWMtQE4ZzofeYfSuqZU9tJgcN3XJFPn3SXRmdjjuq</t>
   </si>
   <si>
-    <t xml:space="preserve">0xcac3f6a05658e8841df42ed813d6e4799e287db6</t>
-  </si>
-  <si>
     <t xml:space="preserve">macadamdonald7@gmail.com</t>
   </si>
   <si>
@@ -1760,370 +1355,196 @@
     <t xml:space="preserve">ipfs://QmW3hpB9iDWT4Mh1WDHrngvmJc7F2CSUScCiWa4vu33nRf</t>
   </si>
   <si>
-    <t xml:space="preserve">0xac37e9f1f8435ebd952005ca4718437330bf8cc6</t>
-  </si>
-  <si>
     <t xml:space="preserve">9O3B7uCd#(</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmQedKUb3zydkmghkCFdAT6JSTo6NusBhPWsygvLtLvoY6</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9b53b86bd4bf75a9a8b20e5cd1dfffe372b9ad25</t>
-  </si>
-  <si>
     <t xml:space="preserve">@$84HDSlu$</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmbJuEw5E2nYkt7gBEMvaGjZYUeyCQZmmuJTKRa8X9yEF5</t>
   </si>
   <si>
-    <t xml:space="preserve">0x3e433a309a3232128ca6fac549e2a1265e235741</t>
-  </si>
-  <si>
     <t xml:space="preserve">@pXG4KiGP2</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmPq8KKi3czmwfhjhejgSGEVT7o671n6X36L3MRaxQmqec</t>
   </si>
   <si>
-    <t xml:space="preserve">0x151f7b0c894c468d0a3de6f38ece50123e94d382</t>
-  </si>
-  <si>
     <t xml:space="preserve">*L14TAfYn1</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmUxrrmDPE9YR3eUFsSvutXLGzywEyPSCfhxwCcik9Pu3N</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1d3b3f58c3c43b25ef2653972f4ac0661a2ca167</t>
-  </si>
-  <si>
     <t xml:space="preserve">Flk2NOVii)</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmWTiQDkdzEdBcdJsjKgvyk7oHywgiHy2Xmohi8BpUCLvK</t>
   </si>
   <si>
-    <t xml:space="preserve">0xeaae34f33d6fecc948fd72ba2f508bc314ee6520</t>
-  </si>
-  <si>
     <t xml:space="preserve">x^5RXQxl)C</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmXcvcyzCSe7QfJUNZ4Q5Wii3rg94WMyZH9LPQKcTjXQ2T</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf2b68f0f71e97a56379c4f6065e41fafc7bf34c3</t>
-  </si>
-  <si>
     <t xml:space="preserve">+GblOG6r7Q</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://Qmeacu2XtQ43228Fe8xq9fp8EcsVM5GDWCYYjfQpkQcFn3</t>
   </si>
   <si>
-    <t xml:space="preserve">0x792e125b95739581a27aa344a028f88bc97a522a</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmPUpVuswBCd4Ngm1ouk3gsq9n8N8385an4beWUHkReKav</t>
   </si>
   <si>
-    <t xml:space="preserve">0xe74c33e5d7c727c88ae6d1d7c3f0ed30d1af4e5e</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYEdykD5QdEcZ6srw43Dxs8rPH5J2vGpKXR6f6FLXuLsm</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5ed96b594e327287cbb8863a4058a615c72ebae5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmZFjczJZWfNpaFy539Ey1p3oLKYLQA179VbDBxNGHRvnF</t>
   </si>
   <si>
-    <t xml:space="preserve">0x1468fcdd8f711e06fef3618a219d4e33f6c315e6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmfPZSn3HLicDuRBNE1SMKrxUghCoktKsGPcREVkCgBhcr</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc6283a643dd2833715bee047ddb56c5eb560f0d6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmSZqrVmGTe3GtHaUDeryqW1EfmMiWRqea9bvuiGQ4FRfj</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa1f3fde220f83d7fe0bd4067a7255bf3d4e32dc9</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmWs1fZqogcpRVqFaeJV5JFm2vmA6Z61y2NWMRnX2E2Qu2</t>
   </si>
   <si>
-    <t xml:space="preserve">0x45613bf771c3a643909846f6638791d76b51b945</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmRnymwoqM4sTBbww3h4kzx9Yx5txSPb9tsQvCqDq5Vhix</t>
   </si>
   <si>
-    <t xml:space="preserve">0xedd75e036b7ccdd2dda3a6f4d80d491534d43aac</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmcVYeCNhE3GrtJNBJaWuXDrLzVxP6LKV1cQNahMuJZTEs</t>
   </si>
   <si>
-    <t xml:space="preserve">0x92c2a099143369dbbfcf1ca4ef9c1c3cc872d7d9</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmZAbQXyZ8Ke7y2kHhJiWmBjPrNyQDUi4kMqo4DbAKyD2B</t>
   </si>
   <si>
-    <t xml:space="preserve">0x657bdaeb4be7c6dd583913d70fa33f8b93d22bc2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVwDxKAzHaqhXN8bMfACbw5e552pnqp5PArGYpFxz4BTr</t>
   </si>
   <si>
-    <t xml:space="preserve">0x525ee2b39df95a938f8ee72bfc3509b492a0ea1b</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmUPSBDq1BSdpCFBkHSU5o66oYgnSRiS8PwBUkRMTSrdyL</t>
   </si>
   <si>
-    <t xml:space="preserve">0xb340bb14343f1915a084ff39fe6b1367cf61bafc</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmQYFcRGRZrN9EJerXENy3jBhidTamMRnNGYwtSvgJDohw</t>
   </si>
   <si>
-    <t xml:space="preserve">0xaf389135be833248d97776b068a2bc5c7ec4a0f2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmZszERSrLwfvXoKJPom9mNMRr1Z99n13aziHD2XAKpMA9</t>
   </si>
   <si>
-    <t xml:space="preserve">0x865a621349b7d15592efa776728f3ed3660e9025</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmZ554ambTuJJ65NeJqGq5zSi7bx8soKp1eZdBDYsoGkYK</t>
   </si>
   <si>
-    <t xml:space="preserve">0x7514fa69fd07ab5ab987683c276bbc1e8c010dc1</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmPEgFZeqTb7Az9VhftvLfNWdfMKWHTevEB8Qiy3rd8ikN</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9920d3a27b66c82ffcf69ee439477379d6471d92</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmX6GnScVUPtMHpKagBtteSNeYenJcnXkGLGm3PTKkxgmb</t>
   </si>
   <si>
-    <t xml:space="preserve">0x99ea0cd38fb789b0e20fded004af0b61430263c0</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qma2mR7xhQUm5GCL3MVSoPkKDWrmVKf7qTki7S9EATbde8</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa8c07ceb6f77a687f10e0698e7f97a9cf37c641d</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmNq4L2CdzL4ujQYSbLJzjSwK5z1QfRZDCJJ2XeMtfUk1a</t>
   </si>
   <si>
-    <t xml:space="preserve">0x60832ce6ed7688b97c12ace5fadc24394809e02f</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTjEJu1LZKcZGFpH9rvUCQCpsfV8UPw3D53b2bhMbXFfg</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8cc51287ccb910ae3ddc8151df865fb8448ce760</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmNpYhrxUAccuYsfSseoSuWzbefTnVGyiEUBqsbT968RPo</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6496973e1a2640dcd0ca6b3a0bc46da3bf457356</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmT21ST9p9Y6f11UzjjwNa9mDhf4f2LB9C25FJ1kKgYJp5</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa9267f4c446cc3369ed02e54fae966ba6115e883</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmW6g6KyHnxYDw7kJG1d6rZb7EJHKdXTFrnPdHU6N97eUh</t>
   </si>
   <si>
-    <t xml:space="preserve">0x06e4edea365a91d8a0ccc8acb6c6be2a7a27df0c</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmbjBi7KMs8HZnGXHMm6xwmCVwVxn7ad4iZkzTzXnfj1AA</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9519cfc3d294d94ac89a2309ffb0213387e67893</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmWdbqTmgSo9ubL8ep6sTd33tDRrhyGnXuA2jQuU3WSmYy</t>
   </si>
   <si>
-    <t xml:space="preserve">0x50b684d91908e0da7544026cb68f277370af3bbe</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmXH3X5m2By34RUqtFHyRpDKnyWiziKUX8QtYWMy3g4GX5</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6c9143dd9f2e0e0ea194adf89c75ebc5865d6c2d</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmdMoVZQu6nbMKh8EGEiBkcAkSoNvLFHsUWJ5m7rzmmywN</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9e462421a103f40ff584563c314942e4128fae42</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTUPMNnsaPRtJinAFRxiMp4pREgeX1wSwxUTth8CYVLqE</t>
   </si>
   <si>
-    <t xml:space="preserve">0xd6f989b9a65850ba2a4de34312ac61b9158b882d</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVSMy3ACwPtg8fJTVPkgMyyTKPpDD3Tw8PuKBDUW13KyH</t>
   </si>
   <si>
-    <t xml:space="preserve">0xd7db508bbb8deca4505749b921905fcc9c2c91a2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmaTZqgy9ysBsvkRfhjvdzuuzZWbSNZfhXVdVeK3fY16Vm</t>
   </si>
   <si>
-    <t xml:space="preserve">0x90f9d51562a47c06bc1101e93ad0eea2477e88f3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmfKC2YKD1YN5PiVaANyLcYprzBw8V6zXEZqx4TSyZ37k6</t>
   </si>
   <si>
-    <t xml:space="preserve">0x521d022dce49a25ebb34d008b69f4430d56a511b</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYiBSx876Y6wSp3rmdVGMmYkYUPmdFeJ8dkPZQyyCMAp8</t>
   </si>
   <si>
-    <t xml:space="preserve">0xd5c5fea355dcfe8ef309000e5b6aa81b954ef015</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://Qme78XkYu9LVXAdKFX4BRYBYBw8vfdGHihhqx41dpR2zX3</t>
   </si>
   <si>
-    <t xml:space="preserve">0x5cfe7a64a6c9de565c317a86b1ffa20139e57a4f</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVga66MkunUKJTqeCUA3oJhewoKPUEm63VDe7FzV36Fpn</t>
   </si>
   <si>
-    <t xml:space="preserve">0x01e0508f7c236debea96c3df3b22b967a7e6570a</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmQNEe7AbemU7pydrToLcacaQohdxn9x5kZfhqMuqMQK2H</t>
   </si>
   <si>
-    <t xml:space="preserve">0x2c60a8ffce45c52cbee0d88f2cd42af841cbca13</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVZPnzWUHNCnJ4ksgNACLLMwE4vjnxDUwLyuDv83WWExM</t>
   </si>
   <si>
-    <t xml:space="preserve">0xefac8d081c360299f92bd2fe00150b20a83885ed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmcWbkdhZu8F4cEEEFgkfgwF88Sf8VpHYUtBbb7Q2gzkLQ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x562e0b08023ab992b4355a4391c087963b599919</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmbLBKRcGRT3A4fi87CxMUCJt6v3usCEvtNgdK1XKYDKfK</t>
   </si>
   <si>
-    <t xml:space="preserve">0x20e791b1351964ff66ba4e8b68139315d4ad0853</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmYXEHfqoUYB8BX6imBME7UJitEzUnDZoQh1JPdwGBoSvR</t>
   </si>
   <si>
-    <t xml:space="preserve">0xa749241ac9ce2c97d099059757e01cf3b389e56f</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmVptgcGTQyh1Bfr3BAqxSXAugqfMkZyyJXo9qBc48grjN</t>
   </si>
   <si>
-    <t xml:space="preserve">0x495ded2ceec8f7520bd9e01085c2a833ed9279f5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmduMderYbfBAksgBYMD2eTdFyVDB1GPxBSzh8k422sUk7</t>
   </si>
   <si>
-    <t xml:space="preserve">0x3129aae0c2cc261707cd9fae1dfcca0c2e0ab6ae</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmRajpPvV3m3vWLhu22mq7xMUa4dxCz5N2uL92fX5mqJDA</t>
   </si>
   <si>
-    <t xml:space="preserve">0xe92e56cd8e6c4c9a2c9def572fb96b532a8940d6</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmNSYETPprWekrDnb3DHcAYVubiXHBcP7Ua7tM6TYTZBeE</t>
   </si>
   <si>
-    <t xml:space="preserve">0x96c088133f97f43fe38c175407c7cc91337ce0a9</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmW3V4YBsdbQhEhLDw3JAcUNpAzDfqgNjmigUnuG6FBNT3</t>
   </si>
   <si>
-    <t xml:space="preserve">0xe5694c0ab756003ab963518f15dcba23f75a6143</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmdLbLwaBkBrd6tJCUar7dRvsW5sVvonvj32oEvwmqwsyJ</t>
   </si>
   <si>
-    <t xml:space="preserve">0x9eb9ef68b1de521a9cc9d8e52b86dc813defc00d</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmW1jxZaVza3SrGnvFNTP8Aj6iEVCNtWC5UJWtJmtn629w</t>
   </si>
   <si>
-    <t xml:space="preserve">0xcf8972bd2750b2c41063c7b2daa69a50bb20ffab</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmRFJNpjyVoN5DW1BiwyPU2rv9zoRZHfobXYs7WYbKdQNo</t>
   </si>
   <si>
-    <t xml:space="preserve">0x8327fea3c808a241fe2c0d66e2d1e88349522642</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmNj1suSki6ycHTVxWMbeh4cskJJChj6FUwknH98NLNuVh</t>
   </si>
   <si>
-    <t xml:space="preserve">0x6237f75e494e6bfd4b6cb0a9ec37cf2b78411057</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmTEWCxYMYtxPDjyGXpdpiYF1B5P4KUFTMZBezh15vzPUV</t>
   </si>
   <si>
-    <t xml:space="preserve">0x49ff1674310531dd42f0a0f654a49094ea018c6e</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmWF5GD133FNUB3gtVaedZnat5TAZ9XqGn8op2rio41NJA</t>
   </si>
   <si>
-    <t xml:space="preserve">0xf41f968f6decd082d1c2f6e3b2bbf2911390503e</t>
-  </si>
-  <si>
     <t xml:space="preserve">ipfs://QmXxsLhUK11d4uhVyT5CPtJoMPqPc5Ddc7oXHxR3qJnaQZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x6aee777232ea5a6e32aaef980214e43481777f7c</t>
   </si>
   <si>
     <t xml:space="preserve">ipfs://QmWcm7Tyxjh8i33dhjXDacoTxnSnmEKoALxi7dq4xkhrcB</t>
@@ -2201,12 +1622,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2264,16 +1691,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2285,11 +1712,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2301,15 +1736,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2374,7 +1805,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -2396,11 +1827,11 @@
   </sheetPr>
   <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.43"/>
@@ -2431,2885 +1862,2506 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="8" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="D9" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="D11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="8" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="H20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="G21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="H22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="8" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="H23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="G24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="8" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="G25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="H25" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="8" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="11" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="8" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="C31" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="8" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="8" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="11" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="C35" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="8" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="8" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="11" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="8" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="H32" s="8" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="11" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="C42" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="8" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="2" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="D45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="11" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="8" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C47" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="H38" s="2" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="11" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="8" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C51" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C52" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="2" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="8" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="11" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="H45" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="8" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C59" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+    <row r="60" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="H47" s="2" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="H61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="11" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="H48" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="H62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="8" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+    <row r="64" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C64" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="H64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="H65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="11" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+      <c r="H66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="8" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+    <row r="68" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="C68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="H68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="2" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="H69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C54" s="11" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
+      <c r="H70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="8" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+    <row r="72" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="C72" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="H72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="2" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="H73" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C57" s="11" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
+      <c r="H74" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B58" s="8" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+    <row r="76" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="H76" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="2" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="C77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="H77" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="11" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="H78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="8" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C79" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+    <row r="80" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C80" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="H80" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H62" s="2" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="H81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="11" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="H82" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B64" s="8" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C83" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+    <row r="84" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="C84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="H84" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H65" s="2" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="C85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="H85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C66" s="11" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="H86" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="8" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C87" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+    <row r="88" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13"/>
+      <c r="B88" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="H88" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H68" s="2" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="C89" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="H89" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="11" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="H90" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B70" s="8" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C91" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+    <row r="92" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="C92" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="H92" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="2" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="C93" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="H93" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="11" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="H94" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B73" s="8" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C95" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+    <row r="96" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="C96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="H96" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H74" s="2" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="C97" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="H97" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="11" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9"/>
+      <c r="B98" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="H98" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="8" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9"/>
+      <c r="B99" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C99" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+    <row r="100" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C100" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="H100" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H77" s="2" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9"/>
+      <c r="B101" s="10" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="H101" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C78" s="11" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="H102" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="8" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9"/>
+      <c r="B103" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C103" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+    <row r="104" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="C104" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="H104" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H80" s="2" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="C105" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="H105" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C81" s="11" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="H106" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B82" s="8" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C107" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+    <row r="108" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="C108" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="H108" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H83" s="2" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9"/>
+      <c r="B109" s="10" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
+      <c r="C109" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="H109" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="11" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9"/>
+      <c r="B110" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+      <c r="H110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B85" s="8" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9"/>
+      <c r="B111" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C111" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+    <row r="112" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9"/>
+      <c r="B112" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="C112" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="H112" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H86" s="2" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9"/>
+      <c r="B113" s="10" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="C113" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="H113" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="11" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9"/>
+      <c r="B114" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+      <c r="H114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B88" s="8" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C115" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+    <row r="116" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9"/>
+      <c r="B116" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C116" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="H116" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H89" s="2" t="s">
+    </row>
+    <row r="117" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="C117" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="H117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C90" s="11" t="s">
+    </row>
+    <row r="118" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="H118" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="8" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C119" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+    <row r="120" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="C120" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="H120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H92" s="2" t="s">
+    </row>
+    <row r="121" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9"/>
+      <c r="B121" s="10" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="C121" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="H121" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C93" s="11" t="s">
+    </row>
+    <row r="122" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9"/>
+      <c r="B122" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
+      <c r="H122" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B94" s="8" t="s">
+    </row>
+    <row r="123" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C123" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
+    <row r="124" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="13"/>
+      <c r="B124" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="C124" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="H124" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H95" s="2" t="s">
+    </row>
+    <row r="125" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9"/>
+      <c r="B125" s="10" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
+      <c r="C125" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="H125" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C96" s="11" t="s">
+    </row>
+    <row r="126" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9"/>
+      <c r="B126" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
+      <c r="H126" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="8" t="s">
+    </row>
+    <row r="127" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9"/>
+      <c r="B127" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C127" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
+    <row r="128" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9"/>
+      <c r="B128" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="C128" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="H128" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H98" s="2" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="C129" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="H129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C99" s="11" t="s">
+    </row>
+    <row r="130" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9"/>
+      <c r="B130" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="H130" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B100" s="8" t="s">
+    </row>
+    <row r="131" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C131" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+    <row r="132" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9"/>
+      <c r="B132" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="C132" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="H132" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H101" s="2" t="s">
+    </row>
+    <row r="133" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="13"/>
+      <c r="B133" s="10" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="C133" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="H133" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C102" s="11" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9"/>
+      <c r="B134" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="H134" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="8" t="s">
+    </row>
+    <row r="135" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9"/>
+      <c r="B135" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C135" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+    <row r="136" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="13"/>
+      <c r="B136" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="C136" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="H136" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H104" s="2" t="s">
+    </row>
+    <row r="137" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9"/>
+      <c r="B137" s="10" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="C137" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="H137" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C105" s="11" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13"/>
+      <c r="B138" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="H138" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B106" s="8" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9"/>
+      <c r="B139" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C139" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+    <row r="140" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="13"/>
+      <c r="B140" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="C140" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="H140" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H107" s="2" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="13"/>
+      <c r="B141" s="10" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="C141" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="H141" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C108" s="11" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9"/>
+      <c r="B142" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="H142" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B109" s="8" t="s">
+    </row>
+    <row r="143" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9"/>
+      <c r="C143" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="H143" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H109" s="2" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9"/>
+      <c r="C144" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="H144" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B110" s="8" t="s">
+    </row>
+    <row r="145" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="13"/>
+      <c r="C145" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="H145" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H110" s="2" t="s">
+    </row>
+    <row r="146" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="13"/>
+      <c r="C146" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="H146" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B111" s="8" t="s">
+    </row>
+    <row r="147" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9"/>
+      <c r="C147" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="H147" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H111" s="2" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9"/>
+      <c r="C148" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="H148" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B112" s="8" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="13"/>
+      <c r="C149" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="H149" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H112" s="2" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="H150" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
+    <row r="151" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="H151" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B113" s="8" t="s">
+    </row>
+    <row r="152" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="13"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="H152" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C113" s="11" t="s">
+    </row>
+    <row r="153" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="13"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="H153" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H113" s="2" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="H154" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
+    <row r="155" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="13"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="H155" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B114" s="8" t="s">
+    </row>
+    <row r="156" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="H156" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C114" s="11" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="H157" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H114" s="2" t="s">
+    </row>
+    <row r="158" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="13"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="H158" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
+    <row r="159" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="13"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="H159" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B115" s="8" t="s">
+    </row>
+    <row r="160" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="H160" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C115" s="11" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="13"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="H161" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H115" s="2" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="H162" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+    <row r="163" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="13"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="H163" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B116" s="8" t="s">
+    </row>
+    <row r="164" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="H164" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C116" s="11" t="s">
+    </row>
+    <row r="165" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="13"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="H165" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H116" s="2" t="s">
+    </row>
+    <row r="166" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="H166" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+    <row r="167" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="H167" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B117" s="8" t="s">
+    </row>
+    <row r="168" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="H168" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C117" s="11" t="s">
+    </row>
+    <row r="169" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="H169" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H117" s="2" t="s">
+    </row>
+    <row r="170" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="H170" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
+    <row r="171" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="13"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="H171" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="8" t="s">
+    </row>
+    <row r="172" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="H172" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C118" s="11" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="13"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="H173" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H118" s="2" t="s">
+    </row>
+    <row r="174" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="H174" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
+    <row r="175" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="13"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="H175" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B119" s="8" t="s">
+    </row>
+    <row r="176" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="H176" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C119" s="11" t="s">
+    </row>
+    <row r="177" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="13"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="H177" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H119" s="2" t="s">
+    </row>
+    <row r="178" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="H178" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
+    <row r="179" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="9"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="H179" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B120" s="8" t="s">
+    </row>
+    <row r="180" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="H180" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C120" s="11" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="9"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="H181" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H120" s="2" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="13"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="H182" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
+    <row r="183" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="H183" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B121" s="8" t="s">
+    </row>
+    <row r="184" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="H184" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C121" s="11" t="s">
+    </row>
+    <row r="185" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="9"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="H185" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H121" s="2" t="s">
+    </row>
+    <row r="186" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="13"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="H186" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
+    <row r="187" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="9"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="H187" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B122" s="8" t="s">
+    </row>
+    <row r="188" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="H188" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C122" s="11" t="s">
+    </row>
+    <row r="189" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="9"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="H189" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H122" s="2" t="s">
+    </row>
+    <row r="190" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="H190" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+    <row r="191" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="13"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="H191" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B123" s="8" t="s">
+    </row>
+    <row r="192" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="H192" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C123" s="11" t="s">
+    </row>
+    <row r="193" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="9"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="H193" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H123" s="2" t="s">
+    </row>
+    <row r="194" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="13"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="H194" s="2" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
+    <row r="195" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="9"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="H195" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B124" s="8" t="s">
+    </row>
+    <row r="196" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="H196" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C124" s="11" t="s">
+    </row>
+    <row r="197" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="H197" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="H124" s="2" t="s">
+    </row>
+    <row r="198" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="H198" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+    <row r="199" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="9"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="H199" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B125" s="8" t="s">
+    </row>
+    <row r="200" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="H200" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="C127" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="C132" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C136" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="C139" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="C140" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="C141" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C144" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="C145" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="C146" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="C147" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="C148" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="C149" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="H150" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="H151" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="12" t="s">
-        <v>592</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="H152" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="H153" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="H154" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="H155" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="H156" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
-      <c r="H157" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
-      <c r="H158" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="H159" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="H160" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="H161" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="H162" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="H163" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
-      <c r="H164" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
-      <c r="H165" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="H166" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="H167" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="H168" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="H169" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="H170" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
-      <c r="H171" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
-      <c r="H172" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9"/>
-      <c r="H173" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9"/>
-      <c r="H174" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9"/>
-      <c r="H175" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9"/>
-      <c r="H176" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-      <c r="E177" s="9"/>
-      <c r="H177" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9"/>
-      <c r="H178" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="E179" s="9"/>
-      <c r="H179" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9"/>
-      <c r="H180" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9"/>
-      <c r="H181" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9"/>
-      <c r="H182" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9"/>
-      <c r="H183" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="E184" s="9"/>
-      <c r="H184" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
-      <c r="H185" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
-      <c r="H186" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
-      <c r="H187" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
-      <c r="H188" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="E189" s="9"/>
-      <c r="H189" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="E190" s="9"/>
-      <c r="H190" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="E191" s="9"/>
-      <c r="H191" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
-      <c r="E192" s="9"/>
-      <c r="H192" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9"/>
-      <c r="H193" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
-      <c r="H194" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9"/>
-      <c r="H195" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="9"/>
-      <c r="H196" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9"/>
-      <c r="H197" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="9"/>
-      <c r="H198" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9"/>
-      <c r="H199" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
-      <c r="H200" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
